--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="全体 positive" sheetId="8" r:id="rId6"/>
     <sheet name="UX相関" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="エピソード" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="555">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -2624,6 +2624,183 @@
     <rPh sb="0" eb="3">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ゴs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード一致率</t>
+    <rPh sb="5" eb="8">
+      <t>イッt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXカーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXPLOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募に当たりますように！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募完了。当たることを願う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭脳ゲームが面白かった</t>
+    <rPh sb="0" eb="2">
+      <t>ズn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オモシr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレインゲームが難しいけど楽しかった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄行きたい。沖縄そばを食べたくなった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄に行きたくなった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>占いが若干当たっているんじゃないかと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>占いがあたってる気がした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読んで貯めるが見つからない</t>
+  </si>
+  <si>
+    <t>読んで貯めるが見つからない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事読むやつ探すのにてこづってイライラした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくつかゲームをやったがあまり面白いものがなく、次第に飽きた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事読むやつ探すのにてこづってイライラした</t>
+    <rPh sb="0" eb="6">
+      <t>キz</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>サガs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嬉しい</t>
+    <rPh sb="0" eb="2">
+      <t>ウr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム一発でクリアできてテンション上がった</t>
+    <rPh sb="3" eb="6">
+      <t>イッパt</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>アガッt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SliderInputTime</t>
+  </si>
+  <si>
+    <t>VoiceInputTime</t>
+  </si>
+  <si>
+    <t>感情</t>
+  </si>
+  <si>
+    <t>理由</t>
+  </si>
+  <si>
+    <t>少し機嫌が戻りました。見つけました</t>
+  </si>
+  <si>
+    <t>興味ある記事を発見した</t>
+  </si>
+  <si>
+    <t>タウンルーレット当てた</t>
+  </si>
+  <si>
+    <t>アニマルスライド一発でクリアした</t>
+  </si>
+  <si>
+    <t>Time[min]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXPLOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXCURVE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2962,7 +3139,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="877">
+  <cellStyleXfs count="909">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3840,8 +4017,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3982,21 +4191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4012,6 +4211,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4024,46 +4229,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4081,6 +4268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4088,6 +4278,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4108,11 +4328,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4132,12 +4352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4153,16 +4367,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="877">
+  <cellStyles count="909">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4601,6 +4813,22 @@
     <cellStyle name="ハイパーリンク" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="873" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="907" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5040,6 +5268,22 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="874" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="908" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5234,11 +5478,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127811288"/>
-        <c:axId val="2127814264"/>
+        <c:axId val="-2126450328"/>
+        <c:axId val="-2124930888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127811288"/>
+        <c:axId val="-2126450328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127814264"/>
+        <c:crossAx val="-2124930888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5255,7 +5499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127814264"/>
+        <c:axId val="-2124930888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,7 +5509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127811288"/>
+        <c:crossAx val="-2126450328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5311,7 +5555,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[6]UX比較!$G$2</c:f>
+              <c:f>[5]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5329,7 +5573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[6]UX比較!$F$3:$F$43</c:f>
+              <c:f>[5]UX比較!$F$3:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5461,7 +5705,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[6]UX比較!$G$3:$G$43</c:f>
+              <c:f>[5]UX比較!$G$3:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5598,7 +5842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[6]UX比較!$H$2</c:f>
+              <c:f>[5]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5616,7 +5860,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[6]UX比較!$F$3:$F$43</c:f>
+              <c:f>[5]UX比較!$F$3:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5748,7 +5992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[6]UX比較!$H$3:$H$43</c:f>
+              <c:f>[5]UX比較!$H$3:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -5888,11 +6132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119370312"/>
-        <c:axId val="2120119816"/>
+        <c:axId val="2106632248"/>
+        <c:axId val="-2140222376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119370312"/>
+        <c:axId val="2106632248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,12 +6166,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120119816"/>
+        <c:crossAx val="-2140222376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120119816"/>
+        <c:axId val="-2140222376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -5958,7 +6202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119370312"/>
+        <c:crossAx val="2106632248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6005,7 +6249,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[7]UX比較!$H$3</c:f>
+              <c:f>[6]UX比較!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6023,7 +6267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[7]UX比較!$G$4:$G$18</c:f>
+              <c:f>[6]UX比較!$G$4:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6077,7 +6321,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[7]UX比較!$H$4:$H$18</c:f>
+              <c:f>[6]UX比較!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6136,7 +6380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[7]UX比較!$I$3</c:f>
+              <c:f>[6]UX比較!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6154,7 +6398,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[7]UX比較!$G$4:$G$18</c:f>
+              <c:f>[6]UX比較!$G$4:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6208,7 +6452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[7]UX比較!$I$4:$I$18</c:f>
+              <c:f>[6]UX比較!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6270,11 +6514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129735432"/>
-        <c:axId val="-2140787032"/>
+        <c:axId val="2106706392"/>
+        <c:axId val="2126019144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129735432"/>
+        <c:axId val="2106706392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6304,12 +6548,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140787032"/>
+        <c:crossAx val="2126019144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140787032"/>
+        <c:axId val="2126019144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -6340,7 +6584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129735432"/>
+        <c:crossAx val="2106706392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6387,7 +6631,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[8]UX比較!$G$2</c:f>
+              <c:f>[7]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6405,7 +6649,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[8]UX比較!$F$3:$F$19</c:f>
+              <c:f>[7]UX比較!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6465,7 +6709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[8]UX比較!$G$3:$G$19</c:f>
+              <c:f>[7]UX比較!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6530,7 +6774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[8]UX比較!$H$2</c:f>
+              <c:f>[7]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6548,7 +6792,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[8]UX比較!$F$3:$F$19</c:f>
+              <c:f>[7]UX比較!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6608,7 +6852,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[8]UX比較!$H$3:$H$19</c:f>
+              <c:f>[7]UX比較!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6676,11 +6920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107805528"/>
-        <c:axId val="-2146163864"/>
+        <c:axId val="-2140925000"/>
+        <c:axId val="-2126415832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107805528"/>
+        <c:axId val="-2140925000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6710,12 +6954,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146163864"/>
+        <c:crossAx val="-2126415832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146163864"/>
+        <c:axId val="-2126415832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -6746,7 +6990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107805528"/>
+        <c:crossAx val="-2140925000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6793,7 +7037,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[10]UX比較!$G$2</c:f>
+              <c:f>[8]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6811,7 +7055,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[10]UX比較!$F$3:$F$19</c:f>
+              <c:f>[8]UX比較!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6871,7 +7115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[10]UX比較!$G$3:$G$19</c:f>
+              <c:f>[8]UX比較!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6936,7 +7180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[10]UX比較!$H$2</c:f>
+              <c:f>[8]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6954,7 +7198,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[10]UX比較!$F$3:$F$19</c:f>
+              <c:f>[8]UX比較!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7014,7 +7258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[10]UX比較!$H$3:$H$19</c:f>
+              <c:f>[8]UX比較!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7082,11 +7326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142467736"/>
-        <c:axId val="-2141166216"/>
+        <c:axId val="2107946552"/>
+        <c:axId val="-2126023272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142467736"/>
+        <c:axId val="2107946552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7116,12 +7360,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141166216"/>
+        <c:crossAx val="-2126023272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141166216"/>
+        <c:axId val="-2126023272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7152,7 +7396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142467736"/>
+        <c:crossAx val="2107946552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7199,7 +7443,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[11]UX比較!$G$2</c:f>
+              <c:f>[9]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7217,7 +7461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[11]UX比較!$F$3:$F$39</c:f>
+              <c:f>[9]UX比較!$F$3:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -7337,7 +7581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[11]UX比較!$G$3:$G$39</c:f>
+              <c:f>[9]UX比較!$G$3:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -7462,7 +7706,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[11]UX比較!$H$2</c:f>
+              <c:f>[9]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7480,7 +7724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[11]UX比較!$F$3:$F$39</c:f>
+              <c:f>[9]UX比較!$F$3:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -7600,7 +7844,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[11]UX比較!$H$3:$H$39</c:f>
+              <c:f>[9]UX比較!$H$3:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -7728,11 +7972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147201384"/>
-        <c:axId val="-2141510408"/>
+        <c:axId val="-2125570280"/>
+        <c:axId val="2107825400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147201384"/>
+        <c:axId val="-2125570280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7762,12 +8006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141510408"/>
+        <c:crossAx val="2107825400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141510408"/>
+        <c:axId val="2107825400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7798,7 +8042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147201384"/>
+        <c:crossAx val="-2125570280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7850,7 +8094,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[12]UX比較!$G$2</c:f>
+              <c:f>[10]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7868,7 +8112,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[12]UX比較!$F$3:$F$28</c:f>
+              <c:f>[10]UX比較!$F$3:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -7955,7 +8199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[12]UX比較!$G$3:$G$28</c:f>
+              <c:f>[10]UX比較!$G$3:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -8047,7 +8291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[12]UX比較!$H$2</c:f>
+              <c:f>[10]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8065,7 +8309,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[12]UX比較!$F$3:$F$28</c:f>
+              <c:f>[10]UX比較!$F$3:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -8152,7 +8396,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[12]UX比較!$H$3:$H$28</c:f>
+              <c:f>[10]UX比較!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -8247,11 +8491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143639912"/>
-        <c:axId val="-2144606424"/>
+        <c:axId val="-2140579832"/>
+        <c:axId val="-2125634072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143639912"/>
+        <c:axId val="-2140579832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8281,12 +8525,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144606424"/>
+        <c:crossAx val="-2125634072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144606424"/>
+        <c:axId val="-2125634072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8317,7 +8561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143639912"/>
+        <c:crossAx val="-2140579832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8369,7 +8613,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[13]UX比較!$G$2</c:f>
+              <c:f>[11]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8387,7 +8631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[13]UX比較!$F$3:$F$30</c:f>
+              <c:f>[11]UX比較!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -8480,7 +8724,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[13]UX比較!$G$3:$G$30</c:f>
+              <c:f>[11]UX比較!$G$3:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -8578,7 +8822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[13]UX比較!$H$2</c:f>
+              <c:f>[11]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8596,7 +8840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[13]UX比較!$F$3:$F$30</c:f>
+              <c:f>[11]UX比較!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -8689,7 +8933,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[13]UX比較!$H$3:$H$30</c:f>
+              <c:f>[11]UX比較!$H$3:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -8790,11 +9034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128166008"/>
-        <c:axId val="-2142010392"/>
+        <c:axId val="-2125277352"/>
+        <c:axId val="2125797080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128166008"/>
+        <c:axId val="-2125277352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8824,12 +9068,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142010392"/>
+        <c:crossAx val="2125797080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142010392"/>
+        <c:axId val="2125797080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8860,7 +9104,527 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128166008"/>
+        <c:crossAx val="-2125277352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>エピソード一致率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$S$20:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0392837100659192</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0804547181770887</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.125519151840817</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$S$20:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0392837100659192</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0804547181770887</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.125519151840817</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$20:$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Middle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$20:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.861111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.487152778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.263680934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2062433272"/>
+        <c:axId val="-2123638024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2062433272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123638024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2123638024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>エピソード一致率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2062433272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[12]UX比較!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXPLOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[12]UX比較!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[12]UX比較!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-50.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[12]UX比較!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXCURVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[12]UX比較!$C$34:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[12]UX比較!$D$34:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2122363960"/>
+        <c:axId val="-2104488680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2122363960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>TIME [min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2104488680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2104488680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122363960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8965,11 +9729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127704936"/>
-        <c:axId val="2127707880"/>
+        <c:axId val="-2126221560"/>
+        <c:axId val="-2140418216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127704936"/>
+        <c:axId val="-2126221560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +9742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127707880"/>
+        <c:crossAx val="-2140418216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8986,7 +9750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127707880"/>
+        <c:axId val="-2140418216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8997,7 +9761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127704936"/>
+        <c:crossAx val="-2126221560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9201,11 +9965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127765832"/>
-        <c:axId val="2127768808"/>
+        <c:axId val="2119653416"/>
+        <c:axId val="2119948248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127765832"/>
+        <c:axId val="2119653416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9214,7 +9978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127768808"/>
+        <c:crossAx val="2119948248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9222,7 +9986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127768808"/>
+        <c:axId val="2119948248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9232,7 +9996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127765832"/>
+        <c:crossAx val="2119653416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9436,11 +10200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127718200"/>
-        <c:axId val="2127721176"/>
+        <c:axId val="2126180376"/>
+        <c:axId val="-2141162680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127718200"/>
+        <c:axId val="2126180376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9449,7 +10213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127721176"/>
+        <c:crossAx val="-2141162680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9457,7 +10221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127721176"/>
+        <c:axId val="-2141162680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9467,7 +10231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127718200"/>
+        <c:crossAx val="2126180376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9581,11 +10345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129181992"/>
-        <c:axId val="2109151480"/>
+        <c:axId val="-2128372648"/>
+        <c:axId val="2129582328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129181992"/>
+        <c:axId val="-2128372648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9594,7 +10358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109151480"/>
+        <c:crossAx val="2129582328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9602,7 +10366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109151480"/>
+        <c:axId val="2129582328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9612,7 +10376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129181992"/>
+        <c:crossAx val="-2128372648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9717,11 +10481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105679592"/>
-        <c:axId val="2125256568"/>
+        <c:axId val="-2141307640"/>
+        <c:axId val="-2127902392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105679592"/>
+        <c:axId val="-2141307640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9730,7 +10494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125256568"/>
+        <c:crossAx val="-2127902392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9738,7 +10502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125256568"/>
+        <c:axId val="-2127902392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9748,7 +10512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105679592"/>
+        <c:crossAx val="-2141307640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9794,7 +10558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]UX比較!$G$3</c:f>
+              <c:f>[1]UX比較!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9812,7 +10576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]UX比較!$F$4:$F$47</c:f>
+              <c:f>[1]UX比較!$F$4:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -9953,7 +10717,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]UX比較!$G$4:$G$47</c:f>
+              <c:f>[1]UX比較!$G$4:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -10099,7 +10863,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]直線補完!$I$1</c:f>
+              <c:f>[2]直線補完!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10117,7 +10881,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]UX比較!$F$4:$F$47</c:f>
+              <c:f>[1]UX比較!$F$4:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -10258,7 +11022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]UX比較!$H$4:$H$47</c:f>
+              <c:f>[1]UX比較!$H$4:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -10407,11 +11171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144517224"/>
-        <c:axId val="-2144511656"/>
+        <c:axId val="-2124963016"/>
+        <c:axId val="-2141027208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144517224"/>
+        <c:axId val="-2124963016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,12 +11205,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144511656"/>
+        <c:crossAx val="-2141027208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144511656"/>
+        <c:axId val="-2141027208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10477,7 +11241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144517224"/>
+        <c:crossAx val="-2124963016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10524,7 +11288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]UX比較!$G$2</c:f>
+              <c:f>[3]UX比較!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10542,7 +11306,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]UX比較!$F$3:$F$24</c:f>
+              <c:f>[3]UX比較!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -10617,7 +11381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]UX比較!$G$3:$G$24</c:f>
+              <c:f>[3]UX比較!$G$3:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -10697,7 +11461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[4]UX比較!$H$2</c:f>
+              <c:f>[3]UX比較!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10715,7 +11479,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]UX比較!$F$3:$F$24</c:f>
+              <c:f>[3]UX比較!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -10790,7 +11554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]UX比較!$H$3:$H$24</c:f>
+              <c:f>[3]UX比較!$H$3:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -10873,11 +11637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127636136"/>
-        <c:axId val="2125544744"/>
+        <c:axId val="2126467672"/>
+        <c:axId val="-2140967288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127636136"/>
+        <c:axId val="2126467672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10907,12 +11671,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125544744"/>
+        <c:crossAx val="-2140967288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125544744"/>
+        <c:axId val="-2140967288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10943,7 +11707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127636136"/>
+        <c:crossAx val="2126467672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10995,7 +11759,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[5]UX比較!$G$3</c:f>
+              <c:f>[4]UX比較!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11013,7 +11777,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[5]UX比較!$F$4:$F$19</c:f>
+              <c:f>[4]UX比較!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11070,7 +11834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]UX比較!$G$4:$G$19</c:f>
+              <c:f>[4]UX比較!$G$4:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11132,7 +11896,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[5]UX比較!$H$3</c:f>
+              <c:f>[4]UX比較!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11150,7 +11914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[5]UX比較!$F$4:$F$19</c:f>
+              <c:f>[4]UX比較!$F$4:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11207,7 +11971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]UX比較!$H$4:$H$19</c:f>
+              <c:f>[4]UX比較!$H$4:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11272,11 +12036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128378424"/>
-        <c:axId val="2130016952"/>
+        <c:axId val="2110685528"/>
+        <c:axId val="-2125060920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128378424"/>
+        <c:axId val="2110685528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11306,12 +12070,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130016952"/>
+        <c:crossAx val="-2125060920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130016952"/>
+        <c:axId val="-2125060920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11342,7 +12106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128378424"/>
+        <c:crossAx val="2110685528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11607,14 +12371,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11891,6 +12655,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="グラフ 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11898,20 +12729,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="UXCURVE"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20161101-小金良輔-小金サントリー.csv"/>
+      <sheetName val="20161101-ふじい-藤井サントリー.csv"/>
       <sheetName val="UXCURVE"/>
       <sheetName val="ユーザビリティ"/>
       <sheetName val="主観評価"/>
@@ -11925,199 +12743,493 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
-        <row r="2">
-          <cell r="G2" t="str">
+        <row r="3">
+          <cell r="G3" t="str">
             <v>UXPLOT</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>UXCURVE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>-34.799999999999997</v>
-          </cell>
-          <cell r="H3">
-            <v>-30</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G4">
-            <v>-42.555785848378591</v>
+            <v>3.5527136788005009E-15</v>
           </cell>
           <cell r="H4">
-            <v>-50</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>2.38</v>
+            <v>0.63</v>
           </cell>
           <cell r="G5">
-            <v>-53.66</v>
+            <v>-79.86</v>
           </cell>
           <cell r="H5">
-            <v>-28.667806666666671</v>
+            <v>-31.9510566796875</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="G6">
-            <v>-43.038929314517098</v>
+            <v>-17.54</v>
           </cell>
           <cell r="H6">
-            <v>-20</v>
+            <v>-37.8125</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>4</v>
+            <v>2.87</v>
           </cell>
           <cell r="G7">
-            <v>-24.47441160373705</v>
+            <v>-39.72</v>
           </cell>
           <cell r="H7">
-            <v>-40</v>
+            <v>-42.613167929687506</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>6</v>
+            <v>3.22</v>
           </cell>
           <cell r="G8">
-            <v>11.091491065874358</v>
+            <v>-100</v>
           </cell>
           <cell r="H8">
-            <v>40</v>
+            <v>-44.766366562500004</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>7.53</v>
+            <v>4</v>
           </cell>
           <cell r="G9">
-            <v>29.149999999999995</v>
+            <v>-81.034904713642717</v>
           </cell>
           <cell r="H9">
-            <v>-28.595668312500017</v>
+            <v>-50</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>8</v>
+            <v>4.0199999999999996</v>
           </cell>
           <cell r="G10">
-            <v>13.237582510444078</v>
+            <v>-80.069999999999993</v>
           </cell>
           <cell r="H10">
-            <v>-50</v>
+            <v>-50.319629270833325</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>9.6199999999999992</v>
+            <v>5.3</v>
           </cell>
           <cell r="G11">
-            <v>-36.969999999999992</v>
+            <v>-43.1</v>
           </cell>
           <cell r="H11">
-            <v>-18.997052000000025</v>
+            <v>-70.821835937499998</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>11</v>
+            <v>7.3</v>
           </cell>
           <cell r="G12">
-            <v>20.59585655944689</v>
+            <v>-51.54999999999999</v>
           </cell>
           <cell r="H12">
-            <v>20</v>
+            <v>-95.802825520833338</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>11.75</v>
+            <v>7.97</v>
           </cell>
           <cell r="G13">
-            <v>41.83</v>
+            <v>-85.35</v>
           </cell>
           <cell r="H13">
-            <v>35.265066964285715</v>
+            <v>-99.886404856770824</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>12.75</v>
+            <v>8</v>
           </cell>
           <cell r="G14">
-            <v>-34.650000000000013</v>
+            <v>-86.08224508776064</v>
           </cell>
           <cell r="H14">
-            <v>53.382764274691354</v>
+            <v>-100</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>14</v>
+            <v>9.6</v>
           </cell>
           <cell r="G15">
-            <v>-10.074395411726364</v>
+            <v>-86.41</v>
           </cell>
           <cell r="H15">
-            <v>70</v>
+            <v>-52.39466666666668</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>15.93</v>
+            <v>10</v>
           </cell>
           <cell r="G16">
-            <v>58.730000000000004</v>
+            <v>-40.186613644996498</v>
           </cell>
           <cell r="H16">
-            <v>18.309862309523815</v>
+            <v>-40</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>18</v>
+            <v>10.63</v>
           </cell>
           <cell r="G17">
-            <v>8.7523412175806925</v>
+            <v>37.18</v>
           </cell>
           <cell r="H17">
-            <v>-40</v>
+            <v>-28.144873499999985</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>20.43</v>
+            <v>10.85</v>
           </cell>
           <cell r="G18">
-            <v>-70.139999999999873</v>
+            <v>57.46</v>
           </cell>
           <cell r="H18">
-            <v>-3.8995095605163108</v>
+            <v>-24.221861882716055</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>23</v>
+            <v>12.3</v>
           </cell>
           <cell r="G19">
-            <v>-88.402350659264258</v>
+            <v>24.719999999999995</v>
           </cell>
           <cell r="H19">
-            <v>49.999999999999943</v>
+            <v>-0.52078395061727178</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>12.72</v>
+          </cell>
+          <cell r="G20">
+            <v>-13.52</v>
+          </cell>
+          <cell r="H20">
+            <v>5.8378698271605032</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>13</v>
+          </cell>
+          <cell r="G21">
+            <v>-35.46808213395434</v>
+          </cell>
+          <cell r="H21">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>13.03</v>
+          </cell>
+          <cell r="G22">
+            <v>-37.61</v>
+          </cell>
+          <cell r="H22">
+            <v>10.47141199999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>13.4</v>
+          </cell>
+          <cell r="G23">
+            <v>-51.13000000000001</v>
+          </cell>
+          <cell r="H23">
+            <v>16.233382716049388</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>13.95</v>
+          </cell>
+          <cell r="G24">
+            <v>-83.45</v>
+          </cell>
+          <cell r="H24">
+            <v>24.537228395061717</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>15.22</v>
+          </cell>
+          <cell r="G25">
+            <v>-100</v>
+          </cell>
+          <cell r="H25">
+            <v>41.643288000000013</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>16</v>
+          </cell>
+          <cell r="G26">
+            <v>-84.185298273577942</v>
+          </cell>
+          <cell r="H26">
+            <v>49.999999999999993</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>17.37</v>
+          </cell>
+          <cell r="G27">
+            <v>-45.85</v>
+          </cell>
+          <cell r="H27">
+            <v>32.533549191666644</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>18.47</v>
+          </cell>
+          <cell r="G28">
+            <v>-9.7200000000000006</v>
+          </cell>
+          <cell r="H28">
+            <v>15.064235608333355</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>19.3</v>
+          </cell>
+          <cell r="G29">
+            <v>23.66</v>
+          </cell>
+          <cell r="H29">
+            <v>0.62989166666665497</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30">
+            <v>20</v>
+          </cell>
+          <cell r="G30">
+            <v>69.72</v>
+          </cell>
+          <cell r="H30">
+            <v>-11.966666666666667</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>21</v>
+          </cell>
+          <cell r="G31">
+            <v>80.137585924594475</v>
+          </cell>
+          <cell r="H31">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>21.17</v>
+          </cell>
+          <cell r="G32">
+            <v>69.510000000000019</v>
+          </cell>
+          <cell r="H32">
+            <v>-32.092230138888908</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33">
+            <v>21.57</v>
+          </cell>
+          <cell r="G33">
+            <v>-43.52</v>
+          </cell>
+          <cell r="H33">
+            <v>-36.906191250000006</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="F34">
+            <v>22.13</v>
+          </cell>
+          <cell r="G34">
+            <v>31.060000000000002</v>
+          </cell>
+          <cell r="H34">
+            <v>-43.30451013888888</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="F35">
+            <v>22.3</v>
+          </cell>
+          <cell r="G35">
+            <v>-28.730000000000004</v>
+          </cell>
+          <cell r="H35">
+            <v>-45.148611111111123</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36">
+            <v>22.98</v>
+          </cell>
+          <cell r="G36">
+            <v>-33.17</v>
+          </cell>
+          <cell r="H36">
+            <v>-51.954240000000006</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>23.18</v>
+          </cell>
+          <cell r="G37">
+            <v>55.14</v>
+          </cell>
+          <cell r="H37">
+            <v>-53.756428888888884</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
+            <v>23.45</v>
+          </cell>
+          <cell r="G38">
+            <v>20.489999999999995</v>
+          </cell>
+          <cell r="H38">
+            <v>-56.025295138888879</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>23.98</v>
+          </cell>
+          <cell r="G39">
+            <v>-31.48</v>
+          </cell>
+          <cell r="H39">
+            <v>-59.871851111111113</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="F40">
+            <v>24</v>
+          </cell>
+          <cell r="G40">
+            <v>-33.136957147727095</v>
+          </cell>
+          <cell r="H40">
+            <v>-60</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="F41">
+            <v>25.08</v>
+          </cell>
+          <cell r="G41">
+            <v>-82.39</v>
+          </cell>
+          <cell r="H41">
+            <v>-46.643155876056369</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>25.55</v>
+          </cell>
+          <cell r="G42">
+            <v>-2.54</v>
+          </cell>
+          <cell r="H42">
+            <v>-39.866702930411407</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>26.15</v>
+          </cell>
+          <cell r="G43">
+            <v>26.62</v>
+          </cell>
+          <cell r="H43">
+            <v>-30.52512953345073</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>26.95</v>
+          </cell>
+          <cell r="G44">
+            <v>64.86</v>
+          </cell>
+          <cell r="H44">
+            <v>-17.105150919662726</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>27.4</v>
+          </cell>
+          <cell r="G45">
+            <v>-33.169999999999995</v>
+          </cell>
+          <cell r="H45">
+            <v>-9.1915089696071437</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>28.58</v>
+          </cell>
+          <cell r="G46">
+            <v>40.769999999999754</v>
+          </cell>
+          <cell r="H46">
+            <v>12.270739079466239</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>29</v>
+          </cell>
+          <cell r="G47">
+            <v>49.559084319050974</v>
+          </cell>
+          <cell r="H47">
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
@@ -12126,446 +13238,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20161025-土田-サントリー.csv"/>
-      <sheetName val="UXCURVE"/>
-      <sheetName val="webサイトユーザビリティ"/>
-      <sheetName val="主観評価"/>
-      <sheetName val="動画"/>
-      <sheetName val="UX比較"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>UXPLOT</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>UXCURVE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>39.22</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4">
-            <v>37.396399593598545</v>
-          </cell>
-          <cell r="H4">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>2</v>
-          </cell>
-          <cell r="G5">
-            <v>35.021734366440683</v>
-          </cell>
-          <cell r="H5">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>3</v>
-          </cell>
-          <cell r="G6">
-            <v>32.071756425412588</v>
-          </cell>
-          <cell r="H6">
-            <v>-30</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>6.57</v>
-          </cell>
-          <cell r="G7">
-            <v>16.479999999999997</v>
-          </cell>
-          <cell r="H7">
-            <v>-25.260705999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>7</v>
-          </cell>
-          <cell r="G8">
-            <v>14.672364370766818</v>
-          </cell>
-          <cell r="H8">
-            <v>-20</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>7.48</v>
-          </cell>
-          <cell r="G9">
-            <v>8.6600000000000019</v>
-          </cell>
-          <cell r="H9">
-            <v>-10.721066666666655</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>7.85</v>
-          </cell>
-          <cell r="G10">
-            <v>-11.829999999999998</v>
-          </cell>
-          <cell r="H10">
-            <v>-3.2937725051440392</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>10</v>
-          </cell>
-          <cell r="G11">
-            <v>-26.143466518399684</v>
-          </cell>
-          <cell r="H11">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>10.23</v>
-          </cell>
-          <cell r="G12">
-            <v>-23.87</v>
-          </cell>
-          <cell r="H12">
-            <v>40.396505080761315</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>11.3</v>
-          </cell>
-          <cell r="G13">
-            <v>12.679999999999998</v>
-          </cell>
-          <cell r="H13">
-            <v>40.581382201646093</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>12.87</v>
-          </cell>
-          <cell r="G14">
-            <v>5.07</v>
-          </cell>
-          <cell r="H14">
-            <v>36.708703340020577</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>14.37</v>
-          </cell>
-          <cell r="G15">
-            <v>31.9</v>
-          </cell>
-          <cell r="H15">
-            <v>29.689348941872431</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>16</v>
-          </cell>
-          <cell r="G16">
-            <v>19.202675298392702</v>
-          </cell>
-          <cell r="H16">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>16.170000000000002</v>
-          </cell>
-          <cell r="G17">
-            <v>17.96</v>
-          </cell>
-          <cell r="H17">
-            <v>19.075213343344146</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>17.350000000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>27.46</v>
-          </cell>
-          <cell r="H18">
-            <v>12.63844044237012</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>18.32</v>
-          </cell>
-          <cell r="G19">
-            <v>-20.28</v>
-          </cell>
-          <cell r="H19">
-            <v>7.5540295757575731</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>19.350000000000001</v>
-          </cell>
-          <cell r="G20">
-            <v>44.37</v>
-          </cell>
-          <cell r="H20">
-            <v>2.6707767518939334</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>20</v>
-          </cell>
-          <cell r="G21">
-            <v>5.0338249456127642</v>
-          </cell>
-          <cell r="H21">
-            <v>-1.7763568394002505E-15</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>20.420000000000002</v>
-          </cell>
-          <cell r="G22">
-            <v>-21.549999999999997</v>
-          </cell>
-          <cell r="H22">
-            <v>1.5595033312577908</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>21.53</v>
-          </cell>
-          <cell r="G23">
-            <v>10.77</v>
-          </cell>
-          <cell r="H23">
-            <v>6.4265183869640694</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>22.63</v>
-          </cell>
-          <cell r="G24">
-            <v>-47.540000000000006</v>
-          </cell>
-          <cell r="H24">
-            <v>12.159194084126483</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>23.48</v>
-          </cell>
-          <cell r="G25">
-            <v>42.25</v>
-          </cell>
-          <cell r="H25">
-            <v>17.084098630136989</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>24.32</v>
-          </cell>
-          <cell r="G26">
-            <v>-17.11</v>
-          </cell>
-          <cell r="H26">
-            <v>22.277490410958908</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>24.88</v>
-          </cell>
-          <cell r="G27">
-            <v>-30.849999999999998</v>
-          </cell>
-          <cell r="H27">
-            <v>25.87654943960149</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>25.3</v>
-          </cell>
-          <cell r="G28">
-            <v>10.350000000000001</v>
-          </cell>
-          <cell r="H28">
-            <v>28.629199097135746</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>26.8</v>
-          </cell>
-          <cell r="G29">
-            <v>-18.380000000000003</v>
-          </cell>
-          <cell r="H29">
-            <v>38.657383027930983</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>27</v>
-          </cell>
-          <cell r="G30">
-            <v>-13.906451802660698</v>
-          </cell>
-          <cell r="H30">
-            <v>40.000000000000007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>28.68</v>
-          </cell>
-          <cell r="G31">
-            <v>29.789999999999996</v>
-          </cell>
-          <cell r="H31">
-            <v>43.795182585851009</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>29.75</v>
-          </cell>
-          <cell r="G32">
-            <v>18.799999999999997</v>
-          </cell>
-          <cell r="H32">
-            <v>46.124198759566923</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>31.4</v>
-          </cell>
-          <cell r="G33">
-            <v>25.349999999999998</v>
-          </cell>
-          <cell r="H33">
-            <v>49.583974479264398</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>32.519999999999996</v>
-          </cell>
-          <cell r="G34">
-            <v>-28.1</v>
-          </cell>
-          <cell r="H34">
-            <v>51.843053480953259</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>33.549999999999997</v>
-          </cell>
-          <cell r="G35">
-            <v>43.1</v>
-          </cell>
-          <cell r="H35">
-            <v>53.8579783399626</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>35.269999999999996</v>
-          </cell>
-          <cell r="G36">
-            <v>62.11</v>
-          </cell>
-          <cell r="H36">
-            <v>57.09150942157801</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>35.769999999999996</v>
-          </cell>
-          <cell r="G37">
-            <v>15.849999999999998</v>
-          </cell>
-          <cell r="H37">
-            <v>58.001204582657564</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>37.1</v>
-          </cell>
-          <cell r="G38">
-            <v>48.379999999999995</v>
-          </cell>
-          <cell r="H38">
-            <v>60.355794523898894</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>40.65</v>
-          </cell>
-          <cell r="G39">
-            <v>31.269999999999992</v>
-          </cell>
-          <cell r="H39">
-            <v>66.189541087094199</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -12883,7 +13556,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13223,511 +13896,313 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="20161101-ふじい-藤井サントリー.csv"/>
+      <sheetName val="20161025-荒井-サントリータスク.csv"/>
       <sheetName val="UXCURVE"/>
-      <sheetName val="ユーザビリティ"/>
+      <sheetName val="webサイトユーザビリティ"/>
       <sheetName val="主観評価"/>
+      <sheetName val="エピソード"/>
       <sheetName val="動画"/>
       <sheetName val="UX比較"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="3">
-          <cell r="G3" t="str">
+          <cell r="H3" t="str">
             <v>UXPLOT</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>UXCURVE</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4">
+          <cell r="G4">
             <v>0</v>
           </cell>
-          <cell r="G4">
-            <v>3.5527136788005009E-15</v>
-          </cell>
           <cell r="H4">
-            <v>-30</v>
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5">
-            <v>0.63</v>
-          </cell>
           <cell r="G5">
-            <v>-79.86</v>
+            <v>2.1</v>
           </cell>
           <cell r="H5">
-            <v>-31.9510566796875</v>
+            <v>71.200000000000017</v>
+          </cell>
+          <cell r="I5">
+            <v>17.713828124999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6">
-            <v>2</v>
-          </cell>
           <cell r="G6">
-            <v>-17.54</v>
+            <v>4</v>
           </cell>
           <cell r="H6">
-            <v>-37.8125</v>
+            <v>29.047818122817425</v>
+          </cell>
+          <cell r="I6">
+            <v>30</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>2.87</v>
-          </cell>
           <cell r="G7">
-            <v>-39.72</v>
+            <v>7.35</v>
           </cell>
           <cell r="H7">
-            <v>-42.613167929687506</v>
+            <v>-50.92</v>
+          </cell>
+          <cell r="I7">
+            <v>-45.579140624999987</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8">
-            <v>3.22</v>
-          </cell>
           <cell r="G8">
-            <v>-100</v>
+            <v>8</v>
           </cell>
           <cell r="H8">
-            <v>-44.766366562500004</v>
+            <v>-29.296667210599121</v>
+          </cell>
+          <cell r="I8">
+            <v>-60.000000000000014</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>4</v>
-          </cell>
           <cell r="G9">
-            <v>-81.034904713642717</v>
+            <v>9.43</v>
           </cell>
           <cell r="H9">
-            <v>-50</v>
+            <v>21.76</v>
+          </cell>
+          <cell r="I9">
+            <v>-46.277825334821451</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="F10">
-            <v>4.0199999999999996</v>
-          </cell>
           <cell r="G10">
-            <v>-80.069999999999993</v>
+            <v>12.15</v>
           </cell>
           <cell r="H10">
-            <v>-50.319629270833325</v>
+            <v>53.45</v>
+          </cell>
+          <cell r="I10">
+            <v>-8.9644949776785765</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="F11">
-            <v>5.3</v>
-          </cell>
           <cell r="G11">
-            <v>-43.1</v>
+            <v>18</v>
           </cell>
           <cell r="H11">
-            <v>-70.821835937499998</v>
+            <v>77.679470245532087</v>
+          </cell>
+          <cell r="I11">
+            <v>90</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12">
-            <v>7.3</v>
-          </cell>
           <cell r="G12">
-            <v>-51.54999999999999</v>
+            <v>19.48</v>
           </cell>
           <cell r="H12">
-            <v>-95.802825520833338</v>
+            <v>78.8</v>
+          </cell>
+          <cell r="I12">
+            <v>89.762683827160501</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13">
-            <v>7.97</v>
-          </cell>
           <cell r="G13">
-            <v>-85.35</v>
+            <v>21.58</v>
           </cell>
           <cell r="H13">
-            <v>-99.886404856770824</v>
+            <v>66.34</v>
+          </cell>
+          <cell r="I13">
+            <v>86.464288688271608</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14">
-            <v>8</v>
-          </cell>
           <cell r="G14">
-            <v>-86.08224508776064</v>
+            <v>23.27</v>
           </cell>
           <cell r="H14">
-            <v>-100</v>
+            <v>69.72</v>
+          </cell>
+          <cell r="I14">
+            <v>82.13309872492286</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15">
-            <v>9.6</v>
-          </cell>
           <cell r="G15">
-            <v>-86.41</v>
+            <v>24</v>
           </cell>
           <cell r="H15">
-            <v>-52.39466666666668</v>
+            <v>67.246655002231108</v>
+          </cell>
+          <cell r="I15">
+            <v>80.000000000000014</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="F16">
-            <v>10</v>
-          </cell>
           <cell r="G16">
-            <v>-40.186613644996498</v>
+            <v>26.87</v>
           </cell>
           <cell r="H16">
-            <v>-40</v>
+            <v>50.28</v>
+          </cell>
+          <cell r="I16">
+            <v>70.636034174748218</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="F17">
-            <v>10.63</v>
-          </cell>
           <cell r="G17">
-            <v>37.18</v>
+            <v>28.22</v>
           </cell>
           <cell r="H17">
-            <v>-28.144873499999985</v>
+            <v>33.589999999999975</v>
+          </cell>
+          <cell r="I17">
+            <v>66.049234783300847</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="F18">
-            <v>10.85</v>
-          </cell>
           <cell r="G18">
-            <v>57.46</v>
+            <v>30</v>
           </cell>
           <cell r="H18">
-            <v>-24.221861882716055</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>12.3</v>
-          </cell>
-          <cell r="G19">
-            <v>24.719999999999995</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.52078395061727178</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>12.72</v>
-          </cell>
-          <cell r="G20">
-            <v>-13.52</v>
-          </cell>
-          <cell r="H20">
-            <v>5.8378698271605032</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>13</v>
-          </cell>
-          <cell r="G21">
-            <v>-35.46808213395434</v>
-          </cell>
-          <cell r="H21">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>13.03</v>
-          </cell>
-          <cell r="G22">
-            <v>-37.61</v>
-          </cell>
-          <cell r="H22">
-            <v>10.47141199999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>13.4</v>
-          </cell>
-          <cell r="G23">
-            <v>-51.13000000000001</v>
-          </cell>
-          <cell r="H23">
-            <v>16.233382716049388</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>13.95</v>
-          </cell>
-          <cell r="G24">
-            <v>-83.45</v>
-          </cell>
-          <cell r="H24">
-            <v>24.537228395061717</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>15.22</v>
-          </cell>
-          <cell r="G25">
-            <v>-100</v>
-          </cell>
-          <cell r="H25">
-            <v>41.643288000000013</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>16</v>
-          </cell>
-          <cell r="G26">
-            <v>-84.185298273577942</v>
-          </cell>
-          <cell r="H26">
-            <v>49.999999999999993</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>17.37</v>
-          </cell>
-          <cell r="G27">
-            <v>-45.85</v>
-          </cell>
-          <cell r="H27">
-            <v>32.533549191666644</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>18.47</v>
-          </cell>
-          <cell r="G28">
-            <v>-9.7200000000000006</v>
-          </cell>
-          <cell r="H28">
-            <v>15.064235608333355</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>19.3</v>
-          </cell>
-          <cell r="G29">
-            <v>23.66</v>
-          </cell>
-          <cell r="H29">
-            <v>0.62989166666665497</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>20</v>
-          </cell>
-          <cell r="G30">
-            <v>69.72</v>
-          </cell>
-          <cell r="H30">
-            <v>-11.966666666666667</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>21</v>
-          </cell>
-          <cell r="G31">
-            <v>80.137585924594475</v>
-          </cell>
-          <cell r="H31">
-            <v>-30</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>21.17</v>
-          </cell>
-          <cell r="G32">
-            <v>69.510000000000019</v>
-          </cell>
-          <cell r="H32">
-            <v>-32.092230138888908</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>21.57</v>
-          </cell>
-          <cell r="G33">
-            <v>-43.52</v>
-          </cell>
-          <cell r="H33">
-            <v>-36.906191250000006</v>
+            <v>27.783557252572532</v>
+          </cell>
+          <cell r="I18">
+            <v>60</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="F34">
-            <v>22.13</v>
-          </cell>
-          <cell r="G34">
-            <v>31.060000000000002</v>
-          </cell>
-          <cell r="H34">
-            <v>-43.30451013888888</v>
+          <cell r="A34">
+            <v>0</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="F35">
-            <v>22.3</v>
-          </cell>
-          <cell r="G35">
-            <v>-28.730000000000004</v>
-          </cell>
-          <cell r="H35">
-            <v>-45.148611111111123</v>
+          <cell r="A35">
+            <v>2.1</v>
+          </cell>
+          <cell r="B35">
+            <v>71.2</v>
+          </cell>
+          <cell r="C35">
+            <v>4</v>
+          </cell>
+          <cell r="D35">
+            <v>30</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="F36">
-            <v>22.98</v>
-          </cell>
-          <cell r="G36">
-            <v>-33.17</v>
-          </cell>
-          <cell r="H36">
-            <v>-51.954240000000006</v>
+          <cell r="A36">
+            <v>7.35</v>
+          </cell>
+          <cell r="B36">
+            <v>-50.92</v>
+          </cell>
+          <cell r="C36">
+            <v>8</v>
+          </cell>
+          <cell r="D36">
+            <v>-60</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="F37">
-            <v>23.18</v>
-          </cell>
-          <cell r="G37">
-            <v>55.14</v>
-          </cell>
-          <cell r="H37">
-            <v>-53.756428888888884</v>
+          <cell r="A37">
+            <v>9.43</v>
+          </cell>
+          <cell r="B37">
+            <v>21.76</v>
+          </cell>
+          <cell r="C37">
+            <v>18</v>
+          </cell>
+          <cell r="D37">
+            <v>90</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="F38">
-            <v>23.45</v>
-          </cell>
-          <cell r="G38">
-            <v>20.489999999999995</v>
-          </cell>
-          <cell r="H38">
-            <v>-56.025295138888879</v>
+          <cell r="A38">
+            <v>12.15</v>
+          </cell>
+          <cell r="B38">
+            <v>53.45</v>
+          </cell>
+          <cell r="C38">
+            <v>24</v>
+          </cell>
+          <cell r="D38">
+            <v>80</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="F39">
-            <v>23.98</v>
-          </cell>
-          <cell r="G39">
-            <v>-31.48</v>
-          </cell>
-          <cell r="H39">
-            <v>-59.871851111111113</v>
+          <cell r="A39">
+            <v>19.48</v>
+          </cell>
+          <cell r="B39">
+            <v>78.8</v>
+          </cell>
+          <cell r="C39">
+            <v>30</v>
+          </cell>
+          <cell r="D39">
+            <v>60</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="F40">
-            <v>24</v>
-          </cell>
-          <cell r="G40">
-            <v>-33.136957147727095</v>
-          </cell>
-          <cell r="H40">
-            <v>-60</v>
+          <cell r="A40">
+            <v>21.58</v>
+          </cell>
+          <cell r="B40">
+            <v>66.34</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="F41">
-            <v>25.08</v>
-          </cell>
-          <cell r="G41">
-            <v>-82.39</v>
-          </cell>
-          <cell r="H41">
-            <v>-46.643155876056369</v>
+          <cell r="A41">
+            <v>23.27</v>
+          </cell>
+          <cell r="B41">
+            <v>69.72</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="F42">
-            <v>25.55</v>
-          </cell>
-          <cell r="G42">
-            <v>-2.54</v>
-          </cell>
-          <cell r="H42">
-            <v>-39.866702930411407</v>
+          <cell r="A42">
+            <v>26.87</v>
+          </cell>
+          <cell r="B42">
+            <v>50.28</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="F43">
-            <v>26.15</v>
-          </cell>
-          <cell r="G43">
-            <v>26.62</v>
-          </cell>
-          <cell r="H43">
-            <v>-30.52512953345073</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>26.95</v>
-          </cell>
-          <cell r="G44">
-            <v>64.86</v>
-          </cell>
-          <cell r="H44">
-            <v>-17.105150919662726</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>27.4</v>
-          </cell>
-          <cell r="G45">
-            <v>-33.169999999999995</v>
-          </cell>
-          <cell r="H45">
-            <v>-9.1915089696071437</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>28.58</v>
-          </cell>
-          <cell r="G46">
-            <v>40.769999999999754</v>
-          </cell>
-          <cell r="H46">
-            <v>12.270739079466239</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>29</v>
-          </cell>
-          <cell r="G47">
-            <v>49.559084319050974</v>
-          </cell>
-          <cell r="H47">
-            <v>20</v>
+          <cell r="A43">
+            <v>28.22</v>
+          </cell>
+          <cell r="B43">
+            <v>33.590000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -13736,7 +14211,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13759,7 +14234,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14033,7 +14508,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14241,7 +14716,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14724,7 +15199,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14923,7 +15398,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -15142,14 +15617,659 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20161101-小金良輔-小金サントリー.csv"/>
+      <sheetName val="UXCURVE"/>
+      <sheetName val="ユーザビリティ"/>
+      <sheetName val="主観評価"/>
+      <sheetName val="動画"/>
+      <sheetName val="UX比較"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>UXPLOT</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>UXCURVE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>-34.799999999999997</v>
+          </cell>
+          <cell r="H3">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>-42.555785848378591</v>
+          </cell>
+          <cell r="H4">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>2.38</v>
+          </cell>
+          <cell r="G5">
+            <v>-53.66</v>
+          </cell>
+          <cell r="H5">
+            <v>-28.667806666666671</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>3</v>
+          </cell>
+          <cell r="G6">
+            <v>-43.038929314517098</v>
+          </cell>
+          <cell r="H6">
+            <v>-20</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>4</v>
+          </cell>
+          <cell r="G7">
+            <v>-24.47441160373705</v>
+          </cell>
+          <cell r="H7">
+            <v>-40</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>6</v>
+          </cell>
+          <cell r="G8">
+            <v>11.091491065874358</v>
+          </cell>
+          <cell r="H8">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>7.53</v>
+          </cell>
+          <cell r="G9">
+            <v>29.149999999999995</v>
+          </cell>
+          <cell r="H9">
+            <v>-28.595668312500017</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>8</v>
+          </cell>
+          <cell r="G10">
+            <v>13.237582510444078</v>
+          </cell>
+          <cell r="H10">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>9.6199999999999992</v>
+          </cell>
+          <cell r="G11">
+            <v>-36.969999999999992</v>
+          </cell>
+          <cell r="H11">
+            <v>-18.997052000000025</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>11</v>
+          </cell>
+          <cell r="G12">
+            <v>20.59585655944689</v>
+          </cell>
+          <cell r="H12">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>11.75</v>
+          </cell>
+          <cell r="G13">
+            <v>41.83</v>
+          </cell>
+          <cell r="H13">
+            <v>35.265066964285715</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>12.75</v>
+          </cell>
+          <cell r="G14">
+            <v>-34.650000000000013</v>
+          </cell>
+          <cell r="H14">
+            <v>53.382764274691354</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>14</v>
+          </cell>
+          <cell r="G15">
+            <v>-10.074395411726364</v>
+          </cell>
+          <cell r="H15">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>15.93</v>
+          </cell>
+          <cell r="G16">
+            <v>58.730000000000004</v>
+          </cell>
+          <cell r="H16">
+            <v>18.309862309523815</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>18</v>
+          </cell>
+          <cell r="G17">
+            <v>8.7523412175806925</v>
+          </cell>
+          <cell r="H17">
+            <v>-40</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>20.43</v>
+          </cell>
+          <cell r="G18">
+            <v>-70.139999999999873</v>
+          </cell>
+          <cell r="H18">
+            <v>-3.8995095605163108</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>23</v>
+          </cell>
+          <cell r="G19">
+            <v>-88.402350659264258</v>
+          </cell>
+          <cell r="H19">
+            <v>49.999999999999943</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="20161025-土田-サントリー.csv"/>
+      <sheetName val="UXCURVE"/>
+      <sheetName val="webサイトユーザビリティ"/>
+      <sheetName val="主観評価"/>
+      <sheetName val="動画"/>
       <sheetName val="UX比較"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>UXPLOT</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>UXCURVE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>39.22</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>37.396399593598545</v>
+          </cell>
+          <cell r="H4">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>2</v>
+          </cell>
+          <cell r="G5">
+            <v>35.021734366440683</v>
+          </cell>
+          <cell r="H5">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>3</v>
+          </cell>
+          <cell r="G6">
+            <v>32.071756425412588</v>
+          </cell>
+          <cell r="H6">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>6.57</v>
+          </cell>
+          <cell r="G7">
+            <v>16.479999999999997</v>
+          </cell>
+          <cell r="H7">
+            <v>-25.260705999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>7</v>
+          </cell>
+          <cell r="G8">
+            <v>14.672364370766818</v>
+          </cell>
+          <cell r="H8">
+            <v>-20</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>7.48</v>
+          </cell>
+          <cell r="G9">
+            <v>8.6600000000000019</v>
+          </cell>
+          <cell r="H9">
+            <v>-10.721066666666655</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>7.85</v>
+          </cell>
+          <cell r="G10">
+            <v>-11.829999999999998</v>
+          </cell>
+          <cell r="H10">
+            <v>-3.2937725051440392</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>10</v>
+          </cell>
+          <cell r="G11">
+            <v>-26.143466518399684</v>
+          </cell>
+          <cell r="H11">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>10.23</v>
+          </cell>
+          <cell r="G12">
+            <v>-23.87</v>
+          </cell>
+          <cell r="H12">
+            <v>40.396505080761315</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>11.3</v>
+          </cell>
+          <cell r="G13">
+            <v>12.679999999999998</v>
+          </cell>
+          <cell r="H13">
+            <v>40.581382201646093</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>12.87</v>
+          </cell>
+          <cell r="G14">
+            <v>5.07</v>
+          </cell>
+          <cell r="H14">
+            <v>36.708703340020577</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>14.37</v>
+          </cell>
+          <cell r="G15">
+            <v>31.9</v>
+          </cell>
+          <cell r="H15">
+            <v>29.689348941872431</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>16</v>
+          </cell>
+          <cell r="G16">
+            <v>19.202675298392702</v>
+          </cell>
+          <cell r="H16">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>16.170000000000002</v>
+          </cell>
+          <cell r="G17">
+            <v>17.96</v>
+          </cell>
+          <cell r="H17">
+            <v>19.075213343344146</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>17.350000000000001</v>
+          </cell>
+          <cell r="G18">
+            <v>27.46</v>
+          </cell>
+          <cell r="H18">
+            <v>12.63844044237012</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>18.32</v>
+          </cell>
+          <cell r="G19">
+            <v>-20.28</v>
+          </cell>
+          <cell r="H19">
+            <v>7.5540295757575731</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>19.350000000000001</v>
+          </cell>
+          <cell r="G20">
+            <v>44.37</v>
+          </cell>
+          <cell r="H20">
+            <v>2.6707767518939334</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>20</v>
+          </cell>
+          <cell r="G21">
+            <v>5.0338249456127642</v>
+          </cell>
+          <cell r="H21">
+            <v>-1.7763568394002505E-15</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>20.420000000000002</v>
+          </cell>
+          <cell r="G22">
+            <v>-21.549999999999997</v>
+          </cell>
+          <cell r="H22">
+            <v>1.5595033312577908</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>21.53</v>
+          </cell>
+          <cell r="G23">
+            <v>10.77</v>
+          </cell>
+          <cell r="H23">
+            <v>6.4265183869640694</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>22.63</v>
+          </cell>
+          <cell r="G24">
+            <v>-47.540000000000006</v>
+          </cell>
+          <cell r="H24">
+            <v>12.159194084126483</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>23.48</v>
+          </cell>
+          <cell r="G25">
+            <v>42.25</v>
+          </cell>
+          <cell r="H25">
+            <v>17.084098630136989</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>24.32</v>
+          </cell>
+          <cell r="G26">
+            <v>-17.11</v>
+          </cell>
+          <cell r="H26">
+            <v>22.277490410958908</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>24.88</v>
+          </cell>
+          <cell r="G27">
+            <v>-30.849999999999998</v>
+          </cell>
+          <cell r="H27">
+            <v>25.87654943960149</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>25.3</v>
+          </cell>
+          <cell r="G28">
+            <v>10.350000000000001</v>
+          </cell>
+          <cell r="H28">
+            <v>28.629199097135746</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>26.8</v>
+          </cell>
+          <cell r="G29">
+            <v>-18.380000000000003</v>
+          </cell>
+          <cell r="H29">
+            <v>38.657383027930983</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30">
+            <v>27</v>
+          </cell>
+          <cell r="G30">
+            <v>-13.906451802660698</v>
+          </cell>
+          <cell r="H30">
+            <v>40.000000000000007</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>28.68</v>
+          </cell>
+          <cell r="G31">
+            <v>29.789999999999996</v>
+          </cell>
+          <cell r="H31">
+            <v>43.795182585851009</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>29.75</v>
+          </cell>
+          <cell r="G32">
+            <v>18.799999999999997</v>
+          </cell>
+          <cell r="H32">
+            <v>46.124198759566923</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33">
+            <v>31.4</v>
+          </cell>
+          <cell r="G33">
+            <v>25.349999999999998</v>
+          </cell>
+          <cell r="H33">
+            <v>49.583974479264398</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="F34">
+            <v>32.519999999999996</v>
+          </cell>
+          <cell r="G34">
+            <v>-28.1</v>
+          </cell>
+          <cell r="H34">
+            <v>51.843053480953259</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="F35">
+            <v>33.549999999999997</v>
+          </cell>
+          <cell r="G35">
+            <v>43.1</v>
+          </cell>
+          <cell r="H35">
+            <v>53.8579783399626</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36">
+            <v>35.269999999999996</v>
+          </cell>
+          <cell r="G36">
+            <v>62.11</v>
+          </cell>
+          <cell r="H36">
+            <v>57.09150942157801</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>35.769999999999996</v>
+          </cell>
+          <cell r="G37">
+            <v>15.849999999999998</v>
+          </cell>
+          <cell r="H37">
+            <v>58.001204582657564</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
+            <v>37.1</v>
+          </cell>
+          <cell r="G38">
+            <v>48.379999999999995</v>
+          </cell>
+          <cell r="H38">
+            <v>60.355794523898894</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>40.65</v>
+          </cell>
+          <cell r="G39">
+            <v>31.269999999999992</v>
+          </cell>
+          <cell r="H39">
+            <v>66.189541087094199</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15487,15 +16607,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -15674,10 +16794,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="106" t="s">
+      <c r="V8" s="114" t="s">
         <v>340</v>
       </c>
-      <c r="W8" s="106"/>
+      <c r="W8" s="114"/>
       <c r="Y8">
         <f>FTEST(V10:V11, W10:W22)</f>
         <v>0.16952866621585372</v>
@@ -15696,15 +16816,15 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
       <c r="L10" t="s">
         <v>240</v>
       </c>
@@ -15792,15 +16912,15 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
       <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
@@ -15849,7 +16969,7 @@
       <c r="L14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="112">
         <v>90</v>
       </c>
       <c r="N14" s="26">
@@ -15870,10 +16990,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="120">
         <v>86</v>
       </c>
       <c r="C15" s="3">
@@ -15890,7 +17010,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="115"/>
+      <c r="M15" s="113"/>
       <c r="N15" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -15911,8 +17031,8 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="3">
         <v>-13.52</v>
       </c>
@@ -15952,8 +17072,8 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="3">
         <v>-37.61</v>
       </c>
@@ -15993,8 +17113,8 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="3">
         <v>-51.13</v>
       </c>
@@ -16011,7 +17131,7 @@
       <c r="L18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="111">
+      <c r="M18" s="109">
         <v>86</v>
       </c>
       <c r="N18" s="24">
@@ -16033,7 +17153,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="15"/>
-      <c r="M19" s="112"/>
+      <c r="M19" s="110"/>
       <c r="N19" s="24">
         <v>-13.52</v>
       </c>
@@ -16052,16 +17172,16 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="112"/>
+      <c r="M20" s="110"/>
       <c r="N20" s="24">
         <v>-37.61</v>
       </c>
@@ -16107,7 +17227,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="113"/>
+      <c r="M21" s="111"/>
       <c r="N21" s="24">
         <v>-51.13</v>
       </c>
@@ -16149,14 +17269,14 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
       <c r="L23" s="1" t="s">
         <v>65</v>
       </c>
@@ -16554,6 +17674,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="V8:W8"/>
@@ -16561,11 +17686,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16605,16 +17725,16 @@
       </c>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
@@ -16944,13 +18064,13 @@
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="143">
         <v>87.000000000000043</v>
       </c>
       <c r="D7" s="4">
@@ -17000,9 +18120,9 @@
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="125"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="4">
         <v>-57.04</v>
       </c>
@@ -17077,10 +18197,10 @@
       <c r="M9" s="1">
         <v>44.79</v>
       </c>
-      <c r="Q9" s="138" t="s">
+      <c r="Q9" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="133">
+      <c r="R9" s="126">
         <v>90.999999999999943</v>
       </c>
       <c r="S9" s="24">
@@ -17133,8 +18253,8 @@
       <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="133"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="126"/>
       <c r="S10" s="24">
         <v>69.510000000000005</v>
       </c>
@@ -17198,7 +18318,7 @@
       <c r="Q11" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="135">
+      <c r="R11" s="129">
         <v>96</v>
       </c>
       <c r="S11" s="24">
@@ -17245,7 +18365,7 @@
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="136"/>
+      <c r="R12" s="130"/>
       <c r="S12" s="29">
         <v>55.14</v>
       </c>
@@ -17277,7 +18397,7 @@
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R13" s="137"/>
+      <c r="R13" s="131"/>
       <c r="S13" s="29">
         <v>20.49</v>
       </c>
@@ -17302,18 +18422,18 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="Q14" s="121" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="Q14" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="133">
+      <c r="R14" s="126">
         <v>42.999999999999929</v>
       </c>
       <c r="S14" s="24">
@@ -17363,8 +18483,8 @@
       <c r="H15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="133"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="126"/>
       <c r="S15" s="24">
         <v>26.62</v>
       </c>
@@ -17532,14 +18652,14 @@
       </c>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="5"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
@@ -17730,10 +18850,10 @@
       </c>
     </row>
     <row r="23" spans="1:35">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="123">
+      <c r="C23" s="139">
         <v>90.999999999999943</v>
       </c>
       <c r="D23" s="19">
@@ -17781,8 +18901,8 @@
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="B24" s="126"/>
-      <c r="C24" s="123"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="19">
         <v>69.510000000000005</v>
       </c>
@@ -17828,10 +18948,10 @@
       </c>
     </row>
     <row r="25" spans="1:35">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="123">
+      <c r="C25" s="139">
         <v>95.999999999999872</v>
       </c>
       <c r="D25" s="19">
@@ -17877,8 +18997,8 @@
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="B26" s="126"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="4">
         <v>-28.73</v>
       </c>
@@ -17924,8 +19044,8 @@
       </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="B27" s="126"/>
-      <c r="C27" s="123"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="4">
         <v>-33.17</v>
       </c>
@@ -17939,10 +19059,10 @@
       <c r="H27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="129" t="s">
+      <c r="Q27" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="134">
+      <c r="R27" s="128">
         <v>189</v>
       </c>
       <c r="S27" s="23">
@@ -17971,8 +19091,8 @@
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="B28" s="126"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="19">
         <v>55.14</v>
       </c>
@@ -17992,8 +19112,8 @@
       <c r="L28" s="3">
         <v>-45.85</v>
       </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="134"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="128"/>
       <c r="S28" s="48">
         <v>62.11</v>
       </c>
@@ -18020,8 +19140,8 @@
       </c>
     </row>
     <row r="29" spans="1:35">
-      <c r="B29" s="126"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="19">
         <v>20.49</v>
       </c>
@@ -18073,10 +19193,10 @@
       </c>
     </row>
     <row r="30" spans="1:35">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="123">
+      <c r="C30" s="139">
         <v>76</v>
       </c>
       <c r="D30" s="4">
@@ -18130,8 +19250,8 @@
       </c>
     </row>
     <row r="31" spans="1:35">
-      <c r="B31" s="121"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="139"/>
       <c r="D31" s="4">
         <v>-82.39</v>
       </c>
@@ -18155,10 +19275,10 @@
       <c r="M31" s="3">
         <v>69.72</v>
       </c>
-      <c r="Q31" s="130" t="s">
+      <c r="Q31" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="R31" s="139">
+      <c r="R31" s="134">
         <v>50</v>
       </c>
       <c r="S31" s="23">
@@ -18181,10 +19301,10 @@
       </c>
     </row>
     <row r="32" spans="1:35">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="123">
+      <c r="C32" s="139">
         <v>42.999999999999929</v>
       </c>
       <c r="D32" s="19">
@@ -18212,8 +19332,8 @@
       <c r="M32" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="139"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="134"/>
       <c r="S32" s="48">
         <v>91.27</v>
       </c>
@@ -18234,8 +19354,8 @@
       </c>
     </row>
     <row r="33" spans="2:28">
-      <c r="B33" s="121"/>
-      <c r="C33" s="123"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="19">
         <v>26.62</v>
       </c>
@@ -18353,14 +19473,14 @@
       </c>
     </row>
     <row r="36" spans="2:28">
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
       <c r="K36" s="10"/>
       <c r="M36" s="3">
         <v>55.14</v>
@@ -18419,7 +19539,7 @@
       <c r="Q37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R37" s="139">
+      <c r="R37" s="134">
         <v>90.000000000000057</v>
       </c>
       <c r="S37" s="23">
@@ -18470,7 +19590,7 @@
         <v>-31.48</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="139"/>
+      <c r="R38" s="134"/>
       <c r="S38" s="48">
         <v>81.13</v>
       </c>
@@ -18563,7 +19683,7 @@
       <c r="H40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="127">
         <v>42.999999999999929</v>
       </c>
       <c r="L40" s="3">
@@ -18616,7 +19736,7 @@
       <c r="H41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="121"/>
+      <c r="K41" s="127"/>
       <c r="L41" s="3">
         <v>26.62</v>
       </c>
@@ -18672,14 +19792,14 @@
       </c>
     </row>
     <row r="43" spans="2:28">
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
       <c r="Q43" s="17" t="s">
         <v>218</v>
       </c>
@@ -18832,10 +19952,10 @@
       </c>
     </row>
     <row r="48" spans="2:28">
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="106">
+      <c r="C48" s="114">
         <v>222</v>
       </c>
       <c r="D48" s="20">
@@ -18853,7 +19973,7 @@
       <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="106" t="s">
+      <c r="I48" s="114" t="s">
         <v>210</v>
       </c>
       <c r="AB48" s="48">
@@ -18861,8 +19981,8 @@
       </c>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="127"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="31">
         <v>-17.11</v>
       </c>
@@ -18876,14 +19996,14 @@
       <c r="H49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="106"/>
+      <c r="I49" s="114"/>
       <c r="AB49" s="48">
         <v>24.72</v>
       </c>
     </row>
     <row r="50" spans="2:40">
-      <c r="B50" s="127"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="31">
         <v>-30.85</v>
       </c>
@@ -18899,7 +20019,7 @@
       <c r="H50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="106"/>
+      <c r="I50" s="114"/>
       <c r="Q50" s="4" t="s">
         <v>286</v>
       </c>
@@ -18919,8 +20039,8 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:40">
-      <c r="B51" s="127"/>
-      <c r="C51" s="106"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="20">
         <v>10.35</v>
       </c>
@@ -18934,7 +20054,7 @@
       <c r="H51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="106"/>
+      <c r="I51" s="114"/>
       <c r="Q51" s="3" t="s">
         <v>18</v>
       </c>
@@ -18988,8 +20108,8 @@
       </c>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="110"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="31">
         <v>-18.38</v>
       </c>
@@ -19005,11 +20125,11 @@
       <c r="H52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="106"/>
-      <c r="Q52" s="130" t="s">
+      <c r="I52" s="114"/>
+      <c r="Q52" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="132">
+      <c r="R52" s="137">
         <v>87.000000000000043</v>
       </c>
       <c r="S52" s="22">
@@ -19092,9 +20212,9 @@
       <c r="H53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="106"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="132"/>
+      <c r="I53" s="114"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="137"/>
       <c r="S53" s="24">
         <v>-57.04</v>
       </c>
@@ -19176,7 +20296,7 @@
       <c r="H54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="106"/>
+      <c r="I54" s="114"/>
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
@@ -19243,7 +20363,7 @@
       <c r="H55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="106"/>
+      <c r="I55" s="114"/>
       <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
@@ -19273,10 +20393,10 @@
       </c>
     </row>
     <row r="56" spans="2:40">
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="120">
+      <c r="C56" s="144">
         <v>189</v>
       </c>
       <c r="D56" s="31">
@@ -19325,8 +20445,8 @@
       </c>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="125"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
       <c r="D57" s="20">
         <v>43.1</v>
       </c>
@@ -19381,8 +20501,8 @@
       </c>
     </row>
     <row r="58" spans="2:40">
-      <c r="B58" s="125"/>
-      <c r="C58" s="120"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
       <c r="D58" s="20">
         <v>62.11</v>
       </c>
@@ -19425,10 +20545,10 @@
       </c>
     </row>
     <row r="59" spans="2:40">
-      <c r="B59" s="129" t="s">
+      <c r="B59" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="106">
+      <c r="C59" s="114">
         <v>69</v>
       </c>
       <c r="D59" s="20">
@@ -19449,7 +20569,7 @@
       <c r="Q59" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R59" s="140">
+      <c r="R59" s="135">
         <v>96</v>
       </c>
       <c r="S59" s="26">
@@ -19479,8 +20599,8 @@
       </c>
     </row>
     <row r="60" spans="2:40">
-      <c r="B60" s="129"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="31">
         <v>8.66</v>
       </c>
@@ -19497,7 +20617,7 @@
         <v>155</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="141"/>
+      <c r="R60" s="136"/>
       <c r="S60" s="24">
         <v>-33.17</v>
       </c>
@@ -19531,10 +20651,10 @@
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="Q61" s="121" t="s">
+      <c r="Q61" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="R61" s="121">
+      <c r="R61" s="127">
         <v>76</v>
       </c>
       <c r="S61" s="24">
@@ -19574,8 +20694,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="121"/>
-      <c r="R62" s="121"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="127"/>
       <c r="S62" s="49">
         <v>-82.39</v>
       </c>
@@ -19663,10 +20783,10 @@
       </c>
     </row>
     <row r="64" spans="2:40">
-      <c r="Q64" s="130" t="s">
+      <c r="Q64" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="R64" s="122">
+      <c r="R64" s="123">
         <v>222</v>
       </c>
       <c r="S64" s="23">
@@ -19699,8 +20819,8 @@
       <c r="B65" t="s">
         <v>194</v>
       </c>
-      <c r="Q65" s="129"/>
-      <c r="R65" s="122"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="123"/>
       <c r="S65" s="23">
         <v>-30.85</v>
       </c>
@@ -19728,10 +20848,10 @@
       </c>
     </row>
     <row r="66" spans="2:36">
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="106">
+      <c r="C66" s="114">
         <v>50</v>
       </c>
       <c r="D66" s="20">
@@ -19749,8 +20869,8 @@
       <c r="H66" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="122"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="123"/>
       <c r="S66" s="23">
         <v>-18.38</v>
       </c>
@@ -19778,8 +20898,8 @@
       </c>
     </row>
     <row r="67" spans="2:36">
-      <c r="B67" s="110"/>
-      <c r="C67" s="106"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="20">
         <v>91.27</v>
       </c>
@@ -19857,10 +20977,10 @@
       </c>
     </row>
     <row r="69" spans="2:36">
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="106">
+      <c r="C69" s="114">
         <v>106</v>
       </c>
       <c r="D69" s="20">
@@ -19911,8 +21031,8 @@
       </c>
     </row>
     <row r="70" spans="2:36">
-      <c r="B70" s="110"/>
-      <c r="C70" s="106"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="31">
         <v>-21.76</v>
       </c>
@@ -20026,10 +21146,10 @@
       <c r="H72" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q72" s="130" t="s">
+      <c r="Q72" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="139">
+      <c r="R72" s="134">
         <v>51.999999999999986</v>
       </c>
       <c r="S72" s="23">
@@ -20047,7 +21167,7 @@
       <c r="W72" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Y72" s="106" t="s">
+      <c r="Y72" s="114" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="23">
@@ -20055,10 +21175,10 @@
       </c>
     </row>
     <row r="73" spans="2:36">
-      <c r="B73" s="107" t="s">
+      <c r="B73" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="120">
+      <c r="C73" s="144">
         <v>107</v>
       </c>
       <c r="D73" s="20">
@@ -20076,8 +21196,8 @@
       <c r="H73" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q73" s="122"/>
-      <c r="R73" s="139"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="134"/>
       <c r="S73" s="23">
         <v>-28.1</v>
       </c>
@@ -20093,14 +21213,14 @@
       <c r="W73" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Y73" s="106"/>
+      <c r="Y73" s="114"/>
       <c r="AC73" s="23">
         <v>8.66</v>
       </c>
     </row>
     <row r="74" spans="2:36">
-      <c r="B74" s="108"/>
-      <c r="C74" s="120"/>
+      <c r="B74" s="121"/>
+      <c r="C74" s="144"/>
       <c r="D74" s="31">
         <v>-19.010000000000002</v>
       </c>
@@ -20250,7 +21370,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="106">
+      <c r="C78" s="114">
         <v>90.000000000000057</v>
       </c>
       <c r="D78" s="20">
@@ -20292,7 +21412,7 @@
       </c>
     </row>
     <row r="79" spans="2:36">
-      <c r="C79" s="106"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="20">
         <v>81.13</v>
       </c>
@@ -20339,10 +21459,10 @@
       </c>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="106">
+      <c r="C81" s="114">
         <v>51.999999999999986</v>
       </c>
       <c r="D81" s="31">
@@ -20360,7 +21480,7 @@
       <c r="H81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="106" t="s">
+      <c r="J81" s="114" t="s">
         <v>210</v>
       </c>
       <c r="R81" s="4" t="s">
@@ -20377,8 +21497,8 @@
       </c>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="31">
         <v>-28.1</v>
       </c>
@@ -20394,7 +21514,7 @@
       <c r="H82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="106"/>
+      <c r="J82" s="114"/>
       <c r="R82">
         <f>FTEST(R4:R45, R51:R77)</f>
         <v>0.81669524197107601</v>
@@ -20453,11 +21573,11 @@
         <f t="shared" ref="U83" si="10">TTEST(U4:U45, U51:U77, 2, 2)</f>
         <v>0.67575151385258603</v>
       </c>
-      <c r="AB83" s="106" t="s">
+      <c r="AB83" s="114" t="s">
         <v>434</v>
       </c>
-      <c r="AC83" s="106"/>
-      <c r="AD83" s="106"/>
+      <c r="AC83" s="114"/>
+      <c r="AD83" s="114"/>
     </row>
     <row r="84" spans="2:30">
       <c r="B84" s="1" t="s">
@@ -20648,7 +21768,7 @@
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="106">
+      <c r="C91" s="114">
         <v>46.000000000000021</v>
       </c>
       <c r="D91" s="31">
@@ -20675,7 +21795,7 @@
       </c>
     </row>
     <row r="92" spans="2:30">
-      <c r="C92" s="106"/>
+      <c r="C92" s="114"/>
       <c r="D92" s="20">
         <v>43.52</v>
       </c>
@@ -20699,7 +21819,7 @@
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="106">
+      <c r="C93" s="114">
         <v>48</v>
       </c>
       <c r="D93" s="20">
@@ -20722,7 +21842,7 @@
       </c>
     </row>
     <row r="94" spans="2:30">
-      <c r="C94" s="106"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="31">
         <v>-29.58</v>
       </c>
@@ -20788,6 +21908,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="I48:I55"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="AB83:AD83"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="J81:J82"/>
     <mergeCell ref="Y72:Y73"/>
     <mergeCell ref="R64:R66"/>
     <mergeCell ref="Q64:Q66"/>
@@ -20804,47 +21965,6 @@
     <mergeCell ref="R72:R73"/>
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="R59:R60"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="AB83:AD83"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="I48:I55"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C59:C60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20873,15 +21993,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="P2" s="19" t="s">
         <v>250</v>
       </c>
@@ -20934,7 +22054,7 @@
       <c r="P3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="121">
+      <c r="Q3" s="127">
         <v>84</v>
       </c>
       <c r="R3" s="24">
@@ -20957,11 +22077,11 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="147">
+      <c r="B4" s="150"/>
+      <c r="C4" s="152">
         <v>84</v>
       </c>
       <c r="D4" s="19">
@@ -20990,7 +22110,7 @@
         <v>24.299999999999997</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="121"/>
+      <c r="Q4" s="127"/>
       <c r="R4" s="26">
         <v>24.45</v>
       </c>
@@ -21029,9 +22149,9 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="19">
         <v>24.45</v>
       </c>
@@ -21056,10 +22176,10 @@
       <c r="M5" s="1">
         <v>-38.869999999999997</v>
       </c>
-      <c r="P5" s="121" t="s">
+      <c r="P5" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="121">
+      <c r="Q5" s="127">
         <v>63</v>
       </c>
       <c r="R5" s="40">
@@ -21100,7 +22220,7 @@
         <f>AVERAGE(T3,T8:T11,T13:T17,T19:T20)</f>
         <v>10.009166666666667</v>
       </c>
-      <c r="AH5" s="106" t="s">
+      <c r="AH5" s="114" t="s">
         <v>312</v>
       </c>
       <c r="AI5" t="s">
@@ -21143,8 +22263,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
       <c r="R6" s="40">
         <v>57.46</v>
       </c>
@@ -21183,7 +22303,7 @@
         <f>AVERAGE(T7,T18)</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="AH6" s="106"/>
+      <c r="AH6" s="114"/>
       <c r="AI6" t="s">
         <v>314</v>
       </c>
@@ -21275,14 +22395,14 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
       <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
@@ -21388,12 +22508,12 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
       <c r="P12" s="3" t="s">
         <v>11</v>
       </c>
@@ -21421,10 +22541,10 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="149">
         <v>188</v>
       </c>
       <c r="D13" s="4">
@@ -21469,8 +22589,8 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="142"/>
-      <c r="C14" s="144">
+      <c r="B14" s="147"/>
+      <c r="C14" s="149">
         <f>(B14/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -21514,8 +22634,8 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="142"/>
-      <c r="C15" s="144">
+      <c r="B15" s="147"/>
+      <c r="C15" s="149">
         <f>(B15/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -21561,10 +22681,10 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="143">
+      <c r="C16" s="148">
         <v>63</v>
       </c>
       <c r="D16" s="28">
@@ -21616,8 +22736,8 @@
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="28">
         <v>57.46</v>
       </c>
@@ -21710,15 +22830,15 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:39">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
@@ -21804,14 +22924,14 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="P24" s="4" t="s">
         <v>257</v>
       </c>
@@ -21841,10 +22961,10 @@
       <c r="AG24" t="s">
         <v>267</v>
       </c>
-      <c r="AJ24" s="106" t="s">
+      <c r="AJ24" s="114" t="s">
         <v>315</v>
       </c>
-      <c r="AK24" s="106"/>
+      <c r="AK24" s="114"/>
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="1" t="s">
@@ -22020,10 +23140,10 @@
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="138" t="s">
+      <c r="P27" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="149">
+      <c r="Q27" s="146">
         <v>188</v>
       </c>
       <c r="R27" s="29">
@@ -22071,8 +23191,8 @@
       </c>
     </row>
     <row r="28" spans="2:39">
-      <c r="P28" s="138"/>
-      <c r="Q28" s="149">
+      <c r="P28" s="132"/>
+      <c r="Q28" s="146">
         <f>(P28/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -22100,8 +23220,8 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="149">
+      <c r="P29" s="132"/>
+      <c r="Q29" s="146">
         <f>(P29/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -22175,10 +23295,10 @@
       </c>
     </row>
     <row r="31" spans="2:39">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="148">
+      <c r="C31" s="145">
         <v>105</v>
       </c>
       <c r="D31" s="31">
@@ -22196,10 +23316,10 @@
       <c r="H31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="121" t="s">
+      <c r="P31" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="121">
+      <c r="Q31" s="127">
         <v>105</v>
       </c>
       <c r="R31" s="24">
@@ -22219,8 +23339,8 @@
       </c>
     </row>
     <row r="32" spans="2:39">
-      <c r="B32" s="106"/>
-      <c r="C32" s="148"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="145"/>
       <c r="D32" s="31">
         <v>10.77</v>
       </c>
@@ -22236,8 +23356,8 @@
       <c r="H32" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
       <c r="R32" s="26">
         <v>10.77</v>
       </c>
@@ -22736,6 +23856,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="B31:B32"/>
@@ -22749,15 +23878,6 @@
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22783,15 +23903,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -22886,10 +24006,10 @@
       <c r="H7" t="s">
         <v>327</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="M7" s="106">
+      <c r="M7" s="114">
         <v>184</v>
       </c>
       <c r="N7">
@@ -22930,8 +24050,8 @@
       <c r="H8" t="s">
         <v>330</v>
       </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="114"/>
       <c r="N8">
         <v>-39.72</v>
       </c>
@@ -22949,8 +24069,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="127"/>
-      <c r="M9" s="106"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="114"/>
       <c r="N9">
         <v>-100</v>
       </c>
@@ -22968,8 +24088,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="127"/>
-      <c r="M10" s="106"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="114"/>
       <c r="N10">
         <v>-80.069999999999993</v>
       </c>
@@ -22990,8 +24110,8 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="110"/>
-      <c r="M11" s="106"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="114"/>
       <c r="N11">
         <v>-43.1</v>
       </c>
@@ -23322,15 +24442,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="M2" s="5" t="s">
         <v>389</v>
       </c>
@@ -23468,7 +24588,7 @@
       <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="154">
+      <c r="B6" s="159">
         <v>90</v>
       </c>
       <c r="C6" s="26">
@@ -23511,7 +24631,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="59"/>
-      <c r="B7" s="155"/>
+      <c r="B7" s="160"/>
       <c r="C7" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -23593,12 +24713,12 @@
       <c r="G9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="M9" s="133" t="s">
         <v>424</v>
       </c>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
       <c r="R9" t="s">
         <v>396</v>
       </c>
@@ -23614,7 +24734,7 @@
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="109">
         <v>86</v>
       </c>
       <c r="C10" s="24">
@@ -23653,7 +24773,7 @@
     </row>
     <row r="11" spans="1:25" ht="19" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="24">
         <v>-13.52</v>
       </c>
@@ -23692,7 +24812,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="15"/>
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="24">
         <v>-37.61</v>
       </c>
@@ -23741,7 +24861,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="16"/>
-      <c r="B13" s="113"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="26">
         <v>-51.13</v>
       </c>
@@ -24176,7 +25296,7 @@
       <c r="A23" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="156">
+      <c r="B23" s="153">
         <v>90</v>
       </c>
       <c r="C23" s="78">
@@ -24213,7 +25333,7 @@
     </row>
     <row r="24" spans="1:25" ht="19" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="157"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="78">
         <v>-19.440000000000001</v>
       </c>
@@ -24599,11 +25719,11 @@
       <c r="G37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="122" t="s">
+      <c r="M37" s="123" t="s">
         <v>425</v>
       </c>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="37" t="s">
@@ -24650,10 +25770,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="121">
+      <c r="B39" s="127">
         <v>188</v>
       </c>
       <c r="C39" s="4">
@@ -24692,8 +25812,8 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="19" thickBot="1">
-      <c r="A40" s="138"/>
-      <c r="B40" s="121">
+      <c r="A40" s="132"/>
+      <c r="B40" s="127">
         <f>(A40/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -24733,8 +25853,8 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="138"/>
-      <c r="B41" s="121">
+      <c r="A41" s="132"/>
+      <c r="B41" s="127">
         <f>(A41/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -24834,10 +25954,10 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="121">
+      <c r="B43" s="127">
         <v>105</v>
       </c>
       <c r="C43" s="24">
@@ -24884,8 +26004,8 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="19">
         <v>10.77</v>
       </c>
@@ -25055,10 +26175,10 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="150" t="s">
+      <c r="A49" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="B49" s="153">
+      <c r="B49" s="158">
         <v>184</v>
       </c>
       <c r="C49" s="34">
@@ -25107,8 +26227,8 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="151"/>
-      <c r="B50" s="153"/>
+      <c r="A50" s="156"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="36">
         <v>-39.72</v>
       </c>
@@ -25153,8 +26273,8 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="151"/>
-      <c r="B51" s="153"/>
+      <c r="A51" s="156"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="80">
         <v>-100</v>
       </c>
@@ -25193,8 +26313,8 @@
       <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="151"/>
-      <c r="B52" s="153"/>
+      <c r="A52" s="156"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="80">
         <v>-80.069999999999993</v>
       </c>
@@ -25225,8 +26345,8 @@
       <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" ht="19" thickBot="1">
-      <c r="A53" s="152"/>
-      <c r="B53" s="153"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="36">
         <v>-43.1</v>
       </c>
@@ -25396,18 +26516,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25601,11 +26721,11 @@
       <c r="G8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="M8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
@@ -25780,10 +26900,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="127">
         <v>90.999999999999943</v>
       </c>
       <c r="C13" s="22">
@@ -25827,8 +26947,8 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="138"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="22">
         <v>69.510000000000005</v>
       </c>
@@ -25873,7 +26993,7 @@
       <c r="A15" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="159">
+      <c r="B15" s="162">
         <v>96</v>
       </c>
       <c r="C15" s="22">
@@ -25915,7 +27035,7 @@
       <c r="A16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="132"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="4">
         <v>55.14</v>
       </c>
@@ -25945,7 +27065,7 @@
       <c r="A17" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="160"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="4">
         <v>20.49</v>
       </c>
@@ -25972,10 +27092,10 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="19" thickBot="1">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="161">
+      <c r="B18" s="164">
         <v>42.999999999999929</v>
       </c>
       <c r="C18" s="22">
@@ -26008,8 +27128,8 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="121"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="22">
         <v>26.62</v>
       </c>
@@ -26400,10 +27520,10 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="165">
         <v>189</v>
       </c>
       <c r="C31" s="21">
@@ -26426,8 +27546,8 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="129"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="21">
         <v>62.11</v>
       </c>
@@ -26500,10 +27620,10 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="158">
+      <c r="B35" s="161">
         <v>50</v>
       </c>
       <c r="C35" s="21">
@@ -26526,8 +27646,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="131"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="21">
         <v>91.27</v>
       </c>
@@ -26655,7 +27775,7 @@
       <c r="A41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="158">
+      <c r="B41" s="161">
         <v>90.000000000000057</v>
       </c>
       <c r="C41" s="21">
@@ -26678,7 +27798,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="B42" s="158"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="21">
         <v>81.13</v>
       </c>
@@ -26902,7 +28022,7 @@
       <c r="A53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="121">
+      <c r="B53" s="127">
         <v>84</v>
       </c>
       <c r="C53" s="22">
@@ -26929,7 +28049,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3"/>
-      <c r="B54" s="121"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="22">
         <v>24.45</v>
       </c>
@@ -26953,10 +28073,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="121">
+      <c r="B55" s="127">
         <v>63</v>
       </c>
       <c r="C55" s="100">
@@ -26980,8 +28100,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="100">
         <v>57.46</v>
       </c>
@@ -27283,11 +28403,11 @@
         <v>227</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="M67" s="122" t="s">
+      <c r="M67" s="123" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="3" t="s">
@@ -27856,30 +28976,30 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="I3:J12"/>
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="139" t="s">
         <v>443</v>
       </c>
-      <c r="L1" s="123"/>
+      <c r="L1" s="139"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="139" t="s">
         <v>459</v>
       </c>
-      <c r="P1" s="123"/>
+      <c r="P1" s="139"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="G2" t="s">
         <v>444</v>
       </c>
@@ -28692,32 +29812,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S86"/>
+  <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="23" max="23" width="39.33203125" customWidth="1"/>
+    <col min="24" max="24" width="42.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123" t="s">
+      <c r="E2" s="139"/>
+      <c r="F2" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
         <v>499</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -28909,38 +30033,38 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="139" t="s">
         <v>477</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123" t="s">
+      <c r="C9" s="139"/>
+      <c r="D9" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123" t="s">
+      <c r="E9" s="139"/>
+      <c r="F9" s="139" t="s">
         <v>498</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123" t="s">
+      <c r="G9" s="139"/>
+      <c r="H9" s="139" t="s">
         <v>499</v>
       </c>
-      <c r="I9" s="123"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="123" t="s">
+      <c r="N9" s="139" t="s">
         <v>511</v>
       </c>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123" t="s">
+      <c r="O9" s="139"/>
+      <c r="P9" s="139" t="s">
         <v>512</v>
       </c>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123" t="s">
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="S9" s="123"/>
+      <c r="S9" s="139"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
@@ -29024,11 +30148,11 @@
         <v>11</v>
       </c>
       <c r="H11" s="1">
-        <f>D11-F11</f>
+        <f t="shared" ref="H11:I14" si="1">D11-F11</f>
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <f>E11-G11</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J11" s="1">
@@ -29087,11 +30211,11 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <f>D12-F12</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <f>E12-G12</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J12" s="1">
@@ -29150,11 +30274,11 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
-        <f>D13-F13</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f>E13-G13</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J13" s="1">
@@ -29214,11 +30338,11 @@
         <v>4</v>
       </c>
       <c r="H14" s="1">
-        <f>D14-F14</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I14" s="1">
-        <f>E14-G14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="1">
@@ -29264,43 +30388,43 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:M15" si="1">AVERAGE(C11:C14)</f>
+        <f t="shared" ref="C15:L15" si="2">AVERAGE(C11:C14)</f>
         <v>10.75</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M15" s="1">
@@ -29308,56 +30432,56 @@
         <v>0.48715277777777777</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:O15" si="2">AVERAGE(N11:N14)</f>
+        <f t="shared" ref="N15:O15" si="3">AVERAGE(N11:N14)</f>
         <v>43.339932692307691</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.238861111111113</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ref="P15" si="3">AVERAGE(P11:P14)</f>
+        <f t="shared" ref="P15" si="4">AVERAGE(P11:P14)</f>
         <v>4.25</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ref="Q15" si="4">AVERAGE(Q11:Q14)</f>
+        <f t="shared" ref="Q15" si="5">AVERAGE(Q11:Q14)</f>
         <v>2.25</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" ref="R15" si="5">AVERAGE(R11:R14)</f>
+        <f t="shared" ref="R15" si="6">AVERAGE(R11:R14)</f>
         <v>4.5</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15" si="6">AVERAGE(S11:S14)</f>
+        <f t="shared" ref="S15" si="7">AVERAGE(S11:S14)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:24">
       <c r="Q17">
         <f>TTEST(P11:P14, Q11:Q14, 2, 1)</f>
         <v>0.16116184721351953</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="163"/>
-      <c r="B18" s="164" t="s">
+    <row r="18" spans="1:24">
+      <c r="A18" s="107"/>
+      <c r="B18" s="166" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164" t="s">
+      <c r="C18" s="166"/>
+      <c r="D18" s="166" t="s">
         <v>496</v>
       </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164" t="s">
+      <c r="E18" s="166"/>
+      <c r="F18" s="166" t="s">
         <v>498</v>
       </c>
-      <c r="G18" s="165"/>
-      <c r="H18" s="164" t="s">
+      <c r="G18" s="167"/>
+      <c r="H18" s="166" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="164"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="I18" s="166"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>476</v>
       </c>
@@ -29397,8 +30521,14 @@
       <c r="M19" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" t="s">
+        <v>518</v>
+      </c>
+      <c r="S19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>453</v>
       </c>
@@ -29421,11 +30551,11 @@
         <v>6</v>
       </c>
       <c r="H20" s="1">
-        <f>D20-F20</f>
+        <f t="shared" ref="H20:I23" si="8">D20-F20</f>
         <v>7</v>
       </c>
       <c r="I20" s="1">
-        <f>E20-G20</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J20" s="1">
@@ -29442,8 +30572,18 @@
         <f>K20/(K20+L20)</f>
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="Q20" t="s">
+        <v>516</v>
+      </c>
+      <c r="R20">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="S20">
+        <f>STDEV(M4:M5)</f>
+        <v>3.9283710065919242E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>485</v>
       </c>
@@ -29466,11 +30606,11 @@
         <v>6</v>
       </c>
       <c r="H21" s="1">
-        <f>D21-F21</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="I21" s="1">
-        <f>E21-G21</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J21" s="1">
@@ -29487,8 +30627,18 @@
         <f>K21/(K21+L21)</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Q21" t="s">
+        <v>519</v>
+      </c>
+      <c r="R21">
+        <v>0.48715277800000001</v>
+      </c>
+      <c r="S21">
+        <f>STDEV(M11:M14)</f>
+        <v>8.0454718177088713E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>486</v>
       </c>
@@ -29511,11 +30661,11 @@
         <v>4</v>
       </c>
       <c r="H22" s="1">
-        <f>D22-F22</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I22" s="1">
-        <f>E22-G22</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J22" s="1">
@@ -29533,8 +30683,18 @@
         <f>K22/(K22+L22)</f>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="Q22" t="s">
+        <v>520</v>
+      </c>
+      <c r="R22">
+        <v>0.26368093399999998</v>
+      </c>
+      <c r="S22">
+        <f>STDEV(M20:M23)</f>
+        <v>0.12551915184081702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>489</v>
       </c>
@@ -29557,11 +30717,11 @@
         <v>4</v>
       </c>
       <c r="H23" s="1">
-        <f>D23-F23</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I23" s="1">
-        <f>E23-G23</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J23" s="1">
@@ -29580,98 +30740,147 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:24">
       <c r="A24" s="26" t="s">
         <v>493</v>
       </c>
       <c r="B24" s="26">
-        <f>AVERAGE(B20:B23)</f>
+        <f t="shared" ref="B24:M24" si="9">AVERAGE(B20:B23)</f>
         <v>23</v>
       </c>
       <c r="C24" s="26">
-        <f>AVERAGE(C20:C23)</f>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="D24" s="26">
-        <f>AVERAGE(D20:D23)</f>
+        <f t="shared" si="9"/>
         <v>9.75</v>
       </c>
       <c r="E24" s="26">
-        <f>AVERAGE(E20:E23)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="F24" s="26">
-        <f>AVERAGE(F20:F23)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="G24" s="26">
-        <f>AVERAGE(G20:G23)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H24" s="26">
-        <f>AVERAGE(H20:H23)</f>
+        <f t="shared" si="9"/>
         <v>5.25</v>
       </c>
-      <c r="I24" s="166">
-        <f>AVERAGE(I20:I23)</f>
+      <c r="I24" s="108">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="J24" s="26">
-        <f>AVERAGE(J20:J23)</f>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="K24" s="26">
-        <f>AVERAGE(K20:K23)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L24" s="26">
-        <f>AVERAGE(L20:L23)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="M24" s="26">
-        <f>AVERAGE(M20:M23)</f>
+        <f t="shared" si="9"/>
         <v>0.263680933655979</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="25" spans="1:24">
+      <c r="W25" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="H26">
         <f>TTEST(H20:H23, I20:I23, 2, 1)</f>
         <v>0.45961970614652392</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="W26" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="W27" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>515</v>
+      </c>
       <c r="N28" t="s">
         <v>468</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="W28" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="N29" t="s">
         <v>469</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="W29" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="N30" t="s">
         <v>470</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="W30" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="N31" t="s">
         <v>482</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="W31" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="N32" t="s">
         <v>491</v>
       </c>
@@ -29781,4 +30990,294 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="106" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="35">
+        <v>7.35</v>
+      </c>
+      <c r="G3" s="35">
+        <v>-50.92</v>
+      </c>
+      <c r="H3" s="35">
+        <v>3.55</v>
+      </c>
+      <c r="I3" s="35">
+        <v>12.47</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="35">
+        <v>9.43</v>
+      </c>
+      <c r="G4" s="35">
+        <v>21.76</v>
+      </c>
+      <c r="H4" s="35">
+        <v>3.22</v>
+      </c>
+      <c r="I4" s="35">
+        <v>7.78</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="35">
+        <v>12.15</v>
+      </c>
+      <c r="G5" s="35">
+        <v>53.45</v>
+      </c>
+      <c r="H5" s="35">
+        <v>16.27</v>
+      </c>
+      <c r="I5" s="35">
+        <v>9.41</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="35">
+        <v>19.48</v>
+      </c>
+      <c r="G6" s="35">
+        <v>78.8</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="35">
+        <v>7.91</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="35">
+        <v>21.58</v>
+      </c>
+      <c r="G7" s="35">
+        <v>66.34</v>
+      </c>
+      <c r="H7" s="35">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I7" s="35">
+        <v>16.18</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="114" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="114"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" s="35">
+        <v>7.35</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="35">
+        <v>9.43</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" s="35">
+        <v>12.15</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="35">
+        <v>19.48</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C15" s="35">
+        <v>21.58</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -30,6 +30,9 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="565">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -2745,62 +2748,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SliderInputTime</t>
+  </si>
+  <si>
+    <t>VoiceInputTime</t>
+  </si>
+  <si>
+    <t>感情</t>
+  </si>
+  <si>
+    <t>理由</t>
+  </si>
+  <si>
+    <t>少し機嫌が戻りました。見つけました</t>
+  </si>
+  <si>
+    <t>興味ある記事を発見した</t>
+  </si>
+  <si>
+    <t>タウンルーレット当てた</t>
+  </si>
+  <si>
+    <t>アニマルスライド一発でクリアした</t>
+  </si>
+  <si>
+    <t>Time[min]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXPLOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UXCURVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Negative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>feel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reason</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>SliderInputTime</t>
-  </si>
-  <si>
-    <t>VoiceInputTime</t>
-  </si>
-  <si>
-    <t>感情</t>
-  </si>
-  <si>
-    <t>理由</t>
-  </si>
-  <si>
-    <t>少し機嫌が戻りました。見つけました</t>
-  </si>
-  <si>
-    <t>興味ある記事を発見した</t>
-  </si>
-  <si>
-    <t>タウンルーレット当てた</t>
-  </si>
-  <si>
-    <t>アニマルスライド一発でクリアした</t>
-  </si>
-  <si>
-    <t>Time[min]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エピソード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UXPLOT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UXCURVE</t>
+    <t>記事で面白そうなのがなかった</t>
+    <rPh sb="0" eb="2">
+      <t>キj</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オモシロs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンション下がった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品イベントが終了してるものばっか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2943,7 +2988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3138,8 +3183,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="909">
+  <cellStyleXfs count="939">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4049,8 +4129,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4373,8 +4483,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="909">
+  <cellStyles count="939">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4829,6 +4950,21 @@
     <cellStyle name="ハイパーリンク" xfId="903" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="905" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="937" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5284,6 +5420,21 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="904" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="906" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="938" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9349,6 +9500,197 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$P$8:$Q$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.892969448600091</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$P$8:$Q$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.892969448600091</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$10:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2100438088"/>
+        <c:axId val="-2128182296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2100438088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128182296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128182296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>入力数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2100438088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9774,6 +10116,484 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[13]UX比較!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXPLOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[13]UX比較!$A$4:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[13]UX比較!$B$4:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-43.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-51.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-85.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-86.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-37.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-51.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-83.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-45.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-43.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-28.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-33.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-31.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-82.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-33.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[14]直線補完!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXCURVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[13]UX比較!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[13]UX比較!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-60.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2101127720"/>
+        <c:axId val="-2098120712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2101127720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>TIME [min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2098120712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2098120712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="-100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101127720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -12685,6 +13505,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="グラフ 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12722,6 +13572,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13909,12 +14791,12 @@
       <sheetName val="UX比較"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="H3" t="str">
@@ -14206,6 +15088,413 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20161101-ふじい-藤井サントリー.csv"/>
+      <sheetName val="UXCURVE"/>
+      <sheetName val="ユーザビリティ"/>
+      <sheetName val="主観評価"/>
+      <sheetName val="動画"/>
+      <sheetName val="UX比較"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>UXPLOT</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>0</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>0.63</v>
+          </cell>
+          <cell r="B5">
+            <v>-79.86</v>
+          </cell>
+          <cell r="C5">
+            <v>4</v>
+          </cell>
+          <cell r="D5">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2</v>
+          </cell>
+          <cell r="B6">
+            <v>-17.54</v>
+          </cell>
+          <cell r="C6">
+            <v>8</v>
+          </cell>
+          <cell r="D6">
+            <v>-100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2.87</v>
+          </cell>
+          <cell r="B7">
+            <v>-39.72</v>
+          </cell>
+          <cell r="C7">
+            <v>10</v>
+          </cell>
+          <cell r="D7">
+            <v>-40</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>3.22</v>
+          </cell>
+          <cell r="B8">
+            <v>-100</v>
+          </cell>
+          <cell r="C8">
+            <v>13</v>
+          </cell>
+          <cell r="D8">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4.0199999999999996</v>
+          </cell>
+          <cell r="B9">
+            <v>-80.069999999999993</v>
+          </cell>
+          <cell r="C9">
+            <v>16</v>
+          </cell>
+          <cell r="D9">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>5.3</v>
+          </cell>
+          <cell r="B10">
+            <v>-43.1</v>
+          </cell>
+          <cell r="C10">
+            <v>21</v>
+          </cell>
+          <cell r="D10">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>7.3</v>
+          </cell>
+          <cell r="B11">
+            <v>-51.55</v>
+          </cell>
+          <cell r="C11">
+            <v>24</v>
+          </cell>
+          <cell r="D11">
+            <v>-60</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>7.97</v>
+          </cell>
+          <cell r="B12">
+            <v>-85.35</v>
+          </cell>
+          <cell r="C12">
+            <v>29</v>
+          </cell>
+          <cell r="D12">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>9.6</v>
+          </cell>
+          <cell r="B13">
+            <v>-86.41</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>10.63</v>
+          </cell>
+          <cell r="B14">
+            <v>37.18</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>10.85</v>
+          </cell>
+          <cell r="B15">
+            <v>57.46</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>12.3</v>
+          </cell>
+          <cell r="B16">
+            <v>24.72</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>12.72</v>
+          </cell>
+          <cell r="B17">
+            <v>-13.52</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>13.03</v>
+          </cell>
+          <cell r="B18">
+            <v>-37.61</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>13.4</v>
+          </cell>
+          <cell r="B19">
+            <v>-51.13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>13.95</v>
+          </cell>
+          <cell r="B20">
+            <v>-83.45</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>15.22</v>
+          </cell>
+          <cell r="B21">
+            <v>-100</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>17.37</v>
+          </cell>
+          <cell r="B22">
+            <v>-45.85</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>18.47</v>
+          </cell>
+          <cell r="B23">
+            <v>-9.7200000000000006</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>19.3</v>
+          </cell>
+          <cell r="B24">
+            <v>23.66</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>20</v>
+          </cell>
+          <cell r="B25">
+            <v>69.72</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>21.17</v>
+          </cell>
+          <cell r="B26">
+            <v>69.510000000000005</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>21.57</v>
+          </cell>
+          <cell r="B27">
+            <v>-43.52</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>22.13</v>
+          </cell>
+          <cell r="B28">
+            <v>31.06</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>22.3</v>
+          </cell>
+          <cell r="B29">
+            <v>-28.73</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>22.98</v>
+          </cell>
+          <cell r="B30">
+            <v>-33.17</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>23.18</v>
+          </cell>
+          <cell r="B31">
+            <v>55.14</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>23.45</v>
+          </cell>
+          <cell r="B32">
+            <v>20.49</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>23.98</v>
+          </cell>
+          <cell r="B33">
+            <v>-31.48</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>25.08</v>
+          </cell>
+          <cell r="B34">
+            <v>-82.39</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>25.55</v>
+          </cell>
+          <cell r="B35">
+            <v>-2.54</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>26.15</v>
+          </cell>
+          <cell r="B36">
+            <v>26.62</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>26.95</v>
+          </cell>
+          <cell r="B37">
+            <v>64.86</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>27.4</v>
+          </cell>
+          <cell r="B38">
+            <v>-33.17</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>28.58</v>
+          </cell>
+          <cell r="B39">
+            <v>40.770000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20151015-荒井俊貴-ゾンビグラフなし.csv"/>
+      <sheetName val="直線補完"/>
+      <sheetName val="スプライン補完"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>UXCURVE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="UX比較"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -29814,8 +31103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -30031,6 +31320,22 @@
         <v>0.86111111111111116</v>
       </c>
     </row>
+    <row r="7" spans="1:19">
+      <c r="P7" s="114" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q7" s="114"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="P8">
+        <f>STDEV(P11:P14)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <f>STDEV(Q11:Q14)</f>
+        <v>1.8929694486000912</v>
+      </c>
+    </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
       <c r="B9" s="139" t="s">
@@ -30113,10 +31418,10 @@
         <v>510</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>239</v>
@@ -30963,7 +32268,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
@@ -30979,6 +32284,7 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30994,10 +32300,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -31019,35 +32325,35 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>245</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>545</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -31103,7 +32409,7 @@
       </c>
       <c r="J4" s="35"/>
       <c r="K4" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -31128,7 +32434,7 @@
         <v>219</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31153,7 +32459,7 @@
         <v>219</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31186,89 +32492,293 @@
         <v>219</v>
       </c>
       <c r="K7" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" s="1"/>
+      <c r="F9" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139" t="s">
+        <v>552</v>
+      </c>
+      <c r="I9" s="139"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="114" t="s">
+      <c r="G10" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114" t="s">
+      <c r="F11" s="168">
+        <v>8</v>
+      </c>
+      <c r="G11" s="168" t="s">
+        <v>535</v>
+      </c>
+      <c r="H11" s="35">
+        <v>7.35</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="60">
+        <v>9.43</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="60">
+        <v>12.15</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F14" s="174"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="60">
+        <v>19.48</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="E15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F15" s="169">
+        <v>18</v>
+      </c>
+      <c r="G15" s="169" t="s">
+        <v>537</v>
+      </c>
+      <c r="H15" s="35">
+        <v>21.58</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="176">
+        <v>4</v>
+      </c>
+      <c r="B19" s="177">
+        <v>-50</v>
+      </c>
+      <c r="C19" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="178" t="s">
+        <v>562</v>
+      </c>
+      <c r="F19">
+        <v>12.3</v>
+      </c>
+      <c r="G19">
+        <v>24.72</v>
+      </c>
+      <c r="H19">
+        <v>0.89</v>
+      </c>
+      <c r="I19">
+        <v>4.13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="F20">
+        <v>12.72</v>
+      </c>
+      <c r="G20">
+        <v>-13.52</v>
+      </c>
+      <c r="H20">
+        <v>0.96</v>
+      </c>
+      <c r="I20">
+        <v>5.41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="F21">
+        <v>13.03</v>
+      </c>
+      <c r="G21">
+        <v>-37.61</v>
+      </c>
+      <c r="H21">
+        <v>0.65</v>
+      </c>
+      <c r="I21">
+        <v>8.34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>563</v>
+      </c>
+      <c r="K21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22">
+        <v>13.4</v>
+      </c>
+      <c r="G22">
+        <v>-51.13</v>
+      </c>
+      <c r="H22">
+        <v>0.53</v>
+      </c>
+      <c r="I22">
+        <v>5.73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="E24" s="1"/>
+      <c r="F24" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="114"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="G24" s="139"/>
+      <c r="H24" s="139" t="s">
+        <v>552</v>
+      </c>
+      <c r="I24" s="139"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="F25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B10" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C11" s="35">
-        <v>7.35</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="C12" s="35">
-        <v>9.43</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="35">
-        <v>12.15</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="35">
-        <v>19.48</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" s="35">
-        <v>21.58</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>550</v>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="F26" s="176">
+        <v>4</v>
+      </c>
+      <c r="G26" s="178" t="s">
+        <v>562</v>
+      </c>
+      <c r="H26">
+        <v>12.3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="H27">
+        <v>12.72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="H28">
+        <v>13.03</v>
+      </c>
+      <c r="I28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="H29">
+        <v>13.4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="4">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="579">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -1554,13 +1554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単におもしろい</t>
-    <rPh sb="0" eb="2">
-      <t>タンン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結果が悪かった</t>
     <rPh sb="0" eb="2">
       <t>ケッk</t>
@@ -2848,12 +2841,120 @@
     <t>商品イベントが終了してるものばっか</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>UX平均</t>
+    <rPh sb="2" eb="4">
+      <t>ヘイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力数</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報入力</t>
+    <rPh sb="3" eb="5">
+      <t>j</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツの場所</t>
+    <rPh sb="6" eb="8">
+      <t>バsy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー・不備</t>
+    <rPh sb="4" eb="6">
+      <t>フb</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不備⇆入力</t>
+    <rPh sb="0" eb="2">
+      <t>フb</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力⇆コンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力⇆場所がわからない</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バsy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力⇆操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ソウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツが良かった</t>
+    <rPh sb="6" eb="10">
+      <t>ヨカッt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2918,6 +3019,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="206"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3219,7 +3327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="939">
+  <cellStyleXfs count="975">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4159,8 +4267,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4494,8 +4638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="939">
+  <cellStyles count="975">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -4965,6 +5111,24 @@
     <cellStyle name="ハイパーリンク" xfId="933" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="935" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="973" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5435,6 +5599,24 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="934" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="936" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="974" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5667,6 +5849,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5682,6 +5865,871 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]UX比較!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXPLOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]UX比較!$F$3:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]UX比較!$G$3:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.77635683940025E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.06636582437697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.90852696378923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-34.13007505549707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-34.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.51875567288178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.24408468706095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.82008120947339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.82000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-47.33832065941655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-22.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.51999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.4483839190273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-24.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.76495407878944</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-29.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-48.33077009109541</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.44000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]UX比較!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXCURVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]UX比較!$F$3:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]UX比較!$H$3:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.4946875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.57298333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.62281333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.65333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-40.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33.35654999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.97598734375003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.67999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.42266666666663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.5896725864419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.43723353802007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-46.47001617851192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126467672"/>
+        <c:axId val="-2140967288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2126467672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>TIME [min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140967288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2140967288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126467672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]UX比較!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXPLOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]UX比較!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]UX比較!$G$4:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-27.552238075681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.96000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.88568802160111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.97723317787883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-67.18000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.30727997198092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.37000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.148064917506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.2037530704707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.84598829282105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.66000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]UX比較!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXCURVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]UX比較!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]UX比較!$H$4:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-22.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.434112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-72.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.21345800595238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.440078125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.61212037037036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.17398470464136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.76634951795967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.4011192502344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.46708700316455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110685528"/>
+        <c:axId val="-2125060920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110685528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>TIME [min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125060920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2125060920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2110685528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6375,7 +7423,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6757,7 +7805,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7163,7 +8211,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7569,7 +8617,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8220,7 +9268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8739,7 +9787,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9282,7 +10330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9499,7 +10547,179 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ゲーム系!$AJ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>27.17698160595701</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.68517550910258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>27.17698160595701</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.68517550910258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>ゲーム系!$AN$15:$AN$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>結果が良かった</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>コンテンツが良かった</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ゲーム系!$AO$15:$AO$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.7365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.14454545454547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126221560"/>
+        <c:axId val="-2140418216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126221560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140418216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140418216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126221560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9690,7 +10910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9993,138 +11213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ゲーム系!$AJ$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>ゲーム系!$AG$5:$AG$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>結果が良かった</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>単におもしろい</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ゲーム系!$AJ$5:$AJ$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>50.7365</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.07750000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2126221560"/>
-        <c:axId val="-2140418216"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2126221560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140418216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2140418216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126221560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10823,6 +11912,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11058,6 +12148,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11098,59 +12189,121 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'全体 negative'!$M$2</c:f>
+              <c:f>'全体 negative'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UX入力回数</c:v>
+                  <c:v>UX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'全体 negative'!$U$3:$U$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>21.49881671162395</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>28.64084433292015</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.74158153836944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23.03452264175087</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.61011580631023</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'全体 negative'!$U$3:$U$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>21.49881671162395</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>28.64084433292015</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.74158153836944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23.03452264175087</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.61011580631023</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'全体 negative'!$L$3:$L$7</c:f>
+              <c:f>'全体 negative'!$S$3:$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>不備</c:v>
+                  <c:v>エラー・不備</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>コンテンツが悪い</c:v>
+                  <c:v>コンテンツ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>目的のコンテンツの場所がわからない</c:v>
+                  <c:v>コンテンツの場所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>操作方法がわからない</c:v>
+                  <c:v>操作方法</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>入力に関する</c:v>
+                  <c:v>ユーザ情報入力</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'全体 negative'!$M$3:$M$7</c:f>
+              <c:f>'全体 negative'!$T$3:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>-63.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>-21.01153846153846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>-38.245625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>-13.87666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>-46.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11165,11 +12318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2128372648"/>
-        <c:axId val="2129582328"/>
+        <c:axId val="-2098236312"/>
+        <c:axId val="-2127754552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128372648"/>
+        <c:axId val="-2098236312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11178,7 +12331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129582328"/>
+        <c:crossAx val="-2127754552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11186,29 +12339,55 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129582328"/>
+        <c:axId val="-2127754552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128372648"/>
+        <c:crossAx val="-2098236312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -11232,6 +12411,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11339,6 +12519,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11354,6 +12535,325 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'全体 positive'!$J$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>25.94383998752677</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.3735663479939</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>36.88677857082852</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'全体 positive'!$J$11:$L$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>25.94383998752677</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.3735663479939</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>36.88677857082852</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'全体 positive'!$J$9:$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>コンテンツ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ポイント</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>タスク</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'全体 positive'!$J$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.21314814814815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.04333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2147450952"/>
+        <c:axId val="2130518648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2147450952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130518648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130518648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147450952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'全体 positive'!$J$9:$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>コンテンツ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ポイント</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>タスク</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'全体 positive'!$J$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2123345352"/>
+        <c:axId val="-2122373512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2123345352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122373512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2122373512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>UX</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>の入力数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123345352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12083,871 +13583,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[3]UX比較!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXPLOT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[3]UX比較!$F$3:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[3]UX比較!$G$3:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.77635683940025E-15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.06636582437697</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.90852696378923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-34.13007505549707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-34.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.51875567288178</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.24408468706095</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.82008120947339</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.82000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-47.33832065941655</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-22.39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.51999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82.4483839190273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-24.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.76495407878944</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-29.57999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-48.33077009109541</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>79.44000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[3]UX比較!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXCURVE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[3]UX比較!$F$3:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[3]UX比較!$H$3:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-35.4946875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.57298333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.62281333333332</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.65333333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-40.00000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-33.35654999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.97598734375003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.67999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.42266666666663</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.5896725864419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.43723353802007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-30.00000000000006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-46.47001617851192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2126467672"/>
-        <c:axId val="-2140967288"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2126467672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>TIME [min]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140967288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2140967288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>Value of UX [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126467672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[4]UX比較!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXPLOT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[4]UX比較!$F$4:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[4]UX比較!$G$4:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>22.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-27.552238075681</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-32.96000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.88568802160111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.97723317787883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-67.18000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.30727997198092</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89.37000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>108.148064917506</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105.2037530704707</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>82.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.84598829282105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98.66000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[4]UX比較!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXCURVE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[4]UX比較!$F$4:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.05</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[4]UX比較!$H$4:$H$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-22.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-30.434112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-72.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.21345800595238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86.440078125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87.99999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88.61212037037036</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94.17398470464136</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96.76634951795967</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.4011192502344</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98.46708700316455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2110685528"/>
-        <c:axId val="-2125060920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2110685528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>TIME [min]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125060920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2125060920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>Value of UX [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110685528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12987,16 +13622,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13088,19 +13723,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13145,6 +13780,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17889,7 +18584,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="J26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
@@ -18084,7 +18779,7 @@
         <v>15</v>
       </c>
       <c r="V8" s="114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W8" s="114"/>
       <c r="Y8">
@@ -18094,10 +18789,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="V9" t="s">
+        <v>340</v>
+      </c>
+      <c r="W9" t="s">
         <v>341</v>
-      </c>
-      <c r="W9" t="s">
-        <v>342</v>
       </c>
       <c r="Y9">
         <f>TTEST(V10:V11, W10:W21, 2, 2)</f>
@@ -18715,7 +19410,7 @@
         <v>133</v>
       </c>
       <c r="V28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -18770,7 +19465,7 @@
         <v>0.38090096529384365</v>
       </c>
       <c r="W30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -18893,15 +19588,15 @@
     </row>
     <row r="39" spans="1:21">
       <c r="R39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="R40" t="s">
+        <v>343</v>
+      </c>
+      <c r="S40" t="s">
         <v>344</v>
-      </c>
-      <c r="S40" t="s">
-        <v>345</v>
       </c>
       <c r="U40">
         <f>FTEST(R41:R44, S41:S46)</f>
@@ -18958,7 +19653,7 @@
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -18991,15 +19686,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AP102"/>
   <sheetViews>
-    <sheetView topLeftCell="AD3" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" topLeftCell="AE6" workbookViewId="0">
+      <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:42">
       <c r="C1" t="s">
         <v>280</v>
       </c>
@@ -19007,13 +19702,13 @@
         <v>96</v>
       </c>
       <c r="AG1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="114" t="s">
         <v>16</v>
       </c>
@@ -19025,7 +19720,7 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -19079,7 +19774,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:42">
       <c r="C4" s="20"/>
       <c r="D4" s="19">
         <v>16.48</v>
@@ -19157,7 +19852,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -19254,7 +19949,7 @@
         <v>9.1469999999999985</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -19329,7 +20024,7 @@
         <v>5.835</v>
       </c>
       <c r="AG6" s="23" t="s">
-        <v>292</v>
+        <v>576</v>
       </c>
       <c r="AH6">
         <f>AA5-AH5</f>
@@ -19352,7 +20047,7 @@
         <v>9.7764999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:42">
       <c r="A7" s="140" t="s">
         <v>26</v>
       </c>
@@ -19408,7 +20103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:42">
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="143"/>
@@ -19455,7 +20150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -19514,10 +20209,10 @@
         <v>246</v>
       </c>
       <c r="AK9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -19566,10 +20261,10 @@
         <v>55.14</v>
       </c>
       <c r="AE10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI10" t="s">
         <v>246</v>
@@ -19579,7 +20274,7 @@
         <v>0.49421136108689917</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -19644,13 +20339,13 @@
         <v>9.5377471378244802E-2</v>
       </c>
       <c r="AL11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM11" t="s">
         <v>298</v>
       </c>
-      <c r="AM11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
+    </row>
+    <row r="12" spans="1:42">
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
@@ -19682,7 +20377,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:42">
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
@@ -19710,7 +20405,7 @@
         <v>31.06</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:42">
       <c r="A14" s="114" t="s">
         <v>61</v>
       </c>
@@ -19749,8 +20444,18 @@
       <c r="AI14" s="24">
         <v>-2.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AK14" s="114" t="s">
+        <v>577</v>
+      </c>
+      <c r="AL14" s="114"/>
+      <c r="AO14" t="s">
+        <v>578</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -19798,8 +20503,25 @@
       <c r="AI15" s="24">
         <v>26.62</v>
       </c>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AK15" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL15" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN15" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO15">
+        <f>AVERAGE(AK16:AK35)</f>
+        <v>50.736499999999999</v>
+      </c>
+      <c r="AP15">
+        <f>STDEV(AK16:AK35)</f>
+        <v>27.176981605957014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
@@ -19854,8 +20576,25 @@
       <c r="AI16" s="24">
         <v>69.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AK16" s="49">
+        <v>16.48</v>
+      </c>
+      <c r="AL16" s="24">
+        <v>69.72</v>
+      </c>
+      <c r="AN16" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO16">
+        <f>AVERAGE(AL16:AL37)</f>
+        <v>37.144545454545465</v>
+      </c>
+      <c r="AP16">
+        <f>STDEV(AL16:AL37)</f>
+        <v>22.685175509102582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
@@ -19907,8 +20646,14 @@
       <c r="AI17" s="24">
         <v>50.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AK17" s="49">
+        <v>37.82</v>
+      </c>
+      <c r="AL17" s="24">
+        <v>69.510000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="Q18" s="3" t="s">
         <v>26</v>
       </c>
@@ -19939,8 +20684,14 @@
       <c r="AI18" s="23">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AK18" s="49">
+        <v>21.97</v>
+      </c>
+      <c r="AL18" s="24">
+        <v>31.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="123" t="s">
         <v>72</v>
       </c>
@@ -19980,8 +20731,18 @@
       <c r="AI19" s="23">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AK19" s="49">
+        <v>41.83</v>
+      </c>
+      <c r="AL19" s="29">
+        <v>55.14</v>
+      </c>
+      <c r="AN19">
+        <f>FTEST(AK16:AK35, AL16:AL37)</f>
+        <v>0.42101869394864372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="B20" s="1" t="s">
         <v>272</v>
       </c>
@@ -20033,8 +20794,18 @@
       <c r="AI20" s="23">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AK20" s="49">
+        <v>58.73</v>
+      </c>
+      <c r="AL20" s="29">
+        <v>20.49</v>
+      </c>
+      <c r="AN20" s="180">
+        <f>TTEST(AK16:AK35, AL16:AL37, 2, 2)</f>
+        <v>8.5134430291591165E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="B21" s="1" t="s">
         <v>273</v>
       </c>
@@ -20086,8 +20857,14 @@
       <c r="AI21" s="23">
         <v>29.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AK21" s="49">
+        <v>78.8</v>
+      </c>
+      <c r="AL21" s="24">
+        <v>-2.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="B22" s="1" t="s">
         <v>274</v>
       </c>
@@ -20137,8 +20914,14 @@
       <c r="AI22" s="23">
         <v>25.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AK22" s="49">
+        <v>66.34</v>
+      </c>
+      <c r="AL22" s="24">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="B23" s="138" t="s">
         <v>81</v>
       </c>
@@ -20188,8 +20971,14 @@
       <c r="AI23" s="23">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AK23" s="48">
+        <v>-5.07</v>
+      </c>
+      <c r="AL23" s="24">
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="B24" s="138"/>
       <c r="C24" s="139"/>
       <c r="D24" s="19">
@@ -20235,8 +21024,14 @@
       <c r="AI24" s="23">
         <v>16.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AK24" s="48">
+        <v>18.8</v>
+      </c>
+      <c r="AL24" s="24">
+        <v>50.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="B25" s="138" t="s">
         <v>275</v>
       </c>
@@ -20284,8 +21079,14 @@
       <c r="AI25" s="23">
         <v>82.82</v>
       </c>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AK25" s="48">
+        <v>62.11</v>
+      </c>
+      <c r="AL25" s="23">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="B26" s="138"/>
       <c r="C26" s="139"/>
       <c r="D26" s="4">
@@ -20331,8 +21132,14 @@
       <c r="AI26" s="23">
         <v>47.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AK26" s="48">
+        <v>91.27</v>
+      </c>
+      <c r="AL26" s="23">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="B27" s="138"/>
       <c r="C27" s="139"/>
       <c r="D27" s="4">
@@ -20378,8 +21185,14 @@
       <c r="AI27" s="23">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AK27" s="48">
+        <v>68.03</v>
+      </c>
+      <c r="AL27" s="23">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="B28" s="138"/>
       <c r="C28" s="139"/>
       <c r="D28" s="19">
@@ -20427,8 +21240,14 @@
       <c r="AI28" s="23">
         <v>30.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AK28" s="48">
+        <v>81.13</v>
+      </c>
+      <c r="AL28" s="23">
+        <v>29.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="B29" s="138"/>
       <c r="C29" s="139"/>
       <c r="D29" s="19">
@@ -20480,8 +21299,14 @@
       <c r="AI29" s="23">
         <v>14.58</v>
       </c>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AK29" s="48">
+        <v>84.51</v>
+      </c>
+      <c r="AL29" s="23">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="B30" s="127" t="s">
         <v>152</v>
       </c>
@@ -20537,8 +21362,14 @@
       <c r="AI30" s="23">
         <v>49.23</v>
       </c>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AK30" s="48">
+        <v>47.96</v>
+      </c>
+      <c r="AL30" s="23">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="B31" s="127"/>
       <c r="C31" s="139"/>
       <c r="D31" s="4">
@@ -20588,8 +21419,14 @@
       <c r="AB31" s="23">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AK31" s="48">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="AL31" s="23">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="B32" s="127" t="s">
         <v>192</v>
       </c>
@@ -20641,8 +21478,14 @@
       <c r="AB32" s="48">
         <v>62.11</v>
       </c>
-    </row>
-    <row r="33" spans="2:28">
+      <c r="AK32" s="48">
+        <v>76.06</v>
+      </c>
+      <c r="AL32" s="23">
+        <v>82.82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38">
       <c r="B33" s="127"/>
       <c r="C33" s="139"/>
       <c r="D33" s="19">
@@ -20694,8 +21537,14 @@
       <c r="AB33" s="23">
         <v>16.48</v>
       </c>
-    </row>
-    <row r="34" spans="2:28">
+      <c r="AK33" s="50">
+        <v>27.04</v>
+      </c>
+      <c r="AL33" s="23">
+        <v>47.11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38">
       <c r="K34" s="11">
         <v>43</v>
       </c>
@@ -20730,8 +21579,14 @@
       <c r="AB34" s="23">
         <v>82.82</v>
       </c>
-    </row>
-    <row r="35" spans="2:28">
+      <c r="AK34" s="48">
+        <v>43.52</v>
+      </c>
+      <c r="AL34" s="23">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38">
       <c r="K35" s="10"/>
       <c r="M35" s="3">
         <v>-33.17</v>
@@ -20760,8 +21615,14 @@
       <c r="AB35" s="23">
         <v>47.11</v>
       </c>
-    </row>
-    <row r="36" spans="2:28">
+      <c r="AK35" s="48">
+        <v>24.72</v>
+      </c>
+      <c r="AL35" s="23">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38">
       <c r="B36" s="114" t="s">
         <v>108</v>
       </c>
@@ -20798,8 +21659,11 @@
       <c r="AB36" s="48">
         <v>91.27</v>
       </c>
-    </row>
-    <row r="37" spans="2:28">
+      <c r="AL36" s="23">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38">
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
@@ -20849,8 +21713,11 @@
       <c r="AB37" s="48">
         <v>68.03</v>
       </c>
-    </row>
-    <row r="38" spans="2:28">
+      <c r="AL37" s="23">
+        <v>49.23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -20899,7 +21766,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" spans="2:38">
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
@@ -20950,7 +21817,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="40" spans="2:28">
+    <row r="40" spans="2:38">
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
@@ -21003,7 +21870,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="41" spans="2:28">
+    <row r="41" spans="2:38">
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
@@ -21054,7 +21921,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:38">
       <c r="Q42" s="2" t="s">
         <v>216</v>
       </c>
@@ -21080,7 +21947,7 @@
         <v>81.13</v>
       </c>
     </row>
-    <row r="43" spans="2:28">
+    <row r="43" spans="2:38">
       <c r="B43" s="114" t="s">
         <v>120</v>
       </c>
@@ -21114,7 +21981,7 @@
         <v>84.51</v>
       </c>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:38">
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
@@ -21161,7 +22028,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:38">
       <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
@@ -21208,7 +22075,7 @@
         <v>72.680000000000007</v>
       </c>
     </row>
-    <row r="46" spans="2:28">
+    <row r="46" spans="2:38">
       <c r="Q46" s="17" t="s">
         <v>258</v>
       </c>
@@ -21232,7 +22099,7 @@
         <v>76.06</v>
       </c>
     </row>
-    <row r="47" spans="2:28">
+    <row r="47" spans="2:38">
       <c r="B47" t="s">
         <v>134</v>
       </c>
@@ -21240,7 +22107,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:38">
       <c r="B48" s="140" t="s">
         <v>135</v>
       </c>
@@ -21459,7 +22326,7 @@
         <v>9.0895238095238096</v>
       </c>
       <c r="AG52" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH52">
         <v>8</v>
@@ -21542,7 +22409,7 @@
         <v>12.972499999999998</v>
       </c>
       <c r="AG53" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH53">
         <f>AA52-AH52</f>
@@ -21678,7 +22545,7 @@
         <v>210</v>
       </c>
       <c r="AL55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="2:40">
@@ -21723,7 +22590,7 @@
         <v>276</v>
       </c>
       <c r="AI56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ56" t="s">
         <v>256</v>
@@ -21783,10 +22650,10 @@
         <v>0.69716951776021252</v>
       </c>
       <c r="AM57" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN57" t="s">
         <v>301</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:40">
@@ -21875,10 +22742,10 @@
         <v>89</v>
       </c>
       <c r="AC59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI59" s="49">
         <v>23.66</v>
@@ -21921,7 +22788,7 @@
         <v>90</v>
       </c>
       <c r="AA60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC60" s="24">
         <v>-57.04</v>
@@ -22092,7 +22959,7 @@
         <v>137</v>
       </c>
       <c r="AA64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC64" s="24">
         <v>-9.7200000000000006</v>
@@ -22256,7 +23123,7 @@
         <v>155</v>
       </c>
       <c r="AA68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC68" s="49">
         <v>-82.39</v>
@@ -22863,7 +23730,7 @@
         <v>0.67575151385258603</v>
       </c>
       <c r="AB83" s="114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC83" s="114"/>
       <c r="AD83" s="114"/>
@@ -22923,7 +23790,7 @@
         <v>215</v>
       </c>
       <c r="Z85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB85" s="103">
         <v>87.000000000000043</v>
@@ -23035,7 +23902,7 @@
     </row>
     <row r="89" spans="2:30">
       <c r="Z89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AB89" s="3">
         <v>47.999999999999865</v>
@@ -23148,7 +24015,7 @@
         <v>234</v>
       </c>
       <c r="Z94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB94" s="5">
         <v>69</v>
@@ -23196,7 +24063,8 @@
       <c r="AB102" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="I48:I55"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
@@ -23272,7 +24140,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:AM58"/>
   <sheetViews>
-    <sheetView topLeftCell="M2" workbookViewId="0">
+    <sheetView topLeftCell="U2" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -23510,10 +24378,10 @@
         <v>10.009166666666667</v>
       </c>
       <c r="AH5" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI5" t="s">
         <v>312</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>313</v>
       </c>
       <c r="AJ5" s="8">
         <v>84</v>
@@ -23594,7 +24462,7 @@
       </c>
       <c r="AH6" s="114"/>
       <c r="AI6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ6" s="23">
         <v>144.00000000000003</v>
@@ -24251,7 +25119,7 @@
         <v>267</v>
       </c>
       <c r="AJ24" s="114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AK24" s="114"/>
     </row>
@@ -24860,10 +25728,10 @@
         <v>196</v>
       </c>
       <c r="Q40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T40">
         <f>FTEST(Q41:Q58, R41:R50)</f>
@@ -25185,15 +26053,15 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -25204,10 +26072,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C3">
         <v>184</v>
@@ -25222,10 +26090,10 @@
         <v>4.01</v>
       </c>
       <c r="G3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" t="s">
         <v>319</v>
-      </c>
-      <c r="H3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -25239,10 +26107,10 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="G4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" t="s">
         <v>321</v>
-      </c>
-      <c r="H4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -25256,10 +26124,10 @@
         <v>9.14</v>
       </c>
       <c r="G5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" t="s">
         <v>323</v>
-      </c>
-      <c r="H5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -25276,7 +26144,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -25290,13 +26158,13 @@
         <v>8.19</v>
       </c>
       <c r="G7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="H7" t="s">
-        <v>327</v>
-      </c>
       <c r="L7" s="140" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M7" s="114">
         <v>184</v>
@@ -25311,18 +26179,18 @@
         <v>4.01</v>
       </c>
       <c r="Q7" t="s">
+        <v>318</v>
+      </c>
+      <c r="R7" t="s">
         <v>319</v>
-      </c>
-      <c r="R7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -25337,7 +26205,7 @@
         <v>12.58</v>
       </c>
       <c r="H8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L8" s="141"/>
       <c r="M8" s="114"/>
@@ -25351,10 +26219,10 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="Q8" t="s">
+        <v>320</v>
+      </c>
+      <c r="R8" t="s">
         <v>321</v>
-      </c>
-      <c r="R8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -25370,10 +26238,10 @@
         <v>9.14</v>
       </c>
       <c r="Q9" t="s">
+        <v>322</v>
+      </c>
+      <c r="R9" t="s">
         <v>323</v>
-      </c>
-      <c r="R9" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -25392,7 +26260,7 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -25411,18 +26279,18 @@
         <v>8.19</v>
       </c>
       <c r="Q11" t="s">
+        <v>325</v>
+      </c>
+      <c r="R11" t="s">
         <v>326</v>
-      </c>
-      <c r="R11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C12">
         <v>164</v>
@@ -25437,13 +26305,13 @@
         <v>15.32</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M12">
         <v>58</v>
@@ -25458,12 +26326,12 @@
         <v>12.58</v>
       </c>
       <c r="R12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="L13" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M13">
         <v>164</v>
@@ -25478,18 +26346,18 @@
         <v>15.32</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M14">
         <v>124</v>
@@ -25504,18 +26372,18 @@
         <v>14.61</v>
       </c>
       <c r="Q14" t="s">
+        <v>333</v>
+      </c>
+      <c r="R14" t="s">
         <v>334</v>
-      </c>
-      <c r="R14" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C15">
         <v>124</v>
@@ -25530,13 +26398,13 @@
         <v>14.61</v>
       </c>
       <c r="G15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" t="s">
         <v>334</v>
       </c>
-      <c r="H15" t="s">
-        <v>335</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M15">
         <v>213</v>
@@ -25551,18 +26419,18 @@
         <v>24.96</v>
       </c>
       <c r="Q15" t="s">
+        <v>336</v>
+      </c>
+      <c r="R15" t="s">
         <v>337</v>
-      </c>
-      <c r="R15" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M16">
         <v>182</v>
@@ -25580,12 +26448,12 @@
         <v>29</v>
       </c>
       <c r="R16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17">
         <v>213</v>
@@ -25600,13 +26468,13 @@
         <v>24.96</v>
       </c>
       <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
         <v>337</v>
       </c>
-      <c r="H17" t="s">
-        <v>338</v>
-      </c>
       <c r="L17" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M17" s="18">
         <v>561</v>
@@ -25621,10 +26489,10 @@
         <v>10.11</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="R17" s="18" t="s">
         <v>385</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -25642,7 +26510,7 @@
         <v>-47.566666666666663</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F20">
         <v>182</v>
@@ -25660,17 +26528,17 @@
         <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="E21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="E22" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F22" s="18">
         <v>561</v>
@@ -25685,10 +26553,10 @@
         <v>10.11</v>
       </c>
       <c r="J22" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>385</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -25713,8 +26581,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -25741,19 +26609,25 @@
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
       <c r="M2" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>392</v>
+      <c r="T2" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -25779,7 +26653,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M3" s="5">
         <v>7</v>
@@ -25800,13 +26674,24 @@
         <f t="shared" si="0"/>
         <v>10.747142857142858</v>
       </c>
+      <c r="S3" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="T3" s="179">
+        <f>AVERAGE(M11:M16)</f>
+        <v>-63.97999999999999</v>
+      </c>
+      <c r="U3" s="5">
+        <f>STDEV(M11:M16)</f>
+        <v>21.498816711623949</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M4" s="5">
         <v>13</v>
@@ -25827,6 +26712,17 @@
         <f t="shared" si="1"/>
         <v>8.1630769230769236</v>
       </c>
+      <c r="S4" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="T4" s="5">
+        <f>AVERAGE(N11:N23)</f>
+        <v>-21.011538461538461</v>
+      </c>
+      <c r="U4" s="5">
+        <f>STDEV(N11:N23)</f>
+        <v>28.640844332920146</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
@@ -25851,7 +26747,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="5">
         <v>16</v>
@@ -25872,6 +26768,17 @@
         <f t="shared" si="2"/>
         <v>8.2146666666666661</v>
       </c>
+      <c r="S5" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="T5" s="5">
+        <f>AVERAGE(O11:O26)</f>
+        <v>-38.245624999999997</v>
+      </c>
+      <c r="U5" s="5">
+        <f>STDEV(O11:O26)</f>
+        <v>27.741581538369442</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="58" t="s">
@@ -25896,7 +26803,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M6" s="5">
         <v>3</v>
@@ -25916,6 +26823,17 @@
       <c r="Q6" s="5">
         <f t="shared" si="3"/>
         <v>8.5633333333333326</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="T6" s="5">
+        <f>AVERAGE(P11:P13)</f>
+        <v>-13.876666666666665</v>
+      </c>
+      <c r="U6" s="5">
+        <f>STDEV(P11:P13)</f>
+        <v>23.034522641750868</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -25937,7 +26855,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M7" s="5">
         <v>6</v>
@@ -25958,6 +26876,17 @@
         <f t="shared" si="4"/>
         <v>14.305</v>
       </c>
+      <c r="S7" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="T7" s="5">
+        <f>AVERAGE(Q11:Q21)</f>
+        <v>-46.62</v>
+      </c>
+      <c r="U7" s="5">
+        <f>STDEV(Q11:Q21)</f>
+        <v>24.610115806310233</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
@@ -26002,14 +26931,15 @@
       <c r="G9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="133" t="s">
-        <v>424</v>
-      </c>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
+      <c r="M9" s="125" t="s">
+        <v>423</v>
+      </c>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
       <c r="R9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -26043,13 +26973,16 @@
         <v>242</v>
       </c>
       <c r="N10" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>381</v>
+      <c r="Q10" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -26088,8 +27021,11 @@
       <c r="P11" s="84">
         <v>-34.86</v>
       </c>
+      <c r="Q11">
+        <v>-17.54</v>
+      </c>
       <c r="R11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -26129,20 +27065,23 @@
       <c r="P12" s="19">
         <v>10.77</v>
       </c>
+      <c r="Q12">
+        <v>-39.72</v>
+      </c>
       <c r="R12" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="S12" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="T12" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="U12" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="U12" s="89" t="s">
+      <c r="V12" s="89" t="s">
         <v>401</v>
-      </c>
-      <c r="V12" s="89" t="s">
-        <v>402</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -26176,8 +27115,11 @@
       <c r="P13" s="33">
         <v>-17.54</v>
       </c>
+      <c r="Q13">
+        <v>-100</v>
+      </c>
       <c r="R13" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S13" s="42">
         <v>6</v>
@@ -26227,8 +27169,11 @@
         <v>-79.86</v>
       </c>
       <c r="P14" s="3"/>
+      <c r="Q14">
+        <v>-80.069999999999993</v>
+      </c>
       <c r="R14" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S14" s="42">
         <v>13</v>
@@ -26279,8 +27224,11 @@
         <v>-51.13</v>
       </c>
       <c r="P15" s="3"/>
+      <c r="Q15">
+        <v>-43.1</v>
+      </c>
       <c r="R15" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S15" s="42">
         <v>16</v>
@@ -26330,8 +27278,11 @@
         <v>7.35</v>
       </c>
       <c r="P16" s="3"/>
+      <c r="Q16">
+        <v>-33.17</v>
+      </c>
       <c r="R16" s="88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S16" s="88">
         <v>3</v>
@@ -26377,6 +27328,9 @@
         <v>-23.87</v>
       </c>
       <c r="P17" s="3"/>
+      <c r="Q17" s="1">
+        <v>-53.66</v>
+      </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
@@ -26395,6 +27349,9 @@
         <v>-34.86</v>
       </c>
       <c r="P18" s="3"/>
+      <c r="Q18">
+        <v>-40.770000000000003</v>
+      </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -26406,7 +27363,7 @@
     </row>
     <row r="19" spans="1:25" ht="19" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="24">
@@ -26416,8 +27373,11 @@
         <v>-33.380000000000003</v>
       </c>
       <c r="P19" s="3"/>
+      <c r="Q19">
+        <v>-20.07</v>
+      </c>
       <c r="R19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
@@ -26429,7 +27389,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="76">
         <v>59</v>
@@ -26447,7 +27407,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="24">
@@ -26457,32 +27417,35 @@
         <v>-45</v>
       </c>
       <c r="P20" s="3"/>
+      <c r="Q20">
+        <v>-51.76</v>
+      </c>
       <c r="R20" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="S20" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="T20" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="T20" s="89" t="s">
+      <c r="U20" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="V20" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="U20" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="V20" s="89" t="s">
+      <c r="W20" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="W20" s="89" t="s">
+      <c r="X20" s="89" t="s">
         <v>412</v>
-      </c>
-      <c r="X20" s="89" t="s">
-        <v>413</v>
       </c>
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" s="70">
         <v>11</v>
@@ -26497,10 +27460,10 @@
         <v>6.57</v>
       </c>
       <c r="F21" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>349</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>350</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="24">
@@ -26510,8 +27473,11 @@
         <v>-19.440000000000001</v>
       </c>
       <c r="P21" s="3"/>
+      <c r="Q21" s="18">
+        <v>-32.96</v>
+      </c>
       <c r="R21" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S21" s="42">
         <v>9080.060646668353</v>
@@ -26535,7 +27501,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="68">
         <v>49</v>
@@ -26550,10 +27516,10 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="F22" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="69" t="s">
         <v>352</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>353</v>
       </c>
       <c r="H22" s="66"/>
       <c r="M22" s="3"/>
@@ -26565,7 +27531,7 @@
       </c>
       <c r="P22" s="3"/>
       <c r="R22" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S22" s="42">
         <v>24759.679829647437</v>
@@ -26583,7 +27549,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B23" s="153">
         <v>90</v>
@@ -26598,10 +27564,10 @@
         <v>19.25</v>
       </c>
       <c r="F23" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="77" t="s">
         <v>355</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>356</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="24">
@@ -26633,10 +27599,10 @@
         <v>8.41</v>
       </c>
       <c r="F24" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" s="77" t="s">
         <v>357</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>358</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -26645,7 +27611,7 @@
       </c>
       <c r="P24" s="3"/>
       <c r="R24" s="88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S24" s="88">
         <v>33839.74047631579</v>
@@ -26661,7 +27627,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25" s="47">
         <v>71</v>
@@ -26679,7 +27645,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -26698,7 +27664,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B26" s="60">
         <v>69</v>
@@ -26723,7 +27689,7 @@
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
@@ -26736,7 +27702,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B27" s="73">
         <v>86</v>
@@ -26755,7 +27721,7 @@
         <v>68</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M27" s="5">
         <f>AVERAGE(M11:M16)</f>
@@ -26798,7 +27764,7 @@
         <v>70098.689882068735</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -26809,20 +27775,32 @@
       <c r="A29" s="64"/>
       <c r="B29" s="74"/>
       <c r="N29" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>420</v>
+      <c r="Q29" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="65"/>
       <c r="B30" s="75"/>
       <c r="M30" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N30" s="5">
         <f>FTEST(M11:M16, N11:N23)</f>
@@ -26836,10 +27814,26 @@
         <f>FTEST(M11:M16, P11:P13)</f>
         <v>0.77759387624848064</v>
       </c>
+      <c r="Q30" s="5">
+        <f>FTEST(M11:M16, Q11:Q21)</f>
+        <v>0.80710146663623761</v>
+      </c>
+      <c r="S30" s="5">
+        <f>FTEST(N11:N23, Q11:Q21)</f>
+        <v>0.63977478045422187</v>
+      </c>
+      <c r="T30" s="5">
+        <f>FTEST(O11:O26, Q11:Q21)</f>
+        <v>0.7158438824293456</v>
+      </c>
+      <c r="U30" s="5">
+        <f>FTEST(P11:P13, Q11:Q21)</f>
+        <v>0.89217684197575964</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="78">
         <v>224</v>
@@ -26860,7 +27854,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N31" s="91">
         <f>TTEST(M11:M16, N11:N23, 2, 2)</f>
@@ -26874,10 +27868,26 @@
         <f>TTEST(M11:M16, P11:P13, 2, 2)</f>
         <v>1.4485556306217005E-2</v>
       </c>
+      <c r="Q31" s="5">
+        <f>TTEST(M11:M16, Q11:Q21, 2, 2)</f>
+        <v>0.16812734186380124</v>
+      </c>
+      <c r="S31" s="91">
+        <f>TTEST(N11:N23, Q11:Q21, 2, 2)</f>
+        <v>2.9682004265430932E-2</v>
+      </c>
+      <c r="T31" s="5">
+        <f>TTEST(O11:O26, Q11:Q21, 2, 2)</f>
+        <v>0.42794933591644979</v>
+      </c>
+      <c r="U31" s="92">
+        <f>TTEST(P11:P13, Q11:Q21, 2, 2)</f>
+        <v>6.1322581706337434E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32" s="47">
         <v>279</v>
@@ -26892,24 +27902,24 @@
         <v>12.23</v>
       </c>
       <c r="F32" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="G32" s="47" t="s">
-        <v>364</v>
-      </c>
       <c r="N32" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" s="77">
         <v>36</v>
@@ -26924,13 +27934,13 @@
         <v>8.57</v>
       </c>
       <c r="F33" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="G33" s="77" t="s">
-        <v>367</v>
-      </c>
       <c r="M33" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N33" s="5">
         <f>FTEST(N11:N23, O11:O26)</f>
@@ -26947,7 +27957,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="83">
         <v>22</v>
@@ -26966,7 +27976,7 @@
         <v>229</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N34" s="5">
         <f>TTEST(N11:N23, O11:O26, 2, 2)</f>
@@ -26983,7 +27993,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -27009,7 +28019,7 @@
         <v>7</v>
       </c>
       <c r="M37" s="123" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N37" s="123"/>
       <c r="O37" s="123"/>
@@ -27040,16 +28050,16 @@
         <v>242</v>
       </c>
       <c r="N38" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="O38" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="O38" s="26" t="s">
+      <c r="P38" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="P38" s="19" t="s">
-        <v>381</v>
-      </c>
       <c r="R38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S38"/>
       <c r="T38"/>
@@ -27132,7 +28142,7 @@
         <v>105</v>
       </c>
       <c r="R40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S40"/>
       <c r="T40"/>
@@ -27175,19 +28185,19 @@
         <v>184</v>
       </c>
       <c r="R41" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="S41" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="S41" s="89" t="s">
+      <c r="T41" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="T41" s="89" t="s">
+      <c r="U41" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="U41" s="89" t="s">
+      <c r="V41" s="89" t="s">
         <v>401</v>
-      </c>
-      <c r="V41" s="89" t="s">
-        <v>402</v>
       </c>
       <c r="W41"/>
       <c r="X41"/>
@@ -27225,7 +28235,7 @@
       </c>
       <c r="P42" s="3"/>
       <c r="R42" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S42" s="42">
         <v>6</v>
@@ -27275,7 +28285,7 @@
       </c>
       <c r="P43" s="94"/>
       <c r="R43" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S43" s="42">
         <v>11</v>
@@ -27321,7 +28331,7 @@
       </c>
       <c r="P44" s="94"/>
       <c r="R44" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S44" s="42">
         <v>14</v>
@@ -27369,7 +28379,7 @@
       </c>
       <c r="P45" s="94"/>
       <c r="R45" s="88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S45" s="88">
         <v>3</v>
@@ -27443,7 +28453,7 @@
     </row>
     <row r="48" spans="1:24" ht="19" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="11">
@@ -27454,7 +28464,7 @@
       </c>
       <c r="P48" s="3"/>
       <c r="R48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S48"/>
       <c r="T48"/>
@@ -27465,7 +28475,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" s="158">
         <v>184</v>
@@ -27480,10 +28490,10 @@
         <v>4.01</v>
       </c>
       <c r="F49" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="34" t="s">
         <v>319</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>320</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3">
@@ -27494,25 +28504,25 @@
       </c>
       <c r="P49" s="3"/>
       <c r="R49" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="S49" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="S49" s="89" t="s">
+      <c r="T49" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="T49" s="89" t="s">
+      <c r="U49" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="V49" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="U49" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="V49" s="89" t="s">
+      <c r="W49" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="W49" s="89" t="s">
+      <c r="X49" s="89" t="s">
         <v>412</v>
-      </c>
-      <c r="X49" s="89" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -27528,10 +28538,10 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="F50" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" s="36" t="s">
         <v>321</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>322</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -27540,7 +28550,7 @@
       </c>
       <c r="P50" s="3"/>
       <c r="R50" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S50" s="42">
         <v>44901.827221797779</v>
@@ -27574,10 +28584,10 @@
         <v>9.14</v>
       </c>
       <c r="F51" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="80" t="s">
         <v>323</v>
-      </c>
-      <c r="G51" s="80" t="s">
-        <v>324</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -27586,7 +28596,7 @@
       </c>
       <c r="P51" s="3"/>
       <c r="R51" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S51" s="42">
         <v>336835.73160173156</v>
@@ -27617,7 +28627,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="11"/>
@@ -27646,13 +28656,13 @@
         <v>8.19</v>
       </c>
       <c r="F53" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="G53" s="36" t="s">
-        <v>327</v>
-      </c>
       <c r="R53" s="88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S53" s="88">
         <v>381737.55882352934</v>
@@ -27667,7 +28677,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="36">
         <v>58</v>
@@ -27683,12 +28693,12 @@
       </c>
       <c r="F54" s="80"/>
       <c r="G54" s="80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" s="36">
         <v>164</v>
@@ -27703,15 +28713,15 @@
         <v>15.32</v>
       </c>
       <c r="F55" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" s="82" t="s">
         <v>374</v>
-      </c>
-      <c r="G55" s="82" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B56" s="36">
         <v>124</v>
@@ -27726,15 +28736,15 @@
         <v>14.61</v>
       </c>
       <c r="F56" s="80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G56" s="80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" s="36">
         <v>213</v>
@@ -27752,12 +28762,12 @@
         <v>3</v>
       </c>
       <c r="G57" s="80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="66">
         <v>182</v>
@@ -27775,13 +28785,13 @@
         <v>29</v>
       </c>
       <c r="G58" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B59" s="69">
         <v>561</v>
@@ -27796,21 +28806,21 @@
         <v>10.11</v>
       </c>
       <c r="F59" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" s="69" t="s">
         <v>385</v>
-      </c>
-      <c r="G59" s="69" t="s">
-        <v>386</v>
       </c>
       <c r="O59" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="M9:Q9"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A39:A41"/>
@@ -27835,8 +28845,8 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:X116"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -27872,19 +28882,19 @@
         <v>133</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -27910,7 +28920,7 @@
         <v>162</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M4" s="5">
         <f>COUNTA(C3,C8:C15,C18:C49,C53:C54,C58:C61,C63:C67,C69:C70)</f>
@@ -27935,7 +28945,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="L5" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M5" s="5">
         <f>COUNTA(C16, C17,C55:C56,C62)</f>
@@ -27960,7 +28970,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="L6" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M6" s="5">
         <f>COUNTA(C4,C57,C68)</f>
@@ -27985,7 +28995,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -28038,17 +29048,26 @@
       <c r="G9" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J9" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>429</v>
+      </c>
       <c r="M9" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="N9" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="O9" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>430</v>
-      </c>
       <c r="Q9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
@@ -28077,6 +29096,21 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
         <v>40</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J10" s="5">
+        <f>AVERAGE(M10:M63)</f>
+        <v>46.21314814814815</v>
+      </c>
+      <c r="K10" s="5">
+        <f>AVERAGE(N10:N14)</f>
+        <v>53.870000000000005</v>
+      </c>
+      <c r="L10" s="5">
+        <f>AVERAGE(O10:O12)</f>
+        <v>47.043333333333329</v>
       </c>
       <c r="M10" s="21">
         <v>48.38</v>
@@ -28118,6 +29152,21 @@
       <c r="G11" s="22" t="s">
         <v>55</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" s="5">
+        <f>STDEV(M10:M63)</f>
+        <v>25.943839987526772</v>
+      </c>
+      <c r="K11" s="5">
+        <f>STDEV(N10:N14)</f>
+        <v>29.373566347993897</v>
+      </c>
+      <c r="L11" s="5">
+        <f>STDEV(O10:O12)</f>
+        <v>36.886778570828518</v>
+      </c>
       <c r="M11" s="22">
         <v>16.48</v>
       </c>
@@ -28128,7 +29177,7 @@
         <v>21.76</v>
       </c>
       <c r="Q11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -28160,6 +29209,21 @@
       <c r="G12" s="22" t="s">
         <v>60</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="J12" s="5">
+        <f>COUNTA(M10:M63)</f>
+        <v>54</v>
+      </c>
+      <c r="K12" s="5">
+        <f>COUNTA(N10:N14)</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="5">
+        <f>COUNTA(O10:O12)</f>
+        <v>3</v>
+      </c>
       <c r="M12" s="22">
         <v>37.82</v>
       </c>
@@ -28170,19 +29234,19 @@
         <v>30</v>
       </c>
       <c r="Q12" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="R12" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="R12" s="89" t="s">
+      <c r="S12" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="T12" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="U12" s="89" t="s">
         <v>401</v>
-      </c>
-      <c r="U12" s="89" t="s">
-        <v>402</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -28217,7 +29281,7 @@
         <v>57.46</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R13" s="42">
         <v>54</v>
@@ -28260,7 +29324,7 @@
         <v>99.08</v>
       </c>
       <c r="Q14" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R14" s="42">
         <v>5</v>
@@ -28302,7 +29366,7 @@
         <v>58.73</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R15" s="88">
         <v>3</v>
@@ -28406,7 +29470,7 @@
         <v>31.06</v>
       </c>
       <c r="Q18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -28438,25 +29502,25 @@
         <v>-2.54</v>
       </c>
       <c r="Q19" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="R19" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="R19" s="89" t="s">
+      <c r="S19" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="T19" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="U19" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="T19" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="U19" s="89" t="s">
+      <c r="V19" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="V19" s="89" t="s">
+      <c r="W19" s="89" t="s">
         <v>412</v>
-      </c>
-      <c r="W19" s="89" t="s">
-        <v>413</v>
       </c>
       <c r="X19"/>
     </row>
@@ -28486,7 +29550,7 @@
         <v>26.62</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R20" s="42">
         <v>268.38862819593487</v>
@@ -28534,7 +29598,7 @@
         <v>78.8</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R21" s="42">
         <v>41845.88463148148</v>
@@ -28610,7 +29674,7 @@
         <v>69.72</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R23" s="88">
         <v>42114.273259677415</v>
@@ -29301,7 +30365,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M52" s="22">
         <v>24.45</v>
@@ -29721,16 +30785,16 @@
         <v>228</v>
       </c>
       <c r="M68" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="N68" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="N68" s="31" t="s">
+      <c r="O68" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="O68" s="23" t="s">
-        <v>430</v>
-      </c>
       <c r="Q68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R68"/>
       <c r="S68"/>
@@ -29808,7 +30872,7 @@
         <v>110.99999999999997</v>
       </c>
       <c r="Q70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R70"/>
       <c r="S70"/>
@@ -29828,19 +30892,19 @@
         <v>38</v>
       </c>
       <c r="Q71" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="R71" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="R71" s="89" t="s">
+      <c r="S71" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="S71" s="89" t="s">
+      <c r="T71" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="T71" s="89" t="s">
+      <c r="U71" s="89" t="s">
         <v>401</v>
-      </c>
-      <c r="U71" s="89" t="s">
-        <v>402</v>
       </c>
       <c r="V71"/>
       <c r="W71"/>
@@ -29850,7 +30914,7 @@
         <v>38.000000000000071</v>
       </c>
       <c r="Q72" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R72" s="42">
         <v>48</v>
@@ -29873,7 +30937,7 @@
       </c>
       <c r="N73" s="9"/>
       <c r="Q73" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R73" s="42">
         <v>3</v>
@@ -29895,7 +30959,7 @@
         <v>33.000000000000064</v>
       </c>
       <c r="Q74" s="88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R74" s="88">
         <v>3</v>
@@ -29941,7 +31005,7 @@
         <v>42.999999999999929</v>
       </c>
       <c r="Q77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R77"/>
       <c r="S77"/>
@@ -29955,25 +31019,25 @@
         <v>58.999999999999837</v>
       </c>
       <c r="Q78" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="R78" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="R78" s="89" t="s">
+      <c r="S78" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="S78" s="89" t="s">
+      <c r="T78" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="U78" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="T78" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="U78" s="89" t="s">
+      <c r="V78" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="V78" s="89" t="s">
+      <c r="W78" s="89" t="s">
         <v>412</v>
-      </c>
-      <c r="W78" s="89" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -29981,7 +31045,7 @@
         <v>16.999999999999861</v>
       </c>
       <c r="Q79" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R79" s="42">
         <v>755.28009259252576</v>
@@ -30007,7 +31071,7 @@
         <v>73.999999999999787</v>
       </c>
       <c r="Q80" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R80" s="42">
         <v>180249.47916666683</v>
@@ -30039,7 +31103,7 @@
         <v>65.000000000000099</v>
       </c>
       <c r="Q82" s="88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R82" s="88">
         <v>181004.75925925936</v>
@@ -30273,59 +31337,59 @@
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
       <c r="K1" s="139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L1" s="139"/>
       <c r="N1" s="1"/>
       <c r="O1" s="139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P1" s="139"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
       <c r="G2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" t="s">
         <v>444</v>
       </c>
-      <c r="H2" t="s">
-        <v>445</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" t="s">
         <v>462</v>
-      </c>
-      <c r="S2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -30334,10 +31398,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K3" s="1">
         <v>36</v>
@@ -30346,7 +31410,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O3" s="1">
         <v>0.12139129095746982</v>
@@ -30364,19 +31428,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" t="s">
         <v>439</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>440</v>
       </c>
-      <c r="C4" t="s">
-        <v>441</v>
-      </c>
       <c r="I4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K4" s="1">
         <v>8</v>
@@ -30385,7 +31449,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O4" s="1">
         <v>6.7715014856390851E-2</v>
@@ -30408,10 +31472,10 @@
         <v>-0.21247577609848489</v>
       </c>
       <c r="I5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K5" s="1">
         <v>25</v>
@@ -30420,7 +31484,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O5" s="1">
         <v>0.50179497238802762</v>
@@ -30434,10 +31498,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="I6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -30446,7 +31510,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O6" s="1">
         <v>0.79116182499592191</v>
@@ -30463,10 +31527,10 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K7" s="1">
         <v>9</v>
@@ -30475,7 +31539,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O7">
         <v>-0.24738849469362273</v>
@@ -30489,19 +31553,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H8" t="s">
         <v>444</v>
       </c>
-      <c r="H8" t="s">
-        <v>445</v>
-      </c>
       <c r="I8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K8" s="1">
         <v>29</v>
@@ -30510,7 +31574,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O8" s="1">
         <v>0.10676914780502601</v>
@@ -30524,16 +31588,16 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" t="s">
         <v>439</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>440</v>
       </c>
-      <c r="C9" t="s">
-        <v>441</v>
-      </c>
       <c r="F9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -30542,10 +31606,10 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K9" s="1">
         <v>9</v>
@@ -30554,7 +31618,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O9" s="1">
         <v>0.65050067807535206</v>
@@ -30577,10 +31641,10 @@
         <v>-0.23630029503320751</v>
       </c>
       <c r="I10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K10" s="1">
         <v>16</v>
@@ -30589,7 +31653,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O10" s="1">
         <v>-9.4571653810318471E-2</v>
@@ -30603,10 +31667,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="I11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K11" s="1">
         <v>19</v>
@@ -30615,7 +31679,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O11" s="1">
         <v>-9.4480087351073383E-2</v>
@@ -30629,10 +31693,10 @@
     </row>
     <row r="12" spans="1:19">
       <c r="I12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K12" s="1">
         <v>12</v>
@@ -30641,7 +31705,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O12" s="1">
         <v>-0.38964193836700406</v>
@@ -30659,10 +31723,10 @@
         <v>3.4471826869672387E-2</v>
       </c>
       <c r="L13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O13">
         <f>AVERAGE(O3:O12)</f>
@@ -30679,29 +31743,29 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" t="s">
         <v>439</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>440</v>
       </c>
-      <c r="C17" t="s">
-        <v>441</v>
-      </c>
       <c r="G17" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" t="s">
         <v>444</v>
-      </c>
-      <c r="H17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -30715,7 +31779,7 @@
         <v>0.72935735407409352</v>
       </c>
       <c r="F18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -30726,29 +31790,29 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" t="s">
         <v>440</v>
       </c>
-      <c r="D24" t="s">
-        <v>441</v>
-      </c>
       <c r="G24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" t="s">
         <v>444</v>
-      </c>
-      <c r="H24" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B25">
         <v>0.79116182499592191</v>
@@ -30760,7 +31824,7 @@
         <v>0.97544574044752941</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -30771,27 +31835,27 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D27" t="s">
         <v>440</v>
       </c>
-      <c r="D27" t="s">
-        <v>441</v>
-      </c>
       <c r="G27" t="s">
+        <v>443</v>
+      </c>
+      <c r="H27" t="s">
         <v>444</v>
-      </c>
-      <c r="H27" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B28">
         <v>-0.24738849469362273</v>
@@ -30803,7 +31867,7 @@
         <v>-0.85967153648565031</v>
       </c>
       <c r="F28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -30814,29 +31878,29 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" t="s">
         <v>440</v>
       </c>
-      <c r="D31" t="s">
-        <v>441</v>
-      </c>
       <c r="G31" t="s">
+        <v>443</v>
+      </c>
+      <c r="H31" t="s">
         <v>444</v>
-      </c>
-      <c r="H31" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B32">
         <v>0.10676914780502601</v>
@@ -30848,7 +31912,7 @@
         <v>0.4947593901611122</v>
       </c>
       <c r="F32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -30859,29 +31923,29 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" t="s">
         <v>440</v>
       </c>
-      <c r="D38" t="s">
-        <v>441</v>
-      </c>
       <c r="G38" t="s">
+        <v>443</v>
+      </c>
+      <c r="H38" t="s">
         <v>444</v>
-      </c>
-      <c r="H38" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B39">
         <v>0.65050067807535206</v>
@@ -30893,7 +31957,7 @@
         <v>-0.14304358070558609</v>
       </c>
       <c r="F39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -30904,29 +31968,29 @@
     </row>
     <row r="44" spans="1:8" ht="25" customHeight="1">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C45" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" t="s">
         <v>440</v>
       </c>
-      <c r="D45" t="s">
-        <v>441</v>
-      </c>
       <c r="G45" t="s">
+        <v>443</v>
+      </c>
+      <c r="H45" t="s">
         <v>444</v>
-      </c>
-      <c r="H45" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B46">
         <v>-9.4571653810318471E-2</v>
@@ -30938,7 +32002,7 @@
         <v>-0.42839560497402307</v>
       </c>
       <c r="F46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -30949,27 +32013,27 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
+        <v>443</v>
+      </c>
+      <c r="H51" t="s">
         <v>444</v>
-      </c>
-      <c r="H51" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" t="s">
         <v>440</v>
       </c>
-      <c r="D52" t="s">
-        <v>441</v>
-      </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G52">
         <v>19</v>
@@ -30980,7 +32044,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53">
         <v>-9.4480087351073383E-2</v>
@@ -30994,29 +32058,29 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s">
+        <v>439</v>
+      </c>
+      <c r="D60" t="s">
         <v>440</v>
       </c>
-      <c r="D60" t="s">
-        <v>441</v>
-      </c>
       <c r="G60" t="s">
+        <v>443</v>
+      </c>
+      <c r="H60" t="s">
         <v>444</v>
-      </c>
-      <c r="H60" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61">
         <v>-0.38964193836700406</v>
@@ -31028,7 +32092,7 @@
         <v>-0.45042524306035714</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G61">
         <v>12</v>
@@ -31039,29 +32103,29 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
+        <v>439</v>
+      </c>
+      <c r="D64" t="s">
         <v>440</v>
       </c>
-      <c r="D64" t="s">
-        <v>441</v>
-      </c>
       <c r="G64" t="s">
+        <v>443</v>
+      </c>
+      <c r="H64" t="s">
         <v>444</v>
-      </c>
-      <c r="H64" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B65">
         <v>0.79116182499592191</v>
@@ -31073,7 +32137,7 @@
         <v>0.97544574044752941</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -31116,19 +32180,19 @@
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="139" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="139" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" s="139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" s="139"/>
       <c r="H2" s="139" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I2" s="139"/>
       <c r="J2" s="1"/>
@@ -31138,48 +32202,48 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -31224,7 +32288,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
@@ -31322,7 +32386,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="114" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="114"/>
     </row>
@@ -31339,19 +32403,19 @@
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
       <c r="B9" s="139" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C9" s="139"/>
       <c r="D9" s="139" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E9" s="139"/>
       <c r="F9" s="139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G9" s="139"/>
       <c r="H9" s="139" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="1"/>
@@ -31359,80 +32423,80 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O9" s="139"/>
       <c r="P9" s="139" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q9" s="139"/>
       <c r="R9" s="139" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S9" s="139"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="J10" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="N10" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="P10" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>239</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -31495,7 +32559,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -31558,7 +32622,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
@@ -31622,7 +32686,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -31770,72 +32834,72 @@
     <row r="18" spans="1:24">
       <c r="A18" s="107"/>
       <c r="B18" s="166" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C18" s="166"/>
       <c r="D18" s="166" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E18" s="166"/>
       <c r="F18" s="166" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="166" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I18" s="166"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="D19" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="F19" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="J19" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="R19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B20" s="1">
         <v>36</v>
@@ -31878,7 +32942,7 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="Q20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R20">
         <v>0.86111111111111116</v>
@@ -31890,7 +32954,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
@@ -31933,7 +32997,7 @@
         <v>0.375</v>
       </c>
       <c r="Q21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R21">
         <v>0.48715277800000001</v>
@@ -31945,7 +33009,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B22" s="1">
         <v>29</v>
@@ -31989,7 +33053,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R22">
         <v>0.26368093399999998</v>
@@ -32001,7 +33065,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -32047,7 +33111,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" s="26">
         <f t="shared" ref="B24:M24" si="9">AVERAGE(B20:B23)</f>
@@ -32100,10 +33164,10 @@
     </row>
     <row r="25" spans="1:24">
       <c r="W25" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -32112,74 +33176,74 @@
         <v>0.45961970614652392</v>
       </c>
       <c r="W26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="W27" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W28" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="N29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="N30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="N31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>119</v>
@@ -32187,84 +33251,84 @@
     </row>
     <row r="32" spans="1:24">
       <c r="N32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="N33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="N34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="N35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="N36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="N37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="8:15">
       <c r="H67" t="s">
+        <v>505</v>
+      </c>
+      <c r="O67" t="s">
         <v>506</v>
-      </c>
-      <c r="O67" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="I86" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -32302,15 +33366,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J30"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -32325,35 +33389,35 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>245</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -32367,7 +33431,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="35">
@@ -32386,7 +33450,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -32409,7 +33473,7 @@
       </c>
       <c r="J4" s="35"/>
       <c r="K4" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -32434,7 +33498,7 @@
         <v>219</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -32459,7 +33523,7 @@
         <v>219</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -32470,10 +33534,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="35">
@@ -32492,55 +33556,55 @@
         <v>219</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
       <c r="F9" s="139" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G9" s="139"/>
       <c r="H9" s="139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I9" s="139"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="E11" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F11" s="168">
         <v>8</v>
       </c>
       <c r="G11" s="168" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H11" s="35">
         <v>7.35</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F12" s="170"/>
       <c r="G12" s="171"/>
@@ -32548,12 +33612,12 @@
         <v>9.43</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F13" s="172"/>
       <c r="G13" s="173"/>
@@ -32561,12 +33625,12 @@
         <v>12.15</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F14" s="174"/>
       <c r="G14" s="175"/>
@@ -32574,57 +33638,57 @@
         <v>19.48</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F15" s="169">
         <v>18</v>
       </c>
       <c r="G15" s="169" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H15" s="35">
         <v>21.58</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="106" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="K18" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -32638,7 +33702,7 @@
         <v>197</v>
       </c>
       <c r="D19" s="178" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F19">
         <v>12.3</v>
@@ -32687,10 +33751,10 @@
         <v>8.34</v>
       </c>
       <c r="J21" t="s">
+        <v>562</v>
+      </c>
+      <c r="K21" t="s">
         <v>563</v>
-      </c>
-      <c r="K21" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -32711,65 +33775,71 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="E24" s="1"/>
+      <c r="E24" s="176"/>
       <c r="F24" s="139" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G24" s="139"/>
       <c r="H24" s="139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="F26" s="176">
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26" s="178" t="s">
-        <v>562</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H26" s="1">
         <v>12.3</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="H27">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
         <v>12.72</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="H28">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
         <v>13.03</v>
       </c>
-      <c r="I28" t="s">
-        <v>564</v>
+      <c r="I28" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="H29">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
         <v>13.4</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>68</v>
       </c>
     </row>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="581">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -1921,13 +1921,6 @@
     <t>ストレスが溜まった。入力ミス</t>
   </si>
   <si>
-    <t>不備</t>
-    <rPh sb="0" eb="2">
-      <t>フb</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンテンツが悪い</t>
     <rPh sb="6" eb="8">
       <t>ワr</t>
@@ -2947,6 +2940,18 @@
   </si>
   <si>
     <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面にエラーが出た</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3327,8 +3332,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="975">
+  <cellStyleXfs count="999">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4641,7 +4670,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="975">
+  <cellStyles count="999">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -5129,6 +5158,18 @@
     <cellStyle name="ハイパーリンク" xfId="969" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="971" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="997" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5617,6 +5658,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="970" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="972" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="998" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5865,6 +5918,736 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]UX比較!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXPLOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]UX比較!$F$4:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]UX比較!$G$4:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-81.03490471364271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-80.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-43.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-51.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-85.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-86.08224508776064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-86.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-40.1866136449965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-13.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-35.46808213395434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-37.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-51.13000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-83.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-84.18529827357794</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.13758592459448</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.51000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-43.52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-28.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-33.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.48999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-31.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-33.1369571477271</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-82.39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-33.17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.76999999999975</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.55908431905097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]直線補完!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UXCURVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]UX比較!$F$4:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]UX比較!$H$4:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.9510566796875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-42.61316792968751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-44.7663665625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-50.31962927083332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-70.8218359375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-95.80282552083334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-99.88640485677082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-52.39466666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-28.14487349999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-24.22186188271606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.520783950617272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.837869827160503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.471412</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.23338271604939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.53722839506172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.64328800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.53354919166664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.06423560833336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.629891666666655</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.96666666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-32.0922301388889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-36.90619125000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-43.30451013888887</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-45.14861111111112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-51.95424000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-53.75642888888888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-56.02529513888887</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-59.87185111111111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-60.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-46.64315587605637</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-39.8667029304114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-30.52512953345073</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-17.10515091966273</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.191508969607143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.27073907946624</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2124963016"/>
+        <c:axId val="-2141027208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2124963016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>TIME [min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141027208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2141027208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Value of UX [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124963016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6335,7 +7118,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6729,7 +7512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7423,7 +8206,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7805,7 +8588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8211,7 +8994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8617,7 +9400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9268,7 +10051,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -9787,7 +10570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10330,7 +11113,179 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ゲーム系!$AJ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>27.17698160595701</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.68517550910258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>27.17698160595701</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.68517550910258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>ゲーム系!$AN$15:$AN$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>結果が良かった</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>コンテンツが良かった</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ゲーム系!$AO$15:$AO$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.7365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.14454545454547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126221560"/>
+        <c:axId val="-2140418216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126221560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140418216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140418216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126221560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10547,179 +11502,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ゲーム系!$AJ$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>27.17698160595701</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22.68517550910258</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>ゲーム系!$AP$15:$AP$16</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>27.17698160595701</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22.68517550910258</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>ゲーム系!$AN$15:$AN$16</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>結果が良かった</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>コンテンツが良かった</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ゲーム系!$AO$15:$AO$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>50.7365</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.14454545454547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2126221560"/>
-        <c:axId val="-2140418216"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2126221560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140418216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2140418216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126221560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -10910,7 +11693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -11213,7 +11996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12410,6 +13193,185 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'全体 negative'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UX入力回数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'全体 negative'!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>エラー・不備</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>コンテンツ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>コンテンツの場所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>操作方法</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ユーザ情報入力</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'全体 negative'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2126688648"/>
+        <c:axId val="-2098976232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2126688648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2098976232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2098976232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>UX</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>の入力回数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126688648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
@@ -12534,7 +13496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12702,7 +13664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -12845,736 +13807,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]UX比較!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXPLOT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]UX比較!$F$4:$F$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.98</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.98</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25.08</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.95</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28.58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]UX比較!$G$4:$G$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>3.5527136788005E-15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-79.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-17.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-39.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-81.03490471364271</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-80.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-43.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-51.55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-85.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-86.08224508776064</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-86.41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-40.1866136449965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37.18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>57.46</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.52</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-35.46808213395434</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-37.61</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-51.13000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-83.45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-100.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-84.18529827357794</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-45.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-9.720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.66</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>69.72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>80.13758592459448</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69.51000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-43.52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-28.73</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-33.17</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>55.14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.48999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-31.48</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-33.1369571477271</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-82.39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-2.54</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.62</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64.86</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-33.17</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40.76999999999975</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>49.55908431905097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]直線補完!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UXCURVE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]UX比較!$F$4:$F$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.98</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.98</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25.08</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>26.95</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28.58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]UX比較!$H$4:$H$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>-30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-31.9510566796875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-37.8125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-42.61316792968751</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-44.7663665625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-50.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-50.31962927083332</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-70.8218359375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-95.80282552083334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-99.88640485677082</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-52.39466666666668</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-40.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-28.14487349999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-24.22186188271606</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.520783950617272</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.837869827160503</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.471412</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.23338271604939</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.53722839506172</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41.64328800000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.53354919166664</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.06423560833336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.629891666666655</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-11.96666666666667</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-30.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-32.0922301388889</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-36.90619125000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-43.30451013888887</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-45.14861111111112</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-51.95424000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-53.75642888888888</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-56.02529513888887</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-59.87185111111111</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-60.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-46.64315587605637</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-39.8667029304114</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-30.52512953345073</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-17.10515091966273</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-9.191508969607143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.27073907946624</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2124963016"/>
-        <c:axId val="-2141027208"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2124963016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>TIME [min]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141027208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2141027208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>Value of UX [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124963016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -13623,15 +13860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13750,6 +13987,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13787,16 +14054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13817,16 +14084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19653,7 +19920,7 @@
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -19688,8 +19955,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE6" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT32"/>
+    <sheetView topLeftCell="AG6" workbookViewId="0">
+      <selection activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -20024,7 +20291,7 @@
         <v>5.835</v>
       </c>
       <c r="AG6" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AH6">
         <f>AA5-AH5</f>
@@ -20445,14 +20712,14 @@
         <v>-2.54</v>
       </c>
       <c r="AK14" s="114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL14" s="114"/>
       <c r="AO14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AP14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -20507,7 +20774,7 @@
         <v>291</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN15" s="48" t="s">
         <v>291</v>
@@ -20583,7 +20850,7 @@
         <v>69.72</v>
       </c>
       <c r="AN16" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO16">
         <f>AVERAGE(AL16:AL37)</f>
@@ -23730,7 +23997,7 @@
         <v>0.67575151385258603</v>
       </c>
       <c r="AB83" s="114" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC83" s="114"/>
       <c r="AD83" s="114"/>
@@ -23790,7 +24057,7 @@
         <v>215</v>
       </c>
       <c r="Z85" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AB85" s="103">
         <v>87.000000000000043</v>
@@ -23902,7 +24169,7 @@
     </row>
     <row r="89" spans="2:30">
       <c r="Z89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB89" s="3">
         <v>47.999999999999865</v>
@@ -24015,7 +24282,7 @@
         <v>234</v>
       </c>
       <c r="Z94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AB94" s="5">
         <v>69</v>
@@ -26430,7 +26697,7 @@
         <v>338</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M16">
         <v>182</v>
@@ -26448,7 +26715,7 @@
         <v>29</v>
       </c>
       <c r="R16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -26474,7 +26741,7 @@
         <v>337</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M17" s="18">
         <v>561</v>
@@ -26489,10 +26756,10 @@
         <v>10.11</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="R17" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -26510,7 +26777,7 @@
         <v>-47.566666666666663</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F20">
         <v>182</v>
@@ -26528,17 +26795,17 @@
         <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="E21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="E22" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F22" s="18">
         <v>561</v>
@@ -26553,10 +26820,10 @@
         <v>10.11</v>
       </c>
       <c r="J22" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -26581,8 +26848,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -26609,25 +26876,25 @@
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
       <c r="M2" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="T2" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -26653,7 +26920,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>377</v>
+        <v>570</v>
       </c>
       <c r="M3" s="5">
         <v>7</v>
@@ -26675,7 +26942,7 @@
         <v>10.747142857142858</v>
       </c>
       <c r="S3" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T3" s="179">
         <f>AVERAGE(M11:M16)</f>
@@ -26691,7 +26958,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>378</v>
+        <v>569</v>
       </c>
       <c r="M4" s="5">
         <v>13</v>
@@ -26713,7 +26980,7 @@
         <v>8.1630769230769236</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T4" s="5">
         <f>AVERAGE(N11:N23)</f>
@@ -26747,7 +27014,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>379</v>
+        <v>568</v>
       </c>
       <c r="M5" s="5">
         <v>16</v>
@@ -26769,7 +27036,7 @@
         <v>8.2146666666666661</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T5" s="5">
         <f>AVERAGE(O11:O26)</f>
@@ -26803,7 +27070,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>380</v>
+        <v>567</v>
       </c>
       <c r="M6" s="5">
         <v>3</v>
@@ -26825,7 +27092,7 @@
         <v>8.5633333333333326</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T6" s="5">
         <f>AVERAGE(P11:P13)</f>
@@ -26855,7 +27122,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="79" t="s">
-        <v>387</v>
+        <v>566</v>
       </c>
       <c r="M7" s="5">
         <v>6</v>
@@ -26877,7 +27144,7 @@
         <v>14.305</v>
       </c>
       <c r="S7" s="79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T7" s="5">
         <f>AVERAGE(Q11:Q21)</f>
@@ -26932,14 +27199,14 @@
         <v>64</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -26973,16 +27240,16 @@
         <v>242</v>
       </c>
       <c r="N10" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="Q10" s="79" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -27025,7 +27292,7 @@
         <v>-17.54</v>
       </c>
       <c r="R11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -27069,19 +27336,19 @@
         <v>-39.72</v>
       </c>
       <c r="R12" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="S12" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="T12" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="U12" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="U12" s="89" t="s">
+      <c r="V12" s="89" t="s">
         <v>400</v>
-      </c>
-      <c r="V12" s="89" t="s">
-        <v>401</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -27119,7 +27386,7 @@
         <v>-100</v>
       </c>
       <c r="R13" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S13" s="42">
         <v>6</v>
@@ -27173,7 +27440,7 @@
         <v>-80.069999999999993</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S14" s="42">
         <v>13</v>
@@ -27228,7 +27495,7 @@
         <v>-43.1</v>
       </c>
       <c r="R15" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S15" s="42">
         <v>16</v>
@@ -27282,7 +27549,7 @@
         <v>-33.17</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S16" s="88">
         <v>3</v>
@@ -27377,7 +27644,7 @@
         <v>-20.07</v>
       </c>
       <c r="R19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
@@ -27409,6 +27676,12 @@
       <c r="G20" s="77" t="s">
         <v>346</v>
       </c>
+      <c r="J20" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>580</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="24">
         <v>-70.14</v>
@@ -27421,25 +27694,25 @@
         <v>-51.76</v>
       </c>
       <c r="R20" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="S20" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="T20" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="T20" s="89" t="s">
+      <c r="U20" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="V20" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="U20" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="V20" s="89" t="s">
+      <c r="W20" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="W20" s="89" t="s">
+      <c r="X20" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="X20" s="89" t="s">
-        <v>412</v>
       </c>
       <c r="Y20"/>
     </row>
@@ -27465,6 +27738,12 @@
       <c r="G21" s="47" t="s">
         <v>349</v>
       </c>
+      <c r="J21" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="24">
         <v>-20.28</v>
@@ -27477,7 +27756,7 @@
         <v>-32.96</v>
       </c>
       <c r="R21" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S21" s="42">
         <v>9080.060646668353</v>
@@ -27522,6 +27801,9 @@
         <v>352</v>
       </c>
       <c r="H22" s="66"/>
+      <c r="J22" s="25" t="s">
+        <v>568</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="24">
         <v>-21.55</v>
@@ -27531,7 +27813,7 @@
       </c>
       <c r="P22" s="3"/>
       <c r="R22" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S22" s="42">
         <v>24759.679829647437</v>
@@ -27568,6 +27850,9 @@
       </c>
       <c r="G23" s="77" t="s">
         <v>355</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="24">
@@ -27604,6 +27889,9 @@
       <c r="G24" s="77" t="s">
         <v>357</v>
       </c>
+      <c r="J24" s="79" t="s">
+        <v>566</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="87">
@@ -27611,7 +27899,7 @@
       </c>
       <c r="P24" s="3"/>
       <c r="R24" s="88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S24" s="88">
         <v>33839.74047631579</v>
@@ -27689,7 +27977,7 @@
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
@@ -27721,7 +28009,7 @@
         <v>68</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M27" s="5">
         <f>AVERAGE(M11:M16)</f>
@@ -27764,7 +28052,7 @@
         <v>70098.689882068735</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -27775,32 +28063,32 @@
       <c r="A29" s="64"/>
       <c r="B29" s="74"/>
       <c r="N29" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="Q29" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="65"/>
       <c r="B30" s="75"/>
       <c r="M30" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N30" s="5">
         <f>FTEST(M11:M16, N11:N23)</f>
@@ -27854,7 +28142,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N31" s="91">
         <f>TTEST(M11:M16, N11:N23, 2, 2)</f>
@@ -27908,13 +28196,13 @@
         <v>363</v>
       </c>
       <c r="N32" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -27940,7 +28228,7 @@
         <v>366</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N33" s="5">
         <f>FTEST(N11:N23, O11:O26)</f>
@@ -27976,7 +28264,7 @@
         <v>229</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N34" s="5">
         <f>TTEST(N11:N23, O11:O26, 2, 2)</f>
@@ -28019,7 +28307,7 @@
         <v>7</v>
       </c>
       <c r="M37" s="123" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N37" s="123"/>
       <c r="O37" s="123"/>
@@ -28050,16 +28338,16 @@
         <v>242</v>
       </c>
       <c r="N38" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="O38" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="O38" s="26" t="s">
+      <c r="P38" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="P38" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="R38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S38"/>
       <c r="T38"/>
@@ -28142,7 +28430,7 @@
         <v>105</v>
       </c>
       <c r="R40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S40"/>
       <c r="T40"/>
@@ -28185,19 +28473,19 @@
         <v>184</v>
       </c>
       <c r="R41" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="S41" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="S41" s="89" t="s">
+      <c r="T41" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="T41" s="89" t="s">
+      <c r="U41" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="U41" s="89" t="s">
+      <c r="V41" s="89" t="s">
         <v>400</v>
-      </c>
-      <c r="V41" s="89" t="s">
-        <v>401</v>
       </c>
       <c r="W41"/>
       <c r="X41"/>
@@ -28235,7 +28523,7 @@
       </c>
       <c r="P42" s="3"/>
       <c r="R42" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S42" s="42">
         <v>6</v>
@@ -28285,7 +28573,7 @@
       </c>
       <c r="P43" s="94"/>
       <c r="R43" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S43" s="42">
         <v>11</v>
@@ -28331,7 +28619,7 @@
       </c>
       <c r="P44" s="94"/>
       <c r="R44" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S44" s="42">
         <v>14</v>
@@ -28379,7 +28667,7 @@
       </c>
       <c r="P45" s="94"/>
       <c r="R45" s="88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S45" s="88">
         <v>3</v>
@@ -28464,7 +28752,7 @@
       </c>
       <c r="P48" s="3"/>
       <c r="R48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S48"/>
       <c r="T48"/>
@@ -28504,25 +28792,25 @@
       </c>
       <c r="P49" s="3"/>
       <c r="R49" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="S49" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="S49" s="89" t="s">
+      <c r="T49" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="T49" s="89" t="s">
+      <c r="U49" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="V49" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="U49" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="V49" s="89" t="s">
+      <c r="W49" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="W49" s="89" t="s">
+      <c r="X49" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="X49" s="89" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -28550,7 +28838,7 @@
       </c>
       <c r="P50" s="3"/>
       <c r="R50" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S50" s="42">
         <v>44901.827221797779</v>
@@ -28596,7 +28884,7 @@
       </c>
       <c r="P51" s="3"/>
       <c r="R51" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S51" s="42">
         <v>336835.73160173156</v>
@@ -28662,7 +28950,7 @@
         <v>326</v>
       </c>
       <c r="R53" s="88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S53" s="88">
         <v>381737.55882352934</v>
@@ -28767,7 +29055,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" s="66">
         <v>182</v>
@@ -28785,13 +29073,13 @@
         <v>29</v>
       </c>
       <c r="G58" s="66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59" s="69">
         <v>561</v>
@@ -28806,10 +29094,10 @@
         <v>10.11</v>
       </c>
       <c r="F59" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="69" t="s">
         <v>384</v>
-      </c>
-      <c r="G59" s="69" t="s">
-        <v>385</v>
       </c>
       <c r="O59" s="9"/>
     </row>
@@ -28845,8 +29133,8 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:X116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="P32" sqref="O29:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -28882,19 +29170,19 @@
         <v>133</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -28920,7 +29208,7 @@
         <v>162</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M4" s="5">
         <f>COUNTA(C3,C8:C15,C18:C49,C53:C54,C58:C61,C63:C67,C69:C70)</f>
@@ -28945,7 +29233,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="L5" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M5" s="5">
         <f>COUNTA(C16, C17,C55:C56,C62)</f>
@@ -28970,7 +29258,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="L6" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M6" s="5">
         <f>COUNTA(C4,C57,C68)</f>
@@ -28995,7 +29283,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -29055,19 +29343,19 @@
         <v>269</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M9" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="O9" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>429</v>
-      </c>
       <c r="Q9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
@@ -29098,7 +29386,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J10" s="5">
         <f>AVERAGE(M10:M63)</f>
@@ -29153,7 +29441,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J11" s="5">
         <f>STDEV(M10:M63)</f>
@@ -29177,7 +29465,7 @@
         <v>21.76</v>
       </c>
       <c r="Q11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -29210,7 +29498,7 @@
         <v>60</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J12" s="5">
         <f>COUNTA(M10:M63)</f>
@@ -29234,19 +29522,19 @@
         <v>30</v>
       </c>
       <c r="Q12" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="R12" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="R12" s="89" t="s">
+      <c r="S12" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="T12" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="U12" s="89" t="s">
         <v>400</v>
-      </c>
-      <c r="U12" s="89" t="s">
-        <v>401</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -29281,7 +29569,7 @@
         <v>57.46</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R13" s="42">
         <v>54</v>
@@ -29324,7 +29612,7 @@
         <v>99.08</v>
       </c>
       <c r="Q14" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R14" s="42">
         <v>5</v>
@@ -29366,7 +29654,7 @@
         <v>58.73</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R15" s="88">
         <v>3</v>
@@ -29470,7 +29758,7 @@
         <v>31.06</v>
       </c>
       <c r="Q18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -29502,25 +29790,25 @@
         <v>-2.54</v>
       </c>
       <c r="Q19" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="R19" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="R19" s="89" t="s">
+      <c r="S19" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="T19" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="U19" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="T19" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="U19" s="89" t="s">
+      <c r="V19" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="V19" s="89" t="s">
+      <c r="W19" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="W19" s="89" t="s">
-        <v>412</v>
       </c>
       <c r="X19"/>
     </row>
@@ -29550,7 +29838,7 @@
         <v>26.62</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R20" s="42">
         <v>268.38862819593487</v>
@@ -29598,7 +29886,7 @@
         <v>78.8</v>
       </c>
       <c r="Q21" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R21" s="42">
         <v>41845.88463148148</v>
@@ -29674,7 +29962,7 @@
         <v>69.72</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R23" s="88">
         <v>42114.273259677415</v>
@@ -29845,6 +30133,12 @@
       <c r="M29" s="21">
         <v>29.79</v>
       </c>
+      <c r="O29" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="43" t="s">
@@ -29871,6 +30165,12 @@
       <c r="M30" s="21">
         <v>18.8</v>
       </c>
+      <c r="O30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="125" t="s">
@@ -29896,6 +30196,12 @@
       </c>
       <c r="M31" s="21">
         <v>25.35</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -29919,6 +30225,12 @@
       <c r="M32" s="21">
         <v>43.1</v>
       </c>
+      <c r="O32" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="42" t="s">
@@ -30365,7 +30677,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M52" s="22">
         <v>24.45</v>
@@ -30785,16 +31097,16 @@
         <v>228</v>
       </c>
       <c r="M68" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="N68" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="N68" s="31" t="s">
+      <c r="O68" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="O68" s="23" t="s">
-        <v>429</v>
-      </c>
       <c r="Q68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R68"/>
       <c r="S68"/>
@@ -30872,7 +31184,7 @@
         <v>110.99999999999997</v>
       </c>
       <c r="Q70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R70"/>
       <c r="S70"/>
@@ -30892,19 +31204,19 @@
         <v>38</v>
       </c>
       <c r="Q71" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="R71" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="R71" s="89" t="s">
+      <c r="S71" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="S71" s="89" t="s">
+      <c r="T71" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="T71" s="89" t="s">
+      <c r="U71" s="89" t="s">
         <v>400</v>
-      </c>
-      <c r="U71" s="89" t="s">
-        <v>401</v>
       </c>
       <c r="V71"/>
       <c r="W71"/>
@@ -30914,7 +31226,7 @@
         <v>38.000000000000071</v>
       </c>
       <c r="Q72" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R72" s="42">
         <v>48</v>
@@ -30937,7 +31249,7 @@
       </c>
       <c r="N73" s="9"/>
       <c r="Q73" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R73" s="42">
         <v>3</v>
@@ -30959,7 +31271,7 @@
         <v>33.000000000000064</v>
       </c>
       <c r="Q74" s="88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R74" s="88">
         <v>3</v>
@@ -31005,7 +31317,7 @@
         <v>42.999999999999929</v>
       </c>
       <c r="Q77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R77"/>
       <c r="S77"/>
@@ -31019,25 +31331,25 @@
         <v>58.999999999999837</v>
       </c>
       <c r="Q78" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="R78" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="R78" s="89" t="s">
+      <c r="S78" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="S78" s="89" t="s">
+      <c r="T78" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="U78" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="T78" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="U78" s="89" t="s">
+      <c r="V78" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="V78" s="89" t="s">
+      <c r="W78" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="W78" s="89" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -31045,7 +31357,7 @@
         <v>16.999999999999861</v>
       </c>
       <c r="Q79" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R79" s="42">
         <v>755.28009259252576</v>
@@ -31071,7 +31383,7 @@
         <v>73.999999999999787</v>
       </c>
       <c r="Q80" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R80" s="42">
         <v>180249.47916666683</v>
@@ -31103,7 +31415,7 @@
         <v>65.000000000000099</v>
       </c>
       <c r="Q82" s="88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R82" s="88">
         <v>181004.75925925936</v>
@@ -31337,59 +31649,59 @@
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
       <c r="K1" s="139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L1" s="139"/>
       <c r="N1" s="1"/>
       <c r="O1" s="139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P1" s="139"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
       <c r="G2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" t="s">
         <v>443</v>
       </c>
-      <c r="H2" t="s">
-        <v>444</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" t="s">
         <v>461</v>
-      </c>
-      <c r="S2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G3">
         <v>36</v>
@@ -31398,10 +31710,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K3" s="1">
         <v>36</v>
@@ -31410,7 +31722,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O3" s="1">
         <v>0.12139129095746982</v>
@@ -31428,19 +31740,19 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
         <v>438</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>439</v>
       </c>
-      <c r="C4" t="s">
-        <v>440</v>
-      </c>
       <c r="I4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K4" s="1">
         <v>8</v>
@@ -31449,7 +31761,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O4" s="1">
         <v>6.7715014856390851E-2</v>
@@ -31472,10 +31784,10 @@
         <v>-0.21247577609848489</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K5" s="1">
         <v>25</v>
@@ -31484,7 +31796,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O5" s="1">
         <v>0.50179497238802762</v>
@@ -31498,10 +31810,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="I6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -31510,7 +31822,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O6" s="1">
         <v>0.79116182499592191</v>
@@ -31527,10 +31839,10 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K7" s="1">
         <v>9</v>
@@ -31539,7 +31851,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O7">
         <v>-0.24738849469362273</v>
@@ -31553,19 +31865,19 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" t="s">
         <v>443</v>
       </c>
-      <c r="H8" t="s">
-        <v>444</v>
-      </c>
       <c r="I8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K8" s="1">
         <v>29</v>
@@ -31574,7 +31886,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O8" s="1">
         <v>0.10676914780502601</v>
@@ -31588,16 +31900,16 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" t="s">
         <v>438</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>439</v>
       </c>
-      <c r="C9" t="s">
-        <v>440</v>
-      </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -31606,10 +31918,10 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K9" s="1">
         <v>9</v>
@@ -31618,7 +31930,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O9" s="1">
         <v>0.65050067807535206</v>
@@ -31641,10 +31953,10 @@
         <v>-0.23630029503320751</v>
       </c>
       <c r="I10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K10" s="1">
         <v>16</v>
@@ -31653,7 +31965,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O10" s="1">
         <v>-9.4571653810318471E-2</v>
@@ -31667,10 +31979,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="I11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K11" s="1">
         <v>19</v>
@@ -31679,7 +31991,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O11" s="1">
         <v>-9.4480087351073383E-2</v>
@@ -31693,10 +32005,10 @@
     </row>
     <row r="12" spans="1:19">
       <c r="I12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K12" s="1">
         <v>12</v>
@@ -31705,7 +32017,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O12" s="1">
         <v>-0.38964193836700406</v>
@@ -31723,10 +32035,10 @@
         <v>3.4471826869672387E-2</v>
       </c>
       <c r="L13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O13">
         <f>AVERAGE(O3:O12)</f>
@@ -31743,29 +32055,29 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" t="s">
         <v>438</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>439</v>
       </c>
-      <c r="C17" t="s">
-        <v>440</v>
-      </c>
       <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" t="s">
         <v>443</v>
-      </c>
-      <c r="H17" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -31779,7 +32091,7 @@
         <v>0.72935735407409352</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -31790,29 +32102,29 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D24" t="s">
         <v>439</v>
       </c>
-      <c r="D24" t="s">
-        <v>440</v>
-      </c>
       <c r="G24" t="s">
+        <v>442</v>
+      </c>
+      <c r="H24" t="s">
         <v>443</v>
-      </c>
-      <c r="H24" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25">
         <v>0.79116182499592191</v>
@@ -31824,7 +32136,7 @@
         <v>0.97544574044752941</v>
       </c>
       <c r="F25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -31835,27 +32147,27 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D27" t="s">
         <v>439</v>
       </c>
-      <c r="D27" t="s">
-        <v>440</v>
-      </c>
       <c r="G27" t="s">
+        <v>442</v>
+      </c>
+      <c r="H27" t="s">
         <v>443</v>
-      </c>
-      <c r="H27" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28">
         <v>-0.24738849469362273</v>
@@ -31867,7 +32179,7 @@
         <v>-0.85967153648565031</v>
       </c>
       <c r="F28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -31878,29 +32190,29 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" t="s">
         <v>439</v>
       </c>
-      <c r="D31" t="s">
-        <v>440</v>
-      </c>
       <c r="G31" t="s">
+        <v>442</v>
+      </c>
+      <c r="H31" t="s">
         <v>443</v>
-      </c>
-      <c r="H31" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B32">
         <v>0.10676914780502601</v>
@@ -31912,7 +32224,7 @@
         <v>0.4947593901611122</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -31923,29 +32235,29 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" t="s">
         <v>439</v>
       </c>
-      <c r="D38" t="s">
-        <v>440</v>
-      </c>
       <c r="G38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H38" t="s">
         <v>443</v>
-      </c>
-      <c r="H38" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39">
         <v>0.65050067807535206</v>
@@ -31957,7 +32269,7 @@
         <v>-0.14304358070558609</v>
       </c>
       <c r="F39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -31968,29 +32280,29 @@
     </row>
     <row r="44" spans="1:8" ht="25" customHeight="1">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C45" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" t="s">
         <v>439</v>
       </c>
-      <c r="D45" t="s">
-        <v>440</v>
-      </c>
       <c r="G45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H45" t="s">
         <v>443</v>
-      </c>
-      <c r="H45" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46">
         <v>-9.4571653810318471E-2</v>
@@ -32002,7 +32314,7 @@
         <v>-0.42839560497402307</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -32013,27 +32325,27 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G51" t="s">
+        <v>442</v>
+      </c>
+      <c r="H51" t="s">
         <v>443</v>
-      </c>
-      <c r="H51" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" t="s">
         <v>439</v>
       </c>
-      <c r="D52" t="s">
-        <v>440</v>
-      </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G52">
         <v>19</v>
@@ -32044,7 +32356,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53">
         <v>-9.4480087351073383E-2</v>
@@ -32058,29 +32370,29 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" t="s">
         <v>439</v>
       </c>
-      <c r="D60" t="s">
-        <v>440</v>
-      </c>
       <c r="G60" t="s">
+        <v>442</v>
+      </c>
+      <c r="H60" t="s">
         <v>443</v>
-      </c>
-      <c r="H60" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61">
         <v>-0.38964193836700406</v>
@@ -32092,7 +32404,7 @@
         <v>-0.45042524306035714</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G61">
         <v>12</v>
@@ -32103,29 +32415,29 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" t="s">
         <v>439</v>
       </c>
-      <c r="D64" t="s">
-        <v>440</v>
-      </c>
       <c r="G64" t="s">
+        <v>442</v>
+      </c>
+      <c r="H64" t="s">
         <v>443</v>
-      </c>
-      <c r="H64" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65">
         <v>0.79116182499592191</v>
@@ -32137,7 +32449,7 @@
         <v>0.97544574044752941</v>
       </c>
       <c r="F65" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -32180,19 +32492,19 @@
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="139" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" s="139" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G2" s="139"/>
       <c r="H2" s="139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I2" s="139"/>
       <c r="J2" s="1"/>
@@ -32202,48 +32514,48 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -32288,7 +32600,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
@@ -32386,7 +32698,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="114" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="114"/>
     </row>
@@ -32403,19 +32715,19 @@
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
       <c r="B9" s="139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C9" s="139"/>
       <c r="D9" s="139" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" s="139"/>
       <c r="F9" s="139" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G9" s="139"/>
       <c r="H9" s="139" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="1"/>
@@ -32423,80 +32735,80 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="139" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O9" s="139"/>
       <c r="P9" s="139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="139"/>
       <c r="R9" s="139" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S9" s="139"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="J10" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="N10" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="P10" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>239</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -32559,7 +32871,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -32622,7 +32934,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
@@ -32686,7 +32998,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -32834,72 +33146,72 @@
     <row r="18" spans="1:24">
       <c r="A18" s="107"/>
       <c r="B18" s="166" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C18" s="166"/>
       <c r="D18" s="166" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E18" s="166"/>
       <c r="F18" s="166" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="166" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I18" s="166"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="D19" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="F19" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="J19" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="R19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B20" s="1">
         <v>36</v>
@@ -32942,7 +33254,7 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="Q20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R20">
         <v>0.86111111111111116</v>
@@ -32954,7 +33266,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
@@ -32997,7 +33309,7 @@
         <v>0.375</v>
       </c>
       <c r="Q21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R21">
         <v>0.48715277800000001</v>
@@ -33009,7 +33321,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B22" s="1">
         <v>29</v>
@@ -33053,7 +33365,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R22">
         <v>0.26368093399999998</v>
@@ -33065,7 +33377,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -33111,7 +33423,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" s="26">
         <f t="shared" ref="B24:M24" si="9">AVERAGE(B20:B23)</f>
@@ -33164,10 +33476,10 @@
     </row>
     <row r="25" spans="1:24">
       <c r="W25" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="X25" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -33176,74 +33488,74 @@
         <v>0.45961970614652392</v>
       </c>
       <c r="W26" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="X26" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="W27" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W28" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="N29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="N30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="N31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>119</v>
@@ -33251,84 +33563,84 @@
     </row>
     <row r="32" spans="1:24">
       <c r="N32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="N33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="N34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="N35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="N36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="N37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="8:15">
       <c r="H67" t="s">
+        <v>504</v>
+      </c>
+      <c r="O67" t="s">
         <v>505</v>
-      </c>
-      <c r="O67" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="I86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -33374,7 +33686,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -33389,35 +33701,35 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>245</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>543</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -33431,7 +33743,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="35">
@@ -33450,7 +33762,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -33473,7 +33785,7 @@
       </c>
       <c r="J4" s="35"/>
       <c r="K4" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -33498,7 +33810,7 @@
         <v>219</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -33523,7 +33835,7 @@
         <v>219</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -33534,10 +33846,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="35">
@@ -33556,55 +33868,55 @@
         <v>219</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
       <c r="F9" s="139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G9" s="139"/>
       <c r="H9" s="139" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I9" s="139"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="E11" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F11" s="168">
         <v>8</v>
       </c>
       <c r="G11" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H11" s="35">
         <v>7.35</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" s="170"/>
       <c r="G12" s="171"/>
@@ -33612,12 +33924,12 @@
         <v>9.43</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F13" s="172"/>
       <c r="G13" s="173"/>
@@ -33625,12 +33937,12 @@
         <v>12.15</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F14" s="174"/>
       <c r="G14" s="175"/>
@@ -33638,57 +33950,57 @@
         <v>19.48</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F15" s="169">
         <v>18</v>
       </c>
       <c r="G15" s="169" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H15" s="35">
         <v>21.58</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="K18" s="35" t="s">
         <v>543</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -33702,7 +34014,7 @@
         <v>197</v>
       </c>
       <c r="D19" s="178" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F19">
         <v>12.3</v>
@@ -33751,10 +34063,10 @@
         <v>8.34</v>
       </c>
       <c r="J21" t="s">
+        <v>561</v>
+      </c>
+      <c r="K21" t="s">
         <v>562</v>
-      </c>
-      <c r="K21" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -33777,26 +34089,26 @@
     <row r="24" spans="1:11">
       <c r="E24" s="176"/>
       <c r="F24" s="139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G24" s="139"/>
       <c r="H24" s="139" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I24" s="139"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -33804,7 +34116,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H26" s="1">
         <v>12.3</v>
@@ -33830,7 +34142,7 @@
         <v>13.03</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:11">

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="583">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -2952,6 +2952,14 @@
   </si>
   <si>
     <t>画面にエラーが出た</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3332,8 +3340,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="999">
+  <cellStyleXfs count="1019">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4670,7 +4698,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="999">
+  <cellStyles count="1019">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -5170,6 +5198,16 @@
     <cellStyle name="ハイパーリンク" xfId="993" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="995" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1017" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5670,6 +5708,16 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="994" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="996" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1018" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -13157,11 +13205,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -26848,8 +26891,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="K24" sqref="J19:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -27632,6 +27675,12 @@
       <c r="A19" s="5" t="s">
         <v>367</v>
       </c>
+      <c r="J19" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>582</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="24">
         <v>-38.869999999999997</v>
@@ -27676,10 +27725,10 @@
       <c r="G20" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="K20" s="67" t="s">
+      <c r="K20" s="3" t="s">
         <v>580</v>
       </c>
       <c r="M20" s="3"/>
@@ -27738,10 +27787,10 @@
       <c r="G21" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="3" t="s">
         <v>113</v>
       </c>
       <c r="M21" s="3"/>
@@ -27801,8 +27850,11 @@
         <v>352</v>
       </c>
       <c r="H22" s="66"/>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="3" t="s">
         <v>568</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="24">
@@ -27851,8 +27903,11 @@
       <c r="G23" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="3" t="s">
         <v>567</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="24">
@@ -27889,8 +27944,11 @@
       <c r="G24" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="3" t="s">
         <v>566</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -14032,16 +14032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19998,8 +19998,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP102"/>
   <sheetViews>
-    <sheetView topLeftCell="AG6" workbookViewId="0">
-      <selection activeCell="AM32" sqref="AM32"/>
+    <sheetView tabSelected="1" topLeftCell="AK6" workbookViewId="0">
+      <selection activeCell="AT34" sqref="AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -26891,7 +26891,7 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="L17" workbookViewId="0">
       <selection activeCell="K24" sqref="J19:K24"/>
     </sheetView>
   </sheetViews>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
     <sheet name="UX相関" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
     <sheet name="エピソード" sheetId="11" r:id="rId9"/>
+    <sheet name="主観評価" sheetId="12" r:id="rId10"/>
+    <sheet name="サイト主観" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
@@ -33,6 +33,8 @@
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="652">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -2962,12 +2964,308 @@
     <t>エピソード</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>操作のわかりやすさ</t>
+  </si>
+  <si>
+    <t>構成のわかりやすさ</t>
+  </si>
+  <si>
+    <t>見易さ</t>
+  </si>
+  <si>
+    <t>反応のよさ</t>
+  </si>
+  <si>
+    <t>好感度</t>
+    <rPh sb="0" eb="3">
+      <t>コウk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトのビジュアル表現は楽しい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトは印象に残る。</t>
+  </si>
+  <si>
+    <t>このウェブサイトには親しみがわく。</t>
+  </si>
+  <si>
+    <t>役立ち感</t>
+  </si>
+  <si>
+    <t>このウェブサイトではすぐに欲しい情報がみつかる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトにはわからない言葉が出てこない</t>
+    <rPh sb="18" eb="23">
+      <t>デt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを使用していて有益だと感じる</t>
+    <rPh sb="15" eb="21">
+      <t>ユウエk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容の信頼性</t>
+  </si>
+  <si>
+    <t>このウェブサイトに掲載されている内容は信用できる。</t>
+  </si>
+  <si>
+    <t>このウェブサイトは信頼できる。</t>
+  </si>
+  <si>
+    <t>このウェブサイトの文章表現は適切である。</t>
+  </si>
+  <si>
+    <t>このウェブサイトの操作手順はシンプルで分かりやすい。</t>
+  </si>
+  <si>
+    <t>このウェブサイトの使い方はすぐに理解できる。</t>
+  </si>
+  <si>
+    <t>このウェブサイトでは次に何をすればよいか迷わない</t>
+  </si>
+  <si>
+    <t>このウェブサイトには統一感があると思う。</t>
+  </si>
+  <si>
+    <t>このウェブサイトはメニューの構成（情報の分類）がわかりやすい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分がこのウェブサイト内のどこにいるのかわかりやすい</t>
+  </si>
+  <si>
+    <t>見やすさ</t>
+  </si>
+  <si>
+    <t>このウェブサイトの文章は読みやすい（行間、文章のレイアウトなど）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトの絵や図表は見やすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを利用していると目が疲れる感じはしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反応の良さ</t>
+    <rPh sb="0" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトでは操作に対してすばやい反応が返ってくる。</t>
+  </si>
+  <si>
+    <t>このウェブサイトを利用しているときに常に画面が正しく表示される</t>
+    <rPh sb="18" eb="20">
+      <t>ツン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを利用しているときに表示が遅くなったり途中で止まることはない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kogane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトではすぐに欲しい情報がみつかる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトはメニューの構成（情報の分類）がわかりやすい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトの文章は読みやすい（行間、文章のレイアウトなど）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトの絵や図表は見やすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを利用していると目が疲れる感じはしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトのビジュアル表現は楽しい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトではすぐに欲しい情報がみつかる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトの絵や図表は見やすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを利用していると目が疲れる感じはしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウェブサイトを利用していると目が疲れる感じはしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sakai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tutida</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度</t>
+  </si>
+  <si>
+    <t>このウェブサイトのビジュアル表現は楽しい。</t>
+  </si>
+  <si>
+    <t>このウェブサイトではすぐに欲しい情報がみつかる。</t>
+  </si>
+  <si>
+    <t>このウェブサイトにはわからない言葉が出てこない</t>
+  </si>
+  <si>
+    <t>このウェブサイトを使用していて有益だと感じる</t>
+  </si>
+  <si>
+    <t>このウェブサイトはメニューの構成（情報の分類）がわかりやすい。</t>
+  </si>
+  <si>
+    <t>このウェブサイトの文章は読みやすい（行間、文章のレイアウトなど）</t>
+  </si>
+  <si>
+    <t>このウェブサイトの絵や図表は見やすい</t>
+  </si>
+  <si>
+    <t>このウェブサイトを利用していると目が疲れる感じはしない</t>
+  </si>
+  <si>
+    <t>反応の良さ</t>
+  </si>
+  <si>
+    <t>このウェブサイトを利用しているときに常に画面が正しく表示される</t>
+  </si>
+  <si>
+    <t>このウェブサイトを利用しているときに表示が遅くなったり途中で止まることはない</t>
+  </si>
+  <si>
+    <t>Matusita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matusita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ゴs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yamanaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作・構成</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作・見やすさ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウs</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ミy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作・反応</t>
+    <rPh sb="0" eb="2">
+      <t>ソウs</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成・見やすさ</t>
+    <rPh sb="0" eb="2">
+      <t>コウセ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ミy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成・反応の良さ</t>
+    <rPh sb="0" eb="2">
+      <t>コウセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声</t>
+    <rPh sb="0" eb="2">
+      <t>オンセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3040,8 +3338,45 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3108,8 +3443,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3339,8 +3698,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1019">
+  <cellStyleXfs count="1115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4360,8 +4732,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4502,6 +4970,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4697,8 +5168,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1019">
+  <cellStyles count="1115">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -5208,6 +5777,54 @@
     <cellStyle name="ハイパーリンク" xfId="1013" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1015" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1113" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -5718,6 +6335,54 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="1014" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1016" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1114" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -11293,6 +11958,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-2140418216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -11304,13 +11979,44 @@
         <c:axId val="-2140418216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+                  <a:t>Value of UX[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="-2126221560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -12522,6 +13228,585 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>主観評価!$C$33:$C$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.659404467996214</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.464557112656207</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.45400496380948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.781039429455554</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>主観評価!$C$33:$C$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.659404467996214</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.464557112656207</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.45400496380948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.781039429455554</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>主観評価!$A$33:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>操作のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>構成のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>見易さ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>反応のよさ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主観評価!$B$33:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.291666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2066262408"/>
+        <c:axId val="2127235928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2066262408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127235928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127235928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066262408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>サイト主観!$C$49:$C$55</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.358732440973515</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.994293854277242</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.877058019307029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.596827338774468</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.476308632870233</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>サイト主観!$C$49:$C$55</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.358732440973515</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.994293854277242</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.877058019307029</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.596827338774468</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.476308632870233</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>サイト主観!$A$49:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>好感度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>役立ち感</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>内容の信頼性</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>操作のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>構成のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>見やすさ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>反応の良さ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>サイト主観!$B$49:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.148148148148148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.37037037037037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.962962962962963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126884696"/>
+        <c:axId val="2119637448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126884696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2119637448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119637448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126884696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>サイト主観!$C$59:$C$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.596827338774468</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.476308632870233</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>サイト主観!$C$59:$C$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.596827338774468</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.476308632870233</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.807707461899261</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>サイト主観!$A$59:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>操作のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>構成のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>見やすさ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>反応の良さ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>サイト主観!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.37037037037037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.962962962962963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2099892968"/>
+        <c:axId val="-2099577432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2099892968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099577432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2099577432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+                  <a:t>SCORE</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099892968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -13908,10 +15193,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14612,6 +15897,106 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -18901,15 +20286,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -19037,10 +20422,10 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="119">
         <v>90</v>
       </c>
       <c r="C7" s="1">
@@ -19071,8 +20456,8 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="1">
         <v>-19.440000000000001</v>
       </c>
@@ -19088,10 +20473,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="114" t="s">
+      <c r="V8" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="W8" s="114"/>
+      <c r="W8" s="115"/>
       <c r="Y8">
         <f>FTEST(V10:V11, W10:W22)</f>
         <v>0.16952866621585372</v>
@@ -19110,15 +20495,15 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
       <c r="L10" t="s">
         <v>240</v>
       </c>
@@ -19206,15 +20591,15 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
       <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
@@ -19263,7 +20648,7 @@
       <c r="L14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="112">
+      <c r="M14" s="113">
         <v>90</v>
       </c>
       <c r="N14" s="26">
@@ -19284,10 +20669,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="121">
         <v>86</v>
       </c>
       <c r="C15" s="3">
@@ -19304,7 +20689,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="113"/>
+      <c r="M15" s="114"/>
       <c r="N15" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -19325,8 +20710,8 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="3">
         <v>-13.52</v>
       </c>
@@ -19366,8 +20751,8 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="3">
         <v>-37.61</v>
       </c>
@@ -19407,8 +20792,8 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="3">
         <v>-51.13</v>
       </c>
@@ -19425,7 +20810,7 @@
       <c r="L18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="109">
+      <c r="M18" s="110">
         <v>86</v>
       </c>
       <c r="N18" s="24">
@@ -19447,7 +20832,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="15"/>
-      <c r="M19" s="110"/>
+      <c r="M19" s="111"/>
       <c r="N19" s="24">
         <v>-13.52</v>
       </c>
@@ -19466,16 +20851,16 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="110"/>
+      <c r="M20" s="111"/>
       <c r="N20" s="24">
         <v>-37.61</v>
       </c>
@@ -19521,7 +20906,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="111"/>
+      <c r="M21" s="112"/>
       <c r="N21" s="24">
         <v>-51.13</v>
       </c>
@@ -19563,14 +20948,14 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
       <c r="L23" s="1" t="s">
         <v>65</v>
       </c>
@@ -19993,13 +21378,4005 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Y44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" t="s">
+        <v>624</v>
+      </c>
+      <c r="J3" t="s">
+        <v>627</v>
+      </c>
+      <c r="M3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" t="s">
+        <v>470</v>
+      </c>
+      <c r="S3" t="s">
+        <v>471</v>
+      </c>
+      <c r="V3" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="106">
+        <v>1</v>
+      </c>
+      <c r="D4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="106">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="H4" s="106">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="192" t="s">
+        <v>583</v>
+      </c>
+      <c r="K4" s="193">
+        <v>1</v>
+      </c>
+      <c r="L4" s="194">
+        <v>6</v>
+      </c>
+      <c r="M4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="N4" s="106">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q4" s="106">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="T4" s="106">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="W4" s="106">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="192" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="182"/>
+      <c r="B5" s="106">
+        <v>2</v>
+      </c>
+      <c r="D5" s="182"/>
+      <c r="E5" s="106">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="182"/>
+      <c r="H5" s="106">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193">
+        <v>2</v>
+      </c>
+      <c r="L5" s="194">
+        <v>3</v>
+      </c>
+      <c r="M5" s="182"/>
+      <c r="N5" s="106">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="106">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="182"/>
+      <c r="T5" s="106">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5" s="182"/>
+      <c r="W5" s="106">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="192"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="182"/>
+      <c r="B6" s="106">
+        <v>3</v>
+      </c>
+      <c r="D6" s="182"/>
+      <c r="E6" s="106">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="182"/>
+      <c r="H6" s="106">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="192"/>
+      <c r="K6" s="193">
+        <v>3</v>
+      </c>
+      <c r="L6" s="194">
+        <v>6</v>
+      </c>
+      <c r="M6" s="182"/>
+      <c r="N6" s="106">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="106">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6" s="182"/>
+      <c r="T6" s="106">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6" s="182"/>
+      <c r="W6" s="106">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="192"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="106">
+        <v>4</v>
+      </c>
+      <c r="D7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="E7" s="106">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="H7" s="106">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="195" t="s">
+        <v>584</v>
+      </c>
+      <c r="K7" s="193">
+        <v>4</v>
+      </c>
+      <c r="L7" s="194">
+        <v>5</v>
+      </c>
+      <c r="M7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="N7" s="106">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q7" s="106">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="T7" s="106">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="W7" s="106">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="195" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="183"/>
+      <c r="B8" s="106">
+        <v>5</v>
+      </c>
+      <c r="D8" s="183"/>
+      <c r="E8" s="106">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="183"/>
+      <c r="H8" s="106">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="195"/>
+      <c r="K8" s="193">
+        <v>5</v>
+      </c>
+      <c r="L8" s="194">
+        <v>5</v>
+      </c>
+      <c r="M8" s="183"/>
+      <c r="N8" s="106">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="106">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8" s="183"/>
+      <c r="T8" s="106">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" s="183"/>
+      <c r="W8" s="106">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="195"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="183"/>
+      <c r="B9" s="106">
+        <v>6</v>
+      </c>
+      <c r="D9" s="183"/>
+      <c r="E9" s="106">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="183"/>
+      <c r="H9" s="106">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="195"/>
+      <c r="K9" s="193">
+        <v>6</v>
+      </c>
+      <c r="L9" s="194">
+        <v>7</v>
+      </c>
+      <c r="M9" s="183"/>
+      <c r="N9" s="106">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="106">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" s="183"/>
+      <c r="T9" s="106">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9" s="183"/>
+      <c r="W9" s="106">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="195"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="106">
+        <v>7</v>
+      </c>
+      <c r="D10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" s="106">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="H10" s="106">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="196" t="s">
+        <v>585</v>
+      </c>
+      <c r="K10" s="193">
+        <v>7</v>
+      </c>
+      <c r="L10" s="194">
+        <v>4</v>
+      </c>
+      <c r="M10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="N10" s="106">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q10" s="106">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="T10" s="106">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="W10" s="106">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="196" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="184"/>
+      <c r="B11" s="106">
+        <v>8</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="106">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="184"/>
+      <c r="H11" s="106">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="196"/>
+      <c r="K11" s="193">
+        <v>8</v>
+      </c>
+      <c r="L11" s="194">
+        <v>5</v>
+      </c>
+      <c r="M11" s="184"/>
+      <c r="N11" s="106">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="106">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" s="184"/>
+      <c r="T11" s="106">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11" s="184"/>
+      <c r="W11" s="106">
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="196"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="184"/>
+      <c r="B12" s="106">
+        <v>9</v>
+      </c>
+      <c r="D12" s="184"/>
+      <c r="E12" s="106">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="184"/>
+      <c r="H12" s="106">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="196"/>
+      <c r="K12" s="193">
+        <v>9</v>
+      </c>
+      <c r="L12" s="194">
+        <v>6</v>
+      </c>
+      <c r="M12" s="184"/>
+      <c r="N12" s="106">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="106">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12" s="184"/>
+      <c r="T12" s="106">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" s="184"/>
+      <c r="W12" s="106">
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="196"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="106">
+        <v>10</v>
+      </c>
+      <c r="D13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="E13" s="106">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="H13" s="106">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="197" t="s">
+        <v>586</v>
+      </c>
+      <c r="K13" s="193">
+        <v>10</v>
+      </c>
+      <c r="L13" s="194">
+        <v>7</v>
+      </c>
+      <c r="M13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="N13" s="106">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q13" s="106">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="T13" s="106">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="W13" s="106">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="197" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="185"/>
+      <c r="B14" s="106">
+        <v>11</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="106">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="185"/>
+      <c r="H14" s="106">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="197"/>
+      <c r="K14" s="193">
+        <v>11</v>
+      </c>
+      <c r="L14" s="194">
+        <v>6</v>
+      </c>
+      <c r="M14" s="185"/>
+      <c r="N14" s="106">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="106">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14" s="185"/>
+      <c r="T14" s="106">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14" s="185"/>
+      <c r="W14" s="106">
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="197"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="185"/>
+      <c r="B15" s="106">
+        <v>12</v>
+      </c>
+      <c r="D15" s="185"/>
+      <c r="E15" s="106">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="185"/>
+      <c r="H15" s="106">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="197"/>
+      <c r="K15" s="193">
+        <v>12</v>
+      </c>
+      <c r="L15" s="194">
+        <v>6</v>
+      </c>
+      <c r="M15" s="185"/>
+      <c r="N15" s="106">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="106">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15" s="185"/>
+      <c r="T15" s="106">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15" s="185"/>
+      <c r="W15" s="106">
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="197"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="J18" t="s">
+        <v>258</v>
+      </c>
+      <c r="K18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="182" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="207">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(B19:I19)</f>
+        <v>5.375</v>
+      </c>
+      <c r="K19" s="115">
+        <f>AVERAGE(B19:I22)</f>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="182"/>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="207">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J30" si="0">AVERAGE(B20:I20)</f>
+        <v>5.25</v>
+      </c>
+      <c r="K20" s="115"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="182"/>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="207">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>5.375</v>
+      </c>
+      <c r="K21" s="115"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="183" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="207">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="K22" s="115">
+        <f>AVERAGE(B22:I24)</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="183"/>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="207">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="K23" s="115"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="183"/>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="207">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="K24" s="115"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="184" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="207">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="K25" s="115">
+        <f>AVERAGE(B25:I27)</f>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="184"/>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="207">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>5.375</v>
+      </c>
+      <c r="K26" s="115"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="184"/>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="207">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+      <c r="K27" s="115"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="207">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="K28" s="115">
+        <f>AVERAGE(B28:I30)</f>
+        <v>5.291666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="185"/>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="207">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="K29" s="115"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="185"/>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="207">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="K30" s="115"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="208" t="s">
+        <v>583</v>
+      </c>
+      <c r="B33">
+        <v>5.4375</v>
+      </c>
+      <c r="C33">
+        <f>STDEV(B19:I21)</f>
+        <v>1.6594044679962141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="209" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C34">
+        <f>STDEV(B22:I24)</f>
+        <v>1.4645571126562069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="210" t="s">
+        <v>585</v>
+      </c>
+      <c r="B35">
+        <v>5.125</v>
+      </c>
+      <c r="C35">
+        <f>STDEV(B25:I27)</f>
+        <v>1.4540049638094805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="211" t="s">
+        <v>586</v>
+      </c>
+      <c r="B36">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="C36">
+        <f>STDEV(B28:I30)</f>
+        <v>1.7810394294555536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="212"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="212"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="212"/>
+      <c r="B40" t="s">
+        <v>650</v>
+      </c>
+      <c r="C40" t="s">
+        <v>643</v>
+      </c>
+      <c r="D40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E40" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="212" t="s">
+        <v>583</v>
+      </c>
+      <c r="B41">
+        <v>5.4444444444444455</v>
+      </c>
+      <c r="C41">
+        <v>0.6938886664887105</v>
+      </c>
+      <c r="D41">
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="E41">
+        <v>0.1924500897298751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1.7638342073763935</v>
+      </c>
+      <c r="D42">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E42">
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="212" t="s">
+        <v>585</v>
+      </c>
+      <c r="B43">
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="C43">
+        <v>0.7698003589194935</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="212" t="s">
+        <v>586</v>
+      </c>
+      <c r="B44">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="C44">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="D44">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="E44">
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" t="s">
+        <v>623</v>
+      </c>
+      <c r="M2" t="s">
+        <v>626</v>
+      </c>
+      <c r="P2" t="s">
+        <v>628</v>
+      </c>
+      <c r="S2" t="s">
+        <v>470</v>
+      </c>
+      <c r="V2" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="R3" s="1">
+        <v>6</v>
+      </c>
+      <c r="S3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="200" t="s">
+        <v>629</v>
+      </c>
+      <c r="W3" s="198" t="s">
+        <v>630</v>
+      </c>
+      <c r="X3" s="198">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="187"/>
+      <c r="B4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="187"/>
+      <c r="H4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="187"/>
+      <c r="K4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="187"/>
+      <c r="N4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="187"/>
+      <c r="T4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5</v>
+      </c>
+      <c r="V4" s="201"/>
+      <c r="W4" s="199" t="s">
+        <v>589</v>
+      </c>
+      <c r="X4" s="199">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="188"/>
+      <c r="B5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="188"/>
+      <c r="E5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="188"/>
+      <c r="H5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="188"/>
+      <c r="K5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7</v>
+      </c>
+      <c r="M5" s="188"/>
+      <c r="N5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5" s="188"/>
+      <c r="T5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="202"/>
+      <c r="W5" s="199" t="s">
+        <v>590</v>
+      </c>
+      <c r="X5" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7</v>
+      </c>
+      <c r="P6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3</v>
+      </c>
+      <c r="V6" s="204" t="s">
+        <v>591</v>
+      </c>
+      <c r="W6" s="199" t="s">
+        <v>631</v>
+      </c>
+      <c r="X6" s="199">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="190"/>
+      <c r="B7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="190"/>
+      <c r="E7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="190"/>
+      <c r="H7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="190"/>
+      <c r="K7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="190"/>
+      <c r="N7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="190"/>
+      <c r="T7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6</v>
+      </c>
+      <c r="V7" s="203"/>
+      <c r="W7" s="199" t="s">
+        <v>632</v>
+      </c>
+      <c r="X7" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="191"/>
+      <c r="B8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="191"/>
+      <c r="E8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="191"/>
+      <c r="H8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="191"/>
+      <c r="K8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="191"/>
+      <c r="N8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="191"/>
+      <c r="T8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="205"/>
+      <c r="W8" s="199" t="s">
+        <v>633</v>
+      </c>
+      <c r="X8" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6</v>
+      </c>
+      <c r="M9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="204" t="s">
+        <v>595</v>
+      </c>
+      <c r="W9" s="199" t="s">
+        <v>596</v>
+      </c>
+      <c r="X9" s="199">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="190"/>
+      <c r="B10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="190"/>
+      <c r="E10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="190"/>
+      <c r="H10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="190"/>
+      <c r="K10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="190"/>
+      <c r="N10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="R10" s="1">
+        <v>6</v>
+      </c>
+      <c r="S10" s="190"/>
+      <c r="T10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6</v>
+      </c>
+      <c r="V10" s="203"/>
+      <c r="W10" s="199" t="s">
+        <v>597</v>
+      </c>
+      <c r="X10" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="191"/>
+      <c r="B11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="191"/>
+      <c r="E11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="191"/>
+      <c r="H11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="191"/>
+      <c r="K11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="191"/>
+      <c r="N11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7</v>
+      </c>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+      <c r="S11" s="191"/>
+      <c r="T11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="U11" s="1">
+        <v>5</v>
+      </c>
+      <c r="V11" s="205"/>
+      <c r="W11" s="199" t="s">
+        <v>598</v>
+      </c>
+      <c r="X11" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5</v>
+      </c>
+      <c r="S12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3</v>
+      </c>
+      <c r="V12" s="204" t="s">
+        <v>583</v>
+      </c>
+      <c r="W12" s="199" t="s">
+        <v>599</v>
+      </c>
+      <c r="X12" s="199">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="190"/>
+      <c r="B13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="190"/>
+      <c r="E13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="190"/>
+      <c r="H13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="190"/>
+      <c r="K13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="190"/>
+      <c r="N13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="O13" s="1">
+        <v>6</v>
+      </c>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5</v>
+      </c>
+      <c r="S13" s="190"/>
+      <c r="T13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3</v>
+      </c>
+      <c r="V13" s="203"/>
+      <c r="W13" s="199" t="s">
+        <v>600</v>
+      </c>
+      <c r="X13" s="199">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="191"/>
+      <c r="B14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="191"/>
+      <c r="E14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="191"/>
+      <c r="H14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="191"/>
+      <c r="K14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="191"/>
+      <c r="N14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6</v>
+      </c>
+      <c r="S14" s="191"/>
+      <c r="T14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3</v>
+      </c>
+      <c r="V14" s="205"/>
+      <c r="W14" s="199" t="s">
+        <v>601</v>
+      </c>
+      <c r="X14" s="199">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6</v>
+      </c>
+      <c r="M15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="V15" s="204" t="s">
+        <v>584</v>
+      </c>
+      <c r="W15" s="199" t="s">
+        <v>602</v>
+      </c>
+      <c r="X15" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="190"/>
+      <c r="B16" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="190"/>
+      <c r="E16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="190"/>
+      <c r="H16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="190"/>
+      <c r="K16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6</v>
+      </c>
+      <c r="M16" s="190"/>
+      <c r="N16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="O16" s="1">
+        <v>6</v>
+      </c>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6</v>
+      </c>
+      <c r="S16" s="190"/>
+      <c r="T16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3</v>
+      </c>
+      <c r="V16" s="203"/>
+      <c r="W16" s="199" t="s">
+        <v>634</v>
+      </c>
+      <c r="X16" s="199">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="191"/>
+      <c r="B17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="191"/>
+      <c r="E17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="191"/>
+      <c r="H17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="191"/>
+      <c r="K17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7</v>
+      </c>
+      <c r="M17" s="191"/>
+      <c r="N17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="R17" s="1">
+        <v>6</v>
+      </c>
+      <c r="S17" s="191"/>
+      <c r="T17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="205"/>
+      <c r="W17" s="199" t="s">
+        <v>604</v>
+      </c>
+      <c r="X17" s="199">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O18" s="1">
+        <v>6</v>
+      </c>
+      <c r="P18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="R18" s="1">
+        <v>6</v>
+      </c>
+      <c r="S18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="204" t="s">
+        <v>605</v>
+      </c>
+      <c r="W18" s="199" t="s">
+        <v>635</v>
+      </c>
+      <c r="X18" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="190"/>
+      <c r="B19" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="190"/>
+      <c r="E19" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="190"/>
+      <c r="H19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="190"/>
+      <c r="K19" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6</v>
+      </c>
+      <c r="M19" s="190"/>
+      <c r="N19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O19" s="1">
+        <v>6</v>
+      </c>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6</v>
+      </c>
+      <c r="S19" s="190"/>
+      <c r="T19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="203"/>
+      <c r="W19" s="199" t="s">
+        <v>636</v>
+      </c>
+      <c r="X19" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="191"/>
+      <c r="B20" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="191"/>
+      <c r="E20" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="191"/>
+      <c r="H20" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="191"/>
+      <c r="K20" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="191"/>
+      <c r="N20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R20" s="1">
+        <v>6</v>
+      </c>
+      <c r="S20" s="191"/>
+      <c r="T20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="205"/>
+      <c r="W20" s="199" t="s">
+        <v>637</v>
+      </c>
+      <c r="X20" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="J21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6</v>
+      </c>
+      <c r="M21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7</v>
+      </c>
+      <c r="P21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6</v>
+      </c>
+      <c r="S21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5</v>
+      </c>
+      <c r="V21" s="204" t="s">
+        <v>638</v>
+      </c>
+      <c r="W21" s="199" t="s">
+        <v>610</v>
+      </c>
+      <c r="X21" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="139"/>
+      <c r="B22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="139"/>
+      <c r="E22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="139"/>
+      <c r="H22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+      <c r="J22" s="139"/>
+      <c r="K22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="139"/>
+      <c r="N22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O22" s="1">
+        <v>5</v>
+      </c>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="R22" s="1">
+        <v>6</v>
+      </c>
+      <c r="S22" s="139"/>
+      <c r="T22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="U22" s="1">
+        <v>5</v>
+      </c>
+      <c r="V22" s="203"/>
+      <c r="W22" s="199" t="s">
+        <v>639</v>
+      </c>
+      <c r="X22" s="199">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="139"/>
+      <c r="B23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="139"/>
+      <c r="E23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="139"/>
+      <c r="H23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="139"/>
+      <c r="K23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6</v>
+      </c>
+      <c r="M23" s="139"/>
+      <c r="N23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O23" s="1">
+        <v>6</v>
+      </c>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="R23" s="1">
+        <v>6</v>
+      </c>
+      <c r="S23" s="139"/>
+      <c r="T23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="U23" s="1">
+        <v>6</v>
+      </c>
+      <c r="V23" s="206"/>
+      <c r="W23" s="199" t="s">
+        <v>640</v>
+      </c>
+      <c r="X23" s="199">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="K25" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="198">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(B26:J26)</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="L26" s="115">
+        <f>AVERAGE(B26:J28)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="187"/>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="199">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K46" si="0">AVERAGE(B27:J27)</f>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="L27" s="115"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="188"/>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="199">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L28" s="115"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="199">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="115">
+        <f>AVERAGE(B29:J31)</f>
+        <v>4.1481481481481479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="190"/>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6</v>
+      </c>
+      <c r="I30" s="199">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="L30" s="115"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="191"/>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="199">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="115"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="199">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="L32" s="115">
+        <f>AVERAGE(B32:J34)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="190"/>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="199">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="L33" s="115"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="191"/>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="199">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L34" s="115"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="199">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="L35" s="115">
+        <f>AVERAGE(B35:J37)</f>
+        <v>3.3703703703703702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="190"/>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="199">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="191"/>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="199">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="L37" s="115"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="189" t="s">
+        <v>584</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="199">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L38" s="115">
+        <f>AVERAGE(B38:J40)</f>
+        <v>4.0370370370370372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="190"/>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="199">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L39" s="115"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="191"/>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="199">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="L40" s="115"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="199">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="L41" s="115">
+        <f>AVERAGE(B41:J43)</f>
+        <v>5.2222222222222223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="190"/>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="199">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="L42" s="115"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="191"/>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="199">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="115"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="199">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="L44" s="115">
+        <f>AVERAGE(B44:J46)</f>
+        <v>4.9629629629629628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="139"/>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="199">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="L45" s="115"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="139"/>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6</v>
+      </c>
+      <c r="I46" s="199">
+        <v>6</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="L46" s="115"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="C48" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="215" t="s">
+        <v>587</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C49">
+        <f>STDEV(B26:J28)</f>
+        <v>1.3587324409735149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="216" t="s">
+        <v>591</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4.1481481481481479</v>
+      </c>
+      <c r="C50">
+        <f>STDEV(B29:J31)</f>
+        <v>1.9942938542772419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="216" t="s">
+        <v>595</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C51">
+        <f>STDEV(B32:J34)</f>
+        <v>0.8770580193070292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="216" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.3703703703703702</v>
+      </c>
+      <c r="C52">
+        <f>STDEV(B35:J37)</f>
+        <v>1.596827338774468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="216" t="s">
+        <v>584</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4.0370370370370372</v>
+      </c>
+      <c r="C53">
+        <f>STDEV(B38:J40)</f>
+        <v>1.8077074618992612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="216" t="s">
+        <v>605</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="C54">
+        <f>STDEV(B41:J43)</f>
+        <v>1.4763086328702335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="216" t="s">
+        <v>609</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4.9629629629629628</v>
+      </c>
+      <c r="C55">
+        <f>STDEV(B44:J46)</f>
+        <v>1.8077074618992606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="213"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="214"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="213" t="s">
+        <v>583</v>
+      </c>
+      <c r="B59">
+        <v>3.3703703703703702</v>
+      </c>
+      <c r="C59">
+        <v>1.596827338774468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="214" t="s">
+        <v>584</v>
+      </c>
+      <c r="B60">
+        <v>4.0370370370370372</v>
+      </c>
+      <c r="C60">
+        <v>1.8077074618992612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>605</v>
+      </c>
+      <c r="B61">
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="C61">
+        <v>1.4763086328702335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="213" t="s">
+        <v>609</v>
+      </c>
+      <c r="B62">
+        <v>4.9629629629629628</v>
+      </c>
+      <c r="C62">
+        <v>1.8077074618992606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="214"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>645</v>
+      </c>
+      <c r="C64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="213"/>
+      <c r="B65" s="181">
+        <f>TTEST(B35:J37, B38:J40, 2,1)</f>
+        <v>5.8994565862413341E-2</v>
+      </c>
+      <c r="C65" s="217">
+        <f>TTEST(B38:J40, B41:J43, 2, 1)</f>
+        <v>6.8033724838640177E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="214"/>
+      <c r="B66" t="s">
+        <v>646</v>
+      </c>
+      <c r="C66" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="217">
+        <f>TTEST(B35:J37, B41:J43, 2, 1)</f>
+        <v>2.3730118501784403E-5</v>
+      </c>
+      <c r="C67" s="217">
+        <f>TTEST(B38:J40, B44:J46, 2, 1)</f>
+        <v>3.6547036375878299E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="213"/>
+      <c r="B68" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="214"/>
+      <c r="B69" s="217">
+        <f>TTEST(B35:J37, B44:J46, 2, 1)</f>
+        <v>6.7231112918320545E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK6" workbookViewId="0">
-      <selection activeCell="AT34" sqref="AT34"/>
+    <sheetView topLeftCell="AK6" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -20019,16 +25396,16 @@
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
@@ -20358,13 +25735,13 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="144">
         <v>87.000000000000043</v>
       </c>
       <c r="D7" s="4">
@@ -20414,9 +25791,9 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="143"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="4">
         <v>-57.04</v>
       </c>
@@ -20491,10 +25868,10 @@
       <c r="M9" s="1">
         <v>44.79</v>
       </c>
-      <c r="Q9" s="132" t="s">
+      <c r="Q9" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="126">
+      <c r="R9" s="127">
         <v>90.999999999999943</v>
       </c>
       <c r="S9" s="24">
@@ -20547,8 +25924,8 @@
       <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="126"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="127"/>
       <c r="S10" s="24">
         <v>69.510000000000005</v>
       </c>
@@ -20612,7 +25989,7 @@
       <c r="Q11" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="129">
+      <c r="R11" s="130">
         <v>96</v>
       </c>
       <c r="S11" s="24">
@@ -20659,7 +26036,7 @@
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="130"/>
+      <c r="R12" s="131"/>
       <c r="S12" s="29">
         <v>55.14</v>
       </c>
@@ -20691,7 +26068,7 @@
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R13" s="131"/>
+      <c r="R13" s="132"/>
       <c r="S13" s="29">
         <v>20.49</v>
       </c>
@@ -20716,18 +26093,18 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="Q14" s="127" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="Q14" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="126">
+      <c r="R14" s="127">
         <v>42.999999999999929</v>
       </c>
       <c r="S14" s="24">
@@ -20754,10 +26131,10 @@
       <c r="AI14" s="24">
         <v>-2.54</v>
       </c>
-      <c r="AK14" s="114" t="s">
+      <c r="AK14" s="115" t="s">
         <v>576</v>
       </c>
-      <c r="AL14" s="114"/>
+      <c r="AL14" s="115"/>
       <c r="AO14" t="s">
         <v>577</v>
       </c>
@@ -20787,8 +26164,8 @@
       <c r="H15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="126"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="24">
         <v>26.62</v>
       </c>
@@ -21002,14 +26379,14 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="5"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
@@ -21110,7 +26487,7 @@
       <c r="AL20" s="29">
         <v>20.49</v>
       </c>
-      <c r="AN20" s="180">
+      <c r="AN20" s="181">
         <f>TTEST(AK16:AK35, AL16:AL37, 2, 2)</f>
         <v>8.5134430291591165E-2</v>
       </c>
@@ -21232,10 +26609,10 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="139">
+      <c r="C23" s="140">
         <v>90.999999999999943</v>
       </c>
       <c r="D23" s="19">
@@ -21289,8 +26666,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="19">
         <v>69.510000000000005</v>
       </c>
@@ -21342,10 +26719,10 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="139">
+      <c r="C25" s="140">
         <v>95.999999999999872</v>
       </c>
       <c r="D25" s="19">
@@ -21397,8 +26774,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
       <c r="D26" s="4">
         <v>-28.73</v>
       </c>
@@ -21450,8 +26827,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="4">
         <v>-33.17</v>
       </c>
@@ -21465,10 +26842,10 @@
       <c r="H27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="125" t="s">
+      <c r="Q27" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="128">
+      <c r="R27" s="129">
         <v>189</v>
       </c>
       <c r="S27" s="23">
@@ -21503,8 +26880,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="19">
         <v>55.14</v>
       </c>
@@ -21524,8 +26901,8 @@
       <c r="L28" s="3">
         <v>-45.85</v>
       </c>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="128"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="129"/>
       <c r="S28" s="48">
         <v>62.11</v>
       </c>
@@ -21558,8 +26935,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="19">
         <v>20.49</v>
       </c>
@@ -21617,10 +26994,10 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="139">
+      <c r="C30" s="140">
         <v>76</v>
       </c>
       <c r="D30" s="4">
@@ -21680,8 +27057,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="B31" s="127"/>
-      <c r="C31" s="139"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="4">
         <v>-82.39</v>
       </c>
@@ -21705,10 +27082,10 @@
       <c r="M31" s="3">
         <v>69.72</v>
       </c>
-      <c r="Q31" s="124" t="s">
+      <c r="Q31" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="R31" s="134">
+      <c r="R31" s="135">
         <v>50</v>
       </c>
       <c r="S31" s="23">
@@ -21737,10 +27114,10 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="139">
+      <c r="C32" s="140">
         <v>42.999999999999929</v>
       </c>
       <c r="D32" s="19">
@@ -21768,8 +27145,8 @@
       <c r="M32" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
       <c r="S32" s="48">
         <v>91.27</v>
       </c>
@@ -21796,8 +27173,8 @@
       </c>
     </row>
     <row r="33" spans="2:38">
-      <c r="B33" s="127"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="19">
         <v>26.62</v>
       </c>
@@ -21933,14 +27310,14 @@
       </c>
     </row>
     <row r="36" spans="2:38">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
       <c r="K36" s="10"/>
       <c r="M36" s="3">
         <v>55.14</v>
@@ -22002,7 +27379,7 @@
       <c r="Q37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R37" s="134">
+      <c r="R37" s="135">
         <v>90.000000000000057</v>
       </c>
       <c r="S37" s="23">
@@ -22056,7 +27433,7 @@
         <v>-31.48</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="134"/>
+      <c r="R38" s="135"/>
       <c r="S38" s="48">
         <v>81.13</v>
       </c>
@@ -22149,7 +27526,7 @@
       <c r="H40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="127">
+      <c r="K40" s="128">
         <v>42.999999999999929</v>
       </c>
       <c r="L40" s="3">
@@ -22202,7 +27579,7 @@
       <c r="H41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="127"/>
+      <c r="K41" s="128"/>
       <c r="L41" s="3">
         <v>26.62</v>
       </c>
@@ -22258,14 +27635,14 @@
       </c>
     </row>
     <row r="43" spans="2:38">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="Q43" s="17" t="s">
         <v>218</v>
       </c>
@@ -22418,10 +27795,10 @@
       </c>
     </row>
     <row r="48" spans="2:38">
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="114">
+      <c r="C48" s="115">
         <v>222</v>
       </c>
       <c r="D48" s="20">
@@ -22439,7 +27816,7 @@
       <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="114" t="s">
+      <c r="I48" s="115" t="s">
         <v>210</v>
       </c>
       <c r="AB48" s="48">
@@ -22447,8 +27824,8 @@
       </c>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="141"/>
-      <c r="C49" s="114"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="31">
         <v>-17.11</v>
       </c>
@@ -22462,14 +27839,14 @@
       <c r="H49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="114"/>
+      <c r="I49" s="115"/>
       <c r="AB49" s="48">
         <v>24.72</v>
       </c>
     </row>
     <row r="50" spans="2:40">
-      <c r="B50" s="141"/>
-      <c r="C50" s="114"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="31">
         <v>-30.85</v>
       </c>
@@ -22485,7 +27862,7 @@
       <c r="H50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="114"/>
+      <c r="I50" s="115"/>
       <c r="Q50" s="4" t="s">
         <v>286</v>
       </c>
@@ -22505,8 +27882,8 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:40">
-      <c r="B51" s="141"/>
-      <c r="C51" s="114"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="20">
         <v>10.35</v>
       </c>
@@ -22520,7 +27897,7 @@
       <c r="H51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="114"/>
+      <c r="I51" s="115"/>
       <c r="Q51" s="3" t="s">
         <v>18</v>
       </c>
@@ -22574,8 +27951,8 @@
       </c>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="115"/>
-      <c r="C52" s="114"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="31">
         <v>-18.38</v>
       </c>
@@ -22591,11 +27968,11 @@
       <c r="H52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="114"/>
-      <c r="Q52" s="124" t="s">
+      <c r="I52" s="115"/>
+      <c r="Q52" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="137">
+      <c r="R52" s="138">
         <v>87.000000000000043</v>
       </c>
       <c r="S52" s="22">
@@ -22678,9 +28055,9 @@
       <c r="H53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="114"/>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="137"/>
+      <c r="I53" s="115"/>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="138"/>
       <c r="S53" s="24">
         <v>-57.04</v>
       </c>
@@ -22762,7 +28139,7 @@
       <c r="H54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="114"/>
+      <c r="I54" s="115"/>
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
@@ -22829,7 +28206,7 @@
       <c r="H55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="114"/>
+      <c r="I55" s="115"/>
       <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
@@ -22859,10 +28236,10 @@
       </c>
     </row>
     <row r="56" spans="2:40">
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="144">
+      <c r="C56" s="145">
         <v>189</v>
       </c>
       <c r="D56" s="31">
@@ -22911,8 +28288,8 @@
       </c>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="143"/>
-      <c r="C57" s="144"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="20">
         <v>43.1</v>
       </c>
@@ -22967,8 +28344,8 @@
       </c>
     </row>
     <row r="58" spans="2:40">
-      <c r="B58" s="143"/>
-      <c r="C58" s="144"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
       <c r="D58" s="20">
         <v>62.11</v>
       </c>
@@ -23011,10 +28388,10 @@
       </c>
     </row>
     <row r="59" spans="2:40">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="114">
+      <c r="C59" s="115">
         <v>69</v>
       </c>
       <c r="D59" s="20">
@@ -23035,7 +28412,7 @@
       <c r="Q59" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R59" s="135">
+      <c r="R59" s="136">
         <v>96</v>
       </c>
       <c r="S59" s="26">
@@ -23065,8 +28442,8 @@
       </c>
     </row>
     <row r="60" spans="2:40">
-      <c r="B60" s="125"/>
-      <c r="C60" s="114"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="31">
         <v>8.66</v>
       </c>
@@ -23083,7 +28460,7 @@
         <v>155</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="136"/>
+      <c r="R60" s="137"/>
       <c r="S60" s="24">
         <v>-33.17</v>
       </c>
@@ -23117,10 +28494,10 @@
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="Q61" s="127" t="s">
+      <c r="Q61" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="R61" s="127">
+      <c r="R61" s="128">
         <v>76</v>
       </c>
       <c r="S61" s="24">
@@ -23160,8 +28537,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="127"/>
-      <c r="R62" s="127"/>
+      <c r="Q62" s="128"/>
+      <c r="R62" s="128"/>
       <c r="S62" s="49">
         <v>-82.39</v>
       </c>
@@ -23249,10 +28626,10 @@
       </c>
     </row>
     <row r="64" spans="2:40">
-      <c r="Q64" s="124" t="s">
+      <c r="Q64" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="R64" s="123">
+      <c r="R64" s="124">
         <v>222</v>
       </c>
       <c r="S64" s="23">
@@ -23285,8 +28662,8 @@
       <c r="B65" t="s">
         <v>194</v>
       </c>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="123"/>
+      <c r="Q65" s="126"/>
+      <c r="R65" s="124"/>
       <c r="S65" s="23">
         <v>-30.85</v>
       </c>
@@ -23314,10 +28691,10 @@
       </c>
     </row>
     <row r="66" spans="2:36">
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="114">
+      <c r="C66" s="115">
         <v>50</v>
       </c>
       <c r="D66" s="20">
@@ -23335,8 +28712,8 @@
       <c r="H66" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="123"/>
+      <c r="Q66" s="126"/>
+      <c r="R66" s="124"/>
       <c r="S66" s="23">
         <v>-18.38</v>
       </c>
@@ -23364,8 +28741,8 @@
       </c>
     </row>
     <row r="67" spans="2:36">
-      <c r="B67" s="115"/>
-      <c r="C67" s="114"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="20">
         <v>91.27</v>
       </c>
@@ -23443,10 +28820,10 @@
       </c>
     </row>
     <row r="69" spans="2:36">
-      <c r="B69" s="140" t="s">
+      <c r="B69" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="114">
+      <c r="C69" s="115">
         <v>106</v>
       </c>
       <c r="D69" s="20">
@@ -23497,8 +28874,8 @@
       </c>
     </row>
     <row r="70" spans="2:36">
-      <c r="B70" s="115"/>
-      <c r="C70" s="114"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="31">
         <v>-21.76</v>
       </c>
@@ -23612,10 +28989,10 @@
       <c r="H72" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q72" s="124" t="s">
+      <c r="Q72" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="134">
+      <c r="R72" s="135">
         <v>51.999999999999986</v>
       </c>
       <c r="S72" s="23">
@@ -23633,7 +29010,7 @@
       <c r="W72" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Y72" s="114" t="s">
+      <c r="Y72" s="115" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="23">
@@ -23641,10 +29018,10 @@
       </c>
     </row>
     <row r="73" spans="2:36">
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="144">
+      <c r="C73" s="145">
         <v>107</v>
       </c>
       <c r="D73" s="20">
@@ -23662,8 +29039,8 @@
       <c r="H73" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="134"/>
+      <c r="Q73" s="124"/>
+      <c r="R73" s="135"/>
       <c r="S73" s="23">
         <v>-28.1</v>
       </c>
@@ -23679,14 +29056,14 @@
       <c r="W73" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Y73" s="114"/>
+      <c r="Y73" s="115"/>
       <c r="AC73" s="23">
         <v>8.66</v>
       </c>
     </row>
     <row r="74" spans="2:36">
-      <c r="B74" s="121"/>
-      <c r="C74" s="144"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="145"/>
       <c r="D74" s="31">
         <v>-19.010000000000002</v>
       </c>
@@ -23836,7 +29213,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="114">
+      <c r="C78" s="115">
         <v>90.000000000000057</v>
       </c>
       <c r="D78" s="20">
@@ -23878,7 +29255,7 @@
       </c>
     </row>
     <row r="79" spans="2:36">
-      <c r="C79" s="114"/>
+      <c r="C79" s="115"/>
       <c r="D79" s="20">
         <v>81.13</v>
       </c>
@@ -23925,10 +29302,10 @@
       </c>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="140" t="s">
+      <c r="B81" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="114">
+      <c r="C81" s="115">
         <v>51.999999999999986</v>
       </c>
       <c r="D81" s="31">
@@ -23946,7 +29323,7 @@
       <c r="H81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="114" t="s">
+      <c r="J81" s="115" t="s">
         <v>210</v>
       </c>
       <c r="R81" s="4" t="s">
@@ -23963,8 +29340,8 @@
       </c>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="31">
         <v>-28.1</v>
       </c>
@@ -23980,7 +29357,7 @@
       <c r="H82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="114"/>
+      <c r="J82" s="115"/>
       <c r="R82">
         <f>FTEST(R4:R45, R51:R77)</f>
         <v>0.81669524197107601</v>
@@ -24039,11 +29416,11 @@
         <f t="shared" ref="U83" si="10">TTEST(U4:U45, U51:U77, 2, 2)</f>
         <v>0.67575151385258603</v>
       </c>
-      <c r="AB83" s="114" t="s">
+      <c r="AB83" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="AC83" s="114"/>
-      <c r="AD83" s="114"/>
+      <c r="AC83" s="115"/>
+      <c r="AD83" s="115"/>
     </row>
     <row r="84" spans="2:30">
       <c r="B84" s="1" t="s">
@@ -24234,7 +29611,7 @@
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="114">
+      <c r="C91" s="115">
         <v>46.000000000000021</v>
       </c>
       <c r="D91" s="31">
@@ -24261,7 +29638,7 @@
       </c>
     </row>
     <row r="92" spans="2:30">
-      <c r="C92" s="114"/>
+      <c r="C92" s="115"/>
       <c r="D92" s="20">
         <v>43.52</v>
       </c>
@@ -24285,7 +29662,7 @@
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="114">
+      <c r="C93" s="115">
         <v>48</v>
       </c>
       <c r="D93" s="20">
@@ -24308,7 +29685,7 @@
       </c>
     </row>
     <row r="94" spans="2:30">
-      <c r="C94" s="114"/>
+      <c r="C94" s="115"/>
       <c r="D94" s="31">
         <v>-29.58</v>
       </c>
@@ -24460,15 +29837,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="P2" s="19" t="s">
         <v>250</v>
       </c>
@@ -24521,7 +29898,7 @@
       <c r="P3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="127">
+      <c r="Q3" s="128">
         <v>84</v>
       </c>
       <c r="R3" s="24">
@@ -24544,11 +29921,11 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="152">
+      <c r="B4" s="151"/>
+      <c r="C4" s="153">
         <v>84</v>
       </c>
       <c r="D4" s="19">
@@ -24577,7 +29954,7 @@
         <v>24.299999999999997</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="127"/>
+      <c r="Q4" s="128"/>
       <c r="R4" s="26">
         <v>24.45</v>
       </c>
@@ -24616,9 +29993,9 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="19">
         <v>24.45</v>
       </c>
@@ -24643,10 +30020,10 @@
       <c r="M5" s="1">
         <v>-38.869999999999997</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="127">
+      <c r="Q5" s="128">
         <v>63</v>
       </c>
       <c r="R5" s="40">
@@ -24687,7 +30064,7 @@
         <f>AVERAGE(T3,T8:T11,T13:T17,T19:T20)</f>
         <v>10.009166666666667</v>
       </c>
-      <c r="AH5" s="114" t="s">
+      <c r="AH5" s="115" t="s">
         <v>311</v>
       </c>
       <c r="AI5" t="s">
@@ -24730,8 +30107,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
       <c r="R6" s="40">
         <v>57.46</v>
       </c>
@@ -24770,7 +30147,7 @@
         <f>AVERAGE(T7,T18)</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="AH6" s="114"/>
+      <c r="AH6" s="115"/>
       <c r="AI6" t="s">
         <v>313</v>
       </c>
@@ -24862,14 +30239,14 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
       <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
@@ -24975,12 +30352,12 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
       <c r="P12" s="3" t="s">
         <v>11</v>
       </c>
@@ -25008,10 +30385,10 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="150">
         <v>188</v>
       </c>
       <c r="D13" s="4">
@@ -25056,8 +30433,8 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="147"/>
-      <c r="C14" s="149">
+      <c r="B14" s="148"/>
+      <c r="C14" s="150">
         <f>(B14/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -25101,8 +30478,8 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="147"/>
-      <c r="C15" s="149">
+      <c r="B15" s="148"/>
+      <c r="C15" s="150">
         <f>(B15/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -25148,10 +30525,10 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="148">
+      <c r="C16" s="149">
         <v>63</v>
       </c>
       <c r="D16" s="28">
@@ -25203,8 +30580,8 @@
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="28">
         <v>57.46</v>
       </c>
@@ -25297,15 +30674,15 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:39">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
@@ -25391,14 +30768,14 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
       <c r="P24" s="4" t="s">
         <v>257</v>
       </c>
@@ -25428,10 +30805,10 @@
       <c r="AG24" t="s">
         <v>267</v>
       </c>
-      <c r="AJ24" s="114" t="s">
+      <c r="AJ24" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="AK24" s="114"/>
+      <c r="AK24" s="115"/>
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="1" t="s">
@@ -25607,10 +30984,10 @@
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="132" t="s">
+      <c r="P27" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="146">
+      <c r="Q27" s="147">
         <v>188</v>
       </c>
       <c r="R27" s="29">
@@ -25658,8 +31035,8 @@
       </c>
     </row>
     <row r="28" spans="2:39">
-      <c r="P28" s="132"/>
-      <c r="Q28" s="146">
+      <c r="P28" s="133"/>
+      <c r="Q28" s="147">
         <f>(P28/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -25687,8 +31064,8 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="146">
+      <c r="P29" s="133"/>
+      <c r="Q29" s="147">
         <f>(P29/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -25762,10 +31139,10 @@
       </c>
     </row>
     <row r="31" spans="2:39">
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="145">
+      <c r="C31" s="146">
         <v>105</v>
       </c>
       <c r="D31" s="31">
@@ -25783,10 +31160,10 @@
       <c r="H31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="127" t="s">
+      <c r="P31" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="127">
+      <c r="Q31" s="128">
         <v>105</v>
       </c>
       <c r="R31" s="24">
@@ -25806,8 +31183,8 @@
       </c>
     </row>
     <row r="32" spans="2:39">
-      <c r="B32" s="114"/>
-      <c r="C32" s="145"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="146"/>
       <c r="D32" s="31">
         <v>10.77</v>
       </c>
@@ -25823,8 +31200,8 @@
       <c r="H32" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
       <c r="R32" s="26">
         <v>10.77</v>
       </c>
@@ -26370,15 +31747,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -26473,10 +31850,10 @@
       <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="140" t="s">
+      <c r="L7" s="141" t="s">
         <v>317</v>
       </c>
-      <c r="M7" s="114">
+      <c r="M7" s="115">
         <v>184</v>
       </c>
       <c r="N7">
@@ -26517,8 +31894,8 @@
       <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="L8" s="141"/>
-      <c r="M8" s="114"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="115"/>
       <c r="N8">
         <v>-39.72</v>
       </c>
@@ -26536,8 +31913,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="141"/>
-      <c r="M9" s="114"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="115"/>
       <c r="N9">
         <v>-100</v>
       </c>
@@ -26555,8 +31932,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="141"/>
-      <c r="M10" s="114"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="115"/>
       <c r="N10">
         <v>-80.069999999999993</v>
       </c>
@@ -26577,8 +31954,8 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="115"/>
-      <c r="M11" s="114"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="115"/>
       <c r="N11">
         <v>-43.1</v>
       </c>
@@ -26909,15 +32286,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="M2" s="5" t="s">
         <v>387</v>
       </c>
@@ -26987,7 +32364,7 @@
       <c r="S3" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="T3" s="179">
+      <c r="T3" s="180">
         <f>AVERAGE(M11:M16)</f>
         <v>-63.97999999999999</v>
       </c>
@@ -27094,7 +32471,7 @@
       <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="159">
+      <c r="B6" s="160">
         <v>90</v>
       </c>
       <c r="C6" s="26">
@@ -27148,7 +32525,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="59"/>
-      <c r="B7" s="160"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -27241,13 +32618,13 @@
       <c r="G9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="125" t="s">
+      <c r="M9" s="126" t="s">
         <v>422</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
       <c r="R9" t="s">
         <v>394</v>
       </c>
@@ -27263,7 +32640,7 @@
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="110">
         <v>86</v>
       </c>
       <c r="C10" s="24">
@@ -27305,7 +32682,7 @@
     </row>
     <row r="11" spans="1:25" ht="19" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="24">
         <v>-13.52</v>
       </c>
@@ -27347,7 +32724,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="15"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="24">
         <v>-37.61</v>
       </c>
@@ -27399,7 +32776,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="16"/>
-      <c r="B13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="26">
         <v>-51.13</v>
       </c>
@@ -27885,7 +33262,7 @@
       <c r="A23" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="153">
+      <c r="B23" s="154">
         <v>90</v>
       </c>
       <c r="C23" s="78">
@@ -27928,7 +33305,7 @@
     </row>
     <row r="24" spans="1:25" ht="19" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="154"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="78">
         <v>-19.440000000000001</v>
       </c>
@@ -28364,11 +33741,11 @@
       <c r="G37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="123" t="s">
+      <c r="M37" s="124" t="s">
         <v>423</v>
       </c>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="37" t="s">
@@ -28415,10 +33792,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="127">
+      <c r="B39" s="128">
         <v>188</v>
       </c>
       <c r="C39" s="4">
@@ -28457,8 +33834,8 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="19" thickBot="1">
-      <c r="A40" s="132"/>
-      <c r="B40" s="127">
+      <c r="A40" s="133"/>
+      <c r="B40" s="128">
         <f>(A40/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -28498,8 +33875,8 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="132"/>
-      <c r="B41" s="127">
+      <c r="A41" s="133"/>
+      <c r="B41" s="128">
         <f>(A41/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -28599,10 +33976,10 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="127">
+      <c r="B43" s="128">
         <v>105</v>
       </c>
       <c r="C43" s="24">
@@ -28649,8 +34026,8 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="19">
         <v>10.77</v>
       </c>
@@ -28820,10 +34197,10 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="156" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="158">
+      <c r="B49" s="159">
         <v>184</v>
       </c>
       <c r="C49" s="34">
@@ -28872,8 +34249,8 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="156"/>
-      <c r="B50" s="158"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="36">
         <v>-39.72</v>
       </c>
@@ -28918,8 +34295,8 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="156"/>
-      <c r="B51" s="158"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="80">
         <v>-100</v>
       </c>
@@ -28958,8 +34335,8 @@
       <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="156"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="80">
         <v>-80.069999999999993</v>
       </c>
@@ -28990,8 +34367,8 @@
       <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" ht="19" thickBot="1">
-      <c r="A53" s="157"/>
-      <c r="B53" s="158"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="36">
         <v>-43.1</v>
       </c>
@@ -29366,11 +34743,11 @@
       <c r="G8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
@@ -29599,10 +34976,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="128">
         <v>90.999999999999943</v>
       </c>
       <c r="C13" s="22">
@@ -29646,8 +35023,8 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="132"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="22">
         <v>69.510000000000005</v>
       </c>
@@ -29692,7 +35069,7 @@
       <c r="A15" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="163">
         <v>96</v>
       </c>
       <c r="C15" s="22">
@@ -29734,7 +35111,7 @@
       <c r="A16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="137"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="4">
         <v>55.14</v>
       </c>
@@ -29764,7 +35141,7 @@
       <c r="A17" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="4">
         <v>20.49</v>
       </c>
@@ -29791,10 +35168,10 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="19" thickBot="1">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="164">
+      <c r="B18" s="165">
         <v>42.999999999999929</v>
       </c>
       <c r="C18" s="22">
@@ -29827,8 +35204,8 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="127"/>
-      <c r="B19" s="164"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="22">
         <v>26.62</v>
       </c>
@@ -30231,10 +35608,10 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="165">
+      <c r="B31" s="166">
         <v>189</v>
       </c>
       <c r="C31" s="21">
@@ -30263,8 +35640,8 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="125"/>
-      <c r="B32" s="165"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="21">
         <v>62.11</v>
       </c>
@@ -30343,10 +35720,10 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="161">
+      <c r="B35" s="162">
         <v>50</v>
       </c>
       <c r="C35" s="21">
@@ -30369,8 +35746,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="133"/>
-      <c r="B36" s="161"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="21">
         <v>91.27</v>
       </c>
@@ -30498,7 +35875,7 @@
       <c r="A41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="161">
+      <c r="B41" s="162">
         <v>90.000000000000057</v>
       </c>
       <c r="C41" s="21">
@@ -30521,7 +35898,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="B42" s="161"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="21">
         <v>81.13</v>
       </c>
@@ -30745,7 +36122,7 @@
       <c r="A53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="127">
+      <c r="B53" s="128">
         <v>84</v>
       </c>
       <c r="C53" s="22">
@@ -30772,7 +36149,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="22">
         <v>24.45</v>
       </c>
@@ -30796,10 +36173,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="127">
+      <c r="B55" s="128">
         <v>63</v>
       </c>
       <c r="C55" s="100">
@@ -30823,8 +36200,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="127"/>
-      <c r="B56" s="127"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="100">
         <v>57.46</v>
       </c>
@@ -31126,11 +36503,11 @@
         <v>227</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="M67" s="123" t="s">
+      <c r="M67" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="3" t="s">
@@ -31706,23 +37083,23 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
-      <c r="K1" s="139" t="s">
+      <c r="K1" s="140" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="139"/>
+      <c r="L1" s="140"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="139" t="s">
+      <c r="O1" s="140" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="139"/>
+      <c r="P1" s="140"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="G2" t="s">
         <v>442</v>
       </c>
@@ -32537,7 +37914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
+    <sheetView topLeftCell="I9" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -32549,22 +37926,22 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139" t="s">
+      <c r="G2" s="140"/>
+      <c r="H2" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="139"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -32755,10 +38132,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="115" t="s">
         <v>515</v>
       </c>
-      <c r="Q7" s="114"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="1:19">
       <c r="P8">
@@ -32772,38 +38149,38 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="140" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139" t="s">
+      <c r="C9" s="140"/>
+      <c r="D9" s="140" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139" t="s">
+      <c r="G9" s="140"/>
+      <c r="H9" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="I9" s="139"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="139" t="s">
+      <c r="N9" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139" t="s">
+      <c r="O9" s="140"/>
+      <c r="P9" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139" t="s">
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140" t="s">
         <v>512</v>
       </c>
-      <c r="S9" s="139"/>
+      <c r="S9" s="140"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
@@ -33202,23 +38579,23 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="107"/>
-      <c r="B18" s="166" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="167" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166" t="s">
+      <c r="C18" s="167"/>
+      <c r="D18" s="167" t="s">
         <v>494</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166" t="s">
+      <c r="E18" s="167"/>
+      <c r="F18" s="167" t="s">
         <v>496</v>
       </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="166" t="s">
+      <c r="G18" s="168"/>
+      <c r="H18" s="167" t="s">
         <v>497</v>
       </c>
-      <c r="I18" s="166"/>
+      <c r="I18" s="167"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
@@ -33511,7 +38888,7 @@
         <f t="shared" si="9"/>
         <v>5.25</v>
       </c>
-      <c r="I24" s="108">
+      <c r="I24" s="109">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
@@ -33758,7 +39135,7 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>559</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -33931,14 +39308,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
-      <c r="F9" s="139" t="s">
+      <c r="F9" s="140" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139" t="s">
+      <c r="G9" s="140"/>
+      <c r="H9" s="140" t="s">
         <v>550</v>
       </c>
-      <c r="I9" s="139"/>
+      <c r="I9" s="140"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
@@ -33959,10 +39336,10 @@
       <c r="E11" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F11" s="168">
+      <c r="F11" s="169">
         <v>8</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G11" s="169" t="s">
         <v>533</v>
       </c>
       <c r="H11" s="35">
@@ -33976,8 +39353,8 @@
       <c r="E12" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
       <c r="H12" s="60">
         <v>9.43</v>
       </c>
@@ -33989,8 +39366,8 @@
       <c r="E13" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
       <c r="H13" s="60">
         <v>12.15</v>
       </c>
@@ -34002,8 +39379,8 @@
       <c r="E14" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="60">
         <v>19.48</v>
       </c>
@@ -34015,10 +39392,10 @@
       <c r="E15" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F15" s="169">
+      <c r="F15" s="170">
         <v>18</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="170" t="s">
         <v>535</v>
       </c>
       <c r="H15" s="35">
@@ -34029,7 +39406,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="107" t="s">
         <v>559</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -34062,16 +39439,16 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="176">
+      <c r="A19" s="177">
         <v>4</v>
       </c>
-      <c r="B19" s="177">
+      <c r="B19" s="178">
         <v>-50</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="179" t="s">
         <v>560</v>
       </c>
       <c r="F19">
@@ -34145,15 +39522,15 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="E24" s="176"/>
-      <c r="F24" s="139" t="s">
+      <c r="E24" s="177"/>
+      <c r="F24" s="140" t="s">
         <v>551</v>
       </c>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139" t="s">
+      <c r="G24" s="140"/>
+      <c r="H24" s="140" t="s">
         <v>550</v>
       </c>
-      <c r="I24" s="139"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21800" windowHeight="14240" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="652">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -3712,7 +3712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1115">
+  <cellStyleXfs count="1119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4828,8 +4828,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5266,8 +5270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1115">
+  <cellStyles count="1119">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -5825,6 +5830,8 @@
     <cellStyle name="ハイパーリンク" xfId="1109" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1111" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1117" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -6383,6 +6390,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="1110" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1112" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1118" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -13429,6 +13438,181 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>主観評価!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>操作のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>構成のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>見易さ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>反応のよさ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主観評価!$B$47:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>主観評価!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>操作のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>構成のわかりやすさ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>見易さ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>反応のよさ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>主観評価!$C$47:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.291666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2067503560"/>
+        <c:axId val="-2069175432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2067503560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2069175432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2069175432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2067503560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -13611,7 +13795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -13635,6 +13819,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -15929,6 +16125,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21380,10 +21606,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Y44"/>
+  <dimension ref="A3:Y50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -22716,6 +22942,57 @@
       </c>
       <c r="E44">
         <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="212"/>
+      <c r="B46" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="212" t="s">
+        <v>583</v>
+      </c>
+      <c r="B47">
+        <v>5.4444444444444455</v>
+      </c>
+      <c r="C47">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D48" s="218"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="212" t="s">
+        <v>585</v>
+      </c>
+      <c r="B49">
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="C49">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="212" t="s">
+        <v>586</v>
+      </c>
+      <c r="B50">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="C50">
+        <v>5.291666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -22781,8 +23058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21800" windowHeight="14240" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="11140" yWindow="0" windowWidth="13800" windowHeight="14240" tabRatio="500" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -4982,183 +4979,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -5172,75 +4992,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5271,6 +5028,246 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1119">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -6586,11 +6583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126450328"/>
-        <c:axId val="-2124930888"/>
+        <c:axId val="-2066147848"/>
+        <c:axId val="-2098468728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126450328"/>
+        <c:axId val="-2066147848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6599,7 +6596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124930888"/>
+        <c:crossAx val="-2098468728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6607,7 +6604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124930888"/>
+        <c:axId val="-2098468728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6617,14 +6614,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126450328"/>
+        <c:crossAx val="-2066147848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7277,11 +7273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124963016"/>
-        <c:axId val="-2141027208"/>
+        <c:axId val="2119637448"/>
+        <c:axId val="-2127181896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124963016"/>
+        <c:axId val="2119637448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7304,19 +7300,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141027208"/>
+        <c:crossAx val="-2127181896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141027208"/>
+        <c:axId val="-2127181896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7340,21 +7335,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124963016"/>
+        <c:crossAx val="2119637448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7743,11 +7736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126467672"/>
-        <c:axId val="-2140967288"/>
+        <c:axId val="-2101576280"/>
+        <c:axId val="-2146912280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126467672"/>
+        <c:axId val="-2101576280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7777,12 +7770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140967288"/>
+        <c:crossAx val="-2146912280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140967288"/>
+        <c:axId val="-2146912280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7813,7 +7806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126467672"/>
+        <c:crossAx val="-2101576280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8143,7 +8136,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="2110685528"/>
-        <c:axId val="-2125060920"/>
+        <c:axId val="2114363432"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="2110685528"/>
@@ -8176,12 +8169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125060920"/>
+        <c:crossAx val="2114363432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125060920"/>
+        <c:axId val="2114363432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8836,11 +8829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106632248"/>
-        <c:axId val="-2140222376"/>
+        <c:axId val="-2101728232"/>
+        <c:axId val="2127462632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106632248"/>
+        <c:axId val="-2101728232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8870,12 +8863,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140222376"/>
+        <c:crossAx val="2127462632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140222376"/>
+        <c:axId val="2127462632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8906,7 +8899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106632248"/>
+        <c:crossAx val="-2101728232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9218,11 +9211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106706392"/>
-        <c:axId val="2126019144"/>
+        <c:axId val="-2068150344"/>
+        <c:axId val="-2071606296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106706392"/>
+        <c:axId val="-2068150344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9252,12 +9245,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126019144"/>
+        <c:crossAx val="-2071606296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126019144"/>
+        <c:axId val="-2071606296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9288,7 +9281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106706392"/>
+        <c:crossAx val="-2068150344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9624,11 +9617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140925000"/>
-        <c:axId val="-2126415832"/>
+        <c:axId val="-2067621176"/>
+        <c:axId val="-2071936520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140925000"/>
+        <c:axId val="-2067621176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9658,12 +9651,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126415832"/>
+        <c:crossAx val="-2071936520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126415832"/>
+        <c:axId val="-2071936520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9694,7 +9687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140925000"/>
+        <c:crossAx val="-2067621176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10030,11 +10023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107946552"/>
-        <c:axId val="-2126023272"/>
+        <c:axId val="-2068201528"/>
+        <c:axId val="-2068553880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107946552"/>
+        <c:axId val="-2068201528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10057,19 +10050,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126023272"/>
+        <c:crossAx val="-2068553880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126023272"/>
+        <c:axId val="-2068553880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10093,21 +10085,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107946552"/>
+        <c:crossAx val="-2068201528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10676,11 +10666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125570280"/>
-        <c:axId val="2107825400"/>
+        <c:axId val="-2068223208"/>
+        <c:axId val="-2071109928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125570280"/>
+        <c:axId val="-2068223208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10703,19 +10693,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107825400"/>
+        <c:crossAx val="-2071109928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107825400"/>
+        <c:axId val="-2071109928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10739,21 +10728,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125570280"/>
+        <c:crossAx val="-2068223208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11195,11 +11182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140579832"/>
-        <c:axId val="-2125634072"/>
+        <c:axId val="-2070865032"/>
+        <c:axId val="-2070297304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140579832"/>
+        <c:axId val="-2070865032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11222,19 +11209,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125634072"/>
+        <c:crossAx val="-2070297304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125634072"/>
+        <c:axId val="-2070297304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11258,21 +11244,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140579832"/>
+        <c:crossAx val="-2070865032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11738,11 +11722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125277352"/>
-        <c:axId val="2125797080"/>
+        <c:axId val="-2143096440"/>
+        <c:axId val="-2097544616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125277352"/>
+        <c:axId val="-2143096440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11765,19 +11749,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125797080"/>
+        <c:crossAx val="-2097544616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125797080"/>
+        <c:axId val="-2097544616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11801,21 +11784,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125277352"/>
+        <c:crossAx val="-2143096440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11954,11 +11935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126221560"/>
-        <c:axId val="-2140418216"/>
+        <c:axId val="-2142564584"/>
+        <c:axId val="-2097631256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126221560"/>
+        <c:axId val="-2142564584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11977,7 +11958,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140418216"/>
+        <c:crossAx val="-2097631256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11985,7 +11966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140418216"/>
+        <c:axId val="-2097631256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -12009,7 +11990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12026,7 +12006,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126221560"/>
+        <c:crossAx val="-2142564584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12182,11 +12162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2062433272"/>
-        <c:axId val="-2123638024"/>
+        <c:axId val="-2066285112"/>
+        <c:axId val="-2069908600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062433272"/>
+        <c:axId val="-2066285112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12195,7 +12175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123638024"/>
+        <c:crossAx val="-2069908600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12203,7 +12183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123638024"/>
+        <c:axId val="-2069908600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12237,7 +12217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062433272"/>
+        <c:crossAx val="-2066285112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12373,11 +12353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100438088"/>
-        <c:axId val="-2128182296"/>
+        <c:axId val="-2071391672"/>
+        <c:axId val="-2068176392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100438088"/>
+        <c:axId val="-2071391672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12386,7 +12366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128182296"/>
+        <c:crossAx val="-2068176392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12394,7 +12374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128182296"/>
+        <c:axId val="-2068176392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12413,7 +12393,6 @@
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>入力数</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12434,7 +12413,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100438088"/>
+        <c:crossAx val="-2071391672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12481,7 +12460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[12]UX比較!$H$3</c:f>
+              <c:f>[6]UX比較!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12499,7 +12478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[12]UX比較!$A$34:$A$43</c:f>
+              <c:f>[6]UX比較!$A$34:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12538,7 +12517,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[12]UX比較!$B$34:$B$43</c:f>
+              <c:f>[6]UX比較!$B$34:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12582,7 +12561,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[12]UX比較!$I$3</c:f>
+              <c:f>[6]UX比較!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12600,7 +12579,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[12]UX比較!$C$34:$C$39</c:f>
+              <c:f>[6]UX比較!$C$34:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12627,7 +12606,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[12]UX比較!$D$34:$D$39</c:f>
+              <c:f>[6]UX比較!$D$34:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12662,11 +12641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122363960"/>
-        <c:axId val="-2104488680"/>
+        <c:axId val="2127443272"/>
+        <c:axId val="-2101668536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122363960"/>
+        <c:axId val="2127443272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12696,12 +12675,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104488680"/>
+        <c:crossAx val="-2101668536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104488680"/>
+        <c:axId val="-2101668536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -12732,7 +12711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122363960"/>
+        <c:crossAx val="2127443272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12784,7 +12763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[13]UX比較!$G$3</c:f>
+              <c:f>[1]UX比較!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12802,7 +12781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[13]UX比較!$A$4:$A$39</c:f>
+              <c:f>[1]UX比較!$A$4:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -12919,7 +12898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[13]UX比較!$B$4:$B$39</c:f>
+              <c:f>[1]UX比較!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -13041,7 +13020,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[14]直線補完!$I$1</c:f>
+              <c:f>'Macintosh HD:Users:yokoyamashohei:Dropbox:ヒューマンインターフェイス研究室:UXPLOT-pro:予備実験(出力):[20151015-荒井俊貴-ゾンビグラフなし.xlsx]直線補完'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13059,7 +13038,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[13]UX比較!$C$4:$C$12</c:f>
+              <c:f>[1]UX比較!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13095,7 +13074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[13]UX比較!$D$4:$D$12</c:f>
+              <c:f>[1]UX比較!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -13139,11 +13118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101127720"/>
-        <c:axId val="-2098120712"/>
+        <c:axId val="2126620952"/>
+        <c:axId val="-2068034104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101127720"/>
+        <c:axId val="2126620952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13173,12 +13152,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098120712"/>
+        <c:crossAx val="-2068034104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2098120712"/>
+        <c:axId val="-2068034104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -13210,7 +13189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101127720"/>
+        <c:crossAx val="2126620952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13360,11 +13339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066262408"/>
-        <c:axId val="2127235928"/>
+        <c:axId val="2108548456"/>
+        <c:axId val="-2071771960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066262408"/>
+        <c:axId val="2108548456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13373,7 +13352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127235928"/>
+        <c:crossAx val="-2071771960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13381,7 +13360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127235928"/>
+        <c:axId val="-2071771960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13391,7 +13370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066262408"/>
+        <c:crossAx val="2108548456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13535,11 +13514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2067503560"/>
-        <c:axId val="-2069175432"/>
+        <c:axId val="2107830536"/>
+        <c:axId val="-2147163720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067503560"/>
+        <c:axId val="2107830536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13548,7 +13527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069175432"/>
+        <c:crossAx val="-2147163720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13556,7 +13535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069175432"/>
+        <c:axId val="-2147163720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13566,7 +13545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067503560"/>
+        <c:crossAx val="2107830536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13747,11 +13726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126884696"/>
-        <c:axId val="2119637448"/>
+        <c:axId val="-2070589656"/>
+        <c:axId val="-2066441240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126884696"/>
+        <c:axId val="-2070589656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13760,7 +13739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119637448"/>
+        <c:crossAx val="-2066441240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13768,7 +13747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119637448"/>
+        <c:axId val="-2066441240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13778,7 +13757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126884696"/>
+        <c:crossAx val="-2070589656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13930,11 +13909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099892968"/>
-        <c:axId val="-2099577432"/>
+        <c:axId val="-2123827400"/>
+        <c:axId val="-2123884696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099892968"/>
+        <c:axId val="-2123827400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13943,7 +13922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099577432"/>
+        <c:crossAx val="-2123884696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13951,7 +13930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099577432"/>
+        <c:axId val="-2123884696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13981,7 +13960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099892968"/>
+        <c:crossAx val="-2123827400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14186,11 +14165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119653416"/>
-        <c:axId val="2119948248"/>
+        <c:axId val="-2070927832"/>
+        <c:axId val="-2097465960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119653416"/>
+        <c:axId val="-2070927832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14199,7 +14178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119948248"/>
+        <c:crossAx val="-2097465960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14207,7 +14186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119948248"/>
+        <c:axId val="-2097465960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14217,14 +14196,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119653416"/>
+        <c:crossAx val="-2070927832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14422,11 +14400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126180376"/>
-        <c:axId val="-2141162680"/>
+        <c:axId val="-2142705592"/>
+        <c:axId val="-2142410968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126180376"/>
+        <c:axId val="-2142705592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14435,7 +14413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141162680"/>
+        <c:crossAx val="-2142410968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14443,7 +14421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141162680"/>
+        <c:axId val="-2142410968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14453,14 +14431,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126180376"/>
+        <c:crossAx val="-2142705592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14630,11 +14607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098236312"/>
-        <c:axId val="-2127754552"/>
+        <c:axId val="-2070719720"/>
+        <c:axId val="-2066145544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098236312"/>
+        <c:axId val="-2070719720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14643,7 +14620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127754552"/>
+        <c:crossAx val="-2066145544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14651,7 +14628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127754552"/>
+        <c:axId val="-2066145544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14681,7 +14658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098236312"/>
+        <c:crossAx val="-2070719720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14805,11 +14782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126688648"/>
-        <c:axId val="-2098976232"/>
+        <c:axId val="-2098352024"/>
+        <c:axId val="-2066020392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126688648"/>
+        <c:axId val="-2098352024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14818,7 +14795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098976232"/>
+        <c:crossAx val="-2066020392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14826,7 +14803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098976232"/>
+        <c:axId val="-2066020392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14849,7 +14826,6 @@
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>の入力回数</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -14860,7 +14836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126688648"/>
+        <c:crossAx val="-2098352024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14897,7 +14873,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14967,11 +14942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141307640"/>
-        <c:axId val="-2127902392"/>
+        <c:axId val="2125336632"/>
+        <c:axId val="-2065838664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141307640"/>
+        <c:axId val="2125336632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14980,7 +14955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127902392"/>
+        <c:crossAx val="-2065838664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14988,7 +14963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127902392"/>
+        <c:axId val="-2065838664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14998,14 +14973,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141307640"/>
+        <c:crossAx val="2125336632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15140,11 +15114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2147450952"/>
-        <c:axId val="2130518648"/>
+        <c:axId val="-2070787032"/>
+        <c:axId val="-2098694200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2147450952"/>
+        <c:axId val="-2070787032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15153,7 +15127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130518648"/>
+        <c:crossAx val="-2098694200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15161,7 +15135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130518648"/>
+        <c:axId val="-2098694200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15171,7 +15145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147450952"/>
+        <c:crossAx val="-2070787032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15267,11 +15241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123345352"/>
-        <c:axId val="-2122373512"/>
+        <c:axId val="-2098586696"/>
+        <c:axId val="-2098412792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123345352"/>
+        <c:axId val="-2098586696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15280,7 +15254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122373512"/>
+        <c:crossAx val="-2098412792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15288,7 +15262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122373512"/>
+        <c:axId val="-2098412792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15311,18 +15285,16 @@
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>の入力数</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123345352"/>
+        <c:crossAx val="-2098586696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16247,6 +16219,18 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4">
+            <v>0</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>-30</v>
+          </cell>
           <cell r="F4">
             <v>0</v>
           </cell>
@@ -16258,6 +16242,18 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5">
+            <v>0.63</v>
+          </cell>
+          <cell r="B5">
+            <v>-79.86</v>
+          </cell>
+          <cell r="C5">
+            <v>4</v>
+          </cell>
+          <cell r="D5">
+            <v>-50</v>
+          </cell>
           <cell r="F5">
             <v>0.63</v>
           </cell>
@@ -16269,6 +16265,18 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="A6">
+            <v>2</v>
+          </cell>
+          <cell r="B6">
+            <v>-17.54</v>
+          </cell>
+          <cell r="C6">
+            <v>8</v>
+          </cell>
+          <cell r="D6">
+            <v>-100</v>
+          </cell>
           <cell r="F6">
             <v>2</v>
           </cell>
@@ -16280,6 +16288,18 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="A7">
+            <v>2.87</v>
+          </cell>
+          <cell r="B7">
+            <v>-39.72</v>
+          </cell>
+          <cell r="C7">
+            <v>10</v>
+          </cell>
+          <cell r="D7">
+            <v>-40</v>
+          </cell>
           <cell r="F7">
             <v>2.87</v>
           </cell>
@@ -16291,6 +16311,18 @@
           </cell>
         </row>
         <row r="8">
+          <cell r="A8">
+            <v>3.22</v>
+          </cell>
+          <cell r="B8">
+            <v>-100</v>
+          </cell>
+          <cell r="C8">
+            <v>13</v>
+          </cell>
+          <cell r="D8">
+            <v>10</v>
+          </cell>
           <cell r="F8">
             <v>3.22</v>
           </cell>
@@ -16302,6 +16334,18 @@
           </cell>
         </row>
         <row r="9">
+          <cell r="A9">
+            <v>4.0199999999999996</v>
+          </cell>
+          <cell r="B9">
+            <v>-80.069999999999993</v>
+          </cell>
+          <cell r="C9">
+            <v>16</v>
+          </cell>
+          <cell r="D9">
+            <v>50</v>
+          </cell>
           <cell r="F9">
             <v>4</v>
           </cell>
@@ -16313,6 +16357,18 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="A10">
+            <v>5.3</v>
+          </cell>
+          <cell r="B10">
+            <v>-43.1</v>
+          </cell>
+          <cell r="C10">
+            <v>21</v>
+          </cell>
+          <cell r="D10">
+            <v>-30</v>
+          </cell>
           <cell r="F10">
             <v>4.0199999999999996</v>
           </cell>
@@ -16324,6 +16380,18 @@
           </cell>
         </row>
         <row r="11">
+          <cell r="A11">
+            <v>7.3</v>
+          </cell>
+          <cell r="B11">
+            <v>-51.55</v>
+          </cell>
+          <cell r="C11">
+            <v>24</v>
+          </cell>
+          <cell r="D11">
+            <v>-60</v>
+          </cell>
           <cell r="F11">
             <v>5.3</v>
           </cell>
@@ -16335,6 +16403,18 @@
           </cell>
         </row>
         <row r="12">
+          <cell r="A12">
+            <v>7.97</v>
+          </cell>
+          <cell r="B12">
+            <v>-85.35</v>
+          </cell>
+          <cell r="C12">
+            <v>29</v>
+          </cell>
+          <cell r="D12">
+            <v>20</v>
+          </cell>
           <cell r="F12">
             <v>7.3</v>
           </cell>
@@ -16346,6 +16426,12 @@
           </cell>
         </row>
         <row r="13">
+          <cell r="A13">
+            <v>9.6</v>
+          </cell>
+          <cell r="B13">
+            <v>-86.41</v>
+          </cell>
           <cell r="F13">
             <v>7.97</v>
           </cell>
@@ -16357,6 +16443,12 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14">
+            <v>10.63</v>
+          </cell>
+          <cell r="B14">
+            <v>37.18</v>
+          </cell>
           <cell r="F14">
             <v>8</v>
           </cell>
@@ -16368,6 +16460,12 @@
           </cell>
         </row>
         <row r="15">
+          <cell r="A15">
+            <v>10.85</v>
+          </cell>
+          <cell r="B15">
+            <v>57.46</v>
+          </cell>
           <cell r="F15">
             <v>9.6</v>
           </cell>
@@ -16379,6 +16477,12 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16">
+            <v>12.3</v>
+          </cell>
+          <cell r="B16">
+            <v>24.72</v>
+          </cell>
           <cell r="F16">
             <v>10</v>
           </cell>
@@ -16390,6 +16494,12 @@
           </cell>
         </row>
         <row r="17">
+          <cell r="A17">
+            <v>12.72</v>
+          </cell>
+          <cell r="B17">
+            <v>-13.52</v>
+          </cell>
           <cell r="F17">
             <v>10.63</v>
           </cell>
@@ -16401,6 +16511,12 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="A18">
+            <v>13.03</v>
+          </cell>
+          <cell r="B18">
+            <v>-37.61</v>
+          </cell>
           <cell r="F18">
             <v>10.85</v>
           </cell>
@@ -16412,6 +16528,12 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19">
+            <v>13.4</v>
+          </cell>
+          <cell r="B19">
+            <v>-51.13</v>
+          </cell>
           <cell r="F19">
             <v>12.3</v>
           </cell>
@@ -16423,6 +16545,12 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="A20">
+            <v>13.95</v>
+          </cell>
+          <cell r="B20">
+            <v>-83.45</v>
+          </cell>
           <cell r="F20">
             <v>12.72</v>
           </cell>
@@ -16434,6 +16562,12 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="A21">
+            <v>15.22</v>
+          </cell>
+          <cell r="B21">
+            <v>-100</v>
+          </cell>
           <cell r="F21">
             <v>13</v>
           </cell>
@@ -16445,6 +16579,12 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="A22">
+            <v>17.37</v>
+          </cell>
+          <cell r="B22">
+            <v>-45.85</v>
+          </cell>
           <cell r="F22">
             <v>13.03</v>
           </cell>
@@ -16456,6 +16596,12 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23">
+            <v>18.47</v>
+          </cell>
+          <cell r="B23">
+            <v>-9.7200000000000006</v>
+          </cell>
           <cell r="F23">
             <v>13.4</v>
           </cell>
@@ -16467,6 +16613,12 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="A24">
+            <v>19.3</v>
+          </cell>
+          <cell r="B24">
+            <v>23.66</v>
+          </cell>
           <cell r="F24">
             <v>13.95</v>
           </cell>
@@ -16478,6 +16630,12 @@
           </cell>
         </row>
         <row r="25">
+          <cell r="A25">
+            <v>20</v>
+          </cell>
+          <cell r="B25">
+            <v>69.72</v>
+          </cell>
           <cell r="F25">
             <v>15.22</v>
           </cell>
@@ -16489,6 +16647,12 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26">
+            <v>21.17</v>
+          </cell>
+          <cell r="B26">
+            <v>69.510000000000005</v>
+          </cell>
           <cell r="F26">
             <v>16</v>
           </cell>
@@ -16500,6 +16664,12 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="A27">
+            <v>21.57</v>
+          </cell>
+          <cell r="B27">
+            <v>-43.52</v>
+          </cell>
           <cell r="F27">
             <v>17.37</v>
           </cell>
@@ -16511,6 +16681,12 @@
           </cell>
         </row>
         <row r="28">
+          <cell r="A28">
+            <v>22.13</v>
+          </cell>
+          <cell r="B28">
+            <v>31.06</v>
+          </cell>
           <cell r="F28">
             <v>18.47</v>
           </cell>
@@ -16522,6 +16698,12 @@
           </cell>
         </row>
         <row r="29">
+          <cell r="A29">
+            <v>22.3</v>
+          </cell>
+          <cell r="B29">
+            <v>-28.73</v>
+          </cell>
           <cell r="F29">
             <v>19.3</v>
           </cell>
@@ -16533,6 +16715,12 @@
           </cell>
         </row>
         <row r="30">
+          <cell r="A30">
+            <v>22.98</v>
+          </cell>
+          <cell r="B30">
+            <v>-33.17</v>
+          </cell>
           <cell r="F30">
             <v>20</v>
           </cell>
@@ -16544,6 +16732,12 @@
           </cell>
         </row>
         <row r="31">
+          <cell r="A31">
+            <v>23.18</v>
+          </cell>
+          <cell r="B31">
+            <v>55.14</v>
+          </cell>
           <cell r="F31">
             <v>21</v>
           </cell>
@@ -16555,6 +16749,12 @@
           </cell>
         </row>
         <row r="32">
+          <cell r="A32">
+            <v>23.45</v>
+          </cell>
+          <cell r="B32">
+            <v>20.49</v>
+          </cell>
           <cell r="F32">
             <v>21.17</v>
           </cell>
@@ -16566,6 +16766,12 @@
           </cell>
         </row>
         <row r="33">
+          <cell r="A33">
+            <v>23.98</v>
+          </cell>
+          <cell r="B33">
+            <v>-31.48</v>
+          </cell>
           <cell r="F33">
             <v>21.57</v>
           </cell>
@@ -16577,6 +16783,12 @@
           </cell>
         </row>
         <row r="34">
+          <cell r="A34">
+            <v>25.08</v>
+          </cell>
+          <cell r="B34">
+            <v>-82.39</v>
+          </cell>
           <cell r="F34">
             <v>22.13</v>
           </cell>
@@ -16588,6 +16800,12 @@
           </cell>
         </row>
         <row r="35">
+          <cell r="A35">
+            <v>25.55</v>
+          </cell>
+          <cell r="B35">
+            <v>-2.54</v>
+          </cell>
           <cell r="F35">
             <v>22.3</v>
           </cell>
@@ -16599,6 +16817,12 @@
           </cell>
         </row>
         <row r="36">
+          <cell r="A36">
+            <v>26.15</v>
+          </cell>
+          <cell r="B36">
+            <v>26.62</v>
+          </cell>
           <cell r="F36">
             <v>22.98</v>
           </cell>
@@ -16610,6 +16834,12 @@
           </cell>
         </row>
         <row r="37">
+          <cell r="A37">
+            <v>26.95</v>
+          </cell>
+          <cell r="B37">
+            <v>64.86</v>
+          </cell>
           <cell r="F37">
             <v>23.18</v>
           </cell>
@@ -16621,6 +16851,12 @@
           </cell>
         </row>
         <row r="38">
+          <cell r="A38">
+            <v>27.4</v>
+          </cell>
+          <cell r="B38">
+            <v>-33.17</v>
+          </cell>
           <cell r="F38">
             <v>23.45</v>
           </cell>
@@ -16632,6 +16868,12 @@
           </cell>
         </row>
         <row r="39">
+          <cell r="A39">
+            <v>28.58</v>
+          </cell>
+          <cell r="B39">
+            <v>40.770000000000003</v>
+          </cell>
           <cell r="F39">
             <v>23.98</v>
           </cell>
@@ -17398,719 +17640,26 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="20161025-荒井-サントリータスク.csv"/>
-      <sheetName val="UXCURVE"/>
-      <sheetName val="webサイトユーザビリティ"/>
-      <sheetName val="主観評価"/>
-      <sheetName val="エピソード"/>
-      <sheetName val="動画"/>
-      <sheetName val="UX比較"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="H3" t="str">
-            <v>UXPLOT</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>UXCURVE</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>2.1</v>
-          </cell>
-          <cell r="H5">
-            <v>71.200000000000017</v>
-          </cell>
-          <cell r="I5">
-            <v>17.713828124999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>4</v>
-          </cell>
-          <cell r="H6">
-            <v>29.047818122817425</v>
-          </cell>
-          <cell r="I6">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>7.35</v>
-          </cell>
-          <cell r="H7">
-            <v>-50.92</v>
-          </cell>
-          <cell r="I7">
-            <v>-45.579140624999987</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>8</v>
-          </cell>
-          <cell r="H8">
-            <v>-29.296667210599121</v>
-          </cell>
-          <cell r="I8">
-            <v>-60.000000000000014</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>9.43</v>
-          </cell>
-          <cell r="H9">
-            <v>21.76</v>
-          </cell>
-          <cell r="I9">
-            <v>-46.277825334821451</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>12.15</v>
-          </cell>
-          <cell r="H10">
-            <v>53.45</v>
-          </cell>
-          <cell r="I10">
-            <v>-8.9644949776785765</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>18</v>
-          </cell>
-          <cell r="H11">
-            <v>77.679470245532087</v>
-          </cell>
-          <cell r="I11">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>19.48</v>
-          </cell>
-          <cell r="H12">
-            <v>78.8</v>
-          </cell>
-          <cell r="I12">
-            <v>89.762683827160501</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>21.58</v>
-          </cell>
-          <cell r="H13">
-            <v>66.34</v>
-          </cell>
-          <cell r="I13">
-            <v>86.464288688271608</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>23.27</v>
-          </cell>
-          <cell r="H14">
-            <v>69.72</v>
-          </cell>
-          <cell r="I14">
-            <v>82.13309872492286</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>24</v>
-          </cell>
-          <cell r="H15">
-            <v>67.246655002231108</v>
-          </cell>
-          <cell r="I15">
-            <v>80.000000000000014</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>26.87</v>
-          </cell>
-          <cell r="H16">
-            <v>50.28</v>
-          </cell>
-          <cell r="I16">
-            <v>70.636034174748218</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>28.22</v>
-          </cell>
-          <cell r="H17">
-            <v>33.589999999999975</v>
-          </cell>
-          <cell r="I17">
-            <v>66.049234783300847</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>30</v>
-          </cell>
-          <cell r="H18">
-            <v>27.783557252572532</v>
-          </cell>
-          <cell r="I18">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>0</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2.1</v>
-          </cell>
-          <cell r="B35">
-            <v>71.2</v>
-          </cell>
-          <cell r="C35">
-            <v>4</v>
-          </cell>
-          <cell r="D35">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>7.35</v>
-          </cell>
-          <cell r="B36">
-            <v>-50.92</v>
-          </cell>
-          <cell r="C36">
-            <v>8</v>
-          </cell>
-          <cell r="D36">
-            <v>-60</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>9.43</v>
-          </cell>
-          <cell r="B37">
-            <v>21.76</v>
-          </cell>
-          <cell r="C37">
-            <v>18</v>
-          </cell>
-          <cell r="D37">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>12.15</v>
-          </cell>
-          <cell r="B38">
-            <v>53.45</v>
-          </cell>
-          <cell r="C38">
-            <v>24</v>
-          </cell>
-          <cell r="D38">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>19.48</v>
-          </cell>
-          <cell r="B39">
-            <v>78.8</v>
-          </cell>
-          <cell r="C39">
-            <v>30</v>
-          </cell>
-          <cell r="D39">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>21.58</v>
-          </cell>
-          <cell r="B40">
-            <v>66.34</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>23.27</v>
-          </cell>
-          <cell r="B41">
-            <v>69.72</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>26.87</v>
-          </cell>
-          <cell r="B42">
-            <v>50.28</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>28.22</v>
-          </cell>
-          <cell r="B43">
-            <v>33.590000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20161101-ふじい-藤井サントリー.csv"/>
-      <sheetName val="UXCURVE"/>
-      <sheetName val="ユーザビリティ"/>
-      <sheetName val="主観評価"/>
-      <sheetName val="動画"/>
-      <sheetName val="UX比較"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>UXPLOT</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>-30</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.63</v>
-          </cell>
-          <cell r="B5">
-            <v>-79.86</v>
-          </cell>
-          <cell r="C5">
-            <v>4</v>
-          </cell>
-          <cell r="D5">
-            <v>-50</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2</v>
-          </cell>
-          <cell r="B6">
-            <v>-17.54</v>
-          </cell>
-          <cell r="C6">
-            <v>8</v>
-          </cell>
-          <cell r="D6">
-            <v>-100</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2.87</v>
-          </cell>
-          <cell r="B7">
-            <v>-39.72</v>
-          </cell>
-          <cell r="C7">
-            <v>10</v>
-          </cell>
-          <cell r="D7">
-            <v>-40</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>3.22</v>
-          </cell>
-          <cell r="B8">
-            <v>-100</v>
-          </cell>
-          <cell r="C8">
-            <v>13</v>
-          </cell>
-          <cell r="D8">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>4.0199999999999996</v>
-          </cell>
-          <cell r="B9">
-            <v>-80.069999999999993</v>
-          </cell>
-          <cell r="C9">
-            <v>16</v>
-          </cell>
-          <cell r="D9">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>5.3</v>
-          </cell>
-          <cell r="B10">
-            <v>-43.1</v>
-          </cell>
-          <cell r="C10">
-            <v>21</v>
-          </cell>
-          <cell r="D10">
-            <v>-30</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>7.3</v>
-          </cell>
-          <cell r="B11">
-            <v>-51.55</v>
-          </cell>
-          <cell r="C11">
-            <v>24</v>
-          </cell>
-          <cell r="D11">
-            <v>-60</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>7.97</v>
-          </cell>
-          <cell r="B12">
-            <v>-85.35</v>
-          </cell>
-          <cell r="C12">
-            <v>29</v>
-          </cell>
-          <cell r="D12">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>9.6</v>
-          </cell>
-          <cell r="B13">
-            <v>-86.41</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>10.63</v>
-          </cell>
-          <cell r="B14">
-            <v>37.18</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>10.85</v>
-          </cell>
-          <cell r="B15">
-            <v>57.46</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>12.3</v>
-          </cell>
-          <cell r="B16">
-            <v>24.72</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>12.72</v>
-          </cell>
-          <cell r="B17">
-            <v>-13.52</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>13.03</v>
-          </cell>
-          <cell r="B18">
-            <v>-37.61</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>13.4</v>
-          </cell>
-          <cell r="B19">
-            <v>-51.13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>13.95</v>
-          </cell>
-          <cell r="B20">
-            <v>-83.45</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>15.22</v>
-          </cell>
-          <cell r="B21">
-            <v>-100</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>17.37</v>
-          </cell>
-          <cell r="B22">
-            <v>-45.85</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>18.47</v>
-          </cell>
-          <cell r="B23">
-            <v>-9.7200000000000006</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>19.3</v>
-          </cell>
-          <cell r="B24">
-            <v>23.66</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>20</v>
-          </cell>
-          <cell r="B25">
-            <v>69.72</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>21.17</v>
-          </cell>
-          <cell r="B26">
-            <v>69.510000000000005</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>21.57</v>
-          </cell>
-          <cell r="B27">
-            <v>-43.52</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>22.13</v>
-          </cell>
-          <cell r="B28">
-            <v>31.06</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>22.3</v>
-          </cell>
-          <cell r="B29">
-            <v>-28.73</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>22.98</v>
-          </cell>
-          <cell r="B30">
-            <v>-33.17</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>23.18</v>
-          </cell>
-          <cell r="B31">
-            <v>55.14</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>23.45</v>
-          </cell>
-          <cell r="B32">
-            <v>20.49</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>23.98</v>
-          </cell>
-          <cell r="B33">
-            <v>-31.48</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>25.08</v>
-          </cell>
-          <cell r="B34">
-            <v>-82.39</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>25.55</v>
-          </cell>
-          <cell r="B35">
-            <v>-2.54</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>26.15</v>
-          </cell>
-          <cell r="B36">
-            <v>26.62</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>26.95</v>
-          </cell>
-          <cell r="B37">
-            <v>64.86</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>27.4</v>
-          </cell>
-          <cell r="B38">
-            <v>-33.17</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>28.58</v>
-          </cell>
-          <cell r="B39">
-            <v>40.770000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="20151015-荒井俊貴-ゾンビグラフなし.csv"/>
       <sheetName val="直線補完"/>
       <sheetName val="スプライン補完"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="1">
           <cell r="I1" t="str">
             <v>UXCURVE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="UX比較"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>UXPLOT</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19295,6 +18844,122 @@
           </cell>
           <cell r="I18">
             <v>60</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>0</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2.1</v>
+          </cell>
+          <cell r="B35">
+            <v>71.2</v>
+          </cell>
+          <cell r="C35">
+            <v>4</v>
+          </cell>
+          <cell r="D35">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>7.35</v>
+          </cell>
+          <cell r="B36">
+            <v>-50.92</v>
+          </cell>
+          <cell r="C36">
+            <v>8</v>
+          </cell>
+          <cell r="D36">
+            <v>-60</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>9.43</v>
+          </cell>
+          <cell r="B37">
+            <v>21.76</v>
+          </cell>
+          <cell r="C37">
+            <v>18</v>
+          </cell>
+          <cell r="D37">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>12.15</v>
+          </cell>
+          <cell r="B38">
+            <v>53.45</v>
+          </cell>
+          <cell r="C38">
+            <v>24</v>
+          </cell>
+          <cell r="D38">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>19.48</v>
+          </cell>
+          <cell r="B39">
+            <v>78.8</v>
+          </cell>
+          <cell r="C39">
+            <v>30</v>
+          </cell>
+          <cell r="D39">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>21.58</v>
+          </cell>
+          <cell r="B40">
+            <v>66.34</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>23.27</v>
+          </cell>
+          <cell r="B41">
+            <v>69.72</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>26.87</v>
+          </cell>
+          <cell r="B42">
+            <v>50.28</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>28.22</v>
+          </cell>
+          <cell r="B43">
+            <v>33.590000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -20512,15 +20177,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -20648,10 +20313,10 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="151">
         <v>90</v>
       </c>
       <c r="C7" s="1">
@@ -20682,8 +20347,8 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="120"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="1">
         <v>-19.440000000000001</v>
       </c>
@@ -20699,10 +20364,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="115" t="s">
+      <c r="V8" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="W8" s="115"/>
+      <c r="W8" s="139"/>
       <c r="Y8">
         <f>FTEST(V10:V11, W10:W22)</f>
         <v>0.16952866621585372</v>
@@ -20721,15 +20386,15 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="L10" t="s">
         <v>240</v>
       </c>
@@ -20817,15 +20482,15 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
       <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
@@ -20874,7 +20539,7 @@
       <c r="L14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="113">
+      <c r="M14" s="147">
         <v>90</v>
       </c>
       <c r="N14" s="26">
@@ -20895,10 +20560,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="140">
         <v>86</v>
       </c>
       <c r="C15" s="3">
@@ -20915,7 +20580,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="114"/>
+      <c r="M15" s="148"/>
       <c r="N15" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -20936,8 +20601,8 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="3">
         <v>-13.52</v>
       </c>
@@ -20977,8 +20642,8 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="3">
         <v>-37.61</v>
       </c>
@@ -21018,8 +20683,8 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="3">
         <v>-51.13</v>
       </c>
@@ -21036,7 +20701,7 @@
       <c r="L18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="110">
+      <c r="M18" s="144">
         <v>86</v>
       </c>
       <c r="N18" s="24">
@@ -21058,7 +20723,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="15"/>
-      <c r="M19" s="111"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="24">
         <v>-13.52</v>
       </c>
@@ -21077,16 +20742,16 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="111"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="24">
         <v>-37.61</v>
       </c>
@@ -21132,7 +20797,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="112"/>
+      <c r="M21" s="146"/>
       <c r="N21" s="24">
         <v>-51.13</v>
       </c>
@@ -21174,14 +20839,14 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
       <c r="L23" s="1" t="s">
         <v>65</v>
       </c>
@@ -21579,11 +21244,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:G13"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="V8:W8"/>
@@ -21591,6 +21251,11 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21608,7 +21273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -21644,13 +21309,13 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="B4" s="106">
         <v>1</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="E4" s="106">
@@ -21659,7 +21324,7 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="H4" s="106">
@@ -21668,16 +21333,16 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="198" t="s">
         <v>583</v>
       </c>
-      <c r="K4" s="193">
+      <c r="K4" s="123">
         <v>1</v>
       </c>
-      <c r="L4" s="194">
+      <c r="L4" s="124">
         <v>6</v>
       </c>
-      <c r="M4" s="182" t="s">
+      <c r="M4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="N4" s="106">
@@ -21686,7 +21351,7 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" s="182" t="s">
+      <c r="P4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="Q4" s="106">
@@ -21695,7 +21360,7 @@
       <c r="R4">
         <v>6</v>
       </c>
-      <c r="S4" s="182" t="s">
+      <c r="S4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="T4" s="106">
@@ -21704,7 +21369,7 @@
       <c r="U4">
         <v>6</v>
       </c>
-      <c r="V4" s="182" t="s">
+      <c r="V4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="W4" s="106">
@@ -21713,130 +21378,130 @@
       <c r="X4">
         <v>6</v>
       </c>
-      <c r="Y4" s="192" t="s">
+      <c r="Y4" s="198" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="182"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="106">
         <v>2</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="106">
         <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="182"/>
+      <c r="G5" s="204"/>
       <c r="H5" s="106">
         <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193">
+      <c r="J5" s="198"/>
+      <c r="K5" s="123">
         <v>2</v>
       </c>
-      <c r="L5" s="194">
+      <c r="L5" s="124">
         <v>3</v>
       </c>
-      <c r="M5" s="182"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="106">
         <v>2</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
-      <c r="P5" s="182"/>
+      <c r="P5" s="204"/>
       <c r="Q5" s="106">
         <v>2</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="182"/>
+      <c r="S5" s="204"/>
       <c r="T5" s="106">
         <v>2</v>
       </c>
       <c r="U5">
         <v>6</v>
       </c>
-      <c r="V5" s="182"/>
+      <c r="V5" s="204"/>
       <c r="W5" s="106">
         <v>2</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
-      <c r="Y5" s="192"/>
+      <c r="Y5" s="198"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="182"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="106">
         <v>3</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="106">
         <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="182"/>
+      <c r="G6" s="204"/>
       <c r="H6" s="106">
         <v>3</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="192"/>
-      <c r="K6" s="193">
+      <c r="J6" s="198"/>
+      <c r="K6" s="123">
         <v>3</v>
       </c>
-      <c r="L6" s="194">
+      <c r="L6" s="124">
         <v>6</v>
       </c>
-      <c r="M6" s="182"/>
+      <c r="M6" s="204"/>
       <c r="N6" s="106">
         <v>3</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="182"/>
+      <c r="P6" s="204"/>
       <c r="Q6" s="106">
         <v>3</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
-      <c r="S6" s="182"/>
+      <c r="S6" s="204"/>
       <c r="T6" s="106">
         <v>3</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
-      <c r="V6" s="182"/>
+      <c r="V6" s="204"/>
       <c r="W6" s="106">
         <v>3</v>
       </c>
       <c r="X6">
         <v>5</v>
       </c>
-      <c r="Y6" s="192"/>
+      <c r="Y6" s="198"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="B7" s="106">
         <v>4</v>
       </c>
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="E7" s="106">
@@ -21845,7 +21510,7 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="H7" s="106">
@@ -21854,16 +21519,16 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" s="195" t="s">
+      <c r="J7" s="199" t="s">
         <v>584</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="123">
         <v>4</v>
       </c>
-      <c r="L7" s="194">
+      <c r="L7" s="124">
         <v>5</v>
       </c>
-      <c r="M7" s="183" t="s">
+      <c r="M7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="N7" s="106">
@@ -21872,7 +21537,7 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="183" t="s">
+      <c r="P7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="Q7" s="106">
@@ -21881,7 +21546,7 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="S7" s="183" t="s">
+      <c r="S7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="T7" s="106">
@@ -21890,7 +21555,7 @@
       <c r="U7">
         <v>5</v>
       </c>
-      <c r="V7" s="183" t="s">
+      <c r="V7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="W7" s="106">
@@ -21899,130 +21564,130 @@
       <c r="X7">
         <v>6</v>
       </c>
-      <c r="Y7" s="195" t="s">
+      <c r="Y7" s="199" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="183"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="106">
         <v>5</v>
       </c>
-      <c r="D8" s="183"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="106">
         <v>5</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="183"/>
+      <c r="G8" s="205"/>
       <c r="H8" s="106">
         <v>5</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" s="195"/>
-      <c r="K8" s="193">
+      <c r="J8" s="199"/>
+      <c r="K8" s="123">
         <v>5</v>
       </c>
-      <c r="L8" s="194">
+      <c r="L8" s="124">
         <v>5</v>
       </c>
-      <c r="M8" s="183"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="106">
         <v>5</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8" s="183"/>
+      <c r="P8" s="205"/>
       <c r="Q8" s="106">
         <v>5</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" s="183"/>
+      <c r="S8" s="205"/>
       <c r="T8" s="106">
         <v>5</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
-      <c r="V8" s="183"/>
+      <c r="V8" s="205"/>
       <c r="W8" s="106">
         <v>5</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
-      <c r="Y8" s="195"/>
+      <c r="Y8" s="199"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="183"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="106">
         <v>6</v>
       </c>
-      <c r="D9" s="183"/>
+      <c r="D9" s="205"/>
       <c r="E9" s="106">
         <v>6</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="183"/>
+      <c r="G9" s="205"/>
       <c r="H9" s="106">
         <v>6</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
-      <c r="J9" s="195"/>
-      <c r="K9" s="193">
+      <c r="J9" s="199"/>
+      <c r="K9" s="123">
         <v>6</v>
       </c>
-      <c r="L9" s="194">
+      <c r="L9" s="124">
         <v>7</v>
       </c>
-      <c r="M9" s="183"/>
+      <c r="M9" s="205"/>
       <c r="N9" s="106">
         <v>6</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="183"/>
+      <c r="P9" s="205"/>
       <c r="Q9" s="106">
         <v>6</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9" s="183"/>
+      <c r="S9" s="205"/>
       <c r="T9" s="106">
         <v>6</v>
       </c>
       <c r="U9">
         <v>6</v>
       </c>
-      <c r="V9" s="183"/>
+      <c r="V9" s="205"/>
       <c r="W9" s="106">
         <v>6</v>
       </c>
       <c r="X9">
         <v>5</v>
       </c>
-      <c r="Y9" s="195"/>
+      <c r="Y9" s="199"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="B10" s="106">
         <v>7</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="E10" s="106">
@@ -22031,7 +21696,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="H10" s="106">
@@ -22040,16 +21705,16 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="196" t="s">
+      <c r="J10" s="200" t="s">
         <v>585</v>
       </c>
-      <c r="K10" s="193">
+      <c r="K10" s="123">
         <v>7</v>
       </c>
-      <c r="L10" s="194">
+      <c r="L10" s="124">
         <v>4</v>
       </c>
-      <c r="M10" s="184" t="s">
+      <c r="M10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="N10" s="106">
@@ -22058,7 +21723,7 @@
       <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10" s="184" t="s">
+      <c r="P10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="Q10" s="106">
@@ -22067,7 +21732,7 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" s="184" t="s">
+      <c r="S10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="T10" s="106">
@@ -22076,7 +21741,7 @@
       <c r="U10">
         <v>5</v>
       </c>
-      <c r="V10" s="184" t="s">
+      <c r="V10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="W10" s="106">
@@ -22085,130 +21750,130 @@
       <c r="X10">
         <v>6</v>
       </c>
-      <c r="Y10" s="196" t="s">
+      <c r="Y10" s="200" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="106">
         <v>8</v>
       </c>
-      <c r="D11" s="184"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="106">
         <v>8</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="184"/>
+      <c r="G11" s="202"/>
       <c r="H11" s="106">
         <v>8</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="196"/>
-      <c r="K11" s="193">
+      <c r="J11" s="200"/>
+      <c r="K11" s="123">
         <v>8</v>
       </c>
-      <c r="L11" s="194">
+      <c r="L11" s="124">
         <v>5</v>
       </c>
-      <c r="M11" s="184"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="106">
         <v>8</v>
       </c>
       <c r="O11">
         <v>7</v>
       </c>
-      <c r="P11" s="184"/>
+      <c r="P11" s="202"/>
       <c r="Q11" s="106">
         <v>8</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
-      <c r="S11" s="184"/>
+      <c r="S11" s="202"/>
       <c r="T11" s="106">
         <v>8</v>
       </c>
       <c r="U11">
         <v>4</v>
       </c>
-      <c r="V11" s="184"/>
+      <c r="V11" s="202"/>
       <c r="W11" s="106">
         <v>8</v>
       </c>
       <c r="X11">
         <v>5</v>
       </c>
-      <c r="Y11" s="196"/>
+      <c r="Y11" s="200"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="184"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="106">
         <v>9</v>
       </c>
-      <c r="D12" s="184"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="106">
         <v>9</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="184"/>
+      <c r="G12" s="202"/>
       <c r="H12" s="106">
         <v>9</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="196"/>
-      <c r="K12" s="193">
+      <c r="J12" s="200"/>
+      <c r="K12" s="123">
         <v>9</v>
       </c>
-      <c r="L12" s="194">
+      <c r="L12" s="124">
         <v>6</v>
       </c>
-      <c r="M12" s="184"/>
+      <c r="M12" s="202"/>
       <c r="N12" s="106">
         <v>9</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
-      <c r="P12" s="184"/>
+      <c r="P12" s="202"/>
       <c r="Q12" s="106">
         <v>9</v>
       </c>
       <c r="R12">
         <v>6</v>
       </c>
-      <c r="S12" s="184"/>
+      <c r="S12" s="202"/>
       <c r="T12" s="106">
         <v>9</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
-      <c r="V12" s="184"/>
+      <c r="V12" s="202"/>
       <c r="W12" s="106">
         <v>9</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
-      <c r="Y12" s="196"/>
+      <c r="Y12" s="200"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="B13" s="106">
         <v>10</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="E13" s="106">
@@ -22217,7 +21882,7 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="185" t="s">
+      <c r="G13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="H13" s="106">
@@ -22226,16 +21891,16 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="197" t="s">
+      <c r="J13" s="201" t="s">
         <v>586</v>
       </c>
-      <c r="K13" s="193">
+      <c r="K13" s="123">
         <v>10</v>
       </c>
-      <c r="L13" s="194">
+      <c r="L13" s="124">
         <v>7</v>
       </c>
-      <c r="M13" s="185" t="s">
+      <c r="M13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="N13" s="106">
@@ -22244,7 +21909,7 @@
       <c r="O13">
         <v>6</v>
       </c>
-      <c r="P13" s="185" t="s">
+      <c r="P13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="Q13" s="106">
@@ -22253,7 +21918,7 @@
       <c r="R13">
         <v>3</v>
       </c>
-      <c r="S13" s="185" t="s">
+      <c r="S13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="T13" s="106">
@@ -22262,7 +21927,7 @@
       <c r="U13">
         <v>7</v>
       </c>
-      <c r="V13" s="185" t="s">
+      <c r="V13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="W13" s="106">
@@ -22271,121 +21936,121 @@
       <c r="X13">
         <v>3</v>
       </c>
-      <c r="Y13" s="197" t="s">
+      <c r="Y13" s="201" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="185"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="106">
         <v>11</v>
       </c>
-      <c r="D14" s="185"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="106">
         <v>11</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="185"/>
+      <c r="G14" s="203"/>
       <c r="H14" s="106">
         <v>11</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14" s="197"/>
-      <c r="K14" s="193">
+      <c r="J14" s="201"/>
+      <c r="K14" s="123">
         <v>11</v>
       </c>
-      <c r="L14" s="194">
+      <c r="L14" s="124">
         <v>6</v>
       </c>
-      <c r="M14" s="185"/>
+      <c r="M14" s="203"/>
       <c r="N14" s="106">
         <v>11</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
-      <c r="P14" s="185"/>
+      <c r="P14" s="203"/>
       <c r="Q14" s="106">
         <v>11</v>
       </c>
       <c r="R14">
         <v>6</v>
       </c>
-      <c r="S14" s="185"/>
+      <c r="S14" s="203"/>
       <c r="T14" s="106">
         <v>11</v>
       </c>
       <c r="U14">
         <v>7</v>
       </c>
-      <c r="V14" s="185"/>
+      <c r="V14" s="203"/>
       <c r="W14" s="106">
         <v>11</v>
       </c>
       <c r="X14">
         <v>5</v>
       </c>
-      <c r="Y14" s="197"/>
+      <c r="Y14" s="201"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="106">
         <v>12</v>
       </c>
-      <c r="D15" s="185"/>
+      <c r="D15" s="203"/>
       <c r="E15" s="106">
         <v>12</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="185"/>
+      <c r="G15" s="203"/>
       <c r="H15" s="106">
         <v>12</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="197"/>
-      <c r="K15" s="193">
+      <c r="J15" s="201"/>
+      <c r="K15" s="123">
         <v>12</v>
       </c>
-      <c r="L15" s="194">
+      <c r="L15" s="124">
         <v>6</v>
       </c>
-      <c r="M15" s="185"/>
+      <c r="M15" s="203"/>
       <c r="N15" s="106">
         <v>12</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
-      <c r="P15" s="185"/>
+      <c r="P15" s="203"/>
       <c r="Q15" s="106">
         <v>12</v>
       </c>
       <c r="R15">
         <v>7</v>
       </c>
-      <c r="S15" s="185"/>
+      <c r="S15" s="203"/>
       <c r="T15" s="106">
         <v>12</v>
       </c>
       <c r="U15">
         <v>7</v>
       </c>
-      <c r="V15" s="185"/>
+      <c r="V15" s="203"/>
       <c r="W15" s="106">
         <v>12</v>
       </c>
       <c r="X15">
         <v>5</v>
       </c>
-      <c r="Y15" s="197"/>
+      <c r="Y15" s="201"/>
     </row>
     <row r="18" spans="1:11">
       <c r="J18" t="s">
@@ -22396,7 +22061,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="204" t="s">
         <v>583</v>
       </c>
       <c r="B19" s="1">
@@ -22408,7 +22073,7 @@
       <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="207">
+      <c r="E19" s="127">
         <v>6</v>
       </c>
       <c r="F19" s="1">
@@ -22427,13 +22092,13 @@
         <f>AVERAGE(B19:I19)</f>
         <v>5.375</v>
       </c>
-      <c r="K19" s="115">
+      <c r="K19" s="139">
         <f>AVERAGE(B19:I22)</f>
         <v>5.4375</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="182"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -22443,7 +22108,7 @@
       <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="207">
+      <c r="E20" s="127">
         <v>3</v>
       </c>
       <c r="F20" s="1">
@@ -22462,10 +22127,10 @@
         <f t="shared" ref="J20:J30" si="0">AVERAGE(B20:I20)</f>
         <v>5.25</v>
       </c>
-      <c r="K20" s="115"/>
+      <c r="K20" s="139"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="182"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22475,7 +22140,7 @@
       <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="207">
+      <c r="E21" s="127">
         <v>6</v>
       </c>
       <c r="F21" s="1">
@@ -22494,10 +22159,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K21" s="115"/>
+      <c r="K21" s="139"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="205" t="s">
         <v>584</v>
       </c>
       <c r="B22" s="1">
@@ -22509,7 +22174,7 @@
       <c r="D22" s="1">
         <v>7</v>
       </c>
-      <c r="E22" s="207">
+      <c r="E22" s="127">
         <v>5</v>
       </c>
       <c r="F22" s="1">
@@ -22528,13 +22193,13 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="K22" s="115">
+      <c r="K22" s="139">
         <f>AVERAGE(B22:I24)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="183"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -22544,7 +22209,7 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="207">
+      <c r="E23" s="127">
         <v>5</v>
       </c>
       <c r="F23" s="1">
@@ -22563,10 +22228,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="139"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="183"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -22576,7 +22241,7 @@
       <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="E24" s="207">
+      <c r="E24" s="127">
         <v>7</v>
       </c>
       <c r="F24" s="1">
@@ -22595,10 +22260,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K24" s="115"/>
+      <c r="K24" s="139"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="202" t="s">
         <v>585</v>
       </c>
       <c r="B25" s="1">
@@ -22610,7 +22275,7 @@
       <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E25" s="207">
+      <c r="E25" s="127">
         <v>4</v>
       </c>
       <c r="F25" s="1">
@@ -22629,13 +22294,13 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="139">
         <f>AVERAGE(B25:I27)</f>
         <v>5.125</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="184"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="1">
         <v>7</v>
       </c>
@@ -22645,7 +22310,7 @@
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="207">
+      <c r="E26" s="127">
         <v>5</v>
       </c>
       <c r="F26" s="1">
@@ -22664,10 +22329,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K26" s="115"/>
+      <c r="K26" s="139"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="184"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -22677,7 +22342,7 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="207">
+      <c r="E27" s="127">
         <v>6</v>
       </c>
       <c r="F27" s="1">
@@ -22696,10 +22361,10 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="K27" s="115"/>
+      <c r="K27" s="139"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="203" t="s">
         <v>586</v>
       </c>
       <c r="B28" s="1">
@@ -22711,7 +22376,7 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="207">
+      <c r="E28" s="127">
         <v>7</v>
       </c>
       <c r="F28" s="1">
@@ -22730,13 +22395,13 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="139">
         <f>AVERAGE(B28:I30)</f>
         <v>5.291666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="185"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -22746,7 +22411,7 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="207">
+      <c r="E29" s="127">
         <v>6</v>
       </c>
       <c r="F29" s="1">
@@ -22765,10 +22430,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K29" s="115"/>
+      <c r="K29" s="139"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="185"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="1">
         <v>7</v>
       </c>
@@ -22778,7 +22443,7 @@
       <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="207">
+      <c r="E30" s="127">
         <v>6</v>
       </c>
       <c r="F30" s="1">
@@ -22797,7 +22462,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="K30" s="115"/>
+      <c r="K30" s="139"/>
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
@@ -22805,7 +22470,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="208" t="s">
+      <c r="A33" s="128" t="s">
         <v>583</v>
       </c>
       <c r="B33">
@@ -22817,7 +22482,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="209" t="s">
+      <c r="A34" s="129" t="s">
         <v>584</v>
       </c>
       <c r="B34">
@@ -22829,7 +22494,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="130" t="s">
         <v>585</v>
       </c>
       <c r="B35">
@@ -22841,7 +22506,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="211" t="s">
+      <c r="A36" s="131" t="s">
         <v>586</v>
       </c>
       <c r="B36">
@@ -22853,16 +22518,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="212"/>
+      <c r="A37" s="132"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="212"/>
+      <c r="A38" s="132"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="17"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="212"/>
+      <c r="A40" s="132"/>
       <c r="B40" t="s">
         <v>650</v>
       </c>
@@ -22877,7 +22542,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="132" t="s">
         <v>583</v>
       </c>
       <c r="B41">
@@ -22911,7 +22576,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="212" t="s">
+      <c r="A43" s="132" t="s">
         <v>585</v>
       </c>
       <c r="B43">
@@ -22928,7 +22593,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="132" t="s">
         <v>586</v>
       </c>
       <c r="B44">
@@ -22945,13 +22610,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="212"/>
+      <c r="A46" s="132"/>
       <c r="B46" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="132" t="s">
         <v>583</v>
       </c>
       <c r="B47">
@@ -22971,10 +22636,10 @@
       <c r="C48">
         <v>5.666666666666667</v>
       </c>
-      <c r="D48" s="218"/>
+      <c r="D48" s="138"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="212" t="s">
+      <c r="A49" s="132" t="s">
         <v>585</v>
       </c>
       <c r="B49">
@@ -22985,7 +22650,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="212" t="s">
+      <c r="A50" s="132" t="s">
         <v>586</v>
       </c>
       <c r="B50">
@@ -22997,12 +22662,36 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V7:V9"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
@@ -23011,36 +22700,12 @@
     <mergeCell ref="K22:K24"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="V13:V15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23058,7 +22723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA69"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -23094,7 +22759,7 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -23103,7 +22768,7 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -23112,7 +22777,7 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="186" t="s">
+      <c r="G3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -23121,7 +22786,7 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="186" t="s">
+      <c r="J3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -23130,7 +22795,7 @@
       <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="186" t="s">
+      <c r="M3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -23139,7 +22804,7 @@
       <c r="O3" s="1">
         <v>5</v>
       </c>
-      <c r="P3" s="186" t="s">
+      <c r="P3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -23148,7 +22813,7 @@
       <c r="R3" s="1">
         <v>6</v>
       </c>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -23157,16 +22822,16 @@
       <c r="U3" s="1">
         <v>4</v>
       </c>
-      <c r="V3" s="200" t="s">
+      <c r="V3" s="216" t="s">
         <v>629</v>
       </c>
-      <c r="W3" s="198" t="s">
+      <c r="W3" s="125" t="s">
         <v>630</v>
       </c>
-      <c r="X3" s="198">
+      <c r="X3" s="125">
         <v>6</v>
       </c>
-      <c r="Y3" s="186" t="s">
+      <c r="Y3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -23177,63 +22842,63 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="187"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="187"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="187"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="187"/>
+      <c r="M4" s="210"/>
       <c r="N4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
-      <c r="P4" s="187"/>
+      <c r="P4" s="210"/>
       <c r="Q4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="R4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="187"/>
+      <c r="S4" s="210"/>
       <c r="T4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="V4" s="201"/>
-      <c r="W4" s="199" t="s">
+      <c r="V4" s="217"/>
+      <c r="W4" s="126" t="s">
         <v>589</v>
       </c>
-      <c r="X4" s="199">
+      <c r="X4" s="126">
         <v>3</v>
       </c>
-      <c r="Y4" s="187"/>
+      <c r="Y4" s="210"/>
       <c r="Z4" s="1" t="s">
         <v>589</v>
       </c>
@@ -23242,63 +22907,63 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="188"/>
+      <c r="A5" s="211"/>
       <c r="B5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="188"/>
+      <c r="D5" s="211"/>
       <c r="E5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="188"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="188"/>
+      <c r="J5" s="211"/>
       <c r="K5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="L5" s="1">
         <v>7</v>
       </c>
-      <c r="M5" s="188"/>
+      <c r="M5" s="211"/>
       <c r="N5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="O5" s="1">
         <v>5</v>
       </c>
-      <c r="P5" s="188"/>
+      <c r="P5" s="211"/>
       <c r="Q5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="R5" s="1">
         <v>6</v>
       </c>
-      <c r="S5" s="188"/>
+      <c r="S5" s="211"/>
       <c r="T5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="U5" s="1">
         <v>4</v>
       </c>
-      <c r="V5" s="202"/>
-      <c r="W5" s="199" t="s">
+      <c r="V5" s="218"/>
+      <c r="W5" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="X5" s="199">
+      <c r="X5" s="126">
         <v>6</v>
       </c>
-      <c r="Y5" s="188"/>
+      <c r="Y5" s="211"/>
       <c r="Z5" s="1" t="s">
         <v>590</v>
       </c>
@@ -23307,7 +22972,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -23316,7 +22981,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -23325,7 +22990,7 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="189" t="s">
+      <c r="G6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -23334,7 +22999,7 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -23343,7 +23008,7 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="189" t="s">
+      <c r="M6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -23352,7 +23017,7 @@
       <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="189" t="s">
+      <c r="P6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -23361,7 +23026,7 @@
       <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="189" t="s">
+      <c r="S6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -23370,16 +23035,16 @@
       <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="V6" s="204" t="s">
+      <c r="V6" s="212" t="s">
         <v>591</v>
       </c>
-      <c r="W6" s="199" t="s">
+      <c r="W6" s="126" t="s">
         <v>631</v>
       </c>
-      <c r="X6" s="199">
+      <c r="X6" s="126">
         <v>2</v>
       </c>
-      <c r="Y6" s="189" t="s">
+      <c r="Y6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="Z6" s="1" t="s">
@@ -23390,63 +23055,63 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="190"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="190"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="190"/>
+      <c r="J7" s="207"/>
       <c r="K7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="190"/>
+      <c r="M7" s="207"/>
       <c r="N7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="190"/>
+      <c r="P7" s="207"/>
       <c r="Q7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="190"/>
+      <c r="S7" s="207"/>
       <c r="T7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="U7" s="1">
         <v>6</v>
       </c>
-      <c r="V7" s="203"/>
-      <c r="W7" s="199" t="s">
+      <c r="V7" s="213"/>
+      <c r="W7" s="126" t="s">
         <v>632</v>
       </c>
-      <c r="X7" s="199">
+      <c r="X7" s="126">
         <v>7</v>
       </c>
-      <c r="Y7" s="190"/>
+      <c r="Y7" s="207"/>
       <c r="Z7" s="1" t="s">
         <v>593</v>
       </c>
@@ -23455,63 +23120,63 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="191"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="191"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="191"/>
+      <c r="G8" s="208"/>
       <c r="H8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="191"/>
+      <c r="J8" s="208"/>
       <c r="K8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="191"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="191"/>
+      <c r="P8" s="208"/>
       <c r="Q8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="S8" s="191"/>
+      <c r="S8" s="208"/>
       <c r="T8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="U8" s="1">
         <v>4</v>
       </c>
-      <c r="V8" s="205"/>
-      <c r="W8" s="199" t="s">
+      <c r="V8" s="214"/>
+      <c r="W8" s="126" t="s">
         <v>633</v>
       </c>
-      <c r="X8" s="199">
+      <c r="X8" s="126">
         <v>6</v>
       </c>
-      <c r="Y8" s="191"/>
+      <c r="Y8" s="208"/>
       <c r="Z8" s="1" t="s">
         <v>594</v>
       </c>
@@ -23520,7 +23185,7 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -23529,7 +23194,7 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="189" t="s">
+      <c r="D9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -23538,7 +23203,7 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="189" t="s">
+      <c r="G9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -23547,7 +23212,7 @@
       <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="189" t="s">
+      <c r="J9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -23556,7 +23221,7 @@
       <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -23565,7 +23230,7 @@
       <c r="O9" s="1">
         <v>5</v>
       </c>
-      <c r="P9" s="189" t="s">
+      <c r="P9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -23574,7 +23239,7 @@
       <c r="R9" s="1">
         <v>6</v>
       </c>
-      <c r="S9" s="189" t="s">
+      <c r="S9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -23583,16 +23248,16 @@
       <c r="U9" s="1">
         <v>5</v>
       </c>
-      <c r="V9" s="204" t="s">
+      <c r="V9" s="212" t="s">
         <v>595</v>
       </c>
-      <c r="W9" s="199" t="s">
+      <c r="W9" s="126" t="s">
         <v>596</v>
       </c>
-      <c r="X9" s="199">
+      <c r="X9" s="126">
         <v>4</v>
       </c>
-      <c r="Y9" s="189" t="s">
+      <c r="Y9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="Z9" s="1" t="s">
@@ -23603,63 +23268,63 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="190"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="190"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="190"/>
+      <c r="G10" s="207"/>
       <c r="H10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="190"/>
+      <c r="J10" s="207"/>
       <c r="K10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="L10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="190"/>
+      <c r="M10" s="207"/>
       <c r="N10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="O10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="190"/>
+      <c r="P10" s="207"/>
       <c r="Q10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="R10" s="1">
         <v>6</v>
       </c>
-      <c r="S10" s="190"/>
+      <c r="S10" s="207"/>
       <c r="T10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="U10" s="1">
         <v>6</v>
       </c>
-      <c r="V10" s="203"/>
-      <c r="W10" s="199" t="s">
+      <c r="V10" s="213"/>
+      <c r="W10" s="126" t="s">
         <v>597</v>
       </c>
-      <c r="X10" s="199">
+      <c r="X10" s="126">
         <v>6</v>
       </c>
-      <c r="Y10" s="190"/>
+      <c r="Y10" s="207"/>
       <c r="Z10" s="1" t="s">
         <v>597</v>
       </c>
@@ -23668,63 +23333,63 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="191"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="191"/>
+      <c r="D11" s="208"/>
       <c r="E11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="191"/>
+      <c r="G11" s="208"/>
       <c r="H11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="191"/>
+      <c r="J11" s="208"/>
       <c r="K11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="191"/>
+      <c r="M11" s="208"/>
       <c r="N11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="O11" s="1">
         <v>7</v>
       </c>
-      <c r="P11" s="191"/>
+      <c r="P11" s="208"/>
       <c r="Q11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="S11" s="191"/>
+      <c r="S11" s="208"/>
       <c r="T11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="U11" s="1">
         <v>5</v>
       </c>
-      <c r="V11" s="205"/>
-      <c r="W11" s="199" t="s">
+      <c r="V11" s="214"/>
+      <c r="W11" s="126" t="s">
         <v>598</v>
       </c>
-      <c r="X11" s="199">
+      <c r="X11" s="126">
         <v>7</v>
       </c>
-      <c r="Y11" s="191"/>
+      <c r="Y11" s="208"/>
       <c r="Z11" s="1" t="s">
         <v>598</v>
       </c>
@@ -23733,7 +23398,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -23742,7 +23407,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -23751,7 +23416,7 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -23760,7 +23425,7 @@
       <c r="I12" s="1">
         <v>6</v>
       </c>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -23769,7 +23434,7 @@
       <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="189" t="s">
+      <c r="M12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -23778,7 +23443,7 @@
       <c r="O12" s="1">
         <v>5</v>
       </c>
-      <c r="P12" s="189" t="s">
+      <c r="P12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -23787,7 +23452,7 @@
       <c r="R12" s="1">
         <v>5</v>
       </c>
-      <c r="S12" s="189" t="s">
+      <c r="S12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -23796,16 +23461,16 @@
       <c r="U12" s="1">
         <v>3</v>
       </c>
-      <c r="V12" s="204" t="s">
+      <c r="V12" s="212" t="s">
         <v>583</v>
       </c>
-      <c r="W12" s="199" t="s">
+      <c r="W12" s="126" t="s">
         <v>599</v>
       </c>
-      <c r="X12" s="199">
+      <c r="X12" s="126">
         <v>2</v>
       </c>
-      <c r="Y12" s="189" t="s">
+      <c r="Y12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -23816,63 +23481,63 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="190"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="190"/>
+      <c r="D13" s="207"/>
       <c r="E13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="190"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="190"/>
+      <c r="J13" s="207"/>
       <c r="K13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="190"/>
+      <c r="M13" s="207"/>
       <c r="N13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="190"/>
+      <c r="P13" s="207"/>
       <c r="Q13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
       </c>
-      <c r="S13" s="190"/>
+      <c r="S13" s="207"/>
       <c r="T13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="U13" s="1">
         <v>3</v>
       </c>
-      <c r="V13" s="203"/>
-      <c r="W13" s="199" t="s">
+      <c r="V13" s="213"/>
+      <c r="W13" s="126" t="s">
         <v>600</v>
       </c>
-      <c r="X13" s="199">
+      <c r="X13" s="126">
         <v>3</v>
       </c>
-      <c r="Y13" s="190"/>
+      <c r="Y13" s="207"/>
       <c r="Z13" s="1" t="s">
         <v>600</v>
       </c>
@@ -23881,63 +23546,63 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="191"/>
+      <c r="A14" s="208"/>
       <c r="B14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="191"/>
+      <c r="D14" s="208"/>
       <c r="E14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="191"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="191"/>
+      <c r="J14" s="208"/>
       <c r="K14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="191"/>
+      <c r="M14" s="208"/>
       <c r="N14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="191"/>
+      <c r="P14" s="208"/>
       <c r="Q14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="S14" s="191"/>
+      <c r="S14" s="208"/>
       <c r="T14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="U14" s="1">
         <v>3</v>
       </c>
-      <c r="V14" s="205"/>
-      <c r="W14" s="199" t="s">
+      <c r="V14" s="214"/>
+      <c r="W14" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="X14" s="199">
+      <c r="X14" s="126">
         <v>2</v>
       </c>
-      <c r="Y14" s="191"/>
+      <c r="Y14" s="208"/>
       <c r="Z14" s="1" t="s">
         <v>601</v>
       </c>
@@ -23946,7 +23611,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -23955,7 +23620,7 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="189" t="s">
+      <c r="D15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -23964,7 +23629,7 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="189" t="s">
+      <c r="G15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -23973,7 +23638,7 @@
       <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="189" t="s">
+      <c r="J15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -23982,7 +23647,7 @@
       <c r="L15" s="1">
         <v>6</v>
       </c>
-      <c r="M15" s="189" t="s">
+      <c r="M15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -23991,7 +23656,7 @@
       <c r="O15" s="1">
         <v>3</v>
       </c>
-      <c r="P15" s="189" t="s">
+      <c r="P15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -24000,7 +23665,7 @@
       <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="S15" s="189" t="s">
+      <c r="S15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -24009,16 +23674,16 @@
       <c r="U15" s="1">
         <v>3</v>
       </c>
-      <c r="V15" s="204" t="s">
+      <c r="V15" s="212" t="s">
         <v>584</v>
       </c>
-      <c r="W15" s="199" t="s">
+      <c r="W15" s="126" t="s">
         <v>602</v>
       </c>
-      <c r="X15" s="199">
+      <c r="X15" s="126">
         <v>7</v>
       </c>
-      <c r="Y15" s="189" t="s">
+      <c r="Y15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -24029,63 +23694,63 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="190"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="190"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="190"/>
+      <c r="G16" s="207"/>
       <c r="H16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="190"/>
+      <c r="J16" s="207"/>
       <c r="K16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="L16" s="1">
         <v>6</v>
       </c>
-      <c r="M16" s="190"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="O16" s="1">
         <v>6</v>
       </c>
-      <c r="P16" s="190"/>
+      <c r="P16" s="207"/>
       <c r="Q16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="S16" s="190"/>
+      <c r="S16" s="207"/>
       <c r="T16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="U16" s="1">
         <v>3</v>
       </c>
-      <c r="V16" s="203"/>
-      <c r="W16" s="199" t="s">
+      <c r="V16" s="213"/>
+      <c r="W16" s="126" t="s">
         <v>634</v>
       </c>
-      <c r="X16" s="199">
+      <c r="X16" s="126">
         <v>3</v>
       </c>
-      <c r="Y16" s="190"/>
+      <c r="Y16" s="207"/>
       <c r="Z16" s="1" t="s">
         <v>615</v>
       </c>
@@ -24094,63 +23759,63 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="191"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="191"/>
+      <c r="D17" s="208"/>
       <c r="E17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="191"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="191"/>
+      <c r="J17" s="208"/>
       <c r="K17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="L17" s="1">
         <v>7</v>
       </c>
-      <c r="M17" s="191"/>
+      <c r="M17" s="208"/>
       <c r="N17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="O17" s="1">
         <v>3</v>
       </c>
-      <c r="P17" s="191"/>
+      <c r="P17" s="208"/>
       <c r="Q17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="R17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="191"/>
+      <c r="S17" s="208"/>
       <c r="T17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="U17" s="1">
         <v>4</v>
       </c>
-      <c r="V17" s="205"/>
-      <c r="W17" s="199" t="s">
+      <c r="V17" s="214"/>
+      <c r="W17" s="126" t="s">
         <v>604</v>
       </c>
-      <c r="X17" s="199">
+      <c r="X17" s="126">
         <v>3</v>
       </c>
-      <c r="Y17" s="191"/>
+      <c r="Y17" s="208"/>
       <c r="Z17" s="1" t="s">
         <v>604</v>
       </c>
@@ -24159,7 +23824,7 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -24168,7 +23833,7 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="189" t="s">
+      <c r="D18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -24177,7 +23842,7 @@
       <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="189" t="s">
+      <c r="G18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -24186,7 +23851,7 @@
       <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="189" t="s">
+      <c r="J18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -24195,7 +23860,7 @@
       <c r="L18" s="1">
         <v>6</v>
       </c>
-      <c r="M18" s="189" t="s">
+      <c r="M18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -24204,7 +23869,7 @@
       <c r="O18" s="1">
         <v>6</v>
       </c>
-      <c r="P18" s="189" t="s">
+      <c r="P18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -24213,7 +23878,7 @@
       <c r="R18" s="1">
         <v>6</v>
       </c>
-      <c r="S18" s="189" t="s">
+      <c r="S18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -24222,16 +23887,16 @@
       <c r="U18" s="1">
         <v>4</v>
       </c>
-      <c r="V18" s="204" t="s">
+      <c r="V18" s="212" t="s">
         <v>605</v>
       </c>
-      <c r="W18" s="199" t="s">
+      <c r="W18" s="126" t="s">
         <v>635</v>
       </c>
-      <c r="X18" s="199">
+      <c r="X18" s="126">
         <v>7</v>
       </c>
-      <c r="Y18" s="189" t="s">
+      <c r="Y18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -24242,63 +23907,63 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="190"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="190"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="190"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="190"/>
+      <c r="J19" s="207"/>
       <c r="K19" s="1" t="s">
         <v>621</v>
       </c>
       <c r="L19" s="1">
         <v>6</v>
       </c>
-      <c r="M19" s="190"/>
+      <c r="M19" s="207"/>
       <c r="N19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="O19" s="1">
         <v>6</v>
       </c>
-      <c r="P19" s="190"/>
+      <c r="P19" s="207"/>
       <c r="Q19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="R19" s="1">
         <v>6</v>
       </c>
-      <c r="S19" s="190"/>
+      <c r="S19" s="207"/>
       <c r="T19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="U19" s="1">
         <v>4</v>
       </c>
-      <c r="V19" s="203"/>
-      <c r="W19" s="199" t="s">
+      <c r="V19" s="213"/>
+      <c r="W19" s="126" t="s">
         <v>636</v>
       </c>
-      <c r="X19" s="199">
+      <c r="X19" s="126">
         <v>7</v>
       </c>
-      <c r="Y19" s="190"/>
+      <c r="Y19" s="207"/>
       <c r="Z19" s="1" t="s">
         <v>617</v>
       </c>
@@ -24307,63 +23972,63 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="191"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="191"/>
+      <c r="D20" s="208"/>
       <c r="E20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="191"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="1" t="s">
         <v>618</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="191"/>
+      <c r="J20" s="208"/>
       <c r="K20" s="1" t="s">
         <v>622</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="191"/>
+      <c r="M20" s="208"/>
       <c r="N20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="191"/>
+      <c r="P20" s="208"/>
       <c r="Q20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="S20" s="191"/>
+      <c r="S20" s="208"/>
       <c r="T20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="U20" s="1">
         <v>4</v>
       </c>
-      <c r="V20" s="205"/>
-      <c r="W20" s="199" t="s">
+      <c r="V20" s="214"/>
+      <c r="W20" s="126" t="s">
         <v>637</v>
       </c>
-      <c r="X20" s="199">
+      <c r="X20" s="126">
         <v>6</v>
       </c>
-      <c r="Y20" s="191"/>
+      <c r="Y20" s="208"/>
       <c r="Z20" s="1" t="s">
         <v>625</v>
       </c>
@@ -24372,7 +24037,7 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -24381,7 +24046,7 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -24390,7 +24055,7 @@
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -24399,7 +24064,7 @@
       <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="139" t="s">
+      <c r="J21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -24408,7 +24073,7 @@
       <c r="L21" s="1">
         <v>6</v>
       </c>
-      <c r="M21" s="139" t="s">
+      <c r="M21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -24417,7 +24082,7 @@
       <c r="O21" s="1">
         <v>7</v>
       </c>
-      <c r="P21" s="139" t="s">
+      <c r="P21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -24426,7 +24091,7 @@
       <c r="R21" s="1">
         <v>6</v>
       </c>
-      <c r="S21" s="139" t="s">
+      <c r="S21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -24435,16 +24100,16 @@
       <c r="U21" s="1">
         <v>5</v>
       </c>
-      <c r="V21" s="204" t="s">
+      <c r="V21" s="212" t="s">
         <v>638</v>
       </c>
-      <c r="W21" s="199" t="s">
+      <c r="W21" s="126" t="s">
         <v>610</v>
       </c>
-      <c r="X21" s="199">
+      <c r="X21" s="126">
         <v>6</v>
       </c>
-      <c r="Y21" s="139" t="s">
+      <c r="Y21" s="159" t="s">
         <v>609</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -24455,63 +24120,63 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="139"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="139"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
-      <c r="J22" s="139"/>
+      <c r="J22" s="159"/>
       <c r="K22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="L22" s="1">
         <v>6</v>
       </c>
-      <c r="M22" s="139"/>
+      <c r="M22" s="159"/>
       <c r="N22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="139"/>
+      <c r="P22" s="159"/>
       <c r="Q22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="R22" s="1">
         <v>6</v>
       </c>
-      <c r="S22" s="139"/>
+      <c r="S22" s="159"/>
       <c r="T22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="U22" s="1">
         <v>5</v>
       </c>
-      <c r="V22" s="203"/>
-      <c r="W22" s="199" t="s">
+      <c r="V22" s="213"/>
+      <c r="W22" s="126" t="s">
         <v>639</v>
       </c>
-      <c r="X22" s="199">
+      <c r="X22" s="126">
         <v>7</v>
       </c>
-      <c r="Y22" s="139"/>
+      <c r="Y22" s="159"/>
       <c r="Z22" s="1" t="s">
         <v>611</v>
       </c>
@@ -24520,63 +24185,63 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="139"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="159"/>
       <c r="E23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="139"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="I23" s="1">
         <v>7</v>
       </c>
-      <c r="J23" s="139"/>
+      <c r="J23" s="159"/>
       <c r="K23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="L23" s="1">
         <v>6</v>
       </c>
-      <c r="M23" s="139"/>
+      <c r="M23" s="159"/>
       <c r="N23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="O23" s="1">
         <v>6</v>
       </c>
-      <c r="P23" s="139"/>
+      <c r="P23" s="159"/>
       <c r="Q23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="R23" s="1">
         <v>6</v>
       </c>
-      <c r="S23" s="139"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="U23" s="1">
         <v>6</v>
       </c>
-      <c r="V23" s="206"/>
-      <c r="W23" s="199" t="s">
+      <c r="V23" s="215"/>
+      <c r="W23" s="126" t="s">
         <v>640</v>
       </c>
-      <c r="X23" s="199">
+      <c r="X23" s="126">
         <v>6</v>
       </c>
-      <c r="Y23" s="139"/>
+      <c r="Y23" s="159"/>
       <c r="Z23" s="1" t="s">
         <v>612</v>
       </c>
@@ -24593,7 +24258,7 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="209" t="s">
         <v>587</v>
       </c>
       <c r="B26" s="1">
@@ -24617,7 +24282,7 @@
       <c r="H26" s="1">
         <v>4</v>
       </c>
-      <c r="I26" s="198">
+      <c r="I26" s="125">
         <v>6</v>
       </c>
       <c r="J26" s="1">
@@ -24627,13 +24292,13 @@
         <f>AVERAGE(B26:J26)</f>
         <v>4.7777777777777777</v>
       </c>
-      <c r="L26" s="115">
+      <c r="L26" s="139">
         <f>AVERAGE(B26:J28)</f>
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="187"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="1">
         <v>3</v>
       </c>
@@ -24655,7 +24320,7 @@
       <c r="H27" s="1">
         <v>5</v>
       </c>
-      <c r="I27" s="199">
+      <c r="I27" s="126">
         <v>3</v>
       </c>
       <c r="J27" s="1">
@@ -24665,10 +24330,10 @@
         <f t="shared" ref="K27:K46" si="0">AVERAGE(B27:J27)</f>
         <v>4.2222222222222223</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="188"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -24690,7 +24355,7 @@
       <c r="H28" s="1">
         <v>4</v>
       </c>
-      <c r="I28" s="199">
+      <c r="I28" s="126">
         <v>6</v>
       </c>
       <c r="J28" s="1">
@@ -24700,10 +24365,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L28" s="115"/>
+      <c r="L28" s="139"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="189" t="s">
+      <c r="A29" s="206" t="s">
         <v>591</v>
       </c>
       <c r="B29" s="1">
@@ -24727,7 +24392,7 @@
       <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="199">
+      <c r="I29" s="126">
         <v>2</v>
       </c>
       <c r="J29" s="1">
@@ -24737,13 +24402,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="139">
         <f>AVERAGE(B29:J31)</f>
         <v>4.1481481481481479</v>
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="190"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -24765,7 +24430,7 @@
       <c r="H30" s="1">
         <v>6</v>
       </c>
-      <c r="I30" s="199">
+      <c r="I30" s="126">
         <v>7</v>
       </c>
       <c r="J30" s="1">
@@ -24775,10 +24440,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="191"/>
+      <c r="A31" s="208"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -24800,7 +24465,7 @@
       <c r="H31" s="1">
         <v>4</v>
       </c>
-      <c r="I31" s="199">
+      <c r="I31" s="126">
         <v>6</v>
       </c>
       <c r="J31" s="1">
@@ -24810,10 +24475,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L31" s="115"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="189" t="s">
+      <c r="A32" s="206" t="s">
         <v>595</v>
       </c>
       <c r="B32" s="1">
@@ -24837,7 +24502,7 @@
       <c r="H32" s="1">
         <v>5</v>
       </c>
-      <c r="I32" s="199">
+      <c r="I32" s="126">
         <v>4</v>
       </c>
       <c r="J32" s="1">
@@ -24847,13 +24512,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L32" s="115">
+      <c r="L32" s="139">
         <f>AVERAGE(B32:J34)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="190"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -24875,7 +24540,7 @@
       <c r="H33" s="1">
         <v>6</v>
       </c>
-      <c r="I33" s="199">
+      <c r="I33" s="126">
         <v>6</v>
       </c>
       <c r="J33" s="1">
@@ -24885,10 +24550,10 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="139"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="191"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -24910,7 +24575,7 @@
       <c r="H34" s="1">
         <v>5</v>
       </c>
-      <c r="I34" s="199">
+      <c r="I34" s="126">
         <v>7</v>
       </c>
       <c r="J34" s="1">
@@ -24920,10 +24585,10 @@
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="L34" s="115"/>
+      <c r="L34" s="139"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="189" t="s">
+      <c r="A35" s="206" t="s">
         <v>583</v>
       </c>
       <c r="B35" s="1">
@@ -24947,7 +24612,7 @@
       <c r="H35" s="1">
         <v>3</v>
       </c>
-      <c r="I35" s="199">
+      <c r="I35" s="126">
         <v>2</v>
       </c>
       <c r="J35" s="1">
@@ -24957,13 +24622,13 @@
         <f t="shared" si="0"/>
         <v>3.5555555555555554</v>
       </c>
-      <c r="L35" s="115">
+      <c r="L35" s="139">
         <f>AVERAGE(B35:J37)</f>
         <v>3.3703703703703702</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="190"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -24985,7 +24650,7 @@
       <c r="H36" s="1">
         <v>3</v>
       </c>
-      <c r="I36" s="199">
+      <c r="I36" s="126">
         <v>3</v>
       </c>
       <c r="J36" s="1">
@@ -24995,10 +24660,10 @@
         <f t="shared" si="0"/>
         <v>3.4444444444444446</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="139"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="191"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -25020,7 +24685,7 @@
       <c r="H37" s="1">
         <v>3</v>
       </c>
-      <c r="I37" s="199">
+      <c r="I37" s="126">
         <v>2</v>
       </c>
       <c r="J37" s="1">
@@ -25030,10 +24695,10 @@
         <f t="shared" si="0"/>
         <v>3.1111111111111112</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="139"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="189" t="s">
+      <c r="A38" s="206" t="s">
         <v>584</v>
       </c>
       <c r="B38" s="1">
@@ -25057,7 +24722,7 @@
       <c r="H38" s="1">
         <v>3</v>
       </c>
-      <c r="I38" s="199">
+      <c r="I38" s="126">
         <v>7</v>
       </c>
       <c r="J38" s="1">
@@ -25067,13 +24732,13 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="L38" s="115">
+      <c r="L38" s="139">
         <f>AVERAGE(B38:J40)</f>
         <v>4.0370370370370372</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="190"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -25095,7 +24760,7 @@
       <c r="H39" s="1">
         <v>3</v>
       </c>
-      <c r="I39" s="199">
+      <c r="I39" s="126">
         <v>3</v>
       </c>
       <c r="J39" s="1">
@@ -25105,10 +24770,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L39" s="115"/>
+      <c r="L39" s="139"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="191"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -25130,7 +24795,7 @@
       <c r="H40" s="1">
         <v>4</v>
       </c>
-      <c r="I40" s="199">
+      <c r="I40" s="126">
         <v>3</v>
       </c>
       <c r="J40" s="1">
@@ -25140,10 +24805,10 @@
         <f t="shared" si="0"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="L40" s="115"/>
+      <c r="L40" s="139"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="189" t="s">
+      <c r="A41" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B41" s="1">
@@ -25167,7 +24832,7 @@
       <c r="H41" s="1">
         <v>4</v>
       </c>
-      <c r="I41" s="199">
+      <c r="I41" s="126">
         <v>7</v>
       </c>
       <c r="J41" s="1">
@@ -25177,13 +24842,13 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L41" s="115">
+      <c r="L41" s="139">
         <f>AVERAGE(B41:J43)</f>
         <v>5.2222222222222223</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="190"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="1">
         <v>3</v>
       </c>
@@ -25205,7 +24870,7 @@
       <c r="H42" s="1">
         <v>4</v>
       </c>
-      <c r="I42" s="199">
+      <c r="I42" s="126">
         <v>7</v>
       </c>
       <c r="J42" s="1">
@@ -25215,10 +24880,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L42" s="115"/>
+      <c r="L42" s="139"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="191"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="1">
         <v>4</v>
       </c>
@@ -25240,7 +24905,7 @@
       <c r="H43" s="1">
         <v>4</v>
       </c>
-      <c r="I43" s="199">
+      <c r="I43" s="126">
         <v>6</v>
       </c>
       <c r="J43" s="1">
@@ -25250,10 +24915,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L43" s="115"/>
+      <c r="L43" s="139"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="139" t="s">
+      <c r="A44" s="159" t="s">
         <v>609</v>
       </c>
       <c r="B44" s="1">
@@ -25277,7 +24942,7 @@
       <c r="H44" s="1">
         <v>5</v>
       </c>
-      <c r="I44" s="199">
+      <c r="I44" s="126">
         <v>6</v>
       </c>
       <c r="J44" s="1">
@@ -25287,13 +24952,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L44" s="115">
+      <c r="L44" s="139">
         <f>AVERAGE(B44:J46)</f>
         <v>4.9629629629629628</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="139"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -25315,7 +24980,7 @@
       <c r="H45" s="1">
         <v>5</v>
       </c>
-      <c r="I45" s="199">
+      <c r="I45" s="126">
         <v>7</v>
       </c>
       <c r="J45" s="1">
@@ -25325,10 +24990,10 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L45" s="115"/>
+      <c r="L45" s="139"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="139"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="1">
         <v>2</v>
       </c>
@@ -25350,7 +25015,7 @@
       <c r="H46" s="1">
         <v>6</v>
       </c>
-      <c r="I46" s="199">
+      <c r="I46" s="126">
         <v>6</v>
       </c>
       <c r="J46" s="1">
@@ -25360,7 +25025,7 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L46" s="115"/>
+      <c r="L46" s="139"/>
     </row>
     <row r="48" spans="1:12">
       <c r="C48" t="s">
@@ -25368,7 +25033,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="215" t="s">
+      <c r="A49" s="135" t="s">
         <v>587</v>
       </c>
       <c r="B49" s="1">
@@ -25380,7 +25045,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="216" t="s">
+      <c r="A50" s="136" t="s">
         <v>591</v>
       </c>
       <c r="B50" s="1">
@@ -25392,7 +25057,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="216" t="s">
+      <c r="A51" s="136" t="s">
         <v>595</v>
       </c>
       <c r="B51" s="1">
@@ -25404,7 +25069,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="216" t="s">
+      <c r="A52" s="136" t="s">
         <v>583</v>
       </c>
       <c r="B52" s="1">
@@ -25416,7 +25081,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="216" t="s">
+      <c r="A53" s="136" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="1">
@@ -25428,7 +25093,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="216" t="s">
+      <c r="A54" s="136" t="s">
         <v>605</v>
       </c>
       <c r="B54" s="1">
@@ -25440,7 +25105,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="216" t="s">
+      <c r="A55" s="136" t="s">
         <v>609</v>
       </c>
       <c r="B55" s="1">
@@ -25452,13 +25117,13 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="213"/>
+      <c r="A56" s="133"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="214"/>
+      <c r="A57" s="134"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="213" t="s">
+      <c r="A59" s="133" t="s">
         <v>583</v>
       </c>
       <c r="B59">
@@ -25469,7 +25134,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="214" t="s">
+      <c r="A60" s="134" t="s">
         <v>584</v>
       </c>
       <c r="B60">
@@ -25491,7 +25156,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="213" t="s">
+      <c r="A62" s="133" t="s">
         <v>609</v>
       </c>
       <c r="B62">
@@ -25502,7 +25167,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="214"/>
+      <c r="A63" s="134"/>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" t="s">
@@ -25513,18 +25178,18 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="213"/>
-      <c r="B65" s="181">
+      <c r="A65" s="133"/>
+      <c r="B65" s="122">
         <f>TTEST(B35:J37, B38:J40, 2,1)</f>
         <v>5.8994565862413341E-2</v>
       </c>
-      <c r="C65" s="217">
+      <c r="C65" s="137">
         <f>TTEST(B38:J40, B41:J43, 2, 1)</f>
         <v>6.8033724838640177E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="214"/>
+      <c r="A66" s="134"/>
       <c r="B66" t="s">
         <v>646</v>
       </c>
@@ -25533,46 +25198,69 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="B67" s="217">
+      <c r="B67" s="137">
         <f>TTEST(B35:J37, B41:J43, 2, 1)</f>
         <v>2.3730118501784403E-5</v>
       </c>
-      <c r="C67" s="217">
+      <c r="C67" s="137">
         <f>TTEST(B38:J40, B44:J46, 2, 1)</f>
         <v>3.6547036375878299E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="213"/>
+      <c r="A68" s="133"/>
       <c r="B68" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="214"/>
-      <c r="B69" s="217">
+      <c r="A69" s="134"/>
+      <c r="B69" s="137">
         <f>TTEST(B35:J37, B44:J46, 2, 1)</f>
         <v>6.7231112918320545E-6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="V18:V20"/>
     <mergeCell ref="V21:V23"/>
@@ -25589,51 +25277,28 @@
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="S6:S8"/>
     <mergeCell ref="S9:S11"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="P21:P23"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="G21:G23"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L41:L43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25673,16 +25338,16 @@
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
@@ -26012,13 +25677,13 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="158">
         <v>87.000000000000043</v>
       </c>
       <c r="D7" s="4">
@@ -26068,9 +25733,9 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="4">
         <v>-57.04</v>
       </c>
@@ -26145,10 +25810,10 @@
       <c r="M9" s="1">
         <v>44.79</v>
       </c>
-      <c r="Q9" s="133" t="s">
+      <c r="Q9" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="127">
+      <c r="R9" s="166">
         <v>90.999999999999943</v>
       </c>
       <c r="S9" s="24">
@@ -26201,8 +25866,8 @@
       <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="127"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="166"/>
       <c r="S10" s="24">
         <v>69.510000000000005</v>
       </c>
@@ -26266,7 +25931,7 @@
       <c r="Q11" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="130">
+      <c r="R11" s="168">
         <v>96</v>
       </c>
       <c r="S11" s="24">
@@ -26313,7 +25978,7 @@
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="131"/>
+      <c r="R12" s="169"/>
       <c r="S12" s="29">
         <v>55.14</v>
       </c>
@@ -26345,7 +26010,7 @@
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R13" s="132"/>
+      <c r="R13" s="170"/>
       <c r="S13" s="29">
         <v>20.49</v>
       </c>
@@ -26370,18 +26035,18 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="Q14" s="128" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="Q14" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="127">
+      <c r="R14" s="166">
         <v>42.999999999999929</v>
       </c>
       <c r="S14" s="24">
@@ -26408,10 +26073,10 @@
       <c r="AI14" s="24">
         <v>-2.54</v>
       </c>
-      <c r="AK14" s="115" t="s">
+      <c r="AK14" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="AL14" s="115"/>
+      <c r="AL14" s="139"/>
       <c r="AO14" t="s">
         <v>577</v>
       </c>
@@ -26441,8 +26106,8 @@
       <c r="H15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="127"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="166"/>
       <c r="S15" s="24">
         <v>26.62</v>
       </c>
@@ -26656,14 +26321,14 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="5"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
@@ -26764,7 +26429,7 @@
       <c r="AL20" s="29">
         <v>20.49</v>
       </c>
-      <c r="AN20" s="181">
+      <c r="AN20" s="122">
         <f>TTEST(AK16:AK35, AL16:AL37, 2, 2)</f>
         <v>8.5134430291591165E-2</v>
       </c>
@@ -26886,10 +26551,10 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="140">
+      <c r="C23" s="157">
         <v>90.999999999999943</v>
       </c>
       <c r="D23" s="19">
@@ -26943,8 +26608,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="157"/>
       <c r="D24" s="19">
         <v>69.510000000000005</v>
       </c>
@@ -26996,10 +26661,10 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="157">
         <v>95.999999999999872</v>
       </c>
       <c r="D25" s="19">
@@ -27051,8 +26716,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="4">
         <v>-28.73</v>
       </c>
@@ -27104,8 +26769,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="4">
         <v>-33.17</v>
       </c>
@@ -27119,10 +26784,10 @@
       <c r="H27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="126" t="s">
+      <c r="Q27" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="129">
+      <c r="R27" s="167">
         <v>189</v>
       </c>
       <c r="S27" s="23">
@@ -27157,8 +26822,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="19">
         <v>55.14</v>
       </c>
@@ -27178,8 +26843,8 @@
       <c r="L28" s="3">
         <v>-45.85</v>
       </c>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="129"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="167"/>
       <c r="S28" s="48">
         <v>62.11</v>
       </c>
@@ -27212,8 +26877,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="19">
         <v>20.49</v>
       </c>
@@ -27271,10 +26936,10 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="140">
+      <c r="C30" s="157">
         <v>76</v>
       </c>
       <c r="D30" s="4">
@@ -27334,8 +26999,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="B31" s="128"/>
-      <c r="C31" s="140"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="4">
         <v>-82.39</v>
       </c>
@@ -27359,10 +27024,10 @@
       <c r="M31" s="3">
         <v>69.72</v>
       </c>
-      <c r="Q31" s="125" t="s">
+      <c r="Q31" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="R31" s="135">
+      <c r="R31" s="172">
         <v>50</v>
       </c>
       <c r="S31" s="23">
@@ -27391,10 +27056,10 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="140">
+      <c r="C32" s="157">
         <v>42.999999999999929</v>
       </c>
       <c r="D32" s="19">
@@ -27422,8 +27087,8 @@
       <c r="M32" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="172"/>
       <c r="S32" s="48">
         <v>91.27</v>
       </c>
@@ -27450,8 +27115,8 @@
       </c>
     </row>
     <row r="33" spans="2:38">
-      <c r="B33" s="128"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="19">
         <v>26.62</v>
       </c>
@@ -27587,14 +27252,14 @@
       </c>
     </row>
     <row r="36" spans="2:38">
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
       <c r="K36" s="10"/>
       <c r="M36" s="3">
         <v>55.14</v>
@@ -27656,7 +27321,7 @@
       <c r="Q37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R37" s="135">
+      <c r="R37" s="172">
         <v>90.000000000000057</v>
       </c>
       <c r="S37" s="23">
@@ -27710,7 +27375,7 @@
         <v>-31.48</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="135"/>
+      <c r="R38" s="172"/>
       <c r="S38" s="48">
         <v>81.13</v>
       </c>
@@ -27803,7 +27468,7 @@
       <c r="H40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="128">
+      <c r="K40" s="154">
         <v>42.999999999999929</v>
       </c>
       <c r="L40" s="3">
@@ -27856,7 +27521,7 @@
       <c r="H41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="128"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="3">
         <v>26.62</v>
       </c>
@@ -27912,14 +27577,14 @@
       </c>
     </row>
     <row r="43" spans="2:38">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
       <c r="Q43" s="17" t="s">
         <v>218</v>
       </c>
@@ -28072,10 +27737,10 @@
       </c>
     </row>
     <row r="48" spans="2:38">
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="115">
+      <c r="C48" s="139">
         <v>222</v>
       </c>
       <c r="D48" s="20">
@@ -28093,7 +27758,7 @@
       <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="115" t="s">
+      <c r="I48" s="139" t="s">
         <v>210</v>
       </c>
       <c r="AB48" s="48">
@@ -28101,8 +27766,8 @@
       </c>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="142"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="31">
         <v>-17.11</v>
       </c>
@@ -28116,14 +27781,14 @@
       <c r="H49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="115"/>
+      <c r="I49" s="139"/>
       <c r="AB49" s="48">
         <v>24.72</v>
       </c>
     </row>
     <row r="50" spans="2:40">
-      <c r="B50" s="142"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="31">
         <v>-30.85</v>
       </c>
@@ -28139,7 +27804,7 @@
       <c r="H50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="115"/>
+      <c r="I50" s="139"/>
       <c r="Q50" s="4" t="s">
         <v>286</v>
       </c>
@@ -28159,8 +27824,8 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:40">
-      <c r="B51" s="142"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="139"/>
       <c r="D51" s="20">
         <v>10.35</v>
       </c>
@@ -28174,7 +27839,7 @@
       <c r="H51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="115"/>
+      <c r="I51" s="139"/>
       <c r="Q51" s="3" t="s">
         <v>18</v>
       </c>
@@ -28228,8 +27893,8 @@
       </c>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="116"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="31">
         <v>-18.38</v>
       </c>
@@ -28245,11 +27910,11 @@
       <c r="H52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="115"/>
-      <c r="Q52" s="125" t="s">
+      <c r="I52" s="139"/>
+      <c r="Q52" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="138">
+      <c r="R52" s="165">
         <v>87.000000000000043</v>
       </c>
       <c r="S52" s="22">
@@ -28332,9 +27997,9 @@
       <c r="H53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="115"/>
-      <c r="Q53" s="134"/>
-      <c r="R53" s="138"/>
+      <c r="I53" s="139"/>
+      <c r="Q53" s="164"/>
+      <c r="R53" s="165"/>
       <c r="S53" s="24">
         <v>-57.04</v>
       </c>
@@ -28416,7 +28081,7 @@
       <c r="H54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="115"/>
+      <c r="I54" s="139"/>
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
@@ -28483,7 +28148,7 @@
       <c r="H55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="115"/>
+      <c r="I55" s="139"/>
       <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
@@ -28513,10 +28178,10 @@
       </c>
     </row>
     <row r="56" spans="2:40">
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="145">
+      <c r="C56" s="153">
         <v>189</v>
       </c>
       <c r="D56" s="31">
@@ -28565,8 +28230,8 @@
       </c>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="144"/>
-      <c r="C57" s="145"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="153"/>
       <c r="D57" s="20">
         <v>43.1</v>
       </c>
@@ -28621,8 +28286,8 @@
       </c>
     </row>
     <row r="58" spans="2:40">
-      <c r="B58" s="144"/>
-      <c r="C58" s="145"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="153"/>
       <c r="D58" s="20">
         <v>62.11</v>
       </c>
@@ -28665,10 +28330,10 @@
       </c>
     </row>
     <row r="59" spans="2:40">
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="115">
+      <c r="C59" s="139">
         <v>69</v>
       </c>
       <c r="D59" s="20">
@@ -28689,7 +28354,7 @@
       <c r="Q59" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R59" s="136">
+      <c r="R59" s="173">
         <v>96</v>
       </c>
       <c r="S59" s="26">
@@ -28719,8 +28384,8 @@
       </c>
     </row>
     <row r="60" spans="2:40">
-      <c r="B60" s="126"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="139"/>
       <c r="D60" s="31">
         <v>8.66</v>
       </c>
@@ -28737,7 +28402,7 @@
         <v>155</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="137"/>
+      <c r="R60" s="174"/>
       <c r="S60" s="24">
         <v>-33.17</v>
       </c>
@@ -28771,10 +28436,10 @@
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="Q61" s="128" t="s">
+      <c r="Q61" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="R61" s="128">
+      <c r="R61" s="154">
         <v>76</v>
       </c>
       <c r="S61" s="24">
@@ -28814,8 +28479,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="128"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
       <c r="S62" s="49">
         <v>-82.39</v>
       </c>
@@ -28903,10 +28568,10 @@
       </c>
     </row>
     <row r="64" spans="2:40">
-      <c r="Q64" s="125" t="s">
+      <c r="Q64" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="R64" s="124">
+      <c r="R64" s="156">
         <v>222</v>
       </c>
       <c r="S64" s="23">
@@ -28939,8 +28604,8 @@
       <c r="B65" t="s">
         <v>194</v>
       </c>
-      <c r="Q65" s="126"/>
-      <c r="R65" s="124"/>
+      <c r="Q65" s="162"/>
+      <c r="R65" s="156"/>
       <c r="S65" s="23">
         <v>-30.85</v>
       </c>
@@ -28968,10 +28633,10 @@
       </c>
     </row>
     <row r="66" spans="2:36">
-      <c r="B66" s="141" t="s">
+      <c r="B66" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="115">
+      <c r="C66" s="139">
         <v>50</v>
       </c>
       <c r="D66" s="20">
@@ -28989,8 +28654,8 @@
       <c r="H66" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="126"/>
-      <c r="R66" s="124"/>
+      <c r="Q66" s="162"/>
+      <c r="R66" s="156"/>
       <c r="S66" s="23">
         <v>-18.38</v>
       </c>
@@ -29018,8 +28683,8 @@
       </c>
     </row>
     <row r="67" spans="2:36">
-      <c r="B67" s="116"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="20">
         <v>91.27</v>
       </c>
@@ -29097,10 +28762,10 @@
       </c>
     </row>
     <row r="69" spans="2:36">
-      <c r="B69" s="141" t="s">
+      <c r="B69" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="115">
+      <c r="C69" s="139">
         <v>106</v>
       </c>
       <c r="D69" s="20">
@@ -29151,8 +28816,8 @@
       </c>
     </row>
     <row r="70" spans="2:36">
-      <c r="B70" s="116"/>
-      <c r="C70" s="115"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="31">
         <v>-21.76</v>
       </c>
@@ -29266,10 +28931,10 @@
       <c r="H72" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q72" s="125" t="s">
+      <c r="Q72" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="135">
+      <c r="R72" s="172">
         <v>51.999999999999986</v>
       </c>
       <c r="S72" s="23">
@@ -29287,7 +28952,7 @@
       <c r="W72" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Y72" s="115" t="s">
+      <c r="Y72" s="139" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="23">
@@ -29295,10 +28960,10 @@
       </c>
     </row>
     <row r="73" spans="2:36">
-      <c r="B73" s="121" t="s">
+      <c r="B73" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="145">
+      <c r="C73" s="153">
         <v>107</v>
       </c>
       <c r="D73" s="20">
@@ -29316,8 +28981,8 @@
       <c r="H73" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="135"/>
+      <c r="Q73" s="156"/>
+      <c r="R73" s="172"/>
       <c r="S73" s="23">
         <v>-28.1</v>
       </c>
@@ -29333,14 +28998,14 @@
       <c r="W73" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Y73" s="115"/>
+      <c r="Y73" s="139"/>
       <c r="AC73" s="23">
         <v>8.66</v>
       </c>
     </row>
     <row r="74" spans="2:36">
-      <c r="B74" s="122"/>
-      <c r="C74" s="145"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="153"/>
       <c r="D74" s="31">
         <v>-19.010000000000002</v>
       </c>
@@ -29490,7 +29155,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="115">
+      <c r="C78" s="139">
         <v>90.000000000000057</v>
       </c>
       <c r="D78" s="20">
@@ -29532,7 +29197,7 @@
       </c>
     </row>
     <row r="79" spans="2:36">
-      <c r="C79" s="115"/>
+      <c r="C79" s="139"/>
       <c r="D79" s="20">
         <v>81.13</v>
       </c>
@@ -29579,10 +29244,10 @@
       </c>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="115">
+      <c r="C81" s="139">
         <v>51.999999999999986</v>
       </c>
       <c r="D81" s="31">
@@ -29600,7 +29265,7 @@
       <c r="H81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="115" t="s">
+      <c r="J81" s="139" t="s">
         <v>210</v>
       </c>
       <c r="R81" s="4" t="s">
@@ -29617,8 +29282,8 @@
       </c>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
       <c r="D82" s="31">
         <v>-28.1</v>
       </c>
@@ -29634,7 +29299,7 @@
       <c r="H82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="115"/>
+      <c r="J82" s="139"/>
       <c r="R82">
         <f>FTEST(R4:R45, R51:R77)</f>
         <v>0.81669524197107601</v>
@@ -29693,11 +29358,11 @@
         <f t="shared" ref="U83" si="10">TTEST(U4:U45, U51:U77, 2, 2)</f>
         <v>0.67575151385258603</v>
       </c>
-      <c r="AB83" s="115" t="s">
+      <c r="AB83" s="139" t="s">
         <v>432</v>
       </c>
-      <c r="AC83" s="115"/>
-      <c r="AD83" s="115"/>
+      <c r="AC83" s="139"/>
+      <c r="AD83" s="139"/>
     </row>
     <row r="84" spans="2:30">
       <c r="B84" s="1" t="s">
@@ -29888,7 +29553,7 @@
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="115">
+      <c r="C91" s="139">
         <v>46.000000000000021</v>
       </c>
       <c r="D91" s="31">
@@ -29915,7 +29580,7 @@
       </c>
     </row>
     <row r="92" spans="2:30">
-      <c r="C92" s="115"/>
+      <c r="C92" s="139"/>
       <c r="D92" s="20">
         <v>43.52</v>
       </c>
@@ -29939,7 +29604,7 @@
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="115">
+      <c r="C93" s="139">
         <v>48</v>
       </c>
       <c r="D93" s="20">
@@ -29962,7 +29627,7 @@
       </c>
     </row>
     <row r="94" spans="2:30">
-      <c r="C94" s="115"/>
+      <c r="C94" s="139"/>
       <c r="D94" s="31">
         <v>-29.58</v>
       </c>
@@ -30028,27 +29693,24 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="I48:I55"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="Y72:Y73"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="Q64:Q66"/>
     <mergeCell ref="AB83:AD83"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="B23:B24"/>
@@ -30065,27 +29727,30 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="I48:I55"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="Y72:Y73"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="R59:R60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30114,15 +29779,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
       <c r="P2" s="19" t="s">
         <v>250</v>
       </c>
@@ -30175,7 +29840,7 @@
       <c r="P3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="128">
+      <c r="Q3" s="154">
         <v>84</v>
       </c>
       <c r="R3" s="24">
@@ -30198,11 +29863,11 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="153">
+      <c r="B4" s="178"/>
+      <c r="C4" s="180">
         <v>84</v>
       </c>
       <c r="D4" s="19">
@@ -30231,7 +29896,7 @@
         <v>24.299999999999997</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="128"/>
+      <c r="Q4" s="154"/>
       <c r="R4" s="26">
         <v>24.45</v>
       </c>
@@ -30270,9 +29935,9 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="19">
         <v>24.45</v>
       </c>
@@ -30297,10 +29962,10 @@
       <c r="M5" s="1">
         <v>-38.869999999999997</v>
       </c>
-      <c r="P5" s="128" t="s">
+      <c r="P5" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="128">
+      <c r="Q5" s="154">
         <v>63</v>
       </c>
       <c r="R5" s="40">
@@ -30341,7 +30006,7 @@
         <f>AVERAGE(T3,T8:T11,T13:T17,T19:T20)</f>
         <v>10.009166666666667</v>
       </c>
-      <c r="AH5" s="115" t="s">
+      <c r="AH5" s="139" t="s">
         <v>311</v>
       </c>
       <c r="AI5" t="s">
@@ -30384,8 +30049,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
       <c r="R6" s="40">
         <v>57.46</v>
       </c>
@@ -30424,7 +30089,7 @@
         <f>AVERAGE(T7,T18)</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="AH6" s="115"/>
+      <c r="AH6" s="139"/>
       <c r="AI6" t="s">
         <v>313</v>
       </c>
@@ -30516,14 +30181,14 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
       <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
@@ -30629,12 +30294,12 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
       <c r="P12" s="3" t="s">
         <v>11</v>
       </c>
@@ -30662,10 +30327,10 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="177">
         <v>188</v>
       </c>
       <c r="D13" s="4">
@@ -30710,8 +30375,8 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="148"/>
-      <c r="C14" s="150">
+      <c r="B14" s="175"/>
+      <c r="C14" s="177">
         <f>(B14/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30755,8 +30420,8 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="148"/>
-      <c r="C15" s="150">
+      <c r="B15" s="175"/>
+      <c r="C15" s="177">
         <f>(B15/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30802,10 +30467,10 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="149">
+      <c r="C16" s="176">
         <v>63</v>
       </c>
       <c r="D16" s="28">
@@ -30857,8 +30522,8 @@
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="28">
         <v>57.46</v>
       </c>
@@ -30951,15 +30616,15 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:39">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
@@ -31045,14 +30710,14 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
       <c r="P24" s="4" t="s">
         <v>257</v>
       </c>
@@ -31082,10 +30747,10 @@
       <c r="AG24" t="s">
         <v>267</v>
       </c>
-      <c r="AJ24" s="115" t="s">
+      <c r="AJ24" s="139" t="s">
         <v>314</v>
       </c>
-      <c r="AK24" s="115"/>
+      <c r="AK24" s="139"/>
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="1" t="s">
@@ -31261,10 +30926,10 @@
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="133" t="s">
+      <c r="P27" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="147">
+      <c r="Q27" s="182">
         <v>188</v>
       </c>
       <c r="R27" s="29">
@@ -31312,8 +30977,8 @@
       </c>
     </row>
     <row r="28" spans="2:39">
-      <c r="P28" s="133"/>
-      <c r="Q28" s="147">
+      <c r="P28" s="171"/>
+      <c r="Q28" s="182">
         <f>(P28/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31341,8 +31006,8 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="147">
+      <c r="P29" s="171"/>
+      <c r="Q29" s="182">
         <f>(P29/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31416,10 +31081,10 @@
       </c>
     </row>
     <row r="31" spans="2:39">
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="146">
+      <c r="C31" s="181">
         <v>105</v>
       </c>
       <c r="D31" s="31">
@@ -31437,10 +31102,10 @@
       <c r="H31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="128" t="s">
+      <c r="P31" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="128">
+      <c r="Q31" s="154">
         <v>105</v>
       </c>
       <c r="R31" s="24">
@@ -31460,8 +31125,8 @@
       </c>
     </row>
     <row r="32" spans="2:39">
-      <c r="B32" s="115"/>
-      <c r="C32" s="146"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="31">
         <v>10.77</v>
       </c>
@@ -31477,8 +31142,8 @@
       <c r="H32" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
       <c r="R32" s="26">
         <v>10.77</v>
       </c>
@@ -31977,15 +31642,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="B31:B32"/>
@@ -31999,6 +31655,15 @@
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32024,15 +31689,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -32127,10 +31792,10 @@
       <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="141" t="s">
+      <c r="L7" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="139">
         <v>184</v>
       </c>
       <c r="N7">
@@ -32171,8 +31836,8 @@
       <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="115"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="139"/>
       <c r="N8">
         <v>-39.72</v>
       </c>
@@ -32190,8 +31855,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="142"/>
-      <c r="M9" s="115"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="139"/>
       <c r="N9">
         <v>-100</v>
       </c>
@@ -32209,8 +31874,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="142"/>
-      <c r="M10" s="115"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="139"/>
       <c r="N10">
         <v>-80.069999999999993</v>
       </c>
@@ -32231,8 +31896,8 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="116"/>
-      <c r="M11" s="115"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="139"/>
       <c r="N11">
         <v>-43.1</v>
       </c>
@@ -32563,15 +32228,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="M2" s="5" t="s">
         <v>387</v>
       </c>
@@ -32641,7 +32306,7 @@
       <c r="S3" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="T3" s="180">
+      <c r="T3" s="121">
         <f>AVERAGE(M11:M16)</f>
         <v>-63.97999999999999</v>
       </c>
@@ -32748,7 +32413,7 @@
       <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="160">
+      <c r="B6" s="187">
         <v>90</v>
       </c>
       <c r="C6" s="26">
@@ -32802,7 +32467,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="59"/>
-      <c r="B7" s="161"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -32895,13 +32560,13 @@
       <c r="G9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="126" t="s">
+      <c r="M9" s="162" t="s">
         <v>422</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
       <c r="R9" t="s">
         <v>394</v>
       </c>
@@ -32917,7 +32582,7 @@
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="144">
         <v>86</v>
       </c>
       <c r="C10" s="24">
@@ -32959,7 +32624,7 @@
     </row>
     <row r="11" spans="1:25" ht="19" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="111"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="24">
         <v>-13.52</v>
       </c>
@@ -33001,7 +32666,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="15"/>
-      <c r="B12" s="111"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="24">
         <v>-37.61</v>
       </c>
@@ -33053,7 +32718,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="16"/>
-      <c r="B13" s="112"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="26">
         <v>-51.13</v>
       </c>
@@ -33539,7 +33204,7 @@
       <c r="A23" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="154">
+      <c r="B23" s="189">
         <v>90</v>
       </c>
       <c r="C23" s="78">
@@ -33582,7 +33247,7 @@
     </row>
     <row r="24" spans="1:25" ht="19" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="155"/>
+      <c r="B24" s="190"/>
       <c r="C24" s="78">
         <v>-19.440000000000001</v>
       </c>
@@ -34018,11 +33683,11 @@
       <c r="G37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="124" t="s">
+      <c r="M37" s="156" t="s">
         <v>423</v>
       </c>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="37" t="s">
@@ -34069,10 +33734,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="128">
+      <c r="B39" s="154">
         <v>188</v>
       </c>
       <c r="C39" s="4">
@@ -34111,8 +33776,8 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="19" thickBot="1">
-      <c r="A40" s="133"/>
-      <c r="B40" s="128">
+      <c r="A40" s="171"/>
+      <c r="B40" s="154">
         <f>(A40/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -34152,8 +33817,8 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="133"/>
-      <c r="B41" s="128">
+      <c r="A41" s="171"/>
+      <c r="B41" s="154">
         <f>(A41/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -34253,10 +33918,10 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="128">
+      <c r="B43" s="154">
         <v>105</v>
       </c>
       <c r="C43" s="24">
@@ -34303,8 +33968,8 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="128"/>
-      <c r="B44" s="128"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="19">
         <v>10.77</v>
       </c>
@@ -34474,10 +34139,10 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="156" t="s">
+      <c r="A49" s="183" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="159">
+      <c r="B49" s="186">
         <v>184</v>
       </c>
       <c r="C49" s="34">
@@ -34526,8 +34191,8 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="157"/>
-      <c r="B50" s="159"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="36">
         <v>-39.72</v>
       </c>
@@ -34572,8 +34237,8 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="157"/>
-      <c r="B51" s="159"/>
+      <c r="A51" s="184"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="80">
         <v>-100</v>
       </c>
@@ -34612,8 +34277,8 @@
       <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="157"/>
-      <c r="B52" s="159"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="80">
         <v>-80.069999999999993</v>
       </c>
@@ -34644,8 +34309,8 @@
       <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" ht="19" thickBot="1">
-      <c r="A53" s="158"/>
-      <c r="B53" s="159"/>
+      <c r="A53" s="185"/>
+      <c r="B53" s="186"/>
       <c r="C53" s="36">
         <v>-43.1</v>
       </c>
@@ -34815,18 +34480,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35020,11 +34685,11 @@
       <c r="G8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="124" t="s">
+      <c r="M8" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
@@ -35253,10 +34918,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="128">
+      <c r="B13" s="154">
         <v>90.999999999999943</v>
       </c>
       <c r="C13" s="22">
@@ -35300,8 +34965,8 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="133"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="22">
         <v>69.510000000000005</v>
       </c>
@@ -35346,7 +35011,7 @@
       <c r="A15" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="163">
+      <c r="B15" s="192">
         <v>96</v>
       </c>
       <c r="C15" s="22">
@@ -35388,7 +35053,7 @@
       <c r="A16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="138"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="4">
         <v>55.14</v>
       </c>
@@ -35418,7 +35083,7 @@
       <c r="A17" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="164"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="4">
         <v>20.49</v>
       </c>
@@ -35445,10 +35110,10 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="19" thickBot="1">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="165">
+      <c r="B18" s="194">
         <v>42.999999999999929</v>
       </c>
       <c r="C18" s="22">
@@ -35481,8 +35146,8 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="128"/>
-      <c r="B19" s="165"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="22">
         <v>26.62</v>
       </c>
@@ -35885,10 +35550,10 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="166">
+      <c r="B31" s="195">
         <v>189</v>
       </c>
       <c r="C31" s="21">
@@ -35917,8 +35582,8 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="126"/>
-      <c r="B32" s="166"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="195"/>
       <c r="C32" s="21">
         <v>62.11</v>
       </c>
@@ -35997,10 +35662,10 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="162">
+      <c r="B35" s="191">
         <v>50</v>
       </c>
       <c r="C35" s="21">
@@ -36023,8 +35688,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="134"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="21">
         <v>91.27</v>
       </c>
@@ -36152,7 +35817,7 @@
       <c r="A41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="162">
+      <c r="B41" s="191">
         <v>90.000000000000057</v>
       </c>
       <c r="C41" s="21">
@@ -36175,7 +35840,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="B42" s="162"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="21">
         <v>81.13</v>
       </c>
@@ -36399,7 +36064,7 @@
       <c r="A53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="128">
+      <c r="B53" s="154">
         <v>84</v>
       </c>
       <c r="C53" s="22">
@@ -36426,7 +36091,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3"/>
-      <c r="B54" s="128"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="22">
         <v>24.45</v>
       </c>
@@ -36450,10 +36115,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="128">
+      <c r="B55" s="154">
         <v>63</v>
       </c>
       <c r="C55" s="100">
@@ -36477,8 +36142,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="128"/>
-      <c r="B56" s="128"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
       <c r="C56" s="100">
         <v>57.46</v>
       </c>
@@ -36780,11 +36445,11 @@
         <v>227</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="M67" s="124" t="s">
+      <c r="M67" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="124"/>
-      <c r="O67" s="124"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="156"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="3" t="s">
@@ -37352,7 +37017,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
@@ -37360,23 +37025,23 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="157" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="140"/>
+      <c r="L1" s="157"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="140" t="s">
+      <c r="O1" s="157" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="140"/>
+      <c r="P1" s="157"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="139" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
       <c r="G2" t="s">
         <v>442</v>
       </c>
@@ -38191,8 +37856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -38203,22 +37868,22 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140" t="s">
+      <c r="E2" s="157"/>
+      <c r="F2" s="157" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="157" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -38409,10 +38074,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="P7" s="115" t="s">
+      <c r="P7" s="139" t="s">
         <v>515</v>
       </c>
-      <c r="Q7" s="115"/>
+      <c r="Q7" s="139"/>
     </row>
     <row r="8" spans="1:19">
       <c r="P8">
@@ -38426,38 +38091,38 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="157"/>
+      <c r="D9" s="157" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140" t="s">
+      <c r="E9" s="157"/>
+      <c r="F9" s="157" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140" t="s">
+      <c r="G9" s="157"/>
+      <c r="H9" s="157" t="s">
         <v>497</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="140" t="s">
+      <c r="N9" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140" t="s">
+      <c r="O9" s="157"/>
+      <c r="P9" s="157" t="s">
         <v>510</v>
       </c>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140" t="s">
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157" t="s">
         <v>512</v>
       </c>
-      <c r="S9" s="140"/>
+      <c r="S9" s="157"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
@@ -38857,22 +38522,22 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="108"/>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="196" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167" t="s">
+      <c r="C18" s="196"/>
+      <c r="D18" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167" t="s">
+      <c r="E18" s="196"/>
+      <c r="F18" s="196" t="s">
         <v>496</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="167" t="s">
+      <c r="G18" s="197"/>
+      <c r="H18" s="196" t="s">
         <v>497</v>
       </c>
-      <c r="I18" s="167"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
@@ -39390,7 +39055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -39585,14 +39250,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="157" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140" t="s">
+      <c r="G9" s="157"/>
+      <c r="H9" s="157" t="s">
         <v>550</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="157"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
@@ -39613,10 +39278,10 @@
       <c r="E11" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F11" s="169">
+      <c r="F11" s="110">
         <v>8</v>
       </c>
-      <c r="G11" s="169" t="s">
+      <c r="G11" s="110" t="s">
         <v>533</v>
       </c>
       <c r="H11" s="35">
@@ -39630,8 +39295,8 @@
       <c r="E12" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="60">
         <v>9.43</v>
       </c>
@@ -39643,8 +39308,8 @@
       <c r="E13" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="60">
         <v>12.15</v>
       </c>
@@ -39656,8 +39321,8 @@
       <c r="E14" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="60">
         <v>19.48</v>
       </c>
@@ -39669,10 +39334,10 @@
       <c r="E15" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="111">
         <v>18</v>
       </c>
-      <c r="G15" s="170" t="s">
+      <c r="G15" s="111" t="s">
         <v>535</v>
       </c>
       <c r="H15" s="35">
@@ -39716,16 +39381,16 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="177">
+      <c r="A19" s="118">
         <v>4</v>
       </c>
-      <c r="B19" s="178">
+      <c r="B19" s="119">
         <v>-50</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="120" t="s">
         <v>560</v>
       </c>
       <c r="F19">
@@ -39799,15 +39464,15 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="E24" s="177"/>
-      <c r="F24" s="140" t="s">
+      <c r="E24" s="118"/>
+      <c r="F24" s="157" t="s">
         <v>551</v>
       </c>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140" t="s">
+      <c r="G24" s="157"/>
+      <c r="H24" s="157" t="s">
         <v>550</v>
       </c>
-      <c r="I24" s="140"/>
+      <c r="I24" s="157"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="0" windowWidth="13800" windowHeight="14240" tabRatio="500" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -5028,21 +5028,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5058,6 +5043,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5070,34 +5061,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5106,13 +5076,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5127,13 +5112,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5154,11 +5160,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5176,12 +5182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5205,6 +5205,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5217,16 +5229,13 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5236,15 +5245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6583,11 +6583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066147848"/>
-        <c:axId val="-2098468728"/>
+        <c:axId val="-2098261944"/>
+        <c:axId val="-2066153672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066147848"/>
+        <c:axId val="-2098261944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,7 +6596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098468728"/>
+        <c:crossAx val="-2066153672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6604,7 +6604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098468728"/>
+        <c:axId val="-2066153672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6614,7 +6614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066147848"/>
+        <c:crossAx val="-2098261944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7273,11 +7273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119637448"/>
-        <c:axId val="-2127181896"/>
+        <c:axId val="-2098950600"/>
+        <c:axId val="-2062050040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119637448"/>
+        <c:axId val="-2098950600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7300,18 +7300,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127181896"/>
+        <c:crossAx val="-2062050040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127181896"/>
+        <c:axId val="-2062050040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7335,25 +7336,32 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119637448"/>
+        <c:crossAx val="-2098950600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7736,11 +7744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101576280"/>
-        <c:axId val="-2146912280"/>
+        <c:axId val="-2098250744"/>
+        <c:axId val="-2063128472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101576280"/>
+        <c:axId val="-2098250744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7770,12 +7778,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146912280"/>
+        <c:crossAx val="-2063128472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146912280"/>
+        <c:axId val="-2063128472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7806,7 +7814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101576280"/>
+        <c:crossAx val="-2098250744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8135,11 +8143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110685528"/>
-        <c:axId val="2114363432"/>
+        <c:axId val="-2065739624"/>
+        <c:axId val="-2098253512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110685528"/>
+        <c:axId val="-2065739624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8169,12 +8177,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114363432"/>
+        <c:crossAx val="-2098253512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114363432"/>
+        <c:axId val="-2098253512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8205,7 +8213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110685528"/>
+        <c:crossAx val="-2065739624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8829,11 +8837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101728232"/>
-        <c:axId val="2127462632"/>
+        <c:axId val="2126556888"/>
+        <c:axId val="-2068201528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101728232"/>
+        <c:axId val="2126556888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8863,12 +8871,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127462632"/>
+        <c:crossAx val="-2068201528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127462632"/>
+        <c:axId val="-2068201528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8899,7 +8907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101728232"/>
+        <c:crossAx val="2126556888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9211,11 +9219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2068150344"/>
-        <c:axId val="-2071606296"/>
+        <c:axId val="-2101483960"/>
+        <c:axId val="2129880056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2068150344"/>
+        <c:axId val="-2101483960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9245,12 +9253,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071606296"/>
+        <c:crossAx val="2129880056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071606296"/>
+        <c:axId val="2129880056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9281,7 +9289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068150344"/>
+        <c:crossAx val="-2101483960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9617,11 +9625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2067621176"/>
-        <c:axId val="-2071936520"/>
+        <c:axId val="-2102149368"/>
+        <c:axId val="-2101492696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2067621176"/>
+        <c:axId val="-2102149368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9651,12 +9659,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071936520"/>
+        <c:crossAx val="-2101492696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071936520"/>
+        <c:axId val="-2101492696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9687,7 +9695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067621176"/>
+        <c:crossAx val="-2102149368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10023,11 +10031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2068201528"/>
-        <c:axId val="-2068553880"/>
+        <c:axId val="-2068563576"/>
+        <c:axId val="-2100394152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2068201528"/>
+        <c:axId val="-2068563576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10050,18 +10058,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068553880"/>
+        <c:crossAx val="-2100394152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2068553880"/>
+        <c:axId val="-2100394152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10085,19 +10094,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068201528"/>
+        <c:crossAx val="-2068563576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10666,11 +10677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2068223208"/>
-        <c:axId val="-2071109928"/>
+        <c:axId val="-2069791416"/>
+        <c:axId val="-2101030248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2068223208"/>
+        <c:axId val="-2069791416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10693,18 +10704,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071109928"/>
+        <c:crossAx val="-2101030248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071109928"/>
+        <c:axId val="-2101030248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10728,19 +10740,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068223208"/>
+        <c:crossAx val="-2069791416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11182,11 +11196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2070865032"/>
-        <c:axId val="-2070297304"/>
+        <c:axId val="-2102002952"/>
+        <c:axId val="-2071748712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2070865032"/>
+        <c:axId val="-2102002952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11209,18 +11223,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070297304"/>
+        <c:crossAx val="-2071748712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2070297304"/>
+        <c:axId val="-2071748712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11244,19 +11259,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070865032"/>
+        <c:crossAx val="-2102002952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11722,11 +11739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143096440"/>
-        <c:axId val="-2097544616"/>
+        <c:axId val="-2067338312"/>
+        <c:axId val="2125884552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143096440"/>
+        <c:axId val="-2067338312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11749,18 +11766,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097544616"/>
+        <c:crossAx val="2125884552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2097544616"/>
+        <c:axId val="2125884552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11784,19 +11802,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143096440"/>
+        <c:crossAx val="-2067338312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11935,11 +11955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142564584"/>
-        <c:axId val="-2097631256"/>
+        <c:axId val="-2068610200"/>
+        <c:axId val="-2101299736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142564584"/>
+        <c:axId val="-2068610200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11958,7 +11978,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097631256"/>
+        <c:crossAx val="-2101299736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11966,7 +11986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097631256"/>
+        <c:axId val="-2101299736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -12006,7 +12026,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142564584"/>
+        <c:crossAx val="-2068610200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12162,11 +12182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066285112"/>
-        <c:axId val="-2069908600"/>
+        <c:axId val="-2100878104"/>
+        <c:axId val="-2102388008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066285112"/>
+        <c:axId val="-2100878104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12175,7 +12195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069908600"/>
+        <c:crossAx val="-2102388008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12183,7 +12203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069908600"/>
+        <c:axId val="-2102388008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12217,7 +12237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066285112"/>
+        <c:crossAx val="-2100878104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12353,11 +12373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071391672"/>
-        <c:axId val="-2068176392"/>
+        <c:axId val="-2102098232"/>
+        <c:axId val="2110353640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071391672"/>
+        <c:axId val="-2102098232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12366,7 +12386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068176392"/>
+        <c:crossAx val="2110353640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12374,7 +12394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068176392"/>
+        <c:axId val="2110353640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12396,7 +12416,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -12413,7 +12432,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071391672"/>
+        <c:crossAx val="-2102098232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12641,11 +12660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127443272"/>
-        <c:axId val="-2101668536"/>
+        <c:axId val="-2124191896"/>
+        <c:axId val="-2123884696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127443272"/>
+        <c:axId val="-2124191896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12675,12 +12694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101668536"/>
+        <c:crossAx val="-2123884696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101668536"/>
+        <c:axId val="-2123884696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -12711,7 +12730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127443272"/>
+        <c:crossAx val="-2124191896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13118,11 +13137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126620952"/>
-        <c:axId val="-2068034104"/>
+        <c:axId val="-2124184424"/>
+        <c:axId val="-2124175896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126620952"/>
+        <c:axId val="-2124184424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13152,12 +13171,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068034104"/>
+        <c:crossAx val="-2124175896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2068034104"/>
+        <c:axId val="-2124175896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -13189,7 +13208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126620952"/>
+        <c:crossAx val="-2124184424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13339,11 +13358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108548456"/>
-        <c:axId val="-2071771960"/>
+        <c:axId val="2106663896"/>
+        <c:axId val="-2101182248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108548456"/>
+        <c:axId val="2106663896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13352,7 +13371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071771960"/>
+        <c:crossAx val="-2101182248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13360,7 +13379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071771960"/>
+        <c:axId val="-2101182248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13370,7 +13389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108548456"/>
+        <c:crossAx val="2106663896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13514,11 +13533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107830536"/>
-        <c:axId val="-2147163720"/>
+        <c:axId val="2063027144"/>
+        <c:axId val="-2101313624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107830536"/>
+        <c:axId val="2063027144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13527,7 +13546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147163720"/>
+        <c:crossAx val="-2101313624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13535,7 +13554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147163720"/>
+        <c:axId val="-2101313624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13545,7 +13564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107830536"/>
+        <c:crossAx val="2063027144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13726,11 +13745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070589656"/>
-        <c:axId val="-2066441240"/>
+        <c:axId val="-2066040168"/>
+        <c:axId val="-2065828904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070589656"/>
+        <c:axId val="-2066040168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13739,7 +13758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066441240"/>
+        <c:crossAx val="-2065828904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13747,7 +13766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066441240"/>
+        <c:axId val="-2065828904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13757,7 +13776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070589656"/>
+        <c:crossAx val="-2066040168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13909,11 +13928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123827400"/>
-        <c:axId val="-2123884696"/>
+        <c:axId val="-2102366184"/>
+        <c:axId val="-2101092712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123827400"/>
+        <c:axId val="-2102366184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13922,7 +13941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123884696"/>
+        <c:crossAx val="-2101092712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13930,7 +13949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123884696"/>
+        <c:axId val="-2101092712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13960,7 +13979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123827400"/>
+        <c:crossAx val="-2102366184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14165,11 +14184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070927832"/>
-        <c:axId val="-2097465960"/>
+        <c:axId val="-2127399944"/>
+        <c:axId val="-2127296424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070927832"/>
+        <c:axId val="-2127399944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14178,7 +14197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097465960"/>
+        <c:crossAx val="-2127296424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14186,7 +14205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097465960"/>
+        <c:axId val="-2127296424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14196,7 +14215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070927832"/>
+        <c:crossAx val="-2127399944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14400,11 +14419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142705592"/>
-        <c:axId val="-2142410968"/>
+        <c:axId val="-2069347480"/>
+        <c:axId val="-2067319896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142705592"/>
+        <c:axId val="-2069347480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14413,7 +14432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142410968"/>
+        <c:crossAx val="-2067319896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14421,7 +14440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142410968"/>
+        <c:axId val="-2067319896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14431,7 +14450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142705592"/>
+        <c:crossAx val="-2069347480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14607,11 +14626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070719720"/>
-        <c:axId val="-2066145544"/>
+        <c:axId val="-2142474344"/>
+        <c:axId val="-2142356504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070719720"/>
+        <c:axId val="-2142474344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14620,7 +14639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066145544"/>
+        <c:crossAx val="-2142356504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14628,7 +14647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066145544"/>
+        <c:axId val="-2142356504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14651,14 +14670,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070719720"/>
+        <c:crossAx val="-2142474344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14782,11 +14800,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098352024"/>
-        <c:axId val="-2066020392"/>
+        <c:axId val="-2098699192"/>
+        <c:axId val="2124318440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098352024"/>
+        <c:axId val="-2098699192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14795,7 +14813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066020392"/>
+        <c:crossAx val="2124318440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14803,7 +14821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066020392"/>
+        <c:axId val="2124318440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14829,14 +14847,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098352024"/>
+        <c:crossAx val="-2098699192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14873,6 +14890,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14942,11 +14960,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125336632"/>
-        <c:axId val="-2065838664"/>
+        <c:axId val="-2064716296"/>
+        <c:axId val="-2063429816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125336632"/>
+        <c:axId val="-2064716296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14955,7 +14973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065838664"/>
+        <c:crossAx val="-2063429816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14963,7 +14981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065838664"/>
+        <c:axId val="-2063429816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14973,13 +14991,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125336632"/>
+        <c:crossAx val="-2064716296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15114,11 +15133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070787032"/>
-        <c:axId val="-2098694200"/>
+        <c:axId val="-2098269848"/>
+        <c:axId val="-2065267160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070787032"/>
+        <c:axId val="-2098269848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15127,7 +15146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098694200"/>
+        <c:crossAx val="-2065267160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15135,7 +15154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098694200"/>
+        <c:axId val="-2065267160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15145,7 +15164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070787032"/>
+        <c:crossAx val="-2098269848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15241,11 +15260,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098586696"/>
-        <c:axId val="-2098412792"/>
+        <c:axId val="-2142378136"/>
+        <c:axId val="-2063544616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098586696"/>
+        <c:axId val="-2142378136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15254,7 +15273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098412792"/>
+        <c:crossAx val="-2063544616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15262,7 +15281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098412792"/>
+        <c:axId val="-2063544616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15288,13 +15307,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098586696"/>
+        <c:crossAx val="-2142378136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20177,15 +20197,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -20313,10 +20333,10 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="151">
+      <c r="B7" s="148">
         <v>90</v>
       </c>
       <c r="C7" s="1">
@@ -20347,8 +20367,8 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="150"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="1">
         <v>-19.440000000000001</v>
       </c>
@@ -20364,10 +20384,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="139" t="s">
+      <c r="V8" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="W8" s="139"/>
+      <c r="W8" s="144"/>
       <c r="Y8">
         <f>FTEST(V10:V11, W10:W22)</f>
         <v>0.16952866621585372</v>
@@ -20386,15 +20406,15 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="L10" t="s">
         <v>240</v>
       </c>
@@ -20482,15 +20502,15 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
       <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
@@ -20539,7 +20559,7 @@
       <c r="L14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="147">
+      <c r="M14" s="142">
         <v>90</v>
       </c>
       <c r="N14" s="26">
@@ -20560,10 +20580,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="150">
         <v>86</v>
       </c>
       <c r="C15" s="3">
@@ -20580,7 +20600,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="148"/>
+      <c r="M15" s="143"/>
       <c r="N15" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -20601,8 +20621,8 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="3">
         <v>-13.52</v>
       </c>
@@ -20642,8 +20662,8 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="141"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="3">
         <v>-37.61</v>
       </c>
@@ -20683,8 +20703,8 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="142"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="3">
         <v>-51.13</v>
       </c>
@@ -20701,7 +20721,7 @@
       <c r="L18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="144">
+      <c r="M18" s="139">
         <v>86</v>
       </c>
       <c r="N18" s="24">
@@ -20723,7 +20743,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="15"/>
-      <c r="M19" s="145"/>
+      <c r="M19" s="140"/>
       <c r="N19" s="24">
         <v>-13.52</v>
       </c>
@@ -20742,16 +20762,16 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="145"/>
+      <c r="M20" s="140"/>
       <c r="N20" s="24">
         <v>-37.61</v>
       </c>
@@ -20797,7 +20817,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="146"/>
+      <c r="M21" s="141"/>
       <c r="N21" s="24">
         <v>-51.13</v>
       </c>
@@ -20839,14 +20859,14 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="139" t="s">
+      <c r="A23" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
       <c r="L23" s="1" t="s">
         <v>65</v>
       </c>
@@ -21244,6 +21264,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="V8:W8"/>
@@ -21251,11 +21276,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21309,13 +21329,13 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="B4" s="106">
         <v>1</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="E4" s="106">
@@ -21324,7 +21344,7 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="204" t="s">
+      <c r="G4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="H4" s="106">
@@ -21333,7 +21353,7 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="202" t="s">
         <v>583</v>
       </c>
       <c r="K4" s="123">
@@ -21342,7 +21362,7 @@
       <c r="L4" s="124">
         <v>6</v>
       </c>
-      <c r="M4" s="204" t="s">
+      <c r="M4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="N4" s="106">
@@ -21351,7 +21371,7 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" s="204" t="s">
+      <c r="P4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="Q4" s="106">
@@ -21360,7 +21380,7 @@
       <c r="R4">
         <v>6</v>
       </c>
-      <c r="S4" s="204" t="s">
+      <c r="S4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="T4" s="106">
@@ -21369,7 +21389,7 @@
       <c r="U4">
         <v>6</v>
       </c>
-      <c r="V4" s="204" t="s">
+      <c r="V4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="W4" s="106">
@@ -21378,130 +21398,130 @@
       <c r="X4">
         <v>6</v>
       </c>
-      <c r="Y4" s="198" t="s">
+      <c r="Y4" s="202" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="204"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="106">
         <v>2</v>
       </c>
-      <c r="D5" s="204"/>
+      <c r="D5" s="198"/>
       <c r="E5" s="106">
         <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="204"/>
+      <c r="G5" s="198"/>
       <c r="H5" s="106">
         <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="198"/>
+      <c r="J5" s="202"/>
       <c r="K5" s="123">
         <v>2</v>
       </c>
       <c r="L5" s="124">
         <v>3</v>
       </c>
-      <c r="M5" s="204"/>
+      <c r="M5" s="198"/>
       <c r="N5" s="106">
         <v>2</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
-      <c r="P5" s="204"/>
+      <c r="P5" s="198"/>
       <c r="Q5" s="106">
         <v>2</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="204"/>
+      <c r="S5" s="198"/>
       <c r="T5" s="106">
         <v>2</v>
       </c>
       <c r="U5">
         <v>6</v>
       </c>
-      <c r="V5" s="204"/>
+      <c r="V5" s="198"/>
       <c r="W5" s="106">
         <v>2</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
-      <c r="Y5" s="198"/>
+      <c r="Y5" s="202"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="204"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="106">
         <v>3</v>
       </c>
-      <c r="D6" s="204"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="106">
         <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="204"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="106">
         <v>3</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="198"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="123">
         <v>3</v>
       </c>
       <c r="L6" s="124">
         <v>6</v>
       </c>
-      <c r="M6" s="204"/>
+      <c r="M6" s="198"/>
       <c r="N6" s="106">
         <v>3</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="204"/>
+      <c r="P6" s="198"/>
       <c r="Q6" s="106">
         <v>3</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
-      <c r="S6" s="204"/>
+      <c r="S6" s="198"/>
       <c r="T6" s="106">
         <v>3</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
-      <c r="V6" s="204"/>
+      <c r="V6" s="198"/>
       <c r="W6" s="106">
         <v>3</v>
       </c>
       <c r="X6">
         <v>5</v>
       </c>
-      <c r="Y6" s="198"/>
+      <c r="Y6" s="202"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="B7" s="106">
         <v>4</v>
       </c>
-      <c r="D7" s="205" t="s">
+      <c r="D7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="E7" s="106">
@@ -21510,7 +21530,7 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="205" t="s">
+      <c r="G7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="H7" s="106">
@@ -21519,7 +21539,7 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" s="199" t="s">
+      <c r="J7" s="203" t="s">
         <v>584</v>
       </c>
       <c r="K7" s="123">
@@ -21528,7 +21548,7 @@
       <c r="L7" s="124">
         <v>5</v>
       </c>
-      <c r="M7" s="205" t="s">
+      <c r="M7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="N7" s="106">
@@ -21537,7 +21557,7 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="205" t="s">
+      <c r="P7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="Q7" s="106">
@@ -21546,7 +21566,7 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="S7" s="205" t="s">
+      <c r="S7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="T7" s="106">
@@ -21555,7 +21575,7 @@
       <c r="U7">
         <v>5</v>
       </c>
-      <c r="V7" s="205" t="s">
+      <c r="V7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="W7" s="106">
@@ -21564,130 +21584,130 @@
       <c r="X7">
         <v>6</v>
       </c>
-      <c r="Y7" s="199" t="s">
+      <c r="Y7" s="203" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="205"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="106">
         <v>5</v>
       </c>
-      <c r="D8" s="205"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="106">
         <v>5</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="205"/>
+      <c r="G8" s="199"/>
       <c r="H8" s="106">
         <v>5</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" s="199"/>
+      <c r="J8" s="203"/>
       <c r="K8" s="123">
         <v>5</v>
       </c>
       <c r="L8" s="124">
         <v>5</v>
       </c>
-      <c r="M8" s="205"/>
+      <c r="M8" s="199"/>
       <c r="N8" s="106">
         <v>5</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8" s="205"/>
+      <c r="P8" s="199"/>
       <c r="Q8" s="106">
         <v>5</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" s="205"/>
+      <c r="S8" s="199"/>
       <c r="T8" s="106">
         <v>5</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
-      <c r="V8" s="205"/>
+      <c r="V8" s="199"/>
       <c r="W8" s="106">
         <v>5</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
-      <c r="Y8" s="199"/>
+      <c r="Y8" s="203"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="205"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="106">
         <v>6</v>
       </c>
-      <c r="D9" s="205"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="106">
         <v>6</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="205"/>
+      <c r="G9" s="199"/>
       <c r="H9" s="106">
         <v>6</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
-      <c r="J9" s="199"/>
+      <c r="J9" s="203"/>
       <c r="K9" s="123">
         <v>6</v>
       </c>
       <c r="L9" s="124">
         <v>7</v>
       </c>
-      <c r="M9" s="205"/>
+      <c r="M9" s="199"/>
       <c r="N9" s="106">
         <v>6</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="205"/>
+      <c r="P9" s="199"/>
       <c r="Q9" s="106">
         <v>6</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9" s="205"/>
+      <c r="S9" s="199"/>
       <c r="T9" s="106">
         <v>6</v>
       </c>
       <c r="U9">
         <v>6</v>
       </c>
-      <c r="V9" s="205"/>
+      <c r="V9" s="199"/>
       <c r="W9" s="106">
         <v>6</v>
       </c>
       <c r="X9">
         <v>5</v>
       </c>
-      <c r="Y9" s="199"/>
+      <c r="Y9" s="203"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="B10" s="106">
         <v>7</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="E10" s="106">
@@ -21696,7 +21716,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="202" t="s">
+      <c r="G10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="H10" s="106">
@@ -21705,7 +21725,7 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="204" t="s">
         <v>585</v>
       </c>
       <c r="K10" s="123">
@@ -21714,7 +21734,7 @@
       <c r="L10" s="124">
         <v>4</v>
       </c>
-      <c r="M10" s="202" t="s">
+      <c r="M10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="N10" s="106">
@@ -21723,7 +21743,7 @@
       <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10" s="202" t="s">
+      <c r="P10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="Q10" s="106">
@@ -21732,7 +21752,7 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" s="202" t="s">
+      <c r="S10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="T10" s="106">
@@ -21741,7 +21761,7 @@
       <c r="U10">
         <v>5</v>
       </c>
-      <c r="V10" s="202" t="s">
+      <c r="V10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="W10" s="106">
@@ -21750,130 +21770,130 @@
       <c r="X10">
         <v>6</v>
       </c>
-      <c r="Y10" s="200" t="s">
+      <c r="Y10" s="204" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="202"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="106">
         <v>8</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="106">
         <v>8</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="202"/>
+      <c r="G11" s="200"/>
       <c r="H11" s="106">
         <v>8</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="200"/>
+      <c r="J11" s="204"/>
       <c r="K11" s="123">
         <v>8</v>
       </c>
       <c r="L11" s="124">
         <v>5</v>
       </c>
-      <c r="M11" s="202"/>
+      <c r="M11" s="200"/>
       <c r="N11" s="106">
         <v>8</v>
       </c>
       <c r="O11">
         <v>7</v>
       </c>
-      <c r="P11" s="202"/>
+      <c r="P11" s="200"/>
       <c r="Q11" s="106">
         <v>8</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
-      <c r="S11" s="202"/>
+      <c r="S11" s="200"/>
       <c r="T11" s="106">
         <v>8</v>
       </c>
       <c r="U11">
         <v>4</v>
       </c>
-      <c r="V11" s="202"/>
+      <c r="V11" s="200"/>
       <c r="W11" s="106">
         <v>8</v>
       </c>
       <c r="X11">
         <v>5</v>
       </c>
-      <c r="Y11" s="200"/>
+      <c r="Y11" s="204"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="202"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="106">
         <v>9</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="200"/>
       <c r="E12" s="106">
         <v>9</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="202"/>
+      <c r="G12" s="200"/>
       <c r="H12" s="106">
         <v>9</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="200"/>
+      <c r="J12" s="204"/>
       <c r="K12" s="123">
         <v>9</v>
       </c>
       <c r="L12" s="124">
         <v>6</v>
       </c>
-      <c r="M12" s="202"/>
+      <c r="M12" s="200"/>
       <c r="N12" s="106">
         <v>9</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
-      <c r="P12" s="202"/>
+      <c r="P12" s="200"/>
       <c r="Q12" s="106">
         <v>9</v>
       </c>
       <c r="R12">
         <v>6</v>
       </c>
-      <c r="S12" s="202"/>
+      <c r="S12" s="200"/>
       <c r="T12" s="106">
         <v>9</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
-      <c r="V12" s="202"/>
+      <c r="V12" s="200"/>
       <c r="W12" s="106">
         <v>9</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
-      <c r="Y12" s="200"/>
+      <c r="Y12" s="204"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="B13" s="106">
         <v>10</v>
       </c>
-      <c r="D13" s="203" t="s">
+      <c r="D13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="E13" s="106">
@@ -21882,7 +21902,7 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="203" t="s">
+      <c r="G13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="H13" s="106">
@@ -21891,7 +21911,7 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="201" t="s">
+      <c r="J13" s="205" t="s">
         <v>586</v>
       </c>
       <c r="K13" s="123">
@@ -21900,7 +21920,7 @@
       <c r="L13" s="124">
         <v>7</v>
       </c>
-      <c r="M13" s="203" t="s">
+      <c r="M13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="N13" s="106">
@@ -21909,7 +21929,7 @@
       <c r="O13">
         <v>6</v>
       </c>
-      <c r="P13" s="203" t="s">
+      <c r="P13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="Q13" s="106">
@@ -21918,7 +21938,7 @@
       <c r="R13">
         <v>3</v>
       </c>
-      <c r="S13" s="203" t="s">
+      <c r="S13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="T13" s="106">
@@ -21927,7 +21947,7 @@
       <c r="U13">
         <v>7</v>
       </c>
-      <c r="V13" s="203" t="s">
+      <c r="V13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="W13" s="106">
@@ -21936,121 +21956,121 @@
       <c r="X13">
         <v>3</v>
       </c>
-      <c r="Y13" s="201" t="s">
+      <c r="Y13" s="205" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="203"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="106">
         <v>11</v>
       </c>
-      <c r="D14" s="203"/>
+      <c r="D14" s="201"/>
       <c r="E14" s="106">
         <v>11</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="203"/>
+      <c r="G14" s="201"/>
       <c r="H14" s="106">
         <v>11</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14" s="201"/>
+      <c r="J14" s="205"/>
       <c r="K14" s="123">
         <v>11</v>
       </c>
       <c r="L14" s="124">
         <v>6</v>
       </c>
-      <c r="M14" s="203"/>
+      <c r="M14" s="201"/>
       <c r="N14" s="106">
         <v>11</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
-      <c r="P14" s="203"/>
+      <c r="P14" s="201"/>
       <c r="Q14" s="106">
         <v>11</v>
       </c>
       <c r="R14">
         <v>6</v>
       </c>
-      <c r="S14" s="203"/>
+      <c r="S14" s="201"/>
       <c r="T14" s="106">
         <v>11</v>
       </c>
       <c r="U14">
         <v>7</v>
       </c>
-      <c r="V14" s="203"/>
+      <c r="V14" s="201"/>
       <c r="W14" s="106">
         <v>11</v>
       </c>
       <c r="X14">
         <v>5</v>
       </c>
-      <c r="Y14" s="201"/>
+      <c r="Y14" s="205"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="203"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="106">
         <v>12</v>
       </c>
-      <c r="D15" s="203"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="106">
         <v>12</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="203"/>
+      <c r="G15" s="201"/>
       <c r="H15" s="106">
         <v>12</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="201"/>
+      <c r="J15" s="205"/>
       <c r="K15" s="123">
         <v>12</v>
       </c>
       <c r="L15" s="124">
         <v>6</v>
       </c>
-      <c r="M15" s="203"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="106">
         <v>12</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
-      <c r="P15" s="203"/>
+      <c r="P15" s="201"/>
       <c r="Q15" s="106">
         <v>12</v>
       </c>
       <c r="R15">
         <v>7</v>
       </c>
-      <c r="S15" s="203"/>
+      <c r="S15" s="201"/>
       <c r="T15" s="106">
         <v>12</v>
       </c>
       <c r="U15">
         <v>7</v>
       </c>
-      <c r="V15" s="203"/>
+      <c r="V15" s="201"/>
       <c r="W15" s="106">
         <v>12</v>
       </c>
       <c r="X15">
         <v>5</v>
       </c>
-      <c r="Y15" s="201"/>
+      <c r="Y15" s="205"/>
     </row>
     <row r="18" spans="1:11">
       <c r="J18" t="s">
@@ -22061,7 +22081,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="198" t="s">
         <v>583</v>
       </c>
       <c r="B19" s="1">
@@ -22092,13 +22112,13 @@
         <f>AVERAGE(B19:I19)</f>
         <v>5.375</v>
       </c>
-      <c r="K19" s="139">
+      <c r="K19" s="144">
         <f>AVERAGE(B19:I22)</f>
         <v>5.4375</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="204"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -22127,10 +22147,10 @@
         <f t="shared" ref="J20:J30" si="0">AVERAGE(B20:I20)</f>
         <v>5.25</v>
       </c>
-      <c r="K20" s="139"/>
+      <c r="K20" s="144"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="204"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22159,10 +22179,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K21" s="139"/>
+      <c r="K21" s="144"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="199" t="s">
         <v>584</v>
       </c>
       <c r="B22" s="1">
@@ -22193,13 +22213,13 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="K22" s="139">
+      <c r="K22" s="144">
         <f>AVERAGE(B22:I24)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="205"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -22228,10 +22248,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K23" s="139"/>
+      <c r="K23" s="144"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="205"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -22260,10 +22280,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K24" s="139"/>
+      <c r="K24" s="144"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="200" t="s">
         <v>585</v>
       </c>
       <c r="B25" s="1">
@@ -22294,13 +22314,13 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K25" s="139">
+      <c r="K25" s="144">
         <f>AVERAGE(B25:I27)</f>
         <v>5.125</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="202"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="1">
         <v>7</v>
       </c>
@@ -22329,10 +22349,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K26" s="139"/>
+      <c r="K26" s="144"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="202"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -22361,10 +22381,10 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="K27" s="139"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="201" t="s">
         <v>586</v>
       </c>
       <c r="B28" s="1">
@@ -22395,13 +22415,13 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K28" s="139">
+      <c r="K28" s="144">
         <f>AVERAGE(B28:I30)</f>
         <v>5.291666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="203"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -22430,10 +22450,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K29" s="139"/>
+      <c r="K29" s="144"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="203"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="1">
         <v>7</v>
       </c>
@@ -22462,7 +22482,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="K30" s="139"/>
+      <c r="K30" s="144"/>
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
@@ -22662,6 +22682,42 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -22670,42 +22726,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="V13:V15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22759,7 +22779,7 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -22768,7 +22788,7 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -22777,7 +22797,7 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="209" t="s">
+      <c r="G3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -22786,7 +22806,7 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="209" t="s">
+      <c r="J3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -22795,7 +22815,7 @@
       <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -22804,7 +22824,7 @@
       <c r="O3" s="1">
         <v>5</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -22813,7 +22833,7 @@
       <c r="R3" s="1">
         <v>6</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -22831,7 +22851,7 @@
       <c r="X3" s="125">
         <v>6</v>
       </c>
-      <c r="Y3" s="209" t="s">
+      <c r="Y3" s="206" t="s">
         <v>587</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -22842,49 +22862,49 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="210"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="210"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="210"/>
+      <c r="G4" s="207"/>
       <c r="H4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="210"/>
+      <c r="J4" s="207"/>
       <c r="K4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="210"/>
+      <c r="M4" s="207"/>
       <c r="N4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
-      <c r="P4" s="210"/>
+      <c r="P4" s="207"/>
       <c r="Q4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="R4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="210"/>
+      <c r="S4" s="207"/>
       <c r="T4" s="1" t="s">
         <v>589</v>
       </c>
@@ -22898,7 +22918,7 @@
       <c r="X4" s="126">
         <v>3</v>
       </c>
-      <c r="Y4" s="210"/>
+      <c r="Y4" s="207"/>
       <c r="Z4" s="1" t="s">
         <v>589</v>
       </c>
@@ -22907,49 +22927,49 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="211"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="211"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="211"/>
+      <c r="G5" s="208"/>
       <c r="H5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="211"/>
+      <c r="J5" s="208"/>
       <c r="K5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="L5" s="1">
         <v>7</v>
       </c>
-      <c r="M5" s="211"/>
+      <c r="M5" s="208"/>
       <c r="N5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="O5" s="1">
         <v>5</v>
       </c>
-      <c r="P5" s="211"/>
+      <c r="P5" s="208"/>
       <c r="Q5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="R5" s="1">
         <v>6</v>
       </c>
-      <c r="S5" s="211"/>
+      <c r="S5" s="208"/>
       <c r="T5" s="1" t="s">
         <v>590</v>
       </c>
@@ -22963,7 +22983,7 @@
       <c r="X5" s="126">
         <v>6</v>
       </c>
-      <c r="Y5" s="211"/>
+      <c r="Y5" s="208"/>
       <c r="Z5" s="1" t="s">
         <v>590</v>
       </c>
@@ -22972,7 +22992,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -22981,7 +23001,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="206" t="s">
+      <c r="D6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -22990,7 +23010,7 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="206" t="s">
+      <c r="G6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -22999,7 +23019,7 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="206" t="s">
+      <c r="J6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -23008,7 +23028,7 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="206" t="s">
+      <c r="M6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -23017,7 +23037,7 @@
       <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="206" t="s">
+      <c r="P6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -23026,7 +23046,7 @@
       <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="206" t="s">
+      <c r="S6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -23044,7 +23064,7 @@
       <c r="X6" s="126">
         <v>2</v>
       </c>
-      <c r="Y6" s="206" t="s">
+      <c r="Y6" s="209" t="s">
         <v>591</v>
       </c>
       <c r="Z6" s="1" t="s">
@@ -23055,49 +23075,49 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="207"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="207"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="207"/>
+      <c r="G7" s="210"/>
       <c r="H7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="207"/>
+      <c r="J7" s="210"/>
       <c r="K7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="207"/>
+      <c r="M7" s="210"/>
       <c r="N7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="207"/>
+      <c r="P7" s="210"/>
       <c r="Q7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="207"/>
+      <c r="S7" s="210"/>
       <c r="T7" s="1" t="s">
         <v>593</v>
       </c>
@@ -23111,7 +23131,7 @@
       <c r="X7" s="126">
         <v>7</v>
       </c>
-      <c r="Y7" s="207"/>
+      <c r="Y7" s="210"/>
       <c r="Z7" s="1" t="s">
         <v>593</v>
       </c>
@@ -23120,49 +23140,49 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="208"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="208"/>
+      <c r="D8" s="211"/>
       <c r="E8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="208"/>
+      <c r="G8" s="211"/>
       <c r="H8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="208"/>
+      <c r="J8" s="211"/>
       <c r="K8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="208"/>
+      <c r="M8" s="211"/>
       <c r="N8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="208"/>
+      <c r="P8" s="211"/>
       <c r="Q8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="S8" s="208"/>
+      <c r="S8" s="211"/>
       <c r="T8" s="1" t="s">
         <v>594</v>
       </c>
@@ -23176,7 +23196,7 @@
       <c r="X8" s="126">
         <v>6</v>
       </c>
-      <c r="Y8" s="208"/>
+      <c r="Y8" s="211"/>
       <c r="Z8" s="1" t="s">
         <v>594</v>
       </c>
@@ -23185,7 +23205,7 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -23194,7 +23214,7 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -23203,7 +23223,7 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="206" t="s">
+      <c r="G9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -23212,7 +23232,7 @@
       <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="206" t="s">
+      <c r="J9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -23221,7 +23241,7 @@
       <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="206" t="s">
+      <c r="M9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -23230,7 +23250,7 @@
       <c r="O9" s="1">
         <v>5</v>
       </c>
-      <c r="P9" s="206" t="s">
+      <c r="P9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -23239,7 +23259,7 @@
       <c r="R9" s="1">
         <v>6</v>
       </c>
-      <c r="S9" s="206" t="s">
+      <c r="S9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -23257,7 +23277,7 @@
       <c r="X9" s="126">
         <v>4</v>
       </c>
-      <c r="Y9" s="206" t="s">
+      <c r="Y9" s="209" t="s">
         <v>595</v>
       </c>
       <c r="Z9" s="1" t="s">
@@ -23268,49 +23288,49 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="207"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="207"/>
+      <c r="G10" s="210"/>
       <c r="H10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="207"/>
+      <c r="J10" s="210"/>
       <c r="K10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="L10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="207"/>
+      <c r="M10" s="210"/>
       <c r="N10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="O10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="207"/>
+      <c r="P10" s="210"/>
       <c r="Q10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="R10" s="1">
         <v>6</v>
       </c>
-      <c r="S10" s="207"/>
+      <c r="S10" s="210"/>
       <c r="T10" s="1" t="s">
         <v>597</v>
       </c>
@@ -23324,7 +23344,7 @@
       <c r="X10" s="126">
         <v>6</v>
       </c>
-      <c r="Y10" s="207"/>
+      <c r="Y10" s="210"/>
       <c r="Z10" s="1" t="s">
         <v>597</v>
       </c>
@@ -23333,49 +23353,49 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="208"/>
+      <c r="A11" s="211"/>
       <c r="B11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="208"/>
+      <c r="D11" s="211"/>
       <c r="E11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="208"/>
+      <c r="G11" s="211"/>
       <c r="H11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="208"/>
+      <c r="J11" s="211"/>
       <c r="K11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="208"/>
+      <c r="M11" s="211"/>
       <c r="N11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="O11" s="1">
         <v>7</v>
       </c>
-      <c r="P11" s="208"/>
+      <c r="P11" s="211"/>
       <c r="Q11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="S11" s="208"/>
+      <c r="S11" s="211"/>
       <c r="T11" s="1" t="s">
         <v>598</v>
       </c>
@@ -23389,7 +23409,7 @@
       <c r="X11" s="126">
         <v>7</v>
       </c>
-      <c r="Y11" s="208"/>
+      <c r="Y11" s="211"/>
       <c r="Z11" s="1" t="s">
         <v>598</v>
       </c>
@@ -23398,7 +23418,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -23407,7 +23427,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -23416,7 +23436,7 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="206" t="s">
+      <c r="G12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -23425,7 +23445,7 @@
       <c r="I12" s="1">
         <v>6</v>
       </c>
-      <c r="J12" s="206" t="s">
+      <c r="J12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -23434,7 +23454,7 @@
       <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="206" t="s">
+      <c r="M12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -23443,7 +23463,7 @@
       <c r="O12" s="1">
         <v>5</v>
       </c>
-      <c r="P12" s="206" t="s">
+      <c r="P12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -23452,7 +23472,7 @@
       <c r="R12" s="1">
         <v>5</v>
       </c>
-      <c r="S12" s="206" t="s">
+      <c r="S12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -23470,7 +23490,7 @@
       <c r="X12" s="126">
         <v>2</v>
       </c>
-      <c r="Y12" s="206" t="s">
+      <c r="Y12" s="209" t="s">
         <v>583</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -23481,49 +23501,49 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="207"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="207"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="207"/>
+      <c r="G13" s="210"/>
       <c r="H13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="207"/>
+      <c r="J13" s="210"/>
       <c r="K13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="207"/>
+      <c r="M13" s="210"/>
       <c r="N13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="207"/>
+      <c r="P13" s="210"/>
       <c r="Q13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
       </c>
-      <c r="S13" s="207"/>
+      <c r="S13" s="210"/>
       <c r="T13" s="1" t="s">
         <v>600</v>
       </c>
@@ -23537,7 +23557,7 @@
       <c r="X13" s="126">
         <v>3</v>
       </c>
-      <c r="Y13" s="207"/>
+      <c r="Y13" s="210"/>
       <c r="Z13" s="1" t="s">
         <v>600</v>
       </c>
@@ -23546,49 +23566,49 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="208"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="208"/>
+      <c r="D14" s="211"/>
       <c r="E14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="208"/>
+      <c r="G14" s="211"/>
       <c r="H14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="208"/>
+      <c r="J14" s="211"/>
       <c r="K14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="208"/>
+      <c r="M14" s="211"/>
       <c r="N14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="208"/>
+      <c r="P14" s="211"/>
       <c r="Q14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="S14" s="208"/>
+      <c r="S14" s="211"/>
       <c r="T14" s="1" t="s">
         <v>601</v>
       </c>
@@ -23602,7 +23622,7 @@
       <c r="X14" s="126">
         <v>2</v>
       </c>
-      <c r="Y14" s="208"/>
+      <c r="Y14" s="211"/>
       <c r="Z14" s="1" t="s">
         <v>601</v>
       </c>
@@ -23611,7 +23631,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -23620,7 +23640,7 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -23629,7 +23649,7 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="206" t="s">
+      <c r="G15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -23638,7 +23658,7 @@
       <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="206" t="s">
+      <c r="J15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -23647,7 +23667,7 @@
       <c r="L15" s="1">
         <v>6</v>
       </c>
-      <c r="M15" s="206" t="s">
+      <c r="M15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -23656,7 +23676,7 @@
       <c r="O15" s="1">
         <v>3</v>
       </c>
-      <c r="P15" s="206" t="s">
+      <c r="P15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -23665,7 +23685,7 @@
       <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="S15" s="206" t="s">
+      <c r="S15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -23683,7 +23703,7 @@
       <c r="X15" s="126">
         <v>7</v>
       </c>
-      <c r="Y15" s="206" t="s">
+      <c r="Y15" s="209" t="s">
         <v>584</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -23694,49 +23714,49 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="207"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="207"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="207"/>
+      <c r="G16" s="210"/>
       <c r="H16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="207"/>
+      <c r="J16" s="210"/>
       <c r="K16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="L16" s="1">
         <v>6</v>
       </c>
-      <c r="M16" s="207"/>
+      <c r="M16" s="210"/>
       <c r="N16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="O16" s="1">
         <v>6</v>
       </c>
-      <c r="P16" s="207"/>
+      <c r="P16" s="210"/>
       <c r="Q16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="S16" s="207"/>
+      <c r="S16" s="210"/>
       <c r="T16" s="1" t="s">
         <v>615</v>
       </c>
@@ -23750,7 +23770,7 @@
       <c r="X16" s="126">
         <v>3</v>
       </c>
-      <c r="Y16" s="207"/>
+      <c r="Y16" s="210"/>
       <c r="Z16" s="1" t="s">
         <v>615</v>
       </c>
@@ -23759,49 +23779,49 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="208"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="208"/>
+      <c r="D17" s="211"/>
       <c r="E17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="208"/>
+      <c r="G17" s="211"/>
       <c r="H17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="208"/>
+      <c r="J17" s="211"/>
       <c r="K17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="L17" s="1">
         <v>7</v>
       </c>
-      <c r="M17" s="208"/>
+      <c r="M17" s="211"/>
       <c r="N17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="O17" s="1">
         <v>3</v>
       </c>
-      <c r="P17" s="208"/>
+      <c r="P17" s="211"/>
       <c r="Q17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="R17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="208"/>
+      <c r="S17" s="211"/>
       <c r="T17" s="1" t="s">
         <v>604</v>
       </c>
@@ -23815,7 +23835,7 @@
       <c r="X17" s="126">
         <v>3</v>
       </c>
-      <c r="Y17" s="208"/>
+      <c r="Y17" s="211"/>
       <c r="Z17" s="1" t="s">
         <v>604</v>
       </c>
@@ -23824,7 +23844,7 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -23833,7 +23853,7 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -23842,7 +23862,7 @@
       <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="206" t="s">
+      <c r="G18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -23851,7 +23871,7 @@
       <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="206" t="s">
+      <c r="J18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -23860,7 +23880,7 @@
       <c r="L18" s="1">
         <v>6</v>
       </c>
-      <c r="M18" s="206" t="s">
+      <c r="M18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -23869,7 +23889,7 @@
       <c r="O18" s="1">
         <v>6</v>
       </c>
-      <c r="P18" s="206" t="s">
+      <c r="P18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -23878,7 +23898,7 @@
       <c r="R18" s="1">
         <v>6</v>
       </c>
-      <c r="S18" s="206" t="s">
+      <c r="S18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -23896,7 +23916,7 @@
       <c r="X18" s="126">
         <v>7</v>
       </c>
-      <c r="Y18" s="206" t="s">
+      <c r="Y18" s="209" t="s">
         <v>605</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -23907,49 +23927,49 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="207"/>
+      <c r="A19" s="210"/>
       <c r="B19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="207"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="207"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="207"/>
+      <c r="J19" s="210"/>
       <c r="K19" s="1" t="s">
         <v>621</v>
       </c>
       <c r="L19" s="1">
         <v>6</v>
       </c>
-      <c r="M19" s="207"/>
+      <c r="M19" s="210"/>
       <c r="N19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="O19" s="1">
         <v>6</v>
       </c>
-      <c r="P19" s="207"/>
+      <c r="P19" s="210"/>
       <c r="Q19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="R19" s="1">
         <v>6</v>
       </c>
-      <c r="S19" s="207"/>
+      <c r="S19" s="210"/>
       <c r="T19" s="1" t="s">
         <v>617</v>
       </c>
@@ -23963,7 +23983,7 @@
       <c r="X19" s="126">
         <v>7</v>
       </c>
-      <c r="Y19" s="207"/>
+      <c r="Y19" s="210"/>
       <c r="Z19" s="1" t="s">
         <v>617</v>
       </c>
@@ -23972,49 +23992,49 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="208"/>
+      <c r="A20" s="211"/>
       <c r="B20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="208"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="208"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="1" t="s">
         <v>618</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="208"/>
+      <c r="J20" s="211"/>
       <c r="K20" s="1" t="s">
         <v>622</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="208"/>
+      <c r="M20" s="211"/>
       <c r="N20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="208"/>
+      <c r="P20" s="211"/>
       <c r="Q20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="S20" s="208"/>
+      <c r="S20" s="211"/>
       <c r="T20" s="1" t="s">
         <v>625</v>
       </c>
@@ -24028,7 +24048,7 @@
       <c r="X20" s="126">
         <v>6</v>
       </c>
-      <c r="Y20" s="208"/>
+      <c r="Y20" s="211"/>
       <c r="Z20" s="1" t="s">
         <v>625</v>
       </c>
@@ -24037,7 +24057,7 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -24046,7 +24066,7 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -24055,7 +24075,7 @@
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="159" t="s">
+      <c r="G21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -24064,7 +24084,7 @@
       <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="159" t="s">
+      <c r="J21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -24073,7 +24093,7 @@
       <c r="L21" s="1">
         <v>6</v>
       </c>
-      <c r="M21" s="159" t="s">
+      <c r="M21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -24082,7 +24102,7 @@
       <c r="O21" s="1">
         <v>7</v>
       </c>
-      <c r="P21" s="159" t="s">
+      <c r="P21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -24091,7 +24111,7 @@
       <c r="R21" s="1">
         <v>6</v>
       </c>
-      <c r="S21" s="159" t="s">
+      <c r="S21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -24109,7 +24129,7 @@
       <c r="X21" s="126">
         <v>6</v>
       </c>
-      <c r="Y21" s="159" t="s">
+      <c r="Y21" s="167" t="s">
         <v>609</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -24120,49 +24140,49 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="159"/>
+      <c r="A22" s="167"/>
       <c r="B22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="159"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="159"/>
+      <c r="G22" s="167"/>
       <c r="H22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
-      <c r="J22" s="159"/>
+      <c r="J22" s="167"/>
       <c r="K22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="L22" s="1">
         <v>6</v>
       </c>
-      <c r="M22" s="159"/>
+      <c r="M22" s="167"/>
       <c r="N22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="159"/>
+      <c r="P22" s="167"/>
       <c r="Q22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="R22" s="1">
         <v>6</v>
       </c>
-      <c r="S22" s="159"/>
+      <c r="S22" s="167"/>
       <c r="T22" s="1" t="s">
         <v>611</v>
       </c>
@@ -24176,7 +24196,7 @@
       <c r="X22" s="126">
         <v>7</v>
       </c>
-      <c r="Y22" s="159"/>
+      <c r="Y22" s="167"/>
       <c r="Z22" s="1" t="s">
         <v>611</v>
       </c>
@@ -24185,49 +24205,49 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="159"/>
+      <c r="A23" s="167"/>
       <c r="B23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="159"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="159"/>
+      <c r="G23" s="167"/>
       <c r="H23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="I23" s="1">
         <v>7</v>
       </c>
-      <c r="J23" s="159"/>
+      <c r="J23" s="167"/>
       <c r="K23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="L23" s="1">
         <v>6</v>
       </c>
-      <c r="M23" s="159"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="O23" s="1">
         <v>6</v>
       </c>
-      <c r="P23" s="159"/>
+      <c r="P23" s="167"/>
       <c r="Q23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="R23" s="1">
         <v>6</v>
       </c>
-      <c r="S23" s="159"/>
+      <c r="S23" s="167"/>
       <c r="T23" s="1" t="s">
         <v>612</v>
       </c>
@@ -24241,7 +24261,7 @@
       <c r="X23" s="126">
         <v>6</v>
       </c>
-      <c r="Y23" s="159"/>
+      <c r="Y23" s="167"/>
       <c r="Z23" s="1" t="s">
         <v>612</v>
       </c>
@@ -24258,7 +24278,7 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="209" t="s">
+      <c r="A26" s="206" t="s">
         <v>587</v>
       </c>
       <c r="B26" s="1">
@@ -24292,13 +24312,13 @@
         <f>AVERAGE(B26:J26)</f>
         <v>4.7777777777777777</v>
       </c>
-      <c r="L26" s="139">
+      <c r="L26" s="144">
         <f>AVERAGE(B26:J28)</f>
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="210"/>
+      <c r="A27" s="207"/>
       <c r="B27" s="1">
         <v>3</v>
       </c>
@@ -24330,10 +24350,10 @@
         <f t="shared" ref="K27:K46" si="0">AVERAGE(B27:J27)</f>
         <v>4.2222222222222223</v>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="211"/>
+      <c r="A28" s="208"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -24365,10 +24385,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L28" s="139"/>
+      <c r="L28" s="144"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="209" t="s">
         <v>591</v>
       </c>
       <c r="B29" s="1">
@@ -24402,13 +24422,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L29" s="139">
+      <c r="L29" s="144">
         <f>AVERAGE(B29:J31)</f>
         <v>4.1481481481481479</v>
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="207"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -24440,10 +24460,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L30" s="139"/>
+      <c r="L30" s="144"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="208"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -24475,10 +24495,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L31" s="139"/>
+      <c r="L31" s="144"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="206" t="s">
+      <c r="A32" s="209" t="s">
         <v>595</v>
       </c>
       <c r="B32" s="1">
@@ -24512,13 +24532,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L32" s="139">
+      <c r="L32" s="144">
         <f>AVERAGE(B32:J34)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="207"/>
+      <c r="A33" s="210"/>
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -24550,10 +24570,10 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L33" s="139"/>
+      <c r="L33" s="144"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="208"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -24585,10 +24605,10 @@
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="L34" s="139"/>
+      <c r="L34" s="144"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="206" t="s">
+      <c r="A35" s="209" t="s">
         <v>583</v>
       </c>
       <c r="B35" s="1">
@@ -24622,13 +24642,13 @@
         <f t="shared" si="0"/>
         <v>3.5555555555555554</v>
       </c>
-      <c r="L35" s="139">
+      <c r="L35" s="144">
         <f>AVERAGE(B35:J37)</f>
         <v>3.3703703703703702</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="207"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -24660,10 +24680,10 @@
         <f t="shared" si="0"/>
         <v>3.4444444444444446</v>
       </c>
-      <c r="L36" s="139"/>
+      <c r="L36" s="144"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="208"/>
+      <c r="A37" s="211"/>
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -24695,10 +24715,10 @@
         <f t="shared" si="0"/>
         <v>3.1111111111111112</v>
       </c>
-      <c r="L37" s="139"/>
+      <c r="L37" s="144"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="209" t="s">
         <v>584</v>
       </c>
       <c r="B38" s="1">
@@ -24732,13 +24752,13 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="L38" s="139">
+      <c r="L38" s="144">
         <f>AVERAGE(B38:J40)</f>
         <v>4.0370370370370372</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="207"/>
+      <c r="A39" s="210"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -24770,10 +24790,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L39" s="139"/>
+      <c r="L39" s="144"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="208"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -24805,10 +24825,10 @@
         <f t="shared" si="0"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="L40" s="139"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="206" t="s">
+      <c r="A41" s="209" t="s">
         <v>605</v>
       </c>
       <c r="B41" s="1">
@@ -24842,13 +24862,13 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L41" s="139">
+      <c r="L41" s="144">
         <f>AVERAGE(B41:J43)</f>
         <v>5.2222222222222223</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="207"/>
+      <c r="A42" s="210"/>
       <c r="B42" s="1">
         <v>3</v>
       </c>
@@ -24880,10 +24900,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L42" s="139"/>
+      <c r="L42" s="144"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="208"/>
+      <c r="A43" s="211"/>
       <c r="B43" s="1">
         <v>4</v>
       </c>
@@ -24915,10 +24935,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L43" s="139"/>
+      <c r="L43" s="144"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="159" t="s">
+      <c r="A44" s="167" t="s">
         <v>609</v>
       </c>
       <c r="B44" s="1">
@@ -24952,13 +24972,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L44" s="139">
+      <c r="L44" s="144">
         <f>AVERAGE(B44:J46)</f>
         <v>4.9629629629629628</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="159"/>
+      <c r="A45" s="167"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -24990,10 +25010,10 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L45" s="139"/>
+      <c r="L45" s="144"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="159"/>
+      <c r="A46" s="167"/>
       <c r="B46" s="1">
         <v>2</v>
       </c>
@@ -25025,7 +25045,7 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L46" s="139"/>
+      <c r="L46" s="144"/>
     </row>
     <row r="48" spans="1:12">
       <c r="C48" t="s">
@@ -25222,6 +25242,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G9:G11"/>
@@ -25238,67 +25319,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L41:L43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25338,16 +25358,16 @@
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
@@ -25677,13 +25697,13 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="158">
+      <c r="C7" s="172">
         <v>87.000000000000043</v>
       </c>
       <c r="D7" s="4">
@@ -25733,9 +25753,9 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="158"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="172"/>
       <c r="D8" s="4">
         <v>-57.04</v>
       </c>
@@ -25810,10 +25830,10 @@
       <c r="M9" s="1">
         <v>44.79</v>
       </c>
-      <c r="Q9" s="171" t="s">
+      <c r="Q9" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="166">
+      <c r="R9" s="159">
         <v>90.999999999999943</v>
       </c>
       <c r="S9" s="24">
@@ -25866,8 +25886,8 @@
       <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="159"/>
       <c r="S10" s="24">
         <v>69.510000000000005</v>
       </c>
@@ -25931,7 +25951,7 @@
       <c r="Q11" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="168">
+      <c r="R11" s="163">
         <v>96</v>
       </c>
       <c r="S11" s="24">
@@ -25978,7 +25998,7 @@
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="169"/>
+      <c r="R12" s="164"/>
       <c r="S12" s="29">
         <v>55.14</v>
       </c>
@@ -26010,7 +26030,7 @@
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R13" s="170"/>
+      <c r="R13" s="165"/>
       <c r="S13" s="29">
         <v>20.49</v>
       </c>
@@ -26035,18 +26055,18 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="Q14" s="154" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="Q14" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="166">
+      <c r="R14" s="159">
         <v>42.999999999999929</v>
       </c>
       <c r="S14" s="24">
@@ -26073,10 +26093,10 @@
       <c r="AI14" s="24">
         <v>-2.54</v>
       </c>
-      <c r="AK14" s="139" t="s">
+      <c r="AK14" s="144" t="s">
         <v>576</v>
       </c>
-      <c r="AL14" s="139"/>
+      <c r="AL14" s="144"/>
       <c r="AO14" t="s">
         <v>577</v>
       </c>
@@ -26106,8 +26126,8 @@
       <c r="H15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="166"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="159"/>
       <c r="S15" s="24">
         <v>26.62</v>
       </c>
@@ -26551,10 +26571,10 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="157">
+      <c r="C23" s="168">
         <v>90.999999999999943</v>
       </c>
       <c r="D23" s="19">
@@ -26608,8 +26628,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="B24" s="159"/>
-      <c r="C24" s="157"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="19">
         <v>69.510000000000005</v>
       </c>
@@ -26661,10 +26681,10 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="167" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="157">
+      <c r="C25" s="168">
         <v>95.999999999999872</v>
       </c>
       <c r="D25" s="19">
@@ -26716,8 +26736,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="B26" s="159"/>
-      <c r="C26" s="157"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="4">
         <v>-28.73</v>
       </c>
@@ -26769,8 +26789,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="B27" s="159"/>
-      <c r="C27" s="157"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="4">
         <v>-33.17</v>
       </c>
@@ -26787,7 +26807,7 @@
       <c r="Q27" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="167">
+      <c r="R27" s="161">
         <v>189</v>
       </c>
       <c r="S27" s="23">
@@ -26822,8 +26842,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="B28" s="159"/>
-      <c r="C28" s="157"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="19">
         <v>55.14</v>
       </c>
@@ -26844,7 +26864,7 @@
         <v>-45.85</v>
       </c>
       <c r="Q28" s="162"/>
-      <c r="R28" s="167"/>
+      <c r="R28" s="161"/>
       <c r="S28" s="48">
         <v>62.11</v>
       </c>
@@ -26877,8 +26897,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="B29" s="159"/>
-      <c r="C29" s="157"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="19">
         <v>20.49</v>
       </c>
@@ -26936,10 +26956,10 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="157">
+      <c r="C30" s="168">
         <v>76</v>
       </c>
       <c r="D30" s="4">
@@ -26999,8 +27019,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="B31" s="154"/>
-      <c r="C31" s="157"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="4">
         <v>-82.39</v>
       </c>
@@ -27024,10 +27044,10 @@
       <c r="M31" s="3">
         <v>69.72</v>
       </c>
-      <c r="Q31" s="163" t="s">
+      <c r="Q31" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="R31" s="172">
+      <c r="R31" s="155">
         <v>50</v>
       </c>
       <c r="S31" s="23">
@@ -27056,10 +27076,10 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="157">
+      <c r="C32" s="168">
         <v>42.999999999999929</v>
       </c>
       <c r="D32" s="19">
@@ -27087,8 +27107,8 @@
       <c r="M32" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="Q32" s="164"/>
-      <c r="R32" s="172"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
       <c r="S32" s="48">
         <v>91.27</v>
       </c>
@@ -27115,8 +27135,8 @@
       </c>
     </row>
     <row r="33" spans="2:38">
-      <c r="B33" s="154"/>
-      <c r="C33" s="157"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="19">
         <v>26.62</v>
       </c>
@@ -27252,14 +27272,14 @@
       </c>
     </row>
     <row r="36" spans="2:38">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
       <c r="K36" s="10"/>
       <c r="M36" s="3">
         <v>55.14</v>
@@ -27321,7 +27341,7 @@
       <c r="Q37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R37" s="172">
+      <c r="R37" s="155">
         <v>90.000000000000057</v>
       </c>
       <c r="S37" s="23">
@@ -27375,7 +27395,7 @@
         <v>-31.48</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="172"/>
+      <c r="R38" s="155"/>
       <c r="S38" s="48">
         <v>81.13</v>
       </c>
@@ -27468,7 +27488,7 @@
       <c r="H40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="154">
+      <c r="K40" s="160">
         <v>42.999999999999929</v>
       </c>
       <c r="L40" s="3">
@@ -27521,7 +27541,7 @@
       <c r="H41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="154"/>
+      <c r="K41" s="160"/>
       <c r="L41" s="3">
         <v>26.62</v>
       </c>
@@ -27577,14 +27597,14 @@
       </c>
     </row>
     <row r="43" spans="2:38">
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
       <c r="Q43" s="17" t="s">
         <v>218</v>
       </c>
@@ -27737,10 +27757,10 @@
       </c>
     </row>
     <row r="48" spans="2:38">
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="169" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="139">
+      <c r="C48" s="144">
         <v>222</v>
       </c>
       <c r="D48" s="20">
@@ -27758,7 +27778,7 @@
       <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="139" t="s">
+      <c r="I48" s="144" t="s">
         <v>210</v>
       </c>
       <c r="AB48" s="48">
@@ -27766,8 +27786,8 @@
       </c>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="160"/>
-      <c r="C49" s="139"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="144"/>
       <c r="D49" s="31">
         <v>-17.11</v>
       </c>
@@ -27781,14 +27801,14 @@
       <c r="H49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="139"/>
+      <c r="I49" s="144"/>
       <c r="AB49" s="48">
         <v>24.72</v>
       </c>
     </row>
     <row r="50" spans="2:40">
-      <c r="B50" s="160"/>
-      <c r="C50" s="139"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="31">
         <v>-30.85</v>
       </c>
@@ -27804,7 +27824,7 @@
       <c r="H50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="139"/>
+      <c r="I50" s="144"/>
       <c r="Q50" s="4" t="s">
         <v>286</v>
       </c>
@@ -27824,8 +27844,8 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:40">
-      <c r="B51" s="160"/>
-      <c r="C51" s="139"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="20">
         <v>10.35</v>
       </c>
@@ -27839,7 +27859,7 @@
       <c r="H51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="139"/>
+      <c r="I51" s="144"/>
       <c r="Q51" s="3" t="s">
         <v>18</v>
       </c>
@@ -27893,8 +27913,8 @@
       </c>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="143"/>
-      <c r="C52" s="139"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="144"/>
       <c r="D52" s="31">
         <v>-18.38</v>
       </c>
@@ -27910,11 +27930,11 @@
       <c r="H52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="139"/>
-      <c r="Q52" s="163" t="s">
+      <c r="I52" s="144"/>
+      <c r="Q52" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="165">
+      <c r="R52" s="174">
         <v>87.000000000000043</v>
       </c>
       <c r="S52" s="22">
@@ -27997,9 +28017,9 @@
       <c r="H53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="139"/>
-      <c r="Q53" s="164"/>
-      <c r="R53" s="165"/>
+      <c r="I53" s="144"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="174"/>
       <c r="S53" s="24">
         <v>-57.04</v>
       </c>
@@ -28081,7 +28101,7 @@
       <c r="H54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="139"/>
+      <c r="I54" s="144"/>
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
@@ -28148,7 +28168,7 @@
       <c r="H55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="139"/>
+      <c r="I55" s="144"/>
       <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
@@ -28178,10 +28198,10 @@
       </c>
     </row>
     <row r="56" spans="2:40">
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="153">
+      <c r="C56" s="173">
         <v>189</v>
       </c>
       <c r="D56" s="31">
@@ -28230,8 +28250,8 @@
       </c>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="158"/>
-      <c r="C57" s="153"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="173"/>
       <c r="D57" s="20">
         <v>43.1</v>
       </c>
@@ -28286,8 +28306,8 @@
       </c>
     </row>
     <row r="58" spans="2:40">
-      <c r="B58" s="158"/>
-      <c r="C58" s="153"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="173"/>
       <c r="D58" s="20">
         <v>62.11</v>
       </c>
@@ -28333,7 +28353,7 @@
       <c r="B59" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="139">
+      <c r="C59" s="144">
         <v>69</v>
       </c>
       <c r="D59" s="20">
@@ -28354,7 +28374,7 @@
       <c r="Q59" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R59" s="173">
+      <c r="R59" s="157">
         <v>96</v>
       </c>
       <c r="S59" s="26">
@@ -28385,7 +28405,7 @@
     </row>
     <row r="60" spans="2:40">
       <c r="B60" s="162"/>
-      <c r="C60" s="139"/>
+      <c r="C60" s="144"/>
       <c r="D60" s="31">
         <v>8.66</v>
       </c>
@@ -28402,7 +28422,7 @@
         <v>155</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="174"/>
+      <c r="R60" s="158"/>
       <c r="S60" s="24">
         <v>-33.17</v>
       </c>
@@ -28436,10 +28456,10 @@
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="Q61" s="154" t="s">
+      <c r="Q61" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="R61" s="154">
+      <c r="R61" s="160">
         <v>76</v>
       </c>
       <c r="S61" s="24">
@@ -28479,8 +28499,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
+      <c r="Q62" s="160"/>
+      <c r="R62" s="160"/>
       <c r="S62" s="49">
         <v>-82.39</v>
       </c>
@@ -28568,7 +28588,7 @@
       </c>
     </row>
     <row r="64" spans="2:40">
-      <c r="Q64" s="163" t="s">
+      <c r="Q64" s="153" t="s">
         <v>135</v>
       </c>
       <c r="R64" s="156">
@@ -28633,10 +28653,10 @@
       </c>
     </row>
     <row r="66" spans="2:36">
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="169" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="139">
+      <c r="C66" s="144">
         <v>50</v>
       </c>
       <c r="D66" s="20">
@@ -28683,8 +28703,8 @@
       </c>
     </row>
     <row r="67" spans="2:36">
-      <c r="B67" s="143"/>
-      <c r="C67" s="139"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="144"/>
       <c r="D67" s="20">
         <v>91.27</v>
       </c>
@@ -28762,10 +28782,10 @@
       </c>
     </row>
     <row r="69" spans="2:36">
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="169" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="139">
+      <c r="C69" s="144">
         <v>106</v>
       </c>
       <c r="D69" s="20">
@@ -28816,8 +28836,8 @@
       </c>
     </row>
     <row r="70" spans="2:36">
-      <c r="B70" s="143"/>
-      <c r="C70" s="139"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="144"/>
       <c r="D70" s="31">
         <v>-21.76</v>
       </c>
@@ -28931,10 +28951,10 @@
       <c r="H72" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q72" s="163" t="s">
+      <c r="Q72" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="172">
+      <c r="R72" s="155">
         <v>51.999999999999986</v>
       </c>
       <c r="S72" s="23">
@@ -28952,7 +28972,7 @@
       <c r="W72" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Y72" s="139" t="s">
+      <c r="Y72" s="144" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="23">
@@ -28960,10 +28980,10 @@
       </c>
     </row>
     <row r="73" spans="2:36">
-      <c r="B73" s="140" t="s">
+      <c r="B73" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="153">
+      <c r="C73" s="173">
         <v>107</v>
       </c>
       <c r="D73" s="20">
@@ -28982,7 +29002,7 @@
         <v>189</v>
       </c>
       <c r="Q73" s="156"/>
-      <c r="R73" s="172"/>
+      <c r="R73" s="155"/>
       <c r="S73" s="23">
         <v>-28.1</v>
       </c>
@@ -28998,14 +29018,14 @@
       <c r="W73" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Y73" s="139"/>
+      <c r="Y73" s="144"/>
       <c r="AC73" s="23">
         <v>8.66</v>
       </c>
     </row>
     <row r="74" spans="2:36">
-      <c r="B74" s="141"/>
-      <c r="C74" s="153"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="173"/>
       <c r="D74" s="31">
         <v>-19.010000000000002</v>
       </c>
@@ -29155,7 +29175,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="139">
+      <c r="C78" s="144">
         <v>90.000000000000057</v>
       </c>
       <c r="D78" s="20">
@@ -29197,7 +29217,7 @@
       </c>
     </row>
     <row r="79" spans="2:36">
-      <c r="C79" s="139"/>
+      <c r="C79" s="144"/>
       <c r="D79" s="20">
         <v>81.13</v>
       </c>
@@ -29244,10 +29264,10 @@
       </c>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="155" t="s">
+      <c r="B81" s="169" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="139">
+      <c r="C81" s="144">
         <v>51.999999999999986</v>
       </c>
       <c r="D81" s="31">
@@ -29265,7 +29285,7 @@
       <c r="H81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="139" t="s">
+      <c r="J81" s="144" t="s">
         <v>210</v>
       </c>
       <c r="R81" s="4" t="s">
@@ -29282,8 +29302,8 @@
       </c>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="139"/>
-      <c r="C82" s="139"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
       <c r="D82" s="31">
         <v>-28.1</v>
       </c>
@@ -29299,7 +29319,7 @@
       <c r="H82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="139"/>
+      <c r="J82" s="144"/>
       <c r="R82">
         <f>FTEST(R4:R45, R51:R77)</f>
         <v>0.81669524197107601</v>
@@ -29358,11 +29378,11 @@
         <f t="shared" ref="U83" si="10">TTEST(U4:U45, U51:U77, 2, 2)</f>
         <v>0.67575151385258603</v>
       </c>
-      <c r="AB83" s="139" t="s">
+      <c r="AB83" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="AC83" s="139"/>
-      <c r="AD83" s="139"/>
+      <c r="AC83" s="144"/>
+      <c r="AD83" s="144"/>
     </row>
     <row r="84" spans="2:30">
       <c r="B84" s="1" t="s">
@@ -29553,7 +29573,7 @@
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="139">
+      <c r="C91" s="144">
         <v>46.000000000000021</v>
       </c>
       <c r="D91" s="31">
@@ -29580,7 +29600,7 @@
       </c>
     </row>
     <row r="92" spans="2:30">
-      <c r="C92" s="139"/>
+      <c r="C92" s="144"/>
       <c r="D92" s="20">
         <v>43.52</v>
       </c>
@@ -29604,7 +29624,7 @@
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="139">
+      <c r="C93" s="144">
         <v>48</v>
       </c>
       <c r="D93" s="20">
@@ -29627,7 +29647,7 @@
       </c>
     </row>
     <row r="94" spans="2:30">
-      <c r="C94" s="139"/>
+      <c r="C94" s="144"/>
       <c r="D94" s="31">
         <v>-29.58</v>
       </c>
@@ -29693,48 +29713,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="Y72:Y73"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="AB83:AD83"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="I48:I55"/>
     <mergeCell ref="B73:B74"/>
@@ -29751,6 +29729,48 @@
     <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="Y72:Y73"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="AB83:AD83"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R61:R62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29779,15 +29799,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
       <c r="P2" s="19" t="s">
         <v>250</v>
       </c>
@@ -29840,7 +29860,7 @@
       <c r="P3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="154">
+      <c r="Q3" s="160">
         <v>84</v>
       </c>
       <c r="R3" s="24">
@@ -29863,11 +29883,11 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="180">
+      <c r="B4" s="180"/>
+      <c r="C4" s="182">
         <v>84</v>
       </c>
       <c r="D4" s="19">
@@ -29896,7 +29916,7 @@
         <v>24.299999999999997</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="154"/>
+      <c r="Q4" s="160"/>
       <c r="R4" s="26">
         <v>24.45</v>
       </c>
@@ -29935,9 +29955,9 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="19">
         <v>24.45</v>
       </c>
@@ -29962,10 +29982,10 @@
       <c r="M5" s="1">
         <v>-38.869999999999997</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="P5" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="154">
+      <c r="Q5" s="160">
         <v>63</v>
       </c>
       <c r="R5" s="40">
@@ -30006,7 +30026,7 @@
         <f>AVERAGE(T3,T8:T11,T13:T17,T19:T20)</f>
         <v>10.009166666666667</v>
       </c>
-      <c r="AH5" s="139" t="s">
+      <c r="AH5" s="144" t="s">
         <v>311</v>
       </c>
       <c r="AI5" t="s">
@@ -30049,8 +30069,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
       <c r="R6" s="40">
         <v>57.46</v>
       </c>
@@ -30089,7 +30109,7 @@
         <f>AVERAGE(T7,T18)</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="AH6" s="139"/>
+      <c r="AH6" s="144"/>
       <c r="AI6" t="s">
         <v>313</v>
       </c>
@@ -30181,14 +30201,14 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
       <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
@@ -30294,12 +30314,12 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
       <c r="P12" s="3" t="s">
         <v>11</v>
       </c>
@@ -30327,10 +30347,10 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="177">
+      <c r="C13" s="179">
         <v>188</v>
       </c>
       <c r="D13" s="4">
@@ -30375,8 +30395,8 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="175"/>
-      <c r="C14" s="177">
+      <c r="B14" s="177"/>
+      <c r="C14" s="179">
         <f>(B14/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30420,8 +30440,8 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="175"/>
-      <c r="C15" s="177">
+      <c r="B15" s="177"/>
+      <c r="C15" s="179">
         <f>(B15/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30467,10 +30487,10 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="176">
+      <c r="C16" s="178">
         <v>63</v>
       </c>
       <c r="D16" s="28">
@@ -30522,8 +30542,8 @@
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="28">
         <v>57.46</v>
       </c>
@@ -30616,15 +30636,15 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:39">
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
@@ -30710,14 +30730,14 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="P24" s="4" t="s">
         <v>257</v>
       </c>
@@ -30747,10 +30767,10 @@
       <c r="AG24" t="s">
         <v>267</v>
       </c>
-      <c r="AJ24" s="139" t="s">
+      <c r="AJ24" s="144" t="s">
         <v>314</v>
       </c>
-      <c r="AK24" s="139"/>
+      <c r="AK24" s="144"/>
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="1" t="s">
@@ -30926,10 +30946,10 @@
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="171" t="s">
+      <c r="P27" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="182">
+      <c r="Q27" s="176">
         <v>188</v>
       </c>
       <c r="R27" s="29">
@@ -30977,8 +30997,8 @@
       </c>
     </row>
     <row r="28" spans="2:39">
-      <c r="P28" s="171"/>
-      <c r="Q28" s="182">
+      <c r="P28" s="166"/>
+      <c r="Q28" s="176">
         <f>(P28/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31006,8 +31026,8 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="182">
+      <c r="P29" s="166"/>
+      <c r="Q29" s="176">
         <f>(P29/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31081,10 +31101,10 @@
       </c>
     </row>
     <row r="31" spans="2:39">
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="181">
+      <c r="C31" s="175">
         <v>105</v>
       </c>
       <c r="D31" s="31">
@@ -31102,10 +31122,10 @@
       <c r="H31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="154" t="s">
+      <c r="P31" s="160" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="154">
+      <c r="Q31" s="160">
         <v>105</v>
       </c>
       <c r="R31" s="24">
@@ -31125,8 +31145,8 @@
       </c>
     </row>
     <row r="32" spans="2:39">
-      <c r="B32" s="139"/>
-      <c r="C32" s="181"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="31">
         <v>10.77</v>
       </c>
@@ -31142,8 +31162,8 @@
       <c r="H32" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="154"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="160"/>
       <c r="R32" s="26">
         <v>10.77</v>
       </c>
@@ -31642,6 +31662,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="B31:B32"/>
@@ -31655,15 +31684,6 @@
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31689,15 +31709,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -31792,10 +31812,10 @@
       <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="155" t="s">
+      <c r="L7" s="169" t="s">
         <v>317</v>
       </c>
-      <c r="M7" s="139">
+      <c r="M7" s="144">
         <v>184</v>
       </c>
       <c r="N7">
@@ -31836,8 +31856,8 @@
       <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="L8" s="160"/>
-      <c r="M8" s="139"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="144"/>
       <c r="N8">
         <v>-39.72</v>
       </c>
@@ -31855,8 +31875,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="160"/>
-      <c r="M9" s="139"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="144"/>
       <c r="N9">
         <v>-100</v>
       </c>
@@ -31874,8 +31894,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="160"/>
-      <c r="M10" s="139"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="144"/>
       <c r="N10">
         <v>-80.069999999999993</v>
       </c>
@@ -31896,8 +31916,8 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="143"/>
-      <c r="M11" s="139"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="144"/>
       <c r="N11">
         <v>-43.1</v>
       </c>
@@ -32413,7 +32433,7 @@
       <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="189">
         <v>90</v>
       </c>
       <c r="C6" s="26">
@@ -32467,7 +32487,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="59"/>
-      <c r="B7" s="188"/>
+      <c r="B7" s="190"/>
       <c r="C7" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -32582,7 +32602,7 @@
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="139">
         <v>86</v>
       </c>
       <c r="C10" s="24">
@@ -32624,7 +32644,7 @@
     </row>
     <row r="11" spans="1:25" ht="19" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="145"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="24">
         <v>-13.52</v>
       </c>
@@ -32666,7 +32686,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="15"/>
-      <c r="B12" s="145"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="24">
         <v>-37.61</v>
       </c>
@@ -32718,7 +32738,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="16"/>
-      <c r="B13" s="146"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="26">
         <v>-51.13</v>
       </c>
@@ -33204,7 +33224,7 @@
       <c r="A23" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="189">
+      <c r="B23" s="183">
         <v>90</v>
       </c>
       <c r="C23" s="78">
@@ -33247,7 +33267,7 @@
     </row>
     <row r="24" spans="1:25" ht="19" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="190"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="78">
         <v>-19.440000000000001</v>
       </c>
@@ -33734,10 +33754,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="154">
+      <c r="B39" s="160">
         <v>188</v>
       </c>
       <c r="C39" s="4">
@@ -33776,8 +33796,8 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="19" thickBot="1">
-      <c r="A40" s="171"/>
-      <c r="B40" s="154">
+      <c r="A40" s="166"/>
+      <c r="B40" s="160">
         <f>(A40/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -33817,8 +33837,8 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="171"/>
-      <c r="B41" s="154">
+      <c r="A41" s="166"/>
+      <c r="B41" s="160">
         <f>(A41/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -33918,10 +33938,10 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="154" t="s">
+      <c r="A43" s="160" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="154">
+      <c r="B43" s="160">
         <v>105</v>
       </c>
       <c r="C43" s="24">
@@ -33968,8 +33988,8 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="154"/>
-      <c r="B44" s="154"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="19">
         <v>10.77</v>
       </c>
@@ -34139,10 +34159,10 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="185" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="186">
+      <c r="B49" s="188">
         <v>184</v>
       </c>
       <c r="C49" s="34">
@@ -34191,8 +34211,8 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="184"/>
-      <c r="B50" s="186"/>
+      <c r="A50" s="186"/>
+      <c r="B50" s="188"/>
       <c r="C50" s="36">
         <v>-39.72</v>
       </c>
@@ -34237,8 +34257,8 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="184"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="188"/>
       <c r="C51" s="80">
         <v>-100</v>
       </c>
@@ -34277,8 +34297,8 @@
       <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="184"/>
-      <c r="B52" s="186"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="188"/>
       <c r="C52" s="80">
         <v>-80.069999999999993</v>
       </c>
@@ -34309,8 +34329,8 @@
       <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" ht="19" thickBot="1">
-      <c r="A53" s="185"/>
-      <c r="B53" s="186"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="188"/>
       <c r="C53" s="36">
         <v>-43.1</v>
       </c>
@@ -34480,18 +34500,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="M9:Q9"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="M9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34918,10 +34938,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="154">
+      <c r="B13" s="160">
         <v>90.999999999999943</v>
       </c>
       <c r="C13" s="22">
@@ -34965,8 +34985,8 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="171"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="22">
         <v>69.510000000000005</v>
       </c>
@@ -35053,7 +35073,7 @@
       <c r="A16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="165"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="4">
         <v>55.14</v>
       </c>
@@ -35110,7 +35130,7 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="19" thickBot="1">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="160" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="194">
@@ -35146,7 +35166,7 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="154"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="194"/>
       <c r="C19" s="22">
         <v>26.62</v>
@@ -35662,7 +35682,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="153" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="191">
@@ -35688,7 +35708,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="164"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="191"/>
       <c r="C36" s="21">
         <v>91.27</v>
@@ -36064,7 +36084,7 @@
       <c r="A53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="154">
+      <c r="B53" s="160">
         <v>84</v>
       </c>
       <c r="C53" s="22">
@@ -36091,7 +36111,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3"/>
-      <c r="B54" s="154"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="22">
         <v>24.45</v>
       </c>
@@ -36115,10 +36135,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="154">
+      <c r="B55" s="160">
         <v>63</v>
       </c>
       <c r="C55" s="100">
@@ -36142,8 +36162,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="154"/>
-      <c r="B56" s="154"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="100">
         <v>57.46</v>
       </c>
@@ -37025,23 +37045,23 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="168" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="157"/>
+      <c r="L1" s="168"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="157" t="s">
+      <c r="O1" s="168" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="157"/>
+      <c r="P1" s="168"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
       <c r="G2" t="s">
         <v>442</v>
       </c>
@@ -37856,8 +37876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -37868,22 +37888,22 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="168" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157" t="s">
+      <c r="G2" s="168"/>
+      <c r="H2" s="168" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="157"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -38074,10 +38094,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="P7" s="139" t="s">
+      <c r="P7" s="144" t="s">
         <v>515</v>
       </c>
-      <c r="Q7" s="139"/>
+      <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:19">
       <c r="P8">
@@ -38091,38 +38111,38 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="168" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157" t="s">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157" t="s">
+      <c r="G9" s="168"/>
+      <c r="H9" s="168" t="s">
         <v>497</v>
       </c>
-      <c r="I9" s="157"/>
+      <c r="I9" s="168"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="157" t="s">
+      <c r="N9" s="168" t="s">
         <v>509</v>
       </c>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168" t="s">
         <v>510</v>
       </c>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157" t="s">
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168" t="s">
         <v>512</v>
       </c>
-      <c r="S9" s="157"/>
+      <c r="S9" s="168"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
@@ -39250,14 +39270,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
-      <c r="F9" s="157" t="s">
+      <c r="F9" s="168" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157" t="s">
+      <c r="G9" s="168"/>
+      <c r="H9" s="168" t="s">
         <v>550</v>
       </c>
-      <c r="I9" s="157"/>
+      <c r="I9" s="168"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
@@ -39465,14 +39485,14 @@
     </row>
     <row r="24" spans="1:11">
       <c r="E24" s="118"/>
-      <c r="F24" s="157" t="s">
+      <c r="F24" s="168" t="s">
         <v>551</v>
       </c>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157" t="s">
+      <c r="G24" s="168"/>
+      <c r="H24" s="168" t="s">
         <v>550</v>
       </c>
-      <c r="I24" s="157"/>
+      <c r="I24" s="168"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="11140" yWindow="0" windowWidth="13800" windowHeight="14240" tabRatio="500" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="653">
   <si>
     <t>探索</t>
     <rPh sb="0" eb="2">
@@ -3256,6 +3256,10 @@
   </si>
   <si>
     <t>テキスト</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -8227,6 +8231,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -8921,6 +8930,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9303,6 +9317,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9709,6 +9728,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -10115,6 +10139,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -15700,15 +15729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37876,8 +37905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -38902,6 +38931,9 @@
     <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>513</v>
+      </c>
+      <c r="H28" t="s">
+        <v>652</v>
       </c>
       <c r="N28" t="s">
         <v>466</v>

--- a/literature/05.primary-experiment/分析結果.xlsx
+++ b/literature/05.primary-experiment/分析結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="0" windowWidth="13800" windowHeight="14240" tabRatio="500" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="11140" yWindow="0" windowWidth="13800" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="探索" sheetId="1" r:id="rId1"/>
@@ -5032,6 +5032,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5047,12 +5062,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5065,13 +5074,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5080,28 +5092,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5116,34 +5131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5164,11 +5158,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5186,6 +5180,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5209,18 +5209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5233,13 +5221,16 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5249,6 +5240,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6587,11 +6587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098261944"/>
-        <c:axId val="-2066153672"/>
+        <c:axId val="2125133416"/>
+        <c:axId val="-2098912968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098261944"/>
+        <c:axId val="2125133416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +6600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066153672"/>
+        <c:crossAx val="-2098912968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6608,7 +6608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066153672"/>
+        <c:axId val="-2098912968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,13 +6618,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098261944"/>
+        <c:crossAx val="2125133416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6655,7 +6656,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0995713861239043"/>
+          <c:y val="0.036734693877551"/>
+          <c:w val="0.721431250928539"/>
+          <c:h val="0.884081632653061"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7277,11 +7288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098950600"/>
-        <c:axId val="-2062050040"/>
+        <c:axId val="-2071345656"/>
+        <c:axId val="-2071797528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2098950600"/>
+        <c:axId val="-2071345656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,29 +7305,46 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1200" b="0"/>
                   <a:t>TIME [min]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.402849502302778"/>
+              <c:y val="0.928979591836735"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062050040"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071797528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062050040"/>
+        <c:axId val="-2071797528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7330,32 +7358,68 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX [%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.276860356741122"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098950600"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071345656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.812286064477789"/>
+          <c:y val="0.449665756066206"/>
+          <c:w val="0.187713935522211"/>
+          <c:h val="0.149648079704323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7748,11 +7812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098250744"/>
-        <c:axId val="-2063128472"/>
+        <c:axId val="-2067846168"/>
+        <c:axId val="-2071338840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2098250744"/>
+        <c:axId val="-2067846168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7782,12 +7846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063128472"/>
+        <c:crossAx val="-2071338840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063128472"/>
+        <c:axId val="-2071338840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -7818,7 +7882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098250744"/>
+        <c:crossAx val="-2067846168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8147,11 +8211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065739624"/>
-        <c:axId val="-2098253512"/>
+        <c:axId val="-2102354456"/>
+        <c:axId val="-2067394712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2065739624"/>
+        <c:axId val="-2102354456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8181,12 +8245,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098253512"/>
+        <c:crossAx val="-2067394712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2098253512"/>
+        <c:axId val="-2067394712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8217,7 +8281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065739624"/>
+        <c:crossAx val="-2102354456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8846,11 +8910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126556888"/>
-        <c:axId val="-2068201528"/>
+        <c:axId val="-2127282616"/>
+        <c:axId val="-2102741320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126556888"/>
+        <c:axId val="-2127282616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8880,12 +8944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068201528"/>
+        <c:crossAx val="-2102741320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2068201528"/>
+        <c:axId val="-2102741320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8916,7 +8980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126556888"/>
+        <c:crossAx val="-2127282616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8959,7 +9023,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.118544918727264"/>
+          <c:y val="0.0238095238095238"/>
+          <c:w val="0.653231799972372"/>
+          <c:h val="0.904761904761905"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -9233,11 +9307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101483960"/>
-        <c:axId val="2129880056"/>
+        <c:axId val="2119212088"/>
+        <c:axId val="-2127136280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101483960"/>
+        <c:axId val="2119212088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9250,29 +9324,46 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1200" b="0"/>
                   <a:t>TIME [min]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.369278445457476"/>
+              <c:y val="0.914285714285714"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129880056"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127136280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129880056"/>
+        <c:axId val="-2127136280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9286,32 +9377,68 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX [%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000947644702306948"/>
+              <c:y val="0.239670416197975"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101483960"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119212088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.791401206428144"/>
+          <c:y val="0.404367079115111"/>
+          <c:w val="0.208598793571856"/>
+          <c:h val="0.191265841769779"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -9644,11 +9771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102149368"/>
-        <c:axId val="-2101492696"/>
+        <c:axId val="-2126794984"/>
+        <c:axId val="-2103281944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102149368"/>
+        <c:axId val="-2126794984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9678,12 +9805,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101492696"/>
+        <c:crossAx val="-2103281944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101492696"/>
+        <c:axId val="-2103281944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9714,7 +9841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102149368"/>
+        <c:crossAx val="-2126794984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10055,11 +10182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2068563576"/>
-        <c:axId val="-2100394152"/>
+        <c:axId val="-2123791576"/>
+        <c:axId val="-2099652904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2068563576"/>
+        <c:axId val="-2123791576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,12 +10216,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100394152"/>
+        <c:crossAx val="-2099652904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2100394152"/>
+        <c:axId val="-2099652904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10125,7 +10252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068563576"/>
+        <c:crossAx val="-2123791576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10706,11 +10833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2069791416"/>
-        <c:axId val="-2101030248"/>
+        <c:axId val="-2144079096"/>
+        <c:axId val="-2066609368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2069791416"/>
+        <c:axId val="-2144079096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10740,12 +10867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101030248"/>
+        <c:crossAx val="-2066609368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101030248"/>
+        <c:axId val="-2066609368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -10776,7 +10903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069791416"/>
+        <c:crossAx val="-2144079096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11225,11 +11352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102002952"/>
-        <c:axId val="-2071748712"/>
+        <c:axId val="-2127628040"/>
+        <c:axId val="-2144865784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102002952"/>
+        <c:axId val="-2127628040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11259,12 +11386,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071748712"/>
+        <c:crossAx val="-2144865784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071748712"/>
+        <c:axId val="-2144865784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11295,7 +11422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102002952"/>
+        <c:crossAx val="-2127628040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11768,11 +11895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2067338312"/>
-        <c:axId val="2125884552"/>
+        <c:axId val="-2127868232"/>
+        <c:axId val="-2126488632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2067338312"/>
+        <c:axId val="-2127868232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11795,19 +11922,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125884552"/>
+        <c:crossAx val="-2126488632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125884552"/>
+        <c:axId val="-2126488632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -11831,21 +11957,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067338312"/>
+        <c:crossAx val="-2127868232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11881,7 +12005,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.105862778979172"/>
+          <c:y val="0.0398009950248756"/>
+          <c:w val="0.865227891191656"/>
+          <c:h val="0.84071297058017"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -11984,11 +12118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2068610200"/>
-        <c:axId val="-2101299736"/>
+        <c:axId val="-2102658888"/>
+        <c:axId val="-2066254232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068610200"/>
+        <c:axId val="-2102658888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12007,7 +12141,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101299736"/>
+        <c:crossAx val="-2066254232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12015,7 +12149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101299736"/>
+        <c:axId val="-2066254232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -12029,16 +12163,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX[%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00208552774529991"/>
+              <c:y val="0.223626356406942"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12050,12 +12192,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068610200"/>
+        <c:crossAx val="-2102658888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12211,11 +12353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100878104"/>
-        <c:axId val="-2102388008"/>
+        <c:axId val="-2126096024"/>
+        <c:axId val="-2065374680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100878104"/>
+        <c:axId val="-2126096024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12224,7 +12366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102388008"/>
+        <c:crossAx val="-2065374680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12232,7 +12374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102388008"/>
+        <c:axId val="-2065374680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12266,7 +12408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100878104"/>
+        <c:crossAx val="-2126096024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12402,11 +12544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102098232"/>
-        <c:axId val="2110353640"/>
+        <c:axId val="-2066116728"/>
+        <c:axId val="-2128274168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102098232"/>
+        <c:axId val="-2066116728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12415,7 +12557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110353640"/>
+        <c:crossAx val="-2128274168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12423,7 +12565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110353640"/>
+        <c:axId val="-2128274168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12461,7 +12603,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102098232"/>
+        <c:crossAx val="-2066116728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12689,11 +12831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124191896"/>
-        <c:axId val="-2123884696"/>
+        <c:axId val="2123841416"/>
+        <c:axId val="-2128349448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124191896"/>
+        <c:axId val="2123841416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12723,12 +12865,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123884696"/>
+        <c:crossAx val="-2128349448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123884696"/>
+        <c:axId val="-2128349448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -12759,7 +12901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124191896"/>
+        <c:crossAx val="2123841416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13166,11 +13308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124184424"/>
-        <c:axId val="-2124175896"/>
+        <c:axId val="-2126398184"/>
+        <c:axId val="-2066008488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124184424"/>
+        <c:axId val="-2126398184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13200,12 +13342,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124175896"/>
+        <c:crossAx val="-2066008488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124175896"/>
+        <c:axId val="-2066008488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -13237,7 +13379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124184424"/>
+        <c:crossAx val="-2126398184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13387,11 +13529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2106663896"/>
-        <c:axId val="-2101182248"/>
+        <c:axId val="-2063314328"/>
+        <c:axId val="-2143278680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106663896"/>
+        <c:axId val="-2063314328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13400,7 +13542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101182248"/>
+        <c:crossAx val="-2143278680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13408,7 +13550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101182248"/>
+        <c:axId val="-2143278680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13418,7 +13560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106663896"/>
+        <c:crossAx val="-2063314328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13562,11 +13704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2063027144"/>
-        <c:axId val="-2101313624"/>
+        <c:axId val="-2123819608"/>
+        <c:axId val="-2099268888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2063027144"/>
+        <c:axId val="-2123819608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13575,7 +13717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101313624"/>
+        <c:crossAx val="-2099268888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13583,7 +13725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101313624"/>
+        <c:axId val="-2099268888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13593,14 +13735,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063027144"/>
+        <c:crossAx val="-2123819608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13774,11 +13915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066040168"/>
-        <c:axId val="-2065828904"/>
+        <c:axId val="-2099438696"/>
+        <c:axId val="-2099468184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066040168"/>
+        <c:axId val="-2099438696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13787,7 +13928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065828904"/>
+        <c:crossAx val="-2099468184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13795,7 +13936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065828904"/>
+        <c:axId val="-2099468184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13805,7 +13946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066040168"/>
+        <c:crossAx val="-2099438696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13957,11 +14098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102366184"/>
-        <c:axId val="-2101092712"/>
+        <c:axId val="2107788456"/>
+        <c:axId val="-2147194184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102366184"/>
+        <c:axId val="2107788456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13970,7 +14111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101092712"/>
+        <c:crossAx val="-2147194184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13978,7 +14119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101092712"/>
+        <c:axId val="-2147194184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14001,14 +14142,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102366184"/>
+        <c:crossAx val="2107788456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14213,11 +14353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127399944"/>
-        <c:axId val="-2127296424"/>
+        <c:axId val="2125500696"/>
+        <c:axId val="2127443272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127399944"/>
+        <c:axId val="2125500696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14226,7 +14366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127296424"/>
+        <c:crossAx val="2127443272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14234,7 +14374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127296424"/>
+        <c:axId val="2127443272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14244,13 +14384,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127399944"/>
+        <c:crossAx val="2125500696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14448,11 +14589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069347480"/>
-        <c:axId val="-2067319896"/>
+        <c:axId val="2107937592"/>
+        <c:axId val="-2147303224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069347480"/>
+        <c:axId val="2107937592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14461,7 +14602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067319896"/>
+        <c:crossAx val="-2147303224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14469,7 +14610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067319896"/>
+        <c:axId val="-2147303224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14479,13 +14620,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069347480"/>
+        <c:crossAx val="2107937592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14516,7 +14658,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0859346578770677"/>
+          <c:y val="0.0256959314775161"/>
+          <c:w val="0.906919367637185"/>
+          <c:h val="0.948608137044968"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -14655,11 +14807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142474344"/>
-        <c:axId val="-2142356504"/>
+        <c:axId val="-2067748760"/>
+        <c:axId val="2126793592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142474344"/>
+        <c:axId val="-2067748760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14668,7 +14820,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142356504"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126793592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14676,7 +14838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142356504"/>
+        <c:axId val="2126793592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14689,23 +14851,41 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX[%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.253413478561432"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142474344"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067748760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14829,11 +15009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098699192"/>
-        <c:axId val="2124318440"/>
+        <c:axId val="2126671048"/>
+        <c:axId val="2126549464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098699192"/>
+        <c:axId val="2126671048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14842,7 +15022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124318440"/>
+        <c:crossAx val="2126549464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14850,7 +15030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124318440"/>
+        <c:axId val="2126549464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14876,13 +15056,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098699192"/>
+        <c:crossAx val="2126671048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14989,11 +15170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2064716296"/>
-        <c:axId val="-2063429816"/>
+        <c:axId val="-2124092952"/>
+        <c:axId val="-2123749752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064716296"/>
+        <c:axId val="-2124092952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15002,7 +15183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063429816"/>
+        <c:crossAx val="-2123749752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15010,7 +15191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063429816"/>
+        <c:axId val="-2123749752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15020,7 +15201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064716296"/>
+        <c:crossAx val="-2124092952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15162,11 +15343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098269848"/>
-        <c:axId val="-2065267160"/>
+        <c:axId val="2130337848"/>
+        <c:axId val="-2069716648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098269848"/>
+        <c:axId val="2130337848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15175,7 +15356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065267160"/>
+        <c:crossAx val="-2069716648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15183,7 +15364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065267160"/>
+        <c:axId val="-2069716648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15193,7 +15374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098269848"/>
+        <c:crossAx val="2130337848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15289,11 +15470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142378136"/>
-        <c:axId val="-2063544616"/>
+        <c:axId val="2130275736"/>
+        <c:axId val="-2067260536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142378136"/>
+        <c:axId val="2130275736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15302,7 +15483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063544616"/>
+        <c:crossAx val="-2067260536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15310,7 +15491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063544616"/>
+        <c:axId val="-2067260536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15343,7 +15524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142378136"/>
+        <c:crossAx val="2130275736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15410,10 +15591,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15504,16 +15685,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15665,15 +15846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15798,10 +15979,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20219,22 +20400,22 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -20362,10 +20543,10 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="151">
         <v>90</v>
       </c>
       <c r="C7" s="1">
@@ -20396,8 +20577,8 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="147"/>
-      <c r="B8" s="149"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="1">
         <v>-19.440000000000001</v>
       </c>
@@ -20413,10 +20594,10 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="144" t="s">
+      <c r="V8" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="W8" s="144"/>
+      <c r="W8" s="139"/>
       <c r="Y8">
         <f>FTEST(V10:V11, W10:W22)</f>
         <v>0.16952866621585372</v>
@@ -20435,15 +20616,15 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="L10" t="s">
         <v>240</v>
       </c>
@@ -20531,15 +20712,15 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
       <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
@@ -20588,7 +20769,7 @@
       <c r="L14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="142">
+      <c r="M14" s="147">
         <v>90</v>
       </c>
       <c r="N14" s="26">
@@ -20609,10 +20790,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="150">
+      <c r="B15" s="140">
         <v>86</v>
       </c>
       <c r="C15" s="3">
@@ -20629,7 +20810,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="143"/>
+      <c r="M15" s="148"/>
       <c r="N15" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -20650,8 +20831,8 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="151"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="3">
         <v>-13.52</v>
       </c>
@@ -20691,8 +20872,8 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="151"/>
-      <c r="B17" s="151"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="3">
         <v>-37.61</v>
       </c>
@@ -20732,8 +20913,8 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="3">
         <v>-51.13</v>
       </c>
@@ -20750,7 +20931,7 @@
       <c r="L18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="139">
+      <c r="M18" s="144">
         <v>86</v>
       </c>
       <c r="N18" s="24">
@@ -20772,7 +20953,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="15"/>
-      <c r="M19" s="140"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="24">
         <v>-13.52</v>
       </c>
@@ -20791,16 +20972,16 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="140"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="24">
         <v>-37.61</v>
       </c>
@@ -20846,7 +21027,7 @@
         <v>99</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="141"/>
+      <c r="M21" s="146"/>
       <c r="N21" s="24">
         <v>-51.13</v>
       </c>
@@ -20888,14 +21069,14 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
       <c r="L23" s="1" t="s">
         <v>65</v>
       </c>
@@ -21293,11 +21474,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:G13"/>
     <mergeCell ref="M18:M21"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="V8:W8"/>
@@ -21305,6 +21481,11 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21358,13 +21539,13 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="B4" s="106">
         <v>1</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="E4" s="106">
@@ -21373,7 +21554,7 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="H4" s="106">
@@ -21382,7 +21563,7 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="202" t="s">
+      <c r="J4" s="198" t="s">
         <v>583</v>
       </c>
       <c r="K4" s="123">
@@ -21391,7 +21572,7 @@
       <c r="L4" s="124">
         <v>6</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="N4" s="106">
@@ -21400,7 +21581,7 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" s="198" t="s">
+      <c r="P4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="Q4" s="106">
@@ -21409,7 +21590,7 @@
       <c r="R4">
         <v>6</v>
       </c>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="T4" s="106">
@@ -21418,7 +21599,7 @@
       <c r="U4">
         <v>6</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="204" t="s">
         <v>583</v>
       </c>
       <c r="W4" s="106">
@@ -21427,130 +21608,130 @@
       <c r="X4">
         <v>6</v>
       </c>
-      <c r="Y4" s="202" t="s">
+      <c r="Y4" s="198" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="198"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="106">
         <v>2</v>
       </c>
-      <c r="D5" s="198"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="106">
         <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="198"/>
+      <c r="G5" s="204"/>
       <c r="H5" s="106">
         <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="202"/>
+      <c r="J5" s="198"/>
       <c r="K5" s="123">
         <v>2</v>
       </c>
       <c r="L5" s="124">
         <v>3</v>
       </c>
-      <c r="M5" s="198"/>
+      <c r="M5" s="204"/>
       <c r="N5" s="106">
         <v>2</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
-      <c r="P5" s="198"/>
+      <c r="P5" s="204"/>
       <c r="Q5" s="106">
         <v>2</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="198"/>
+      <c r="S5" s="204"/>
       <c r="T5" s="106">
         <v>2</v>
       </c>
       <c r="U5">
         <v>6</v>
       </c>
-      <c r="V5" s="198"/>
+      <c r="V5" s="204"/>
       <c r="W5" s="106">
         <v>2</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
-      <c r="Y5" s="202"/>
+      <c r="Y5" s="198"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="198"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="106">
         <v>3</v>
       </c>
-      <c r="D6" s="198"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="106">
         <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="198"/>
+      <c r="G6" s="204"/>
       <c r="H6" s="106">
         <v>3</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="202"/>
+      <c r="J6" s="198"/>
       <c r="K6" s="123">
         <v>3</v>
       </c>
       <c r="L6" s="124">
         <v>6</v>
       </c>
-      <c r="M6" s="198"/>
+      <c r="M6" s="204"/>
       <c r="N6" s="106">
         <v>3</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="198"/>
+      <c r="P6" s="204"/>
       <c r="Q6" s="106">
         <v>3</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
-      <c r="S6" s="198"/>
+      <c r="S6" s="204"/>
       <c r="T6" s="106">
         <v>3</v>
       </c>
       <c r="U6">
         <v>6</v>
       </c>
-      <c r="V6" s="198"/>
+      <c r="V6" s="204"/>
       <c r="W6" s="106">
         <v>3</v>
       </c>
       <c r="X6">
         <v>5</v>
       </c>
-      <c r="Y6" s="202"/>
+      <c r="Y6" s="198"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="B7" s="106">
         <v>4</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="E7" s="106">
@@ -21559,7 +21740,7 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="H7" s="106">
@@ -21568,7 +21749,7 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" s="203" t="s">
+      <c r="J7" s="199" t="s">
         <v>584</v>
       </c>
       <c r="K7" s="123">
@@ -21577,7 +21758,7 @@
       <c r="L7" s="124">
         <v>5</v>
       </c>
-      <c r="M7" s="199" t="s">
+      <c r="M7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="N7" s="106">
@@ -21586,7 +21767,7 @@
       <c r="O7">
         <v>7</v>
       </c>
-      <c r="P7" s="199" t="s">
+      <c r="P7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="Q7" s="106">
@@ -21595,7 +21776,7 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="S7" s="199" t="s">
+      <c r="S7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="T7" s="106">
@@ -21604,7 +21785,7 @@
       <c r="U7">
         <v>5</v>
       </c>
-      <c r="V7" s="199" t="s">
+      <c r="V7" s="205" t="s">
         <v>584</v>
       </c>
       <c r="W7" s="106">
@@ -21613,130 +21794,130 @@
       <c r="X7">
         <v>6</v>
       </c>
-      <c r="Y7" s="203" t="s">
+      <c r="Y7" s="199" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="106">
         <v>5</v>
       </c>
-      <c r="D8" s="199"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="106">
         <v>5</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="199"/>
+      <c r="G8" s="205"/>
       <c r="H8" s="106">
         <v>5</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" s="203"/>
+      <c r="J8" s="199"/>
       <c r="K8" s="123">
         <v>5</v>
       </c>
       <c r="L8" s="124">
         <v>5</v>
       </c>
-      <c r="M8" s="199"/>
+      <c r="M8" s="205"/>
       <c r="N8" s="106">
         <v>5</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8" s="199"/>
+      <c r="P8" s="205"/>
       <c r="Q8" s="106">
         <v>5</v>
       </c>
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" s="199"/>
+      <c r="S8" s="205"/>
       <c r="T8" s="106">
         <v>5</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
-      <c r="V8" s="199"/>
+      <c r="V8" s="205"/>
       <c r="W8" s="106">
         <v>5</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
-      <c r="Y8" s="203"/>
+      <c r="Y8" s="199"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="106">
         <v>6</v>
       </c>
-      <c r="D9" s="199"/>
+      <c r="D9" s="205"/>
       <c r="E9" s="106">
         <v>6</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="199"/>
+      <c r="G9" s="205"/>
       <c r="H9" s="106">
         <v>6</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
-      <c r="J9" s="203"/>
+      <c r="J9" s="199"/>
       <c r="K9" s="123">
         <v>6</v>
       </c>
       <c r="L9" s="124">
         <v>7</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="205"/>
       <c r="N9" s="106">
         <v>6</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="199"/>
+      <c r="P9" s="205"/>
       <c r="Q9" s="106">
         <v>6</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9" s="199"/>
+      <c r="S9" s="205"/>
       <c r="T9" s="106">
         <v>6</v>
       </c>
       <c r="U9">
         <v>6</v>
       </c>
-      <c r="V9" s="199"/>
+      <c r="V9" s="205"/>
       <c r="W9" s="106">
         <v>6</v>
       </c>
       <c r="X9">
         <v>5</v>
       </c>
-      <c r="Y9" s="203"/>
+      <c r="Y9" s="199"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="B10" s="106">
         <v>7</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="E10" s="106">
@@ -21745,7 +21926,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="200" t="s">
+      <c r="G10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="H10" s="106">
@@ -21754,7 +21935,7 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="204" t="s">
+      <c r="J10" s="200" t="s">
         <v>585</v>
       </c>
       <c r="K10" s="123">
@@ -21763,7 +21944,7 @@
       <c r="L10" s="124">
         <v>4</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="N10" s="106">
@@ -21772,7 +21953,7 @@
       <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10" s="200" t="s">
+      <c r="P10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="Q10" s="106">
@@ -21781,7 +21962,7 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" s="200" t="s">
+      <c r="S10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="T10" s="106">
@@ -21790,7 +21971,7 @@
       <c r="U10">
         <v>5</v>
       </c>
-      <c r="V10" s="200" t="s">
+      <c r="V10" s="202" t="s">
         <v>585</v>
       </c>
       <c r="W10" s="106">
@@ -21799,130 +21980,130 @@
       <c r="X10">
         <v>6</v>
       </c>
-      <c r="Y10" s="204" t="s">
+      <c r="Y10" s="200" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="200"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="106">
         <v>8</v>
       </c>
-      <c r="D11" s="200"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="106">
         <v>8</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="200"/>
+      <c r="G11" s="202"/>
       <c r="H11" s="106">
         <v>8</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="204"/>
+      <c r="J11" s="200"/>
       <c r="K11" s="123">
         <v>8</v>
       </c>
       <c r="L11" s="124">
         <v>5</v>
       </c>
-      <c r="M11" s="200"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="106">
         <v>8</v>
       </c>
       <c r="O11">
         <v>7</v>
       </c>
-      <c r="P11" s="200"/>
+      <c r="P11" s="202"/>
       <c r="Q11" s="106">
         <v>8</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
-      <c r="S11" s="200"/>
+      <c r="S11" s="202"/>
       <c r="T11" s="106">
         <v>8</v>
       </c>
       <c r="U11">
         <v>4</v>
       </c>
-      <c r="V11" s="200"/>
+      <c r="V11" s="202"/>
       <c r="W11" s="106">
         <v>8</v>
       </c>
       <c r="X11">
         <v>5</v>
       </c>
-      <c r="Y11" s="204"/>
+      <c r="Y11" s="200"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="200"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="106">
         <v>9</v>
       </c>
-      <c r="D12" s="200"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="106">
         <v>9</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="200"/>
+      <c r="G12" s="202"/>
       <c r="H12" s="106">
         <v>9</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="204"/>
+      <c r="J12" s="200"/>
       <c r="K12" s="123">
         <v>9</v>
       </c>
       <c r="L12" s="124">
         <v>6</v>
       </c>
-      <c r="M12" s="200"/>
+      <c r="M12" s="202"/>
       <c r="N12" s="106">
         <v>9</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
-      <c r="P12" s="200"/>
+      <c r="P12" s="202"/>
       <c r="Q12" s="106">
         <v>9</v>
       </c>
       <c r="R12">
         <v>6</v>
       </c>
-      <c r="S12" s="200"/>
+      <c r="S12" s="202"/>
       <c r="T12" s="106">
         <v>9</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
-      <c r="V12" s="200"/>
+      <c r="V12" s="202"/>
       <c r="W12" s="106">
         <v>9</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
-      <c r="Y12" s="204"/>
+      <c r="Y12" s="200"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="B13" s="106">
         <v>10</v>
       </c>
-      <c r="D13" s="201" t="s">
+      <c r="D13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="E13" s="106">
@@ -21931,7 +22112,7 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="201" t="s">
+      <c r="G13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="H13" s="106">
@@ -21940,7 +22121,7 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="205" t="s">
+      <c r="J13" s="201" t="s">
         <v>586</v>
       </c>
       <c r="K13" s="123">
@@ -21949,7 +22130,7 @@
       <c r="L13" s="124">
         <v>7</v>
       </c>
-      <c r="M13" s="201" t="s">
+      <c r="M13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="N13" s="106">
@@ -21958,7 +22139,7 @@
       <c r="O13">
         <v>6</v>
       </c>
-      <c r="P13" s="201" t="s">
+      <c r="P13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="Q13" s="106">
@@ -21967,7 +22148,7 @@
       <c r="R13">
         <v>3</v>
       </c>
-      <c r="S13" s="201" t="s">
+      <c r="S13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="T13" s="106">
@@ -21976,7 +22157,7 @@
       <c r="U13">
         <v>7</v>
       </c>
-      <c r="V13" s="201" t="s">
+      <c r="V13" s="203" t="s">
         <v>586</v>
       </c>
       <c r="W13" s="106">
@@ -21985,121 +22166,121 @@
       <c r="X13">
         <v>3</v>
       </c>
-      <c r="Y13" s="205" t="s">
+      <c r="Y13" s="201" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="106">
         <v>11</v>
       </c>
-      <c r="D14" s="201"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="106">
         <v>11</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="201"/>
+      <c r="G14" s="203"/>
       <c r="H14" s="106">
         <v>11</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14" s="205"/>
+      <c r="J14" s="201"/>
       <c r="K14" s="123">
         <v>11</v>
       </c>
       <c r="L14" s="124">
         <v>6</v>
       </c>
-      <c r="M14" s="201"/>
+      <c r="M14" s="203"/>
       <c r="N14" s="106">
         <v>11</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
-      <c r="P14" s="201"/>
+      <c r="P14" s="203"/>
       <c r="Q14" s="106">
         <v>11</v>
       </c>
       <c r="R14">
         <v>6</v>
       </c>
-      <c r="S14" s="201"/>
+      <c r="S14" s="203"/>
       <c r="T14" s="106">
         <v>11</v>
       </c>
       <c r="U14">
         <v>7</v>
       </c>
-      <c r="V14" s="201"/>
+      <c r="V14" s="203"/>
       <c r="W14" s="106">
         <v>11</v>
       </c>
       <c r="X14">
         <v>5</v>
       </c>
-      <c r="Y14" s="205"/>
+      <c r="Y14" s="201"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="201"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="106">
         <v>12</v>
       </c>
-      <c r="D15" s="201"/>
+      <c r="D15" s="203"/>
       <c r="E15" s="106">
         <v>12</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="201"/>
+      <c r="G15" s="203"/>
       <c r="H15" s="106">
         <v>12</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="205"/>
+      <c r="J15" s="201"/>
       <c r="K15" s="123">
         <v>12</v>
       </c>
       <c r="L15" s="124">
         <v>6</v>
       </c>
-      <c r="M15" s="201"/>
+      <c r="M15" s="203"/>
       <c r="N15" s="106">
         <v>12</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
-      <c r="P15" s="201"/>
+      <c r="P15" s="203"/>
       <c r="Q15" s="106">
         <v>12</v>
       </c>
       <c r="R15">
         <v>7</v>
       </c>
-      <c r="S15" s="201"/>
+      <c r="S15" s="203"/>
       <c r="T15" s="106">
         <v>12</v>
       </c>
       <c r="U15">
         <v>7</v>
       </c>
-      <c r="V15" s="201"/>
+      <c r="V15" s="203"/>
       <c r="W15" s="106">
         <v>12</v>
       </c>
       <c r="X15">
         <v>5</v>
       </c>
-      <c r="Y15" s="205"/>
+      <c r="Y15" s="201"/>
     </row>
     <row r="18" spans="1:11">
       <c r="J18" t="s">
@@ -22110,7 +22291,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="204" t="s">
         <v>583</v>
       </c>
       <c r="B19" s="1">
@@ -22141,13 +22322,13 @@
         <f>AVERAGE(B19:I19)</f>
         <v>5.375</v>
       </c>
-      <c r="K19" s="144">
+      <c r="K19" s="139">
         <f>AVERAGE(B19:I22)</f>
         <v>5.4375</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="198"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -22176,10 +22357,10 @@
         <f t="shared" ref="J20:J30" si="0">AVERAGE(B20:I20)</f>
         <v>5.25</v>
       </c>
-      <c r="K20" s="144"/>
+      <c r="K20" s="139"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="198"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -22208,10 +22389,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K21" s="144"/>
+      <c r="K21" s="139"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="205" t="s">
         <v>584</v>
       </c>
       <c r="B22" s="1">
@@ -22242,13 +22423,13 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="K22" s="144">
+      <c r="K22" s="139">
         <f>AVERAGE(B22:I24)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="199"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="1">
         <v>7</v>
       </c>
@@ -22277,10 +22458,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K23" s="144"/>
+      <c r="K23" s="139"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="199"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -22309,10 +22490,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K24" s="144"/>
+      <c r="K24" s="139"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="202" t="s">
         <v>585</v>
       </c>
       <c r="B25" s="1">
@@ -22343,13 +22524,13 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K25" s="144">
+      <c r="K25" s="139">
         <f>AVERAGE(B25:I27)</f>
         <v>5.125</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="200"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="1">
         <v>7</v>
       </c>
@@ -22378,10 +22559,10 @@
         <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
-      <c r="K26" s="144"/>
+      <c r="K26" s="139"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="200"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -22410,10 +22591,10 @@
         <f t="shared" si="0"/>
         <v>4.375</v>
       </c>
-      <c r="K27" s="144"/>
+      <c r="K27" s="139"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="201" t="s">
+      <c r="A28" s="203" t="s">
         <v>586</v>
       </c>
       <c r="B28" s="1">
@@ -22444,13 +22625,13 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K28" s="144">
+      <c r="K28" s="139">
         <f>AVERAGE(B28:I30)</f>
         <v>5.291666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="201"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -22479,10 +22660,10 @@
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="K29" s="144"/>
+      <c r="K29" s="139"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="1">
         <v>7</v>
       </c>
@@ -22511,7 +22692,7 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="K30" s="144"/>
+      <c r="K30" s="139"/>
     </row>
     <row r="32" spans="1:11">
       <c r="C32" t="s">
@@ -22711,12 +22892,36 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V7:V9"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
@@ -22725,36 +22930,12 @@
     <mergeCell ref="K22:K24"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="V13:V15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22808,7 +22989,7 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -22817,7 +22998,7 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -22826,7 +23007,7 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="206" t="s">
+      <c r="G3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -22835,7 +23016,7 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="206" t="s">
+      <c r="J3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -22844,7 +23025,7 @@
       <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="206" t="s">
+      <c r="M3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -22853,7 +23034,7 @@
       <c r="O3" s="1">
         <v>5</v>
       </c>
-      <c r="P3" s="206" t="s">
+      <c r="P3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -22862,7 +23043,7 @@
       <c r="R3" s="1">
         <v>6</v>
       </c>
-      <c r="S3" s="206" t="s">
+      <c r="S3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -22880,7 +23061,7 @@
       <c r="X3" s="125">
         <v>6</v>
       </c>
-      <c r="Y3" s="206" t="s">
+      <c r="Y3" s="209" t="s">
         <v>587</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -22891,49 +23072,49 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="207"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="207"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="207"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="207"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="207"/>
+      <c r="M4" s="210"/>
       <c r="N4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
-      <c r="P4" s="207"/>
+      <c r="P4" s="210"/>
       <c r="Q4" s="1" t="s">
         <v>589</v>
       </c>
       <c r="R4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="207"/>
+      <c r="S4" s="210"/>
       <c r="T4" s="1" t="s">
         <v>589</v>
       </c>
@@ -22947,7 +23128,7 @@
       <c r="X4" s="126">
         <v>3</v>
       </c>
-      <c r="Y4" s="207"/>
+      <c r="Y4" s="210"/>
       <c r="Z4" s="1" t="s">
         <v>589</v>
       </c>
@@ -22956,49 +23137,49 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="208"/>
+      <c r="A5" s="211"/>
       <c r="B5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="208"/>
+      <c r="D5" s="211"/>
       <c r="E5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="208"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="208"/>
+      <c r="J5" s="211"/>
       <c r="K5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="L5" s="1">
         <v>7</v>
       </c>
-      <c r="M5" s="208"/>
+      <c r="M5" s="211"/>
       <c r="N5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="O5" s="1">
         <v>5</v>
       </c>
-      <c r="P5" s="208"/>
+      <c r="P5" s="211"/>
       <c r="Q5" s="1" t="s">
         <v>590</v>
       </c>
       <c r="R5" s="1">
         <v>6</v>
       </c>
-      <c r="S5" s="208"/>
+      <c r="S5" s="211"/>
       <c r="T5" s="1" t="s">
         <v>590</v>
       </c>
@@ -23012,7 +23193,7 @@
       <c r="X5" s="126">
         <v>6</v>
       </c>
-      <c r="Y5" s="208"/>
+      <c r="Y5" s="211"/>
       <c r="Z5" s="1" t="s">
         <v>590</v>
       </c>
@@ -23021,7 +23202,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -23030,7 +23211,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -23039,7 +23220,7 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="209" t="s">
+      <c r="G6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -23048,7 +23229,7 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="209" t="s">
+      <c r="J6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -23057,7 +23238,7 @@
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="209" t="s">
+      <c r="M6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -23066,7 +23247,7 @@
       <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="209" t="s">
+      <c r="P6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -23075,7 +23256,7 @@
       <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="209" t="s">
+      <c r="S6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -23093,7 +23274,7 @@
       <c r="X6" s="126">
         <v>2</v>
       </c>
-      <c r="Y6" s="209" t="s">
+      <c r="Y6" s="206" t="s">
         <v>591</v>
       </c>
       <c r="Z6" s="1" t="s">
@@ -23104,49 +23285,49 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="210"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="210"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="210"/>
+      <c r="J7" s="207"/>
       <c r="K7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="210"/>
+      <c r="M7" s="207"/>
       <c r="N7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="210"/>
+      <c r="P7" s="207"/>
       <c r="Q7" s="1" t="s">
         <v>593</v>
       </c>
       <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="210"/>
+      <c r="S7" s="207"/>
       <c r="T7" s="1" t="s">
         <v>593</v>
       </c>
@@ -23160,7 +23341,7 @@
       <c r="X7" s="126">
         <v>7</v>
       </c>
-      <c r="Y7" s="210"/>
+      <c r="Y7" s="207"/>
       <c r="Z7" s="1" t="s">
         <v>593</v>
       </c>
@@ -23169,49 +23350,49 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="211"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="211"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="211"/>
+      <c r="G8" s="208"/>
       <c r="H8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="211"/>
+      <c r="J8" s="208"/>
       <c r="K8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="211"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="211"/>
+      <c r="P8" s="208"/>
       <c r="Q8" s="1" t="s">
         <v>594</v>
       </c>
       <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="S8" s="211"/>
+      <c r="S8" s="208"/>
       <c r="T8" s="1" t="s">
         <v>594</v>
       </c>
@@ -23225,7 +23406,7 @@
       <c r="X8" s="126">
         <v>6</v>
       </c>
-      <c r="Y8" s="211"/>
+      <c r="Y8" s="208"/>
       <c r="Z8" s="1" t="s">
         <v>594</v>
       </c>
@@ -23234,7 +23415,7 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -23243,7 +23424,7 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="209" t="s">
+      <c r="D9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -23252,7 +23433,7 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="G9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -23261,7 +23442,7 @@
       <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="209" t="s">
+      <c r="J9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -23270,7 +23451,7 @@
       <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="209" t="s">
+      <c r="M9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -23279,7 +23460,7 @@
       <c r="O9" s="1">
         <v>5</v>
       </c>
-      <c r="P9" s="209" t="s">
+      <c r="P9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -23288,7 +23469,7 @@
       <c r="R9" s="1">
         <v>6</v>
       </c>
-      <c r="S9" s="209" t="s">
+      <c r="S9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -23306,7 +23487,7 @@
       <c r="X9" s="126">
         <v>4</v>
       </c>
-      <c r="Y9" s="209" t="s">
+      <c r="Y9" s="206" t="s">
         <v>595</v>
       </c>
       <c r="Z9" s="1" t="s">
@@ -23317,49 +23498,49 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="210"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="210"/>
+      <c r="G10" s="207"/>
       <c r="H10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="210"/>
+      <c r="J10" s="207"/>
       <c r="K10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="L10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="210"/>
+      <c r="M10" s="207"/>
       <c r="N10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="O10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="210"/>
+      <c r="P10" s="207"/>
       <c r="Q10" s="1" t="s">
         <v>597</v>
       </c>
       <c r="R10" s="1">
         <v>6</v>
       </c>
-      <c r="S10" s="210"/>
+      <c r="S10" s="207"/>
       <c r="T10" s="1" t="s">
         <v>597</v>
       </c>
@@ -23373,7 +23554,7 @@
       <c r="X10" s="126">
         <v>6</v>
       </c>
-      <c r="Y10" s="210"/>
+      <c r="Y10" s="207"/>
       <c r="Z10" s="1" t="s">
         <v>597</v>
       </c>
@@ -23382,49 +23563,49 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="211"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="211"/>
+      <c r="D11" s="208"/>
       <c r="E11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="211"/>
+      <c r="G11" s="208"/>
       <c r="H11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="211"/>
+      <c r="J11" s="208"/>
       <c r="K11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="211"/>
+      <c r="M11" s="208"/>
       <c r="N11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="O11" s="1">
         <v>7</v>
       </c>
-      <c r="P11" s="211"/>
+      <c r="P11" s="208"/>
       <c r="Q11" s="1" t="s">
         <v>598</v>
       </c>
       <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="S11" s="211"/>
+      <c r="S11" s="208"/>
       <c r="T11" s="1" t="s">
         <v>598</v>
       </c>
@@ -23438,7 +23619,7 @@
       <c r="X11" s="126">
         <v>7</v>
       </c>
-      <c r="Y11" s="211"/>
+      <c r="Y11" s="208"/>
       <c r="Z11" s="1" t="s">
         <v>598</v>
       </c>
@@ -23447,7 +23628,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -23456,7 +23637,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="209" t="s">
+      <c r="D12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -23465,7 +23646,7 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -23474,7 +23655,7 @@
       <c r="I12" s="1">
         <v>6</v>
       </c>
-      <c r="J12" s="209" t="s">
+      <c r="J12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -23483,7 +23664,7 @@
       <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="209" t="s">
+      <c r="M12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -23492,7 +23673,7 @@
       <c r="O12" s="1">
         <v>5</v>
       </c>
-      <c r="P12" s="209" t="s">
+      <c r="P12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -23501,7 +23682,7 @@
       <c r="R12" s="1">
         <v>5</v>
       </c>
-      <c r="S12" s="209" t="s">
+      <c r="S12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -23519,7 +23700,7 @@
       <c r="X12" s="126">
         <v>2</v>
       </c>
-      <c r="Y12" s="209" t="s">
+      <c r="Y12" s="206" t="s">
         <v>583</v>
       </c>
       <c r="Z12" s="1" t="s">
@@ -23530,49 +23711,49 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="210"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="210"/>
+      <c r="D13" s="207"/>
       <c r="E13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="210"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="210"/>
+      <c r="J13" s="207"/>
       <c r="K13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="210"/>
+      <c r="M13" s="207"/>
       <c r="N13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
       </c>
-      <c r="P13" s="210"/>
+      <c r="P13" s="207"/>
       <c r="Q13" s="1" t="s">
         <v>600</v>
       </c>
       <c r="R13" s="1">
         <v>5</v>
       </c>
-      <c r="S13" s="210"/>
+      <c r="S13" s="207"/>
       <c r="T13" s="1" t="s">
         <v>600</v>
       </c>
@@ -23586,7 +23767,7 @@
       <c r="X13" s="126">
         <v>3</v>
       </c>
-      <c r="Y13" s="210"/>
+      <c r="Y13" s="207"/>
       <c r="Z13" s="1" t="s">
         <v>600</v>
       </c>
@@ -23595,49 +23776,49 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="211"/>
+      <c r="A14" s="208"/>
       <c r="B14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="211"/>
+      <c r="D14" s="208"/>
       <c r="E14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="211"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="211"/>
+      <c r="J14" s="208"/>
       <c r="K14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="M14" s="211"/>
+      <c r="M14" s="208"/>
       <c r="N14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="211"/>
+      <c r="P14" s="208"/>
       <c r="Q14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="S14" s="211"/>
+      <c r="S14" s="208"/>
       <c r="T14" s="1" t="s">
         <v>601</v>
       </c>
@@ -23651,7 +23832,7 @@
       <c r="X14" s="126">
         <v>2</v>
       </c>
-      <c r="Y14" s="211"/>
+      <c r="Y14" s="208"/>
       <c r="Z14" s="1" t="s">
         <v>601</v>
       </c>
@@ -23660,7 +23841,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -23669,7 +23850,7 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="209" t="s">
+      <c r="D15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -23678,7 +23859,7 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="209" t="s">
+      <c r="G15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -23687,7 +23868,7 @@
       <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="209" t="s">
+      <c r="J15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -23696,7 +23877,7 @@
       <c r="L15" s="1">
         <v>6</v>
       </c>
-      <c r="M15" s="209" t="s">
+      <c r="M15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -23705,7 +23886,7 @@
       <c r="O15" s="1">
         <v>3</v>
       </c>
-      <c r="P15" s="209" t="s">
+      <c r="P15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -23714,7 +23895,7 @@
       <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="S15" s="209" t="s">
+      <c r="S15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -23732,7 +23913,7 @@
       <c r="X15" s="126">
         <v>7</v>
       </c>
-      <c r="Y15" s="209" t="s">
+      <c r="Y15" s="206" t="s">
         <v>584</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -23743,49 +23924,49 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="210"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="210"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="210"/>
+      <c r="G16" s="207"/>
       <c r="H16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="210"/>
+      <c r="J16" s="207"/>
       <c r="K16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="L16" s="1">
         <v>6</v>
       </c>
-      <c r="M16" s="210"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="O16" s="1">
         <v>6</v>
       </c>
-      <c r="P16" s="210"/>
+      <c r="P16" s="207"/>
       <c r="Q16" s="1" t="s">
         <v>615</v>
       </c>
       <c r="R16" s="1">
         <v>6</v>
       </c>
-      <c r="S16" s="210"/>
+      <c r="S16" s="207"/>
       <c r="T16" s="1" t="s">
         <v>615</v>
       </c>
@@ -23799,7 +23980,7 @@
       <c r="X16" s="126">
         <v>3</v>
       </c>
-      <c r="Y16" s="210"/>
+      <c r="Y16" s="207"/>
       <c r="Z16" s="1" t="s">
         <v>615</v>
       </c>
@@ -23808,49 +23989,49 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="211"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="211"/>
+      <c r="D17" s="208"/>
       <c r="E17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="211"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="211"/>
+      <c r="J17" s="208"/>
       <c r="K17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="L17" s="1">
         <v>7</v>
       </c>
-      <c r="M17" s="211"/>
+      <c r="M17" s="208"/>
       <c r="N17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="O17" s="1">
         <v>3</v>
       </c>
-      <c r="P17" s="211"/>
+      <c r="P17" s="208"/>
       <c r="Q17" s="1" t="s">
         <v>604</v>
       </c>
       <c r="R17" s="1">
         <v>6</v>
       </c>
-      <c r="S17" s="211"/>
+      <c r="S17" s="208"/>
       <c r="T17" s="1" t="s">
         <v>604</v>
       </c>
@@ -23864,7 +24045,7 @@
       <c r="X17" s="126">
         <v>3</v>
       </c>
-      <c r="Y17" s="211"/>
+      <c r="Y17" s="208"/>
       <c r="Z17" s="1" t="s">
         <v>604</v>
       </c>
@@ -23873,7 +24054,7 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -23882,7 +24063,7 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="209" t="s">
+      <c r="D18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -23891,7 +24072,7 @@
       <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="209" t="s">
+      <c r="G18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -23900,7 +24081,7 @@
       <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="209" t="s">
+      <c r="J18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -23909,7 +24090,7 @@
       <c r="L18" s="1">
         <v>6</v>
       </c>
-      <c r="M18" s="209" t="s">
+      <c r="M18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -23918,7 +24099,7 @@
       <c r="O18" s="1">
         <v>6</v>
       </c>
-      <c r="P18" s="209" t="s">
+      <c r="P18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -23927,7 +24108,7 @@
       <c r="R18" s="1">
         <v>6</v>
       </c>
-      <c r="S18" s="209" t="s">
+      <c r="S18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -23945,7 +24126,7 @@
       <c r="X18" s="126">
         <v>7</v>
       </c>
-      <c r="Y18" s="209" t="s">
+      <c r="Y18" s="206" t="s">
         <v>605</v>
       </c>
       <c r="Z18" s="1" t="s">
@@ -23956,49 +24137,49 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="210"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="210"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="1" t="s">
         <v>607</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="210"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="210"/>
+      <c r="J19" s="207"/>
       <c r="K19" s="1" t="s">
         <v>621</v>
       </c>
       <c r="L19" s="1">
         <v>6</v>
       </c>
-      <c r="M19" s="210"/>
+      <c r="M19" s="207"/>
       <c r="N19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="O19" s="1">
         <v>6</v>
       </c>
-      <c r="P19" s="210"/>
+      <c r="P19" s="207"/>
       <c r="Q19" s="1" t="s">
         <v>617</v>
       </c>
       <c r="R19" s="1">
         <v>6</v>
       </c>
-      <c r="S19" s="210"/>
+      <c r="S19" s="207"/>
       <c r="T19" s="1" t="s">
         <v>617</v>
       </c>
@@ -24012,7 +24193,7 @@
       <c r="X19" s="126">
         <v>7</v>
       </c>
-      <c r="Y19" s="210"/>
+      <c r="Y19" s="207"/>
       <c r="Z19" s="1" t="s">
         <v>617</v>
       </c>
@@ -24021,49 +24202,49 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="211"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="211"/>
+      <c r="D20" s="208"/>
       <c r="E20" s="1" t="s">
         <v>608</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="211"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="1" t="s">
         <v>618</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="211"/>
+      <c r="J20" s="208"/>
       <c r="K20" s="1" t="s">
         <v>622</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="211"/>
+      <c r="M20" s="208"/>
       <c r="N20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="211"/>
+      <c r="P20" s="208"/>
       <c r="Q20" s="1" t="s">
         <v>625</v>
       </c>
       <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="S20" s="211"/>
+      <c r="S20" s="208"/>
       <c r="T20" s="1" t="s">
         <v>625</v>
       </c>
@@ -24077,7 +24258,7 @@
       <c r="X20" s="126">
         <v>6</v>
       </c>
-      <c r="Y20" s="211"/>
+      <c r="Y20" s="208"/>
       <c r="Z20" s="1" t="s">
         <v>625</v>
       </c>
@@ -24086,7 +24267,7 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -24095,7 +24276,7 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -24104,7 +24285,7 @@
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="167" t="s">
+      <c r="G21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -24113,7 +24294,7 @@
       <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="167" t="s">
+      <c r="J21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -24122,7 +24303,7 @@
       <c r="L21" s="1">
         <v>6</v>
       </c>
-      <c r="M21" s="167" t="s">
+      <c r="M21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -24131,7 +24312,7 @@
       <c r="O21" s="1">
         <v>7</v>
       </c>
-      <c r="P21" s="167" t="s">
+      <c r="P21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -24140,7 +24321,7 @@
       <c r="R21" s="1">
         <v>6</v>
       </c>
-      <c r="S21" s="167" t="s">
+      <c r="S21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -24158,7 +24339,7 @@
       <c r="X21" s="126">
         <v>6</v>
       </c>
-      <c r="Y21" s="167" t="s">
+      <c r="Y21" s="162" t="s">
         <v>609</v>
       </c>
       <c r="Z21" s="1" t="s">
@@ -24169,49 +24350,49 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="167"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="167"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="167"/>
+      <c r="G22" s="162"/>
       <c r="H22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
-      <c r="J22" s="167"/>
+      <c r="J22" s="162"/>
       <c r="K22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="L22" s="1">
         <v>6</v>
       </c>
-      <c r="M22" s="167"/>
+      <c r="M22" s="162"/>
       <c r="N22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="167"/>
+      <c r="P22" s="162"/>
       <c r="Q22" s="1" t="s">
         <v>611</v>
       </c>
       <c r="R22" s="1">
         <v>6</v>
       </c>
-      <c r="S22" s="167"/>
+      <c r="S22" s="162"/>
       <c r="T22" s="1" t="s">
         <v>611</v>
       </c>
@@ -24225,7 +24406,7 @@
       <c r="X22" s="126">
         <v>7</v>
       </c>
-      <c r="Y22" s="167"/>
+      <c r="Y22" s="162"/>
       <c r="Z22" s="1" t="s">
         <v>611</v>
       </c>
@@ -24234,49 +24415,49 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="167"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="167"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="167"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="I23" s="1">
         <v>7</v>
       </c>
-      <c r="J23" s="167"/>
+      <c r="J23" s="162"/>
       <c r="K23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="L23" s="1">
         <v>6</v>
       </c>
-      <c r="M23" s="167"/>
+      <c r="M23" s="162"/>
       <c r="N23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="O23" s="1">
         <v>6</v>
       </c>
-      <c r="P23" s="167"/>
+      <c r="P23" s="162"/>
       <c r="Q23" s="1" t="s">
         <v>612</v>
       </c>
       <c r="R23" s="1">
         <v>6</v>
       </c>
-      <c r="S23" s="167"/>
+      <c r="S23" s="162"/>
       <c r="T23" s="1" t="s">
         <v>612</v>
       </c>
@@ -24290,7 +24471,7 @@
       <c r="X23" s="126">
         <v>6</v>
       </c>
-      <c r="Y23" s="167"/>
+      <c r="Y23" s="162"/>
       <c r="Z23" s="1" t="s">
         <v>612</v>
       </c>
@@ -24307,7 +24488,7 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="206" t="s">
+      <c r="A26" s="209" t="s">
         <v>587</v>
       </c>
       <c r="B26" s="1">
@@ -24341,13 +24522,13 @@
         <f>AVERAGE(B26:J26)</f>
         <v>4.7777777777777777</v>
       </c>
-      <c r="L26" s="144">
+      <c r="L26" s="139">
         <f>AVERAGE(B26:J28)</f>
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="207"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="1">
         <v>3</v>
       </c>
@@ -24379,10 +24560,10 @@
         <f t="shared" ref="K27:K46" si="0">AVERAGE(B27:J27)</f>
         <v>4.2222222222222223</v>
       </c>
-      <c r="L27" s="144"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="208"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -24414,10 +24595,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L28" s="144"/>
+      <c r="L28" s="139"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="209" t="s">
+      <c r="A29" s="206" t="s">
         <v>591</v>
       </c>
       <c r="B29" s="1">
@@ -24451,13 +24632,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L29" s="144">
+      <c r="L29" s="139">
         <f>AVERAGE(B29:J31)</f>
         <v>4.1481481481481479</v>
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="210"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -24489,10 +24670,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L30" s="144"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="211"/>
+      <c r="A31" s="208"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -24524,10 +24705,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L31" s="144"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="209" t="s">
+      <c r="A32" s="206" t="s">
         <v>595</v>
       </c>
       <c r="B32" s="1">
@@ -24561,13 +24742,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L32" s="144">
+      <c r="L32" s="139">
         <f>AVERAGE(B32:J34)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="210"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -24599,10 +24780,10 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L33" s="144"/>
+      <c r="L33" s="139"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="211"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -24634,10 +24815,10 @@
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="L34" s="144"/>
+      <c r="L34" s="139"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="206" t="s">
         <v>583</v>
       </c>
       <c r="B35" s="1">
@@ -24671,13 +24852,13 @@
         <f t="shared" si="0"/>
         <v>3.5555555555555554</v>
       </c>
-      <c r="L35" s="144">
+      <c r="L35" s="139">
         <f>AVERAGE(B35:J37)</f>
         <v>3.3703703703703702</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="210"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -24709,10 +24890,10 @@
         <f t="shared" si="0"/>
         <v>3.4444444444444446</v>
       </c>
-      <c r="L36" s="144"/>
+      <c r="L36" s="139"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="211"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -24744,10 +24925,10 @@
         <f t="shared" si="0"/>
         <v>3.1111111111111112</v>
       </c>
-      <c r="L37" s="144"/>
+      <c r="L37" s="139"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="206" t="s">
         <v>584</v>
       </c>
       <c r="B38" s="1">
@@ -24781,13 +24962,13 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="L38" s="144">
+      <c r="L38" s="139">
         <f>AVERAGE(B38:J40)</f>
         <v>4.0370370370370372</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="210"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -24819,10 +25000,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L39" s="144"/>
+      <c r="L39" s="139"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="211"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -24854,10 +25035,10 @@
         <f t="shared" si="0"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="139"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="209" t="s">
+      <c r="A41" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B41" s="1">
@@ -24891,13 +25072,13 @@
         <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
-      <c r="L41" s="144">
+      <c r="L41" s="139">
         <f>AVERAGE(B41:J43)</f>
         <v>5.2222222222222223</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="210"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="1">
         <v>3</v>
       </c>
@@ -24929,10 +25110,10 @@
         <f t="shared" si="0"/>
         <v>5.4444444444444446</v>
       </c>
-      <c r="L42" s="144"/>
+      <c r="L42" s="139"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="211"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="1">
         <v>4</v>
       </c>
@@ -24964,10 +25145,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L43" s="144"/>
+      <c r="L43" s="139"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="162" t="s">
         <v>609</v>
       </c>
       <c r="B44" s="1">
@@ -25001,13 +25182,13 @@
         <f t="shared" si="0"/>
         <v>5.1111111111111107</v>
       </c>
-      <c r="L44" s="144">
+      <c r="L44" s="139">
         <f>AVERAGE(B44:J46)</f>
         <v>4.9629629629629628</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="167"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -25039,10 +25220,10 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L45" s="144"/>
+      <c r="L45" s="139"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="167"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="1">
         <v>2</v>
       </c>
@@ -25074,7 +25255,7 @@
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="L46" s="144"/>
+      <c r="L46" s="139"/>
     </row>
     <row r="48" spans="1:12">
       <c r="C48" t="s">
@@ -25271,31 +25452,42 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
     <mergeCell ref="Y3:Y5"/>
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="Y9:Y11"/>
@@ -25312,42 +25504,31 @@
     <mergeCell ref="S12:S14"/>
     <mergeCell ref="S15:S17"/>
     <mergeCell ref="S18:S20"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25366,8 +25547,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AP102"/>
   <sheetViews>
-    <sheetView topLeftCell="AK6" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
+    <sheetView tabSelected="1" topLeftCell="AN13" workbookViewId="0">
+      <selection activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -25387,16 +25568,16 @@
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
@@ -25726,13 +25907,13 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="161">
         <v>87.000000000000043</v>
       </c>
       <c r="D7" s="4">
@@ -25782,9 +25963,9 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="145"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="172"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="4">
         <v>-57.04</v>
       </c>
@@ -25859,10 +26040,10 @@
       <c r="M9" s="1">
         <v>44.79</v>
       </c>
-      <c r="Q9" s="166" t="s">
+      <c r="Q9" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="159">
+      <c r="R9" s="166">
         <v>90.999999999999943</v>
       </c>
       <c r="S9" s="24">
@@ -25915,8 +26096,8 @@
       <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="159"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="166"/>
       <c r="S10" s="24">
         <v>69.510000000000005</v>
       </c>
@@ -25980,7 +26161,7 @@
       <c r="Q11" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="163">
+      <c r="R11" s="168">
         <v>96</v>
       </c>
       <c r="S11" s="24">
@@ -26027,7 +26208,7 @@
       <c r="Q12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R12" s="164"/>
+      <c r="R12" s="169"/>
       <c r="S12" s="29">
         <v>55.14</v>
       </c>
@@ -26059,7 +26240,7 @@
       <c r="Q13" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="R13" s="165"/>
+      <c r="R13" s="170"/>
       <c r="S13" s="29">
         <v>20.49</v>
       </c>
@@ -26084,18 +26265,18 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="Q14" s="160" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="Q14" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="R14" s="159">
+      <c r="R14" s="166">
         <v>42.999999999999929</v>
       </c>
       <c r="S14" s="24">
@@ -26122,10 +26303,10 @@
       <c r="AI14" s="24">
         <v>-2.54</v>
       </c>
-      <c r="AK14" s="144" t="s">
+      <c r="AK14" s="139" t="s">
         <v>576</v>
       </c>
-      <c r="AL14" s="144"/>
+      <c r="AL14" s="139"/>
       <c r="AO14" t="s">
         <v>577</v>
       </c>
@@ -26155,8 +26336,8 @@
       <c r="H15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="159"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="166"/>
       <c r="S15" s="24">
         <v>26.62</v>
       </c>
@@ -26370,14 +26551,14 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="5"/>
       <c r="Q19" s="3" t="s">
         <v>33</v>
@@ -26600,10 +26781,10 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="168">
+      <c r="C23" s="156">
         <v>90.999999999999943</v>
       </c>
       <c r="D23" s="19">
@@ -26657,8 +26838,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="B24" s="167"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="156"/>
       <c r="D24" s="19">
         <v>69.510000000000005</v>
       </c>
@@ -26710,10 +26891,10 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="168">
+      <c r="C25" s="156">
         <v>95.999999999999872</v>
       </c>
       <c r="D25" s="19">
@@ -26765,8 +26946,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="B26" s="167"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="4">
         <v>-28.73</v>
       </c>
@@ -26818,8 +26999,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="B27" s="167"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="4">
         <v>-33.17</v>
       </c>
@@ -26833,10 +27014,10 @@
       <c r="H27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="162" t="s">
+      <c r="Q27" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="161">
+      <c r="R27" s="167">
         <v>189</v>
       </c>
       <c r="S27" s="23">
@@ -26871,8 +27052,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="B28" s="167"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="156"/>
       <c r="D28" s="19">
         <v>55.14</v>
       </c>
@@ -26892,8 +27073,8 @@
       <c r="L28" s="3">
         <v>-45.85</v>
       </c>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="161"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="167"/>
       <c r="S28" s="48">
         <v>62.11</v>
       </c>
@@ -26926,8 +27107,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="B29" s="167"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="156"/>
       <c r="D29" s="19">
         <v>20.49</v>
       </c>
@@ -26985,10 +27166,10 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="168">
+      <c r="C30" s="156">
         <v>76</v>
       </c>
       <c r="D30" s="4">
@@ -27048,8 +27229,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="B31" s="160"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="156"/>
       <c r="D31" s="4">
         <v>-82.39</v>
       </c>
@@ -27073,10 +27254,10 @@
       <c r="M31" s="3">
         <v>69.72</v>
       </c>
-      <c r="Q31" s="153" t="s">
+      <c r="Q31" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="R31" s="155">
+      <c r="R31" s="172">
         <v>50</v>
       </c>
       <c r="S31" s="23">
@@ -27105,10 +27286,10 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="168">
+      <c r="C32" s="156">
         <v>42.999999999999929</v>
       </c>
       <c r="D32" s="19">
@@ -27136,8 +27317,8 @@
       <c r="M32" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="172"/>
       <c r="S32" s="48">
         <v>91.27</v>
       </c>
@@ -27164,8 +27345,8 @@
       </c>
     </row>
     <row r="33" spans="2:38">
-      <c r="B33" s="160"/>
-      <c r="C33" s="168"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="156"/>
       <c r="D33" s="19">
         <v>26.62</v>
       </c>
@@ -27301,14 +27482,14 @@
       </c>
     </row>
     <row r="36" spans="2:38">
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
       <c r="K36" s="10"/>
       <c r="M36" s="3">
         <v>55.14</v>
@@ -27370,7 +27551,7 @@
       <c r="Q37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R37" s="155">
+      <c r="R37" s="172">
         <v>90.000000000000057</v>
       </c>
       <c r="S37" s="23">
@@ -27424,7 +27605,7 @@
         <v>-31.48</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="155"/>
+      <c r="R38" s="172"/>
       <c r="S38" s="48">
         <v>81.13</v>
       </c>
@@ -27517,7 +27698,7 @@
       <c r="H40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="160">
+      <c r="K40" s="154">
         <v>42.999999999999929</v>
       </c>
       <c r="L40" s="3">
@@ -27570,7 +27751,7 @@
       <c r="H41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="160"/>
+      <c r="K41" s="154"/>
       <c r="L41" s="3">
         <v>26.62</v>
       </c>
@@ -27626,14 +27807,14 @@
       </c>
     </row>
     <row r="43" spans="2:38">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
       <c r="Q43" s="17" t="s">
         <v>218</v>
       </c>
@@ -27786,10 +27967,10 @@
       </c>
     </row>
     <row r="48" spans="2:38">
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="144">
+      <c r="C48" s="139">
         <v>222</v>
       </c>
       <c r="D48" s="20">
@@ -27807,7 +27988,7 @@
       <c r="H48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="144" t="s">
+      <c r="I48" s="139" t="s">
         <v>210</v>
       </c>
       <c r="AB48" s="48">
@@ -27815,8 +27996,8 @@
       </c>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="170"/>
-      <c r="C49" s="144"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="31">
         <v>-17.11</v>
       </c>
@@ -27830,14 +28011,14 @@
       <c r="H49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="144"/>
+      <c r="I49" s="139"/>
       <c r="AB49" s="48">
         <v>24.72</v>
       </c>
     </row>
     <row r="50" spans="2:40">
-      <c r="B50" s="170"/>
-      <c r="C50" s="144"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="31">
         <v>-30.85</v>
       </c>
@@ -27853,7 +28034,7 @@
       <c r="H50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="144"/>
+      <c r="I50" s="139"/>
       <c r="Q50" s="4" t="s">
         <v>286</v>
       </c>
@@ -27873,8 +28054,8 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="2:40">
-      <c r="B51" s="170"/>
-      <c r="C51" s="144"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="139"/>
       <c r="D51" s="20">
         <v>10.35</v>
       </c>
@@ -27888,7 +28069,7 @@
       <c r="H51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="144"/>
+      <c r="I51" s="139"/>
       <c r="Q51" s="3" t="s">
         <v>18</v>
       </c>
@@ -27942,8 +28123,8 @@
       </c>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="145"/>
-      <c r="C52" s="144"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="31">
         <v>-18.38</v>
       </c>
@@ -27959,11 +28140,11 @@
       <c r="H52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="144"/>
-      <c r="Q52" s="153" t="s">
+      <c r="I52" s="139"/>
+      <c r="Q52" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="174">
+      <c r="R52" s="159">
         <v>87.000000000000043</v>
       </c>
       <c r="S52" s="22">
@@ -28046,9 +28227,9 @@
       <c r="H53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="144"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="174"/>
+      <c r="I53" s="139"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="159"/>
       <c r="S53" s="24">
         <v>-57.04</v>
       </c>
@@ -28130,7 +28311,7 @@
       <c r="H54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="144"/>
+      <c r="I54" s="139"/>
       <c r="Q54" s="2" t="s">
         <v>34</v>
       </c>
@@ -28197,7 +28378,7 @@
       <c r="H55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I55" s="144"/>
+      <c r="I55" s="139"/>
       <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
@@ -28227,10 +28408,10 @@
       </c>
     </row>
     <row r="56" spans="2:40">
-      <c r="B56" s="171" t="s">
+      <c r="B56" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="173">
+      <c r="C56" s="153">
         <v>189</v>
       </c>
       <c r="D56" s="31">
@@ -28279,8 +28460,8 @@
       </c>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="172"/>
-      <c r="C57" s="173"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="153"/>
       <c r="D57" s="20">
         <v>43.1</v>
       </c>
@@ -28335,8 +28516,8 @@
       </c>
     </row>
     <row r="58" spans="2:40">
-      <c r="B58" s="172"/>
-      <c r="C58" s="173"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="153"/>
       <c r="D58" s="20">
         <v>62.11</v>
       </c>
@@ -28379,10 +28560,10 @@
       </c>
     </row>
     <row r="59" spans="2:40">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="144">
+      <c r="C59" s="139">
         <v>69</v>
       </c>
       <c r="D59" s="20">
@@ -28403,7 +28584,7 @@
       <c r="Q59" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="R59" s="157">
+      <c r="R59" s="173">
         <v>96</v>
       </c>
       <c r="S59" s="26">
@@ -28433,8 +28614,8 @@
       </c>
     </row>
     <row r="60" spans="2:40">
-      <c r="B60" s="162"/>
-      <c r="C60" s="144"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="139"/>
       <c r="D60" s="31">
         <v>8.66</v>
       </c>
@@ -28451,7 +28632,7 @@
         <v>155</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="158"/>
+      <c r="R60" s="174"/>
       <c r="S60" s="24">
         <v>-33.17</v>
       </c>
@@ -28485,10 +28666,10 @@
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="Q61" s="160" t="s">
+      <c r="Q61" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="R61" s="160">
+      <c r="R61" s="154">
         <v>76</v>
       </c>
       <c r="S61" s="24">
@@ -28528,8 +28709,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="160"/>
-      <c r="R62" s="160"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
       <c r="S62" s="49">
         <v>-82.39</v>
       </c>
@@ -28617,10 +28798,10 @@
       </c>
     </row>
     <row r="64" spans="2:40">
-      <c r="Q64" s="153" t="s">
+      <c r="Q64" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="R64" s="156">
+      <c r="R64" s="160">
         <v>222</v>
       </c>
       <c r="S64" s="23">
@@ -28653,8 +28834,8 @@
       <c r="B65" t="s">
         <v>194</v>
       </c>
-      <c r="Q65" s="162"/>
-      <c r="R65" s="156"/>
+      <c r="Q65" s="165"/>
+      <c r="R65" s="160"/>
       <c r="S65" s="23">
         <v>-30.85</v>
       </c>
@@ -28682,10 +28863,10 @@
       </c>
     </row>
     <row r="66" spans="2:36">
-      <c r="B66" s="169" t="s">
+      <c r="B66" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="144">
+      <c r="C66" s="139">
         <v>50</v>
       </c>
       <c r="D66" s="20">
@@ -28703,8 +28884,8 @@
       <c r="H66" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="162"/>
-      <c r="R66" s="156"/>
+      <c r="Q66" s="165"/>
+      <c r="R66" s="160"/>
       <c r="S66" s="23">
         <v>-18.38</v>
       </c>
@@ -28732,8 +28913,8 @@
       </c>
     </row>
     <row r="67" spans="2:36">
-      <c r="B67" s="145"/>
-      <c r="C67" s="144"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="20">
         <v>91.27</v>
       </c>
@@ -28811,10 +28992,10 @@
       </c>
     </row>
     <row r="69" spans="2:36">
-      <c r="B69" s="169" t="s">
+      <c r="B69" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="144">
+      <c r="C69" s="139">
         <v>106</v>
       </c>
       <c r="D69" s="20">
@@ -28865,8 +29046,8 @@
       </c>
     </row>
     <row r="70" spans="2:36">
-      <c r="B70" s="145"/>
-      <c r="C70" s="144"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="31">
         <v>-21.76</v>
       </c>
@@ -28980,10 +29161,10 @@
       <c r="H72" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q72" s="153" t="s">
+      <c r="Q72" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="155">
+      <c r="R72" s="172">
         <v>51.999999999999986</v>
       </c>
       <c r="S72" s="23">
@@ -29001,7 +29182,7 @@
       <c r="W72" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Y72" s="144" t="s">
+      <c r="Y72" s="139" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="23">
@@ -29009,10 +29190,10 @@
       </c>
     </row>
     <row r="73" spans="2:36">
-      <c r="B73" s="150" t="s">
+      <c r="B73" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="173">
+      <c r="C73" s="153">
         <v>107</v>
       </c>
       <c r="D73" s="20">
@@ -29030,8 +29211,8 @@
       <c r="H73" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q73" s="156"/>
-      <c r="R73" s="155"/>
+      <c r="Q73" s="160"/>
+      <c r="R73" s="172"/>
       <c r="S73" s="23">
         <v>-28.1</v>
       </c>
@@ -29047,14 +29228,14 @@
       <c r="W73" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Y73" s="144"/>
+      <c r="Y73" s="139"/>
       <c r="AC73" s="23">
         <v>8.66</v>
       </c>
     </row>
     <row r="74" spans="2:36">
-      <c r="B74" s="151"/>
-      <c r="C74" s="173"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="153"/>
       <c r="D74" s="31">
         <v>-19.010000000000002</v>
       </c>
@@ -29204,7 +29385,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="144">
+      <c r="C78" s="139">
         <v>90.000000000000057</v>
       </c>
       <c r="D78" s="20">
@@ -29246,7 +29427,7 @@
       </c>
     </row>
     <row r="79" spans="2:36">
-      <c r="C79" s="144"/>
+      <c r="C79" s="139"/>
       <c r="D79" s="20">
         <v>81.13</v>
       </c>
@@ -29293,10 +29474,10 @@
       </c>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="169" t="s">
+      <c r="B81" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="144">
+      <c r="C81" s="139">
         <v>51.999999999999986</v>
       </c>
       <c r="D81" s="31">
@@ -29314,7 +29495,7 @@
       <c r="H81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="144" t="s">
+      <c r="J81" s="139" t="s">
         <v>210</v>
       </c>
       <c r="R81" s="4" t="s">
@@ -29331,8 +29512,8 @@
       </c>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
       <c r="D82" s="31">
         <v>-28.1</v>
       </c>
@@ -29348,7 +29529,7 @@
       <c r="H82" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="144"/>
+      <c r="J82" s="139"/>
       <c r="R82">
         <f>FTEST(R4:R45, R51:R77)</f>
         <v>0.81669524197107601</v>
@@ -29407,11 +29588,11 @@
         <f t="shared" ref="U83" si="10">TTEST(U4:U45, U51:U77, 2, 2)</f>
         <v>0.67575151385258603</v>
       </c>
-      <c r="AB83" s="144" t="s">
+      <c r="AB83" s="139" t="s">
         <v>432</v>
       </c>
-      <c r="AC83" s="144"/>
-      <c r="AD83" s="144"/>
+      <c r="AC83" s="139"/>
+      <c r="AD83" s="139"/>
     </row>
     <row r="84" spans="2:30">
       <c r="B84" s="1" t="s">
@@ -29602,7 +29783,7 @@
       <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="144">
+      <c r="C91" s="139">
         <v>46.000000000000021</v>
       </c>
       <c r="D91" s="31">
@@ -29629,7 +29810,7 @@
       </c>
     </row>
     <row r="92" spans="2:30">
-      <c r="C92" s="144"/>
+      <c r="C92" s="139"/>
       <c r="D92" s="20">
         <v>43.52</v>
       </c>
@@ -29653,7 +29834,7 @@
       <c r="B93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="144">
+      <c r="C93" s="139">
         <v>48</v>
       </c>
       <c r="D93" s="20">
@@ -29676,7 +29857,7 @@
       </c>
     </row>
     <row r="94" spans="2:30">
-      <c r="C94" s="144"/>
+      <c r="C94" s="139"/>
       <c r="D94" s="31">
         <v>-29.58</v>
       </c>
@@ -29742,6 +29923,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="Y72:Y73"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="AB83:AD83"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="I48:I55"/>
     <mergeCell ref="B73:B74"/>
@@ -29758,48 +29981,6 @@
     <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="Y72:Y73"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="AB83:AD83"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="R61:R62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29818,7 +29999,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:AM58"/>
   <sheetViews>
-    <sheetView topLeftCell="U2" workbookViewId="0">
+    <sheetView topLeftCell="W2" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -29828,15 +30009,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
       <c r="P2" s="19" t="s">
         <v>250</v>
       </c>
@@ -29889,7 +30070,7 @@
       <c r="P3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="160">
+      <c r="Q3" s="154">
         <v>84</v>
       </c>
       <c r="R3" s="24">
@@ -29912,11 +30093,11 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="182">
+      <c r="B4" s="178"/>
+      <c r="C4" s="180">
         <v>84</v>
       </c>
       <c r="D4" s="19">
@@ -29945,7 +30126,7 @@
         <v>24.299999999999997</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="160"/>
+      <c r="Q4" s="154"/>
       <c r="R4" s="26">
         <v>24.45</v>
       </c>
@@ -29984,9 +30165,9 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="181"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="19">
         <v>24.45</v>
       </c>
@@ -30011,10 +30192,10 @@
       <c r="M5" s="1">
         <v>-38.869999999999997</v>
       </c>
-      <c r="P5" s="160" t="s">
+      <c r="P5" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="160">
+      <c r="Q5" s="154">
         <v>63</v>
       </c>
       <c r="R5" s="40">
@@ -30055,7 +30236,7 @@
         <f>AVERAGE(T3,T8:T11,T13:T17,T19:T20)</f>
         <v>10.009166666666667</v>
       </c>
-      <c r="AH5" s="144" t="s">
+      <c r="AH5" s="139" t="s">
         <v>311</v>
       </c>
       <c r="AI5" t="s">
@@ -30098,8 +30279,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="31"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
       <c r="R6" s="40">
         <v>57.46</v>
       </c>
@@ -30138,7 +30319,7 @@
         <f>AVERAGE(T7,T18)</f>
         <v>7.4550000000000001</v>
       </c>
-      <c r="AH6" s="144"/>
+      <c r="AH6" s="139"/>
       <c r="AI6" t="s">
         <v>313</v>
       </c>
@@ -30230,14 +30411,14 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
       <c r="P9" s="3" t="s">
         <v>11</v>
       </c>
@@ -30343,12 +30524,12 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
       <c r="P12" s="3" t="s">
         <v>11</v>
       </c>
@@ -30376,10 +30557,10 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="177">
         <v>188</v>
       </c>
       <c r="D13" s="4">
@@ -30424,8 +30605,8 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="177"/>
-      <c r="C14" s="179">
+      <c r="B14" s="175"/>
+      <c r="C14" s="177">
         <f>(B14/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30469,8 +30650,8 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="177"/>
-      <c r="C15" s="179">
+      <c r="B15" s="175"/>
+      <c r="C15" s="177">
         <f>(B15/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -30516,10 +30697,10 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="178">
+      <c r="C16" s="176">
         <v>63</v>
       </c>
       <c r="D16" s="28">
@@ -30571,8 +30752,8 @@
       </c>
     </row>
     <row r="17" spans="2:39">
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="28">
         <v>57.46</v>
       </c>
@@ -30665,15 +30846,15 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:39">
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
@@ -30759,14 +30940,14 @@
       </c>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
       <c r="P24" s="4" t="s">
         <v>257</v>
       </c>
@@ -30796,10 +30977,10 @@
       <c r="AG24" t="s">
         <v>267</v>
       </c>
-      <c r="AJ24" s="144" t="s">
+      <c r="AJ24" s="139" t="s">
         <v>314</v>
       </c>
-      <c r="AK24" s="144"/>
+      <c r="AK24" s="139"/>
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="1" t="s">
@@ -30975,10 +31156,10 @@
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="166" t="s">
+      <c r="P27" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="176">
+      <c r="Q27" s="182">
         <v>188</v>
       </c>
       <c r="R27" s="29">
@@ -31026,8 +31207,8 @@
       </c>
     </row>
     <row r="28" spans="2:39">
-      <c r="P28" s="166"/>
-      <c r="Q28" s="176">
+      <c r="P28" s="171"/>
+      <c r="Q28" s="182">
         <f>(P28/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31055,8 +31236,8 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="176">
+      <c r="P29" s="171"/>
+      <c r="Q29" s="182">
         <f>(P29/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -31130,10 +31311,10 @@
       </c>
     </row>
     <row r="31" spans="2:39">
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="175">
+      <c r="C31" s="181">
         <v>105</v>
       </c>
       <c r="D31" s="31">
@@ -31151,10 +31332,10 @@
       <c r="H31" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="160" t="s">
+      <c r="P31" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="160">
+      <c r="Q31" s="154">
         <v>105</v>
       </c>
       <c r="R31" s="24">
@@ -31174,8 +31355,8 @@
       </c>
     </row>
     <row r="32" spans="2:39">
-      <c r="B32" s="144"/>
-      <c r="C32" s="175"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="31">
         <v>10.77</v>
       </c>
@@ -31191,8 +31372,8 @@
       <c r="H32" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
       <c r="R32" s="26">
         <v>10.77</v>
       </c>
@@ -31691,15 +31872,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="B31:B32"/>
@@ -31713,6 +31885,15 @@
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31738,15 +31919,15 @@
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="139" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -31841,10 +32022,10 @@
       <c r="H7" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="169" t="s">
+      <c r="L7" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="M7" s="144">
+      <c r="M7" s="139">
         <v>184</v>
       </c>
       <c r="N7">
@@ -31885,8 +32066,8 @@
       <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="L8" s="170"/>
-      <c r="M8" s="144"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="139"/>
       <c r="N8">
         <v>-39.72</v>
       </c>
@@ -31904,8 +32085,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="170"/>
-      <c r="M9" s="144"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="139"/>
       <c r="N9">
         <v>-100</v>
       </c>
@@ -31923,8 +32104,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="170"/>
-      <c r="M10" s="144"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="139"/>
       <c r="N10">
         <v>-80.069999999999993</v>
       </c>
@@ -31945,8 +32126,8 @@
       <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="144"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="139"/>
       <c r="N11">
         <v>-43.1</v>
       </c>
@@ -32259,8 +32440,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="K24" sqref="J19:K24"/>
+    <sheetView topLeftCell="W11" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -32277,15 +32458,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
       <c r="M2" s="5" t="s">
         <v>387</v>
       </c>
@@ -32462,7 +32643,7 @@
       <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="189">
+      <c r="B6" s="187">
         <v>90</v>
       </c>
       <c r="C6" s="26">
@@ -32516,7 +32697,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="59"/>
-      <c r="B7" s="190"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="26">
         <v>-19.440000000000001</v>
       </c>
@@ -32609,13 +32790,13 @@
       <c r="G9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="162" t="s">
+      <c r="M9" s="165" t="s">
         <v>422</v>
       </c>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
       <c r="R9" t="s">
         <v>394</v>
       </c>
@@ -32631,7 +32812,7 @@
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="139">
+      <c r="B10" s="144">
         <v>86</v>
       </c>
       <c r="C10" s="24">
@@ -32673,7 +32854,7 @@
     </row>
     <row r="11" spans="1:25" ht="19" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="24">
         <v>-13.52</v>
       </c>
@@ -32715,7 +32896,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="15"/>
-      <c r="B12" s="140"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="24">
         <v>-37.61</v>
       </c>
@@ -32767,7 +32948,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="16"/>
-      <c r="B13" s="141"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="26">
         <v>-51.13</v>
       </c>
@@ -33253,7 +33434,7 @@
       <c r="A23" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="183">
+      <c r="B23" s="189">
         <v>90</v>
       </c>
       <c r="C23" s="78">
@@ -33296,7 +33477,7 @@
     </row>
     <row r="24" spans="1:25" ht="19" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="184"/>
+      <c r="B24" s="190"/>
       <c r="C24" s="78">
         <v>-19.440000000000001</v>
       </c>
@@ -33732,11 +33913,11 @@
       <c r="G37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="156" t="s">
+      <c r="M37" s="160" t="s">
         <v>423</v>
       </c>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="37" t="s">
@@ -33783,10 +33964,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="160">
+      <c r="B39" s="154">
         <v>188</v>
       </c>
       <c r="C39" s="4">
@@ -33825,8 +34006,8 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" ht="19" thickBot="1">
-      <c r="A40" s="166"/>
-      <c r="B40" s="160">
+      <c r="A40" s="171"/>
+      <c r="B40" s="154">
         <f>(A40/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -33866,8 +34047,8 @@
       <c r="X40"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="166"/>
-      <c r="B41" s="160">
+      <c r="A41" s="171"/>
+      <c r="B41" s="154">
         <f>(A41/"0:0:1")</f>
         <v>0</v>
       </c>
@@ -33967,10 +34148,10 @@
       <c r="X42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="160">
+      <c r="B43" s="154">
         <v>105</v>
       </c>
       <c r="C43" s="24">
@@ -34017,8 +34198,8 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="160"/>
-      <c r="B44" s="160"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="19">
         <v>10.77</v>
       </c>
@@ -34188,10 +34369,10 @@
       <c r="X48"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="185" t="s">
+      <c r="A49" s="183" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="188">
+      <c r="B49" s="186">
         <v>184</v>
       </c>
       <c r="C49" s="34">
@@ -34240,8 +34421,8 @@
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="186"/>
-      <c r="B50" s="188"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="36">
         <v>-39.72</v>
       </c>
@@ -34286,8 +34467,8 @@
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="186"/>
-      <c r="B51" s="188"/>
+      <c r="A51" s="184"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="80">
         <v>-100</v>
       </c>
@@ -34326,8 +34507,8 @@
       <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="186"/>
-      <c r="B52" s="188"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="80">
         <v>-80.069999999999993</v>
       </c>
@@ -34358,8 +34539,8 @@
       <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" ht="19" thickBot="1">
-      <c r="A53" s="187"/>
-      <c r="B53" s="188"/>
+      <c r="A53" s="185"/>
+      <c r="B53" s="186"/>
       <c r="C53" s="36">
         <v>-43.1</v>
       </c>
@@ -34529,18 +34710,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34559,7 +34740,7 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:X116"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P32" sqref="O29:P32"/>
     </sheetView>
   </sheetViews>
@@ -34734,11 +34915,11 @@
       <c r="G8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="156" t="s">
+      <c r="M8" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
@@ -34967,10 +35148,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="160">
+      <c r="B13" s="154">
         <v>90.999999999999943</v>
       </c>
       <c r="C13" s="22">
@@ -35014,8 +35195,8 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="166"/>
-      <c r="B14" s="160"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="22">
         <v>69.510000000000005</v>
       </c>
@@ -35102,7 +35283,7 @@
       <c r="A16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="174"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="4">
         <v>55.14</v>
       </c>
@@ -35159,7 +35340,7 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" ht="19" thickBot="1">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="154" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="194">
@@ -35195,7 +35376,7 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="160"/>
+      <c r="A19" s="154"/>
       <c r="B19" s="194"/>
       <c r="C19" s="22">
         <v>26.62</v>
@@ -35599,7 +35780,7 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="165" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="195">
@@ -35631,7 +35812,7 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="162"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="195"/>
       <c r="C32" s="21">
         <v>62.11</v>
@@ -35711,7 +35892,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="157" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="191">
@@ -35737,7 +35918,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="154"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="191"/>
       <c r="C36" s="21">
         <v>91.27</v>
@@ -36113,7 +36294,7 @@
       <c r="A53" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="160">
+      <c r="B53" s="154">
         <v>84</v>
       </c>
       <c r="C53" s="22">
@@ -36140,7 +36321,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3"/>
-      <c r="B54" s="160"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="22">
         <v>24.45</v>
       </c>
@@ -36164,10 +36345,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="160" t="s">
+      <c r="A55" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="160">
+      <c r="B55" s="154">
         <v>63</v>
       </c>
       <c r="C55" s="100">
@@ -36191,8 +36372,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="160"/>
-      <c r="B56" s="160"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
       <c r="C56" s="100">
         <v>57.46</v>
       </c>
@@ -36494,11 +36675,11 @@
         <v>227</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="M67" s="156" t="s">
+      <c r="M67" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="156"/>
-      <c r="O67" s="156"/>
+      <c r="N67" s="160"/>
+      <c r="O67" s="160"/>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="3" t="s">
@@ -37066,7 +37247,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
@@ -37074,23 +37255,23 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="J1" s="1"/>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="156" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="168"/>
+      <c r="L1" s="156"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="168" t="s">
+      <c r="O1" s="156" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="168"/>
+      <c r="P1" s="156"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="139" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
       <c r="G2" t="s">
         <v>442</v>
       </c>
@@ -37905,8 +38086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -37917,22 +38098,22 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="156" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168" t="s">
+      <c r="E2" s="156"/>
+      <c r="F2" s="156" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168" t="s">
+      <c r="G2" s="156"/>
+      <c r="H2" s="156" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -38123,10 +38304,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="P7" s="144" t="s">
+      <c r="P7" s="139" t="s">
         <v>515</v>
       </c>
-      <c r="Q7" s="144"/>
+      <c r="Q7" s="139"/>
     </row>
     <row r="8" spans="1:19">
       <c r="P8">
@@ -38140,38 +38321,38 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="156" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168" t="s">
+      <c r="C9" s="156"/>
+      <c r="D9" s="156" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168" t="s">
+      <c r="E9" s="156"/>
+      <c r="F9" s="156" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168" t="s">
+      <c r="G9" s="156"/>
+      <c r="H9" s="156" t="s">
         <v>497</v>
       </c>
-      <c r="I9" s="168"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="168" t="s">
+      <c r="N9" s="156" t="s">
         <v>509</v>
       </c>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168" t="s">
+      <c r="O9" s="156"/>
+      <c r="P9" s="156" t="s">
         <v>510</v>
       </c>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168" t="s">
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156" t="s">
         <v>512</v>
       </c>
-      <c r="S9" s="168"/>
+      <c r="S9" s="156"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
@@ -39107,7 +39288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -39302,14 +39483,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="E9" s="1"/>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="156" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168" t="s">
+      <c r="G9" s="156"/>
+      <c r="H9" s="156" t="s">
         <v>550</v>
       </c>
-      <c r="I9" s="168"/>
+      <c r="I9" s="156"/>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="1"/>
@@ -39517,14 +39698,14 @@
     </row>
     <row r="24" spans="1:11">
       <c r="E24" s="118"/>
-      <c r="F24" s="168" t="s">
+      <c r="F24" s="156" t="s">
         <v>551</v>
       </c>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168" t="s">
+      <c r="G24" s="156"/>
+      <c r="H24" s="156" t="s">
         <v>550</v>
       </c>
-      <c r="I24" s="168"/>
+      <c r="I24" s="156"/>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">
